--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="944">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,22 +50,22 @@
     <t xml:space="preserve">8.40578079223633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21206188201904</t>
+    <t xml:space="preserve">8.21206092834473</t>
   </si>
   <si>
     <t xml:space="preserve">8.31734371185303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19521427154541</t>
+    <t xml:space="preserve">8.19521522521973</t>
   </si>
   <si>
     <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29207515716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731430053711</t>
+    <t xml:space="preserve">8.29207706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731525421143</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363807678223</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">8.18679332733154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08572196960449</t>
+    <t xml:space="preserve">8.08572292327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.13625621795654</t>
@@ -83,49 +83,49 @@
     <t xml:space="preserve">8.11520099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03518581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676296234131</t>
+    <t xml:space="preserve">8.03518676757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097343444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676391601562</t>
   </si>
   <si>
     <t xml:space="preserve">8.00149536132812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99307298660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780586242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145076751709</t>
+    <t xml:space="preserve">7.99307250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145124435425</t>
   </si>
   <si>
     <t xml:space="preserve">7.83304214477539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81619787216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356359481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197078704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6688027381897</t>
+    <t xml:space="preserve">7.81619691848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356550216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197174072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880226135254</t>
   </si>
   <si>
     <t xml:space="preserve">7.66459035873413</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7488169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357925415039</t>
+    <t xml:space="preserve">7.74881649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357782363892</t>
   </si>
   <si>
     <t xml:space="preserve">7.91726875305176</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">8.05203151702881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22048568725586</t>
+    <t xml:space="preserve">8.22048377990723</t>
   </si>
   <si>
     <t xml:space="preserve">8.16994857788086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30471038818359</t>
+    <t xml:space="preserve">8.30470943450928</t>
   </si>
   <si>
     <t xml:space="preserve">8.25417518615723</t>
@@ -149,22 +149,22 @@
     <t xml:space="preserve">8.11941337585449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33839988708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4815845489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44789505004883</t>
+    <t xml:space="preserve">8.07729911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48158550262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
     <t xml:space="preserve">8.41420364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32155609130859</t>
+    <t xml:space="preserve">8.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">8.27944183349609</t>
@@ -173,37 +173,37 @@
     <t xml:space="preserve">8.4256010055542</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48578262329102</t>
+    <t xml:space="preserve">8.48578357696533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084541320801</t>
+    <t xml:space="preserve">8.27084350585938</t>
   </si>
   <si>
     <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32672882080078</t>
+    <t xml:space="preserve">8.3267297744751</t>
   </si>
   <si>
     <t xml:space="preserve">8.2536506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23645496368408</t>
+    <t xml:space="preserve">8.23645305633545</t>
   </si>
   <si>
     <t xml:space="preserve">8.33962535858154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33102798461914</t>
+    <t xml:space="preserve">8.33102703094482</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32243061065674</t>
+    <t xml:space="preserve">8.32242965698242</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261222839355</t>
@@ -215,19 +215,19 @@
     <t xml:space="preserve">8.22785568237305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16767501831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08169937133789</t>
+    <t xml:space="preserve">8.16767406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
     <t xml:space="preserve">8.03871154785156</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99572324752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273494720459</t>
+    <t xml:space="preserve">7.99572229385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273447036743</t>
   </si>
   <si>
     <t xml:space="preserve">8.24505233764648</t>
@@ -236,25 +236,25 @@
     <t xml:space="preserve">8.05160808563232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86675930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377243041992</t>
+    <t xml:space="preserve">7.86675882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377195358276</t>
   </si>
   <si>
     <t xml:space="preserve">8.05590534210205</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92694234848022</t>
+    <t xml:space="preserve">7.92694282531738</t>
   </si>
   <si>
     <t xml:space="preserve">7.90974760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73779678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078556060791</t>
+    <t xml:space="preserve">7.73779535293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078413009644</t>
   </si>
   <si>
     <t xml:space="preserve">7.96133184432983</t>
@@ -263,22 +263,22 @@
     <t xml:space="preserve">8.3138313293457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5975513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64053821563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64913654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9156608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84687995910645</t>
+    <t xml:space="preserve">8.59755039215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64053916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64913749694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72651386260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91566181182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84688091278076</t>
   </si>
   <si>
     <t xml:space="preserve">8.63194179534912</t>
@@ -287,58 +287,58 @@
     <t xml:space="preserve">8.66633129119873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59325218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895397186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352794647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9414529800415</t>
+    <t xml:space="preserve">8.59325313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072364807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145393371582</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76950359344482</t>
+    <t xml:space="preserve">8.76950263977051</t>
   </si>
   <si>
     <t xml:space="preserve">9.02742862701416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15639305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2337703704834</t>
+    <t xml:space="preserve">9.15639209747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23377132415771</t>
   </si>
   <si>
     <t xml:space="preserve">9.19937992095947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2423677444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41431903839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31974697113037</t>
+    <t xml:space="preserve">9.24236679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4143180847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31974601745605</t>
   </si>
   <si>
     <t xml:space="preserve">9.20797729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.225172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011116027832</t>
+    <t xml:space="preserve">9.22517395019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44011211395264</t>
   </si>
   <si>
     <t xml:space="preserve">9.45730590820312</t>
@@ -350,25 +350,25 @@
     <t xml:space="preserve">9.74962425231934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54328155517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925720214844</t>
+    <t xml:space="preserve">9.5432825088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925815582275</t>
   </si>
   <si>
     <t xml:space="preserve">9.52608680725098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6722469329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62065887451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58627128601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68084239959717</t>
+    <t xml:space="preserve">9.67224597930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62065982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58627033233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68084335327148</t>
   </si>
   <si>
     <t xml:space="preserve">9.71523284912109</t>
@@ -377,25 +377,25 @@
     <t xml:space="preserve">9.61206340789795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5518798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65504932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663642883301</t>
+    <t xml:space="preserve">9.55187892913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65505027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663547515869</t>
   </si>
   <si>
     <t xml:space="preserve">9.88718509674072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2138919830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4030361175537</t>
+    <t xml:space="preserve">10.2138910293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4030389785767</t>
   </si>
   <si>
     <t xml:space="preserve">10.2826728820801</t>
@@ -404,25 +404,25 @@
     <t xml:space="preserve">10.1451110839844</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1021223068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1279153823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333423614502</t>
+    <t xml:space="preserve">10.102123260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1279144287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333433151245</t>
   </si>
   <si>
     <t xml:space="preserve">10.0591354370117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1623048782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.308464050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1880989074707</t>
+    <t xml:space="preserve">10.1623067855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084650039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.188099861145</t>
   </si>
   <si>
     <t xml:space="preserve">9.84419727325439</t>
@@ -434,52 +434,52 @@
     <t xml:space="preserve">9.8527946472168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2310857772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075483322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.274073600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4460248947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867570877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695604324341</t>
+    <t xml:space="preserve">10.231086730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075511932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2740726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4460258483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867589950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695623397827</t>
   </si>
   <si>
     <t xml:space="preserve">10.961877822876</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0736465454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0220613479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768169403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198047637939</t>
+    <t xml:space="preserve">11.0736455917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0220603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768178939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198057174683</t>
   </si>
   <si>
     <t xml:space="preserve">11.443341255188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6066951751709</t>
+    <t xml:space="preserve">11.6066932678223</t>
   </si>
   <si>
     <t xml:space="preserve">11.8302307128906</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7528524398804</t>
+    <t xml:space="preserve">11.7528533935547</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496820449829</t>
@@ -488,37 +488,37 @@
     <t xml:space="preserve">11.7614507675171</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8732194900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505949020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849863052368</t>
+    <t xml:space="preserve">11.8732204437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849853515625</t>
   </si>
   <si>
     <t xml:space="preserve">12.0107803344727</t>
   </si>
   <si>
-    <t xml:space="preserve">11.838828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700471878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926708221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7786455154419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975378036499</t>
+    <t xml:space="preserve">11.8388299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700462341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926698684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975358963013</t>
   </si>
   <si>
     <t xml:space="preserve">11.9024038314819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.867449760437</t>
+    <t xml:space="preserve">11.8674478530884</t>
   </si>
   <si>
     <t xml:space="preserve">11.8499708175659</t>
@@ -527,13 +527,13 @@
     <t xml:space="preserve">11.972315788269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0597057342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2432222366333</t>
+    <t xml:space="preserve">12.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.243221282959</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966506958008</t>
@@ -542,28 +542,28 @@
     <t xml:space="preserve">12.5403451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2344818115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3218717575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1733093261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160112380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286203384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849267959595</t>
+    <t xml:space="preserve">12.2344827651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3218727111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1733102798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160093307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849258422852</t>
   </si>
   <si>
     <t xml:space="preserve">12.0247488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0946588516235</t>
+    <t xml:space="preserve">12.0946607589722</t>
   </si>
   <si>
     <t xml:space="preserve">12.1383562088013</t>
@@ -578,25 +578,25 @@
     <t xml:space="preserve">11.9635763168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2082662582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208763122559</t>
+    <t xml:space="preserve">12.2082672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208782196045</t>
   </si>
   <si>
     <t xml:space="preserve">11.9897928237915</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0684452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509643554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422267913818</t>
+    <t xml:space="preserve">12.0684442520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509653091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985322952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422258377075</t>
   </si>
   <si>
     <t xml:space="preserve">12.0771818161011</t>
@@ -605,25 +605,22 @@
     <t xml:space="preserve">12.1034002304077</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8936653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062772750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800579071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7451038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926698684692</t>
+    <t xml:space="preserve">11.8936643600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062763214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800588607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7451028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
     <t xml:space="preserve">11.5353689193726</t>
@@ -632,28 +629,28 @@
     <t xml:space="preserve">11.5266304016113</t>
   </si>
   <si>
-    <t xml:space="preserve">11.447979927063</t>
+    <t xml:space="preserve">11.4479808807373</t>
   </si>
   <si>
     <t xml:space="preserve">11.395546913147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3605909347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732019424438</t>
+    <t xml:space="preserve">11.3605918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732028961182</t>
   </si>
   <si>
     <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431119918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906799316406</t>
+    <t xml:space="preserve">11.3431129455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906808853149</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984239578247</t>
@@ -665,13 +662,13 @@
     <t xml:space="preserve">11.1858129501343</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2469844818115</t>
+    <t xml:space="preserve">11.2469854354858</t>
   </si>
   <si>
     <t xml:space="preserve">11.2994194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3693323135376</t>
+    <t xml:space="preserve">11.3693294525146</t>
   </si>
   <si>
     <t xml:space="preserve">11.4829359054565</t>
@@ -686,67 +683,67 @@
     <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256359100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4305028915405</t>
+    <t xml:space="preserve">11.4567193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256368637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4305038452148</t>
   </si>
   <si>
     <t xml:space="preserve">11.3168964385986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2032909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878038406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868064880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091533660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1159009933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1246395111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683349609375</t>
+    <t xml:space="preserve">11.2032899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878028869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868083953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091514587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1159019470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1246404647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683340072632</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">9.883713722229</t>
+    <t xml:space="preserve">9.88371467590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.14964580535889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35064029693604</t>
+    <t xml:space="preserve">9.35064125061035</t>
   </si>
   <si>
     <t xml:space="preserve">9.51668071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63028621673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64776420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74389266967773</t>
+    <t xml:space="preserve">9.63028526306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6477632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73515224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7438907623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.8312816619873</t>
@@ -773,7 +770,7 @@
     <t xml:space="preserve">9.42055130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37685775756836</t>
+    <t xml:space="preserve">9.37685680389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.26325225830078</t>
@@ -785,10 +782,10 @@
     <t xml:space="preserve">9.34190082550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40307521820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84001922607422</t>
+    <t xml:space="preserve">9.40307426452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84002017974854</t>
   </si>
   <si>
     <t xml:space="preserve">9.79632472991943</t>
@@ -803,7 +800,7 @@
     <t xml:space="preserve">9.81380271911621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9011926651001</t>
+    <t xml:space="preserve">9.90119171142578</t>
   </si>
   <si>
     <t xml:space="preserve">9.85749816894531</t>
@@ -812,58 +809,58 @@
     <t xml:space="preserve">9.22829627990723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07099628448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28072738647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984218597412</t>
+    <t xml:space="preserve">9.07099533081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28072929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984409332275</t>
   </si>
   <si>
     <t xml:space="preserve">9.87497520446777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91867160797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63902473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72641277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61280727386475</t>
+    <t xml:space="preserve">10.0497531890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91867065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397975921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63902568817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767425537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72641372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61280822753906</t>
   </si>
   <si>
     <t xml:space="preserve">9.56911277770996</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68271923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694675445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36811923980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650081634521</t>
+    <t xml:space="preserve">9.68272018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694484710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36811828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650272369385</t>
   </si>
   <si>
     <t xml:space="preserve">10.0060596466064</t>
@@ -875,13 +872,13 @@
     <t xml:space="preserve">9.04477977752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.219557762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586135864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216781616211</t>
+    <t xml:space="preserve">9.21955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586231231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216876983643</t>
   </si>
   <si>
     <t xml:space="preserve">8.95738983154297</t>
@@ -890,7 +887,7 @@
     <t xml:space="preserve">8.82630634307861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00108528137207</t>
+    <t xml:space="preserve">9.00108337402344</t>
   </si>
   <si>
     <t xml:space="preserve">8.91369533538818</t>
@@ -905,34 +902,34 @@
     <t xml:space="preserve">8.72143840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7826099395752</t>
+    <t xml:space="preserve">8.78261184692383</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161449432373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19656658172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24120903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15192222595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10727882385254</t>
+    <t xml:space="preserve">9.19656562805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15192317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799201965332</t>
+    <t xml:space="preserve">9.01799297332764</t>
   </si>
   <si>
     <t xml:space="preserve">8.97334957122803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89299011230469</t>
+    <t xml:space="preserve">8.892991065979</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
@@ -941,10 +938,10 @@
     <t xml:space="preserve">8.83941745758057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75013160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71441555023193</t>
+    <t xml:space="preserve">8.75013256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71441745758057</t>
   </si>
   <si>
     <t xml:space="preserve">8.78584480285645</t>
@@ -953,10 +950,10 @@
     <t xml:space="preserve">8.73227405548096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85727500915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82156085968018</t>
+    <t xml:space="preserve">8.85727596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82156181335449</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
@@ -965,64 +962,64 @@
     <t xml:space="preserve">8.66084384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57155704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39298152923584</t>
+    <t xml:space="preserve">8.57155799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
     <t xml:space="preserve">8.44655513763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41084098815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91084671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9287052154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37514114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907135009766</t>
+    <t xml:space="preserve">8.41084003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91084766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92870426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37514019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50906944274902</t>
   </si>
   <si>
     <t xml:space="preserve">9.46442794799805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3304967880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28585338592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58941459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53584098815918</t>
+    <t xml:space="preserve">9.33049774169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28585243225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5894136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
   </si>
   <si>
     <t xml:space="preserve">8.62512874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726833343506</t>
+    <t xml:space="preserve">8.46441173553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726737976074</t>
   </si>
   <si>
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25012302398682</t>
+    <t xml:space="preserve">8.25012397766113</t>
   </si>
   <si>
     <t xml:space="preserve">8.30369567871094</t>
@@ -1031,34 +1028,34 @@
     <t xml:space="preserve">8.28583812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33941078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37512588500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5001277923584</t>
+    <t xml:space="preserve">8.33940982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37512683868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50012683868408</t>
   </si>
   <si>
     <t xml:space="preserve">8.64298629760742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41978454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55371475219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.776930809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73228740692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680110931396</t>
+    <t xml:space="preserve">9.41978359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55371570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77693176269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73228931427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680101394653</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126554489136</t>
@@ -1067,94 +1064,97 @@
     <t xml:space="preserve">10.3572988510132</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912281036377</t>
+    <t xml:space="preserve">10.491229057312</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019403457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805158615112</t>
+    <t xml:space="preserve">10.5358724594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805149078369</t>
   </si>
   <si>
     <t xml:space="preserve">10.22336769104</t>
   </si>
   <si>
+    <t xml:space="preserve">10.6698017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065948486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242055892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8521928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330114364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3962173461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.213828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5786085128784</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065958023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242046356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8521919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330104827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3962173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5786085128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874134063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418144226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506212234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1226348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.259425163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.077036857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0314378738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3050241470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.168231010437</t>
+    <t xml:space="preserve">10.4874124526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418153762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.350622177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.122633934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2594261169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0770359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.031439781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3050231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1682300567627</t>
   </si>
   <si>
     <t xml:space="preserve">9.89464569091797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84904861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48426914215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43867111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986621856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106227874756</t>
+    <t xml:space="preserve">9.84904956817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48426818847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43867301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986812591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106037139893</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785446166992</t>
@@ -1178,25 +1178,25 @@
     <t xml:space="preserve">9.21068477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39307403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11949062347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71225643157959</t>
+    <t xml:space="preserve">9.39307308197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11948871612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
     <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94024276733398</t>
+    <t xml:space="preserve">9.9402437210083</t>
   </si>
   <si>
     <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6273488998413</t>
+    <t xml:space="preserve">11.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
@@ -1205,19 +1205,19 @@
     <t xml:space="preserve">11.3993616104126</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3081674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0801801681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0345821380615</t>
+    <t xml:space="preserve">11.3081665039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0801792144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
     <t xml:space="preserve">11.1713752746582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4449596405029</t>
+    <t xml:space="preserve">11.4449605941772</t>
   </si>
   <si>
     <t xml:space="preserve">11.581750869751</t>
@@ -1226,25 +1226,25 @@
     <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8553352355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9465312957764</t>
+    <t xml:space="preserve">11.8553371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9465322494507</t>
   </si>
   <si>
     <t xml:space="preserve">12.0833234786987</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3113117218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1745195388794</t>
+    <t xml:space="preserve">12.3113098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1745185852051</t>
   </si>
   <si>
     <t xml:space="preserve">11.9921283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.764142036438</t>
+    <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
     <t xml:space="preserve">12.4937009811401</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">12.7216882705688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481019973755</t>
+    <t xml:space="preserve">12.4481039047241</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848951339722</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">12.8584804534912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0864677429199</t>
+    <t xml:space="preserve">13.0864686965942</t>
   </si>
   <si>
     <t xml:space="preserve">11.9009342193604</t>
@@ -1292,73 +1292,73 @@
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7154016494751</t>
+    <t xml:space="preserve">10.7154006958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.02829456329346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09810543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93395614624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64213180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.006911277771</t>
+    <t xml:space="preserve">8.09810733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93395566940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6421332359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00691223144531</t>
   </si>
   <si>
     <t xml:space="preserve">8.66351509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07986831665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57231998443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73647117614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118728637695</t>
+    <t xml:space="preserve">8.07986736297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57231903076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73647022247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3474760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0847978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94473075866699</t>
+    <t xml:space="preserve">9.34747695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0847988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94472980499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.0381088256836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80466461181641</t>
+    <t xml:space="preserve">9.80466365814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99142074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715520858765</t>
+    <t xml:space="preserve">9.99141883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715530395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5516872406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.458309173584</t>
+    <t xml:space="preserve">10.5516862869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4583082199097</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785076141357</t>
@@ -1379,46 +1379,46 @@
     <t xml:space="preserve">10.7851305007935</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9251976013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6450634002686</t>
+    <t xml:space="preserve">10.925196647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6450643539429</t>
   </si>
   <si>
     <t xml:space="preserve">11.2987079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4854650497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6722192764282</t>
+    <t xml:space="preserve">11.485463142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6722202301025</t>
   </si>
   <si>
     <t xml:space="preserve">11.3453960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4387741088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1119518280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2520198822021</t>
+    <t xml:space="preserve">11.2053318023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4387760162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1119527816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2520179748535</t>
   </si>
   <si>
     <t xml:space="preserve">10.9718866348267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652647018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5788421630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6255302429199</t>
+    <t xml:space="preserve">11.0652637481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5788412094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6255311965942</t>
   </si>
   <si>
     <t xml:space="preserve">11.3920860290527</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">11.7189083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7655963897705</t>
+    <t xml:space="preserve">11.7655973434448</t>
   </si>
   <si>
     <t xml:space="preserve">11.8589744567871</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857967376709</t>
+    <t xml:space="preserve">12.1857976913452</t>
   </si>
   <si>
     <t xml:space="preserve">12.2791738510132</t>
@@ -1451,16 +1451,16 @@
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.999041557312</t>
+    <t xml:space="preserve">11.9990425109863</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0924205780029</t>
+    <t xml:space="preserve">12.045729637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0924196243286</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122854232788</t>
@@ -1475,16 +1475,16 @@
     <t xml:space="preserve">12.9795074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2596416473389</t>
+    <t xml:space="preserve">13.2596406936646</t>
   </si>
   <si>
     <t xml:space="preserve">13.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">13.119574546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3997087478638</t>
+    <t xml:space="preserve">13.1195755004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3997077941895</t>
   </si>
   <si>
     <t xml:space="preserve">13.4463958740234</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">13.4930858612061</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1662645339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9132852554321</t>
+    <t xml:space="preserve">13.1662635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9132843017578</t>
   </si>
   <si>
     <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993751525879</t>
+    <t xml:space="preserve">12.6993761062622</t>
   </si>
   <si>
     <t xml:space="preserve">12.559308052063</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">13.0261964797974</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9328193664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8394412994385</t>
+    <t xml:space="preserve">12.9328203201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8394403457642</t>
   </si>
   <si>
     <t xml:space="preserve">13.53977394104</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.053352355957</t>
+    <t xml:space="preserve">14.0533533096313</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
@@ -1541,28 +1541,28 @@
     <t xml:space="preserve">14.3801736831665</t>
   </si>
   <si>
-    <t xml:space="preserve">14.566930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3334865570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.706995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9404401779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8937520980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0338191986084</t>
+    <t xml:space="preserve">14.5669298171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3334846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9404411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8937511444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0338182449341</t>
   </si>
   <si>
     <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2672643661499</t>
+    <t xml:space="preserve">15.2672634124756</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
@@ -1571,19 +1571,19 @@
     <t xml:space="preserve">14.8470630645752</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603078842163</t>
+    <t xml:space="preserve">14.660306930542</t>
   </si>
   <si>
     <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1934175491333</t>
+    <t xml:space="preserve">14.1934185028076</t>
   </si>
   <si>
     <t xml:space="preserve">14.5202417373657</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665971755981</t>
+    <t xml:space="preserve">13.8665962219238</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066633224487</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">13.9599742889404</t>
   </si>
   <si>
-    <t xml:space="preserve">15.173885345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2401065826416</t>
+    <t xml:space="preserve">15.1738862991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2401075363159</t>
   </si>
   <si>
     <t xml:space="preserve">14.6393623352051</t>
@@ -1613,19 +1613,19 @@
     <t xml:space="preserve">14.9245452880859</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0671358108521</t>
+    <t xml:space="preserve">15.0671367645264</t>
   </si>
   <si>
     <t xml:space="preserve">15.2572574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3047885894775</t>
+    <t xml:space="preserve">15.3047876358032</t>
   </si>
   <si>
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621971130371</t>
+    <t xml:space="preserve">15.1621961593628</t>
   </si>
   <si>
     <t xml:space="preserve">15.3998498916626</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">14.972074508667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0196056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.447380065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7325620651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3029251098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.922682762146</t>
+    <t xml:space="preserve">15.019606590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4473791122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7325601577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3029270172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9226846694946</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">16.1603355407715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0177440643311</t>
+    <t xml:space="preserve">16.0177459716797</t>
   </si>
   <si>
     <t xml:space="preserve">16.350456237793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0652751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7782325744629</t>
+    <t xml:space="preserve">16.0652732849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7782306671143</t>
   </si>
   <si>
     <t xml:space="preserve">17.1109447479248</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">17.5387172698975</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0615520477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7288398742676</t>
+    <t xml:space="preserve">18.0615501403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7288379669189</t>
   </si>
   <si>
     <t xml:space="preserve">17.0634136199951</t>
@@ -1724,31 +1724,31 @@
     <t xml:space="preserve">18.8220386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0121593475342</t>
+    <t xml:space="preserve">19.0121574401855</t>
   </si>
   <si>
     <t xml:space="preserve">19.2022819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0578289031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8677043914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4874629974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3924026489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9627685546875</t>
+    <t xml:space="preserve">20.0578269958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8677062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4874649047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3924007415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9627666473389</t>
   </si>
   <si>
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726440429688</t>
+    <t xml:space="preserve">19.7726459503174</t>
   </si>
   <si>
     <t xml:space="preserve">20.1528911590576</t>
@@ -1757,22 +1757,22 @@
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
+    <t xml:space="preserve">21.2936172485352</t>
   </si>
   <si>
     <t xml:space="preserve">21.578800201416</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3886795043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7689208984375</t>
+    <t xml:space="preserve">21.3886775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
     <t xml:space="preserve">21.1034984588623</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1491641998291</t>
+    <t xml:space="preserve">22.1491661071777</t>
   </si>
   <si>
     <t xml:space="preserve">22.4343490600586</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">22.054105758667</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3392887115479</t>
+    <t xml:space="preserve">22.3392868041992</t>
   </si>
   <si>
     <t xml:space="preserve">22.6244678497314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8145904541016</t>
+    <t xml:space="preserve">22.8145923614502</t>
   </si>
   <si>
     <t xml:space="preserve">21.9590435028076</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">20.5331325531006</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5843849182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.297342300415</t>
+    <t xml:space="preserve">18.5843868255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
     <t xml:space="preserve">20.9133739471436</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2442264556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0997714996338</t>
+    <t xml:space="preserve">22.2442245483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0997734069824</t>
   </si>
   <si>
     <t xml:space="preserve">22.9096527099609</t>
@@ -1826,28 +1826,28 @@
     <t xml:space="preserve">21.6738605499268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8183135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3430118560791</t>
+    <t xml:space="preserve">20.8183155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3430099487305</t>
   </si>
   <si>
     <t xml:space="preserve">23.0047130584717</t>
   </si>
   <si>
-    <t xml:space="preserve">22.529411315918</t>
+    <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
     <t xml:space="preserve">22.7195301055908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2479496002197</t>
+    <t xml:space="preserve">20.2479476928711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7232513427734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.198558807373</t>
+    <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
     <t xml:space="preserve">19.6775856018066</t>
@@ -1862,13 +1862,13 @@
     <t xml:space="preserve">17.2060050964355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9189605712891</t>
+    <t xml:space="preserve">17.9189624786377</t>
   </si>
   <si>
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337776184082</t>
+    <t xml:space="preserve">17.6337795257568</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">18.2041416168213</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5368537902832</t>
+    <t xml:space="preserve">18.5368556976318</t>
   </si>
   <si>
     <t xml:space="preserve">19.1547508239746</t>
@@ -1898,13 +1898,13 @@
     <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136478424072</t>
+    <t xml:space="preserve">18.2136497497559</t>
   </si>
   <si>
     <t xml:space="preserve">18.3847579956055</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2498111724854</t>
+    <t xml:space="preserve">19.249813079834</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1922,31 +1922,31 @@
     <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8143939971924</t>
+    <t xml:space="preserve">17.8143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249214172363</t>
+    <t xml:space="preserve">17.1333637237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249195098877</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2072010040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7032775878906</t>
+    <t xml:space="preserve">19.2071990966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.703275680542</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816356658936</t>
+    <t xml:space="preserve">19.3816337585449</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1958,37 +1958,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.226583480835</t>
+    <t xml:space="preserve">19.2265815734863</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3507175445557</t>
+    <t xml:space="preserve">20.350715637207</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4476261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383499145508</t>
+    <t xml:space="preserve">21.2228908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.447624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383480072021</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.866174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001842498779</t>
+    <t xml:space="preserve">21.8043384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8661766052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001861572266</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239051818848</t>
+    <t xml:space="preserve">19.6239070892334</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723594665527</t>
+    <t xml:space="preserve">18.9746208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723575592041</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538070678711</t>
+    <t xml:space="preserve">20.2538089752197</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919708251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4651584625244</t>
+    <t xml:space="preserve">22.1919727325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074298858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.465160369873</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.610523223877</t>
+    <t xml:space="preserve">21.6105213165283</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1568984985352</t>
+    <t xml:space="preserve">20.1569004058838</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2579612731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734222412109</t>
+    <t xml:space="preserve">23.257963180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.676513671875</t>
+    <t xml:space="preserve">22.6765117645264</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156452178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7692680358887</t>
+    <t xml:space="preserve">18.3156433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.76926612854</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486850738525</t>
+    <t xml:space="preserve">22.9672374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486869812012</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600364685059</t>
+    <t xml:space="preserve">24.7600383758545</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754974365234</t>
+    <t xml:space="preserve">24.2754955291748</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9054012298584</t>
+    <t xml:space="preserve">24.905403137207</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.729118347168</t>
+    <t xml:space="preserve">25.7291202545166</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827411651611</t>
+    <t xml:space="preserve">27.2796497344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827430725098</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167526245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652088165283</t>
+    <t xml:space="preserve">25.1961269378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322116851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167545318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652069091797</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260269165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3105697631836</t>
+    <t xml:space="preserve">25.8260288238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.310567855835</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703773498535</t>
+    <t xml:space="preserve">27.5703754425049</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.768346786499</t>
+    <t xml:space="preserve">30.7683448791504</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.605447769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1209049224854</t>
+    <t xml:space="preserve">29.6054458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085411071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.120906829834</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.702356338501</t>
+    <t xml:space="preserve">29.7023544311523</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776210784912</t>
+    <t xml:space="preserve">30.4776229858398</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559791564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198905944824</t>
+    <t xml:space="preserve">31.1559810638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198925018311</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332744598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600830078125</t>
+    <t xml:space="preserve">30.2353496551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363639831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600849151611</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -2841,6 +2841,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.1499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1000003814697</t>
   </si>
 </sst>
 </file>
@@ -13366,7 +13369,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G392" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13392,7 +13395,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G393" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13418,7 +13421,7 @@
         <v>13.1899995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13444,7 +13447,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13470,7 +13473,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G396" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13496,7 +13499,7 @@
         <v>13</v>
       </c>
       <c r="G397" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13522,7 +13525,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G398" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13548,7 +13551,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G399" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13574,7 +13577,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G400" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13600,7 +13603,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G401" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13626,7 +13629,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G402" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13652,7 +13655,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G403" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13678,7 +13681,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G404" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13704,7 +13707,7 @@
         <v>13</v>
       </c>
       <c r="G405" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13730,7 +13733,7 @@
         <v>13</v>
       </c>
       <c r="G406" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13756,7 +13759,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G407" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13782,7 +13785,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13808,7 +13811,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G409" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13834,7 +13837,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G410" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13860,7 +13863,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G411" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13886,7 +13889,7 @@
         <v>13.0100002288818</v>
       </c>
       <c r="G412" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13912,7 +13915,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G413" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13938,7 +13941,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G414" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13964,7 +13967,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G415" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13990,7 +13993,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G416" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14016,7 +14019,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G417" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14042,7 +14045,7 @@
         <v>13.25</v>
       </c>
       <c r="G418" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14068,7 +14071,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G419" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14094,7 +14097,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G420" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14120,7 +14123,7 @@
         <v>13</v>
       </c>
       <c r="G421" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14146,7 +14149,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G422" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14172,7 +14175,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G423" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14198,7 +14201,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G424" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14224,7 +14227,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G425" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14250,7 +14253,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G426" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14276,7 +14279,7 @@
         <v>13.0100002288818</v>
       </c>
       <c r="G427" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14302,7 +14305,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G428" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14328,7 +14331,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G429" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14354,7 +14357,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G430" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14380,7 +14383,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G431" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14406,7 +14409,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G432" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14432,7 +14435,7 @@
         <v>13.1700000762939</v>
       </c>
       <c r="G433" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14458,7 +14461,7 @@
         <v>13</v>
       </c>
       <c r="G434" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14484,7 +14487,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G435" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14510,7 +14513,7 @@
         <v>12.7299995422363</v>
       </c>
       <c r="G436" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14536,7 +14539,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G437" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14562,7 +14565,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G438" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14588,7 +14591,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G439" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14614,7 +14617,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G440" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14640,7 +14643,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G441" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14666,7 +14669,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G442" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14692,7 +14695,7 @@
         <v>10.4700002670288</v>
       </c>
       <c r="G443" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14718,7 +14721,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G444" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14744,7 +14747,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G445" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14770,7 +14773,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G446" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14796,7 +14799,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G447" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14822,7 +14825,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G448" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14848,7 +14851,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G449" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14874,7 +14877,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G450" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14900,7 +14903,7 @@
         <v>11.25</v>
       </c>
       <c r="G451" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14926,7 +14929,7 @@
         <v>11.1099996566772</v>
       </c>
       <c r="G452" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14952,7 +14955,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G453" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14978,7 +14981,7 @@
         <v>11.25</v>
       </c>
       <c r="G454" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15004,7 +15007,7 @@
         <v>10.9099998474121</v>
       </c>
       <c r="G455" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15030,7 +15033,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G456" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15056,7 +15059,7 @@
         <v>10.75</v>
       </c>
       <c r="G457" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15082,7 +15085,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15108,7 +15111,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G459" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15134,7 +15137,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G460" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15160,7 +15163,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G461" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15186,7 +15189,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G462" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15212,7 +15215,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G463" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15238,7 +15241,7 @@
         <v>10.4799995422363</v>
       </c>
       <c r="G464" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15264,7 +15267,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G465" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15290,7 +15293,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G466" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15316,7 +15319,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G467" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15342,7 +15345,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G468" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15368,7 +15371,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G469" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15394,7 +15397,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15420,7 +15423,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G471" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15446,7 +15449,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G472" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15472,7 +15475,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G473" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15498,7 +15501,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G474" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15524,7 +15527,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G475" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15550,7 +15553,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G476" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15576,7 +15579,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G477" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15602,7 +15605,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G478" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15628,7 +15631,7 @@
         <v>10.75</v>
       </c>
       <c r="G479" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15654,7 +15657,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G480" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15680,7 +15683,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G481" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15706,7 +15709,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G482" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15732,7 +15735,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G483" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15758,7 +15761,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G484" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15784,7 +15787,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G485" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15810,7 +15813,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G486" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15836,7 +15839,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G487" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15862,7 +15865,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G488" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15888,7 +15891,7 @@
         <v>11.5</v>
       </c>
       <c r="G489" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15914,7 +15917,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G490" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15940,7 +15943,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15966,7 +15969,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G492" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15992,7 +15995,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G493" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16018,7 +16021,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G494" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16044,7 +16047,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G495" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16070,7 +16073,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G496" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16096,7 +16099,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G497" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16122,7 +16125,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G498" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16148,7 +16151,7 @@
         <v>11.25</v>
       </c>
       <c r="G499" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16174,7 +16177,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G500" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16200,7 +16203,7 @@
         <v>11</v>
       </c>
       <c r="G501" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16226,7 +16229,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G502" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16252,7 +16255,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G503" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16278,7 +16281,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G504" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16304,7 +16307,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16330,7 +16333,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16356,7 +16359,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G507" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16382,7 +16385,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G508" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16408,7 +16411,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G509" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16434,7 +16437,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G510" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16460,7 +16463,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G511" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16486,7 +16489,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16512,7 +16515,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G513" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16538,7 +16541,7 @@
         <v>10.75</v>
       </c>
       <c r="G514" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16564,7 +16567,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16590,7 +16593,7 @@
         <v>10.75</v>
       </c>
       <c r="G516" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16616,7 +16619,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G517" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16642,7 +16645,7 @@
         <v>11</v>
       </c>
       <c r="G518" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16668,7 +16671,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G519" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16694,7 +16697,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G520" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16720,7 +16723,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G521" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16746,7 +16749,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G522" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16772,7 +16775,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G523" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16798,7 +16801,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G524" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16824,7 +16827,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G525" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16850,7 +16853,7 @@
         <v>11.25</v>
       </c>
       <c r="G526" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16876,7 +16879,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16902,7 +16905,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G528" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16928,7 +16931,7 @@
         <v>11.25</v>
       </c>
       <c r="G529" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16954,7 +16957,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G530" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16980,7 +16983,7 @@
         <v>11.5</v>
       </c>
       <c r="G531" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17006,7 +17009,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G532" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17032,7 +17035,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G533" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17058,7 +17061,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G534" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17084,7 +17087,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17110,7 +17113,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G536" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17136,7 +17139,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17162,7 +17165,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G538" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17188,7 +17191,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G539" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17214,7 +17217,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G540" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17240,7 +17243,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G541" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17266,7 +17269,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G542" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17292,7 +17295,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17318,7 +17321,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G544" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17344,7 +17347,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17370,7 +17373,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G546" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17396,7 +17399,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17422,7 +17425,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G548" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17448,7 +17451,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G549" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17474,7 +17477,7 @@
         <v>10.5</v>
       </c>
       <c r="G550" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17500,7 +17503,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G551" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17526,7 +17529,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17552,7 +17555,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G553" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17578,7 +17581,7 @@
         <v>10.25</v>
       </c>
       <c r="G554" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17604,7 +17607,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17630,7 +17633,7 @@
         <v>10.25</v>
       </c>
       <c r="G556" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17656,7 +17659,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17682,7 +17685,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17708,7 +17711,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G559" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17734,7 +17737,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G560" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17760,7 +17763,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17786,7 +17789,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17812,7 +17815,7 @@
         <v>10.5</v>
       </c>
       <c r="G563" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17838,7 +17841,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G564" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17864,7 +17867,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G565" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17890,7 +17893,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G566" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17916,7 +17919,7 @@
         <v>10.25</v>
       </c>
       <c r="G567" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17942,7 +17945,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G568" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17968,7 +17971,7 @@
         <v>10.25</v>
       </c>
       <c r="G569" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17994,7 +17997,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G570" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18020,7 +18023,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G571" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18046,7 +18049,7 @@
         <v>10</v>
       </c>
       <c r="G572" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18072,7 +18075,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G573" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18098,7 +18101,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G574" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18124,7 +18127,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18150,7 +18153,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18176,7 +18179,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G577" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18202,7 +18205,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G578" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18228,7 +18231,7 @@
         <v>10</v>
       </c>
       <c r="G579" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18254,7 +18257,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G580" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18280,7 +18283,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18306,7 +18309,7 @@
         <v>10.25</v>
       </c>
       <c r="G582" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18332,7 +18335,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G583" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18358,7 +18361,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18384,7 +18387,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18410,7 +18413,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18436,7 +18439,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18462,7 +18465,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G588" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18488,7 +18491,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G589" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18514,7 +18517,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G590" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18540,7 +18543,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G591" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18566,7 +18569,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G592" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18592,7 +18595,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18618,7 +18621,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G594" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18644,7 +18647,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G595" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18670,7 +18673,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18696,7 +18699,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18722,7 +18725,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18748,7 +18751,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18774,7 +18777,7 @@
         <v>10.25</v>
       </c>
       <c r="G600" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18800,7 +18803,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18826,7 +18829,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18852,7 +18855,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G603" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18878,7 +18881,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18904,7 +18907,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18930,7 +18933,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18956,7 +18959,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18982,7 +18985,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19008,7 +19011,7 @@
         <v>10.25</v>
       </c>
       <c r="G609" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19034,7 +19037,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19060,7 +19063,7 @@
         <v>10.25</v>
       </c>
       <c r="G611" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19086,7 +19089,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G612" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19112,7 +19115,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G613" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19138,7 +19141,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G614" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19164,7 +19167,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G615" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19190,7 +19193,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G616" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19216,7 +19219,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G617" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19242,7 +19245,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G618" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19268,7 +19271,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G619" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19294,7 +19297,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G620" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19320,7 +19323,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G621" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19346,7 +19349,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G622" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19372,7 +19375,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G623" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19398,7 +19401,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G624" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19424,7 +19427,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19450,7 +19453,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19476,7 +19479,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G627" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19502,7 +19505,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19528,7 +19531,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G629" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19554,7 +19557,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G630" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19580,7 +19583,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G631" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19606,7 +19609,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G632" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19632,7 +19635,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G633" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19658,7 +19661,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19684,7 +19687,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G635" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19710,7 +19713,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G636" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19736,7 +19739,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G637" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19762,7 +19765,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G638" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19788,7 +19791,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G639" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19814,7 +19817,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G640" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19840,7 +19843,7 @@
         <v>10</v>
       </c>
       <c r="G641" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19866,7 +19869,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G642" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19892,7 +19895,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19918,7 +19921,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G644" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19944,7 +19947,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G645" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19970,7 +19973,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19996,7 +19999,7 @@
         <v>10</v>
       </c>
       <c r="G647" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20022,7 +20025,7 @@
         <v>10</v>
       </c>
       <c r="G648" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20048,7 +20051,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G649" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20074,7 +20077,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G650" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20100,7 +20103,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G651" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20126,7 +20129,7 @@
         <v>10</v>
       </c>
       <c r="G652" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20152,7 +20155,7 @@
         <v>10</v>
       </c>
       <c r="G653" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20178,7 +20181,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G654" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20204,7 +20207,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G655" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20230,7 +20233,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G656" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20256,7 +20259,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G657" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20282,7 +20285,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G658" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20308,7 +20311,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G659" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20334,7 +20337,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G660" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20360,7 +20363,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G661" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20386,7 +20389,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G662" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20412,7 +20415,7 @@
         <v>10</v>
       </c>
       <c r="G663" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20438,7 +20441,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G664" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20464,7 +20467,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20490,7 +20493,7 @@
         <v>10.25</v>
       </c>
       <c r="G666" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20516,7 +20519,7 @@
         <v>10</v>
       </c>
       <c r="G667" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20542,7 +20545,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20568,7 +20571,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G669" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20594,7 +20597,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G670" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20620,7 +20623,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G671" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20646,7 +20649,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G672" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20672,7 +20675,7 @@
         <v>10</v>
       </c>
       <c r="G673" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20698,7 +20701,7 @@
         <v>10</v>
       </c>
       <c r="G674" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20724,7 +20727,7 @@
         <v>10</v>
       </c>
       <c r="G675" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20750,7 +20753,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G676" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20776,7 +20779,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G677" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20802,7 +20805,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20828,7 +20831,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G679" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20854,7 +20857,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20880,7 +20883,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G681" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20906,7 +20909,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G682" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20932,7 +20935,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G683" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20958,7 +20961,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20984,7 +20987,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G685" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21010,7 +21013,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G686" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21036,7 +21039,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G687" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21062,7 +21065,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21088,7 +21091,7 @@
         <v>10</v>
       </c>
       <c r="G689" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21114,7 +21117,7 @@
         <v>10</v>
       </c>
       <c r="G690" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21140,7 +21143,7 @@
         <v>10</v>
       </c>
       <c r="G691" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21166,7 +21169,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21192,7 +21195,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G693" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21218,7 +21221,7 @@
         <v>10</v>
       </c>
       <c r="G694" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21244,7 +21247,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G695" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21270,7 +21273,7 @@
         <v>10</v>
       </c>
       <c r="G696" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21296,7 +21299,7 @@
         <v>10</v>
       </c>
       <c r="G697" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21322,7 +21325,7 @@
         <v>10.5</v>
       </c>
       <c r="G698" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21348,7 +21351,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21374,7 +21377,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21400,7 +21403,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21426,7 +21429,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G702" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21452,7 +21455,7 @@
         <v>10.25</v>
       </c>
       <c r="G703" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21478,7 +21481,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G704" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21504,7 +21507,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21530,7 +21533,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21556,7 +21559,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21582,7 +21585,7 @@
         <v>10</v>
       </c>
       <c r="G708" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21608,7 +21611,7 @@
         <v>10</v>
       </c>
       <c r="G709" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21634,7 +21637,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G710" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21660,7 +21663,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G711" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21686,7 +21689,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G712" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21712,7 +21715,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G713" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21738,7 +21741,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G714" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21764,7 +21767,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G715" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21790,7 +21793,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G716" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21816,7 +21819,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21842,7 +21845,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G718" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21868,7 +21871,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21894,7 +21897,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G720" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21920,7 +21923,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G721" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21946,7 +21949,7 @@
         <v>10</v>
       </c>
       <c r="G722" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21972,7 +21975,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G723" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21998,7 +22001,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G724" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22024,7 +22027,7 @@
         <v>10</v>
       </c>
       <c r="G725" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22050,7 +22053,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G726" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22076,7 +22079,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G727" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22102,7 +22105,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G728" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22128,7 +22131,7 @@
         <v>10</v>
       </c>
       <c r="G729" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22154,7 +22157,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G730" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22180,7 +22183,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G731" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22206,7 +22209,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G732" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22232,7 +22235,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G733" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22258,7 +22261,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G734" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22284,7 +22287,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G735" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22310,7 +22313,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G736" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22336,7 +22339,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G737" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22362,7 +22365,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G738" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22388,7 +22391,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G739" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22414,7 +22417,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G740" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22440,7 +22443,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G741" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22466,7 +22469,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G742" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22492,7 +22495,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22518,7 +22521,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G744" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22544,7 +22547,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G745" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22570,7 +22573,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G746" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22596,7 +22599,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G747" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22622,7 +22625,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G748" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22648,7 +22651,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G749" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22674,7 +22677,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G750" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22700,7 +22703,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G751" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22726,7 +22729,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G752" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22752,7 +22755,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G753" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22778,7 +22781,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G754" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22804,7 +22807,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G755" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22830,7 +22833,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G756" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22856,7 +22859,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G757" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22882,7 +22885,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G758" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22908,7 +22911,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G759" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22934,7 +22937,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G760" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22960,7 +22963,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G761" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22986,7 +22989,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G762" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23012,7 +23015,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G763" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23038,7 +23041,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G764" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23064,7 +23067,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G765" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23090,7 +23093,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G766" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23116,7 +23119,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G767" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23142,7 +23145,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G768" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23168,7 +23171,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G769" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23194,7 +23197,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G770" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23220,7 +23223,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23246,7 +23249,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G772" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23272,7 +23275,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G773" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23298,7 +23301,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G774" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23324,7 +23327,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G775" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23350,7 +23353,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23376,7 +23379,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G777" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23402,7 +23405,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G778" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23428,7 +23431,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G779" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23454,7 +23457,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G780" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23480,7 +23483,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G781" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23506,7 +23509,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23532,7 +23535,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G783" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23558,7 +23561,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23584,7 +23587,7 @@
         <v>10</v>
       </c>
       <c r="G785" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23610,7 +23613,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23636,7 +23639,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G787" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23662,7 +23665,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G788" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23688,7 +23691,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G789" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23714,7 +23717,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23740,7 +23743,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23766,7 +23769,7 @@
         <v>10</v>
       </c>
       <c r="G792" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23792,7 +23795,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23818,7 +23821,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23844,7 +23847,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G795" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23870,7 +23873,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G796" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23896,7 +23899,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G797" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23922,7 +23925,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G798" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23948,7 +23951,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G799" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23974,7 +23977,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G800" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24000,7 +24003,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G801" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24026,7 +24029,7 @@
         <v>10.25</v>
       </c>
       <c r="G802" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24052,7 +24055,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24078,7 +24081,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G804" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24104,7 +24107,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G805" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24130,7 +24133,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G806" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24156,7 +24159,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G807" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24182,7 +24185,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G808" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24208,7 +24211,7 @@
         <v>10.5</v>
       </c>
       <c r="G809" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24234,7 +24237,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G810" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24260,7 +24263,7 @@
         <v>10</v>
       </c>
       <c r="G811" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24286,7 +24289,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24312,7 +24315,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G813" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24338,7 +24341,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G814" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24364,7 +24367,7 @@
         <v>10.5</v>
       </c>
       <c r="G815" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24390,7 +24393,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G816" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24416,7 +24419,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G817" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24442,7 +24445,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24468,7 +24471,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G819" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24494,7 +24497,7 @@
         <v>11.25</v>
       </c>
       <c r="G820" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24520,7 +24523,7 @@
         <v>11.5</v>
       </c>
       <c r="G821" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24546,7 +24549,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24572,7 +24575,7 @@
         <v>11.5</v>
       </c>
       <c r="G823" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24598,7 +24601,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24624,7 +24627,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G825" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24650,7 +24653,7 @@
         <v>11.75</v>
       </c>
       <c r="G826" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24676,7 +24679,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24702,7 +24705,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G828" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24728,7 +24731,7 @@
         <v>11.75</v>
       </c>
       <c r="G829" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24754,7 +24757,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G830" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24780,7 +24783,7 @@
         <v>11.75</v>
       </c>
       <c r="G831" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24806,7 +24809,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24832,7 +24835,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G833" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24858,7 +24861,7 @@
         <v>11.75</v>
       </c>
       <c r="G834" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24884,7 +24887,7 @@
         <v>11.75</v>
       </c>
       <c r="G835" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24910,7 +24913,7 @@
         <v>11.75</v>
       </c>
       <c r="G836" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24936,7 +24939,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G837" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24962,7 +24965,7 @@
         <v>11.75</v>
       </c>
       <c r="G838" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24988,7 +24991,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G839" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25014,7 +25017,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25040,7 +25043,7 @@
         <v>11.25</v>
       </c>
       <c r="G841" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25066,7 +25069,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G842" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25092,7 +25095,7 @@
         <v>11.5</v>
       </c>
       <c r="G843" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25118,7 +25121,7 @@
         <v>11.5</v>
       </c>
       <c r="G844" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25144,7 +25147,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G845" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25170,7 +25173,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G846" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25196,7 +25199,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G847" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25222,7 +25225,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G848" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25248,7 +25251,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G849" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25274,7 +25277,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25300,7 +25303,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G851" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25326,7 +25329,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G852" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25352,7 +25355,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G853" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25378,7 +25381,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25404,7 +25407,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25430,7 +25433,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G856" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25456,7 +25459,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G857" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25482,7 +25485,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G858" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25508,7 +25511,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G859" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25534,7 +25537,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25560,7 +25563,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G861" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25586,7 +25589,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25612,7 +25615,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G863" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25638,7 +25641,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25664,7 +25667,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25690,7 +25693,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G866" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25716,7 +25719,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G867" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25742,7 +25745,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G868" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25768,7 +25771,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G869" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25794,7 +25797,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26028,7 +26031,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G879" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26132,7 +26135,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26184,7 +26187,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G885" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26314,7 +26317,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G890" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26418,7 +26421,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26470,7 +26473,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G896" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26496,7 +26499,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G897" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26756,7 +26759,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G907" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26834,7 +26837,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G910" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26860,7 +26863,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26886,7 +26889,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G912" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26990,7 +26993,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G916" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27042,7 +27045,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G918" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28888,7 +28891,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G989" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28966,7 +28969,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G992" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30838,7 +30841,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1064" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31696,7 +31699,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31748,7 +31751,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1099" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -58874,7 +58877,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6494444444</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>7748</v>
@@ -58895,6 +58898,32 @@
         <v>942</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6503703704</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>9459</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>24.2999992370605</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>23.8999996185303</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>23.8999996185303</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>24.1000003814697</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>943</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262649536133</t>
+    <t xml:space="preserve">8.42262744903564</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947219848633</t>
+    <t xml:space="preserve">8.43947315216064</t>
   </si>
   <si>
     <t xml:space="preserve">8.40578079223633</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">8.21206092834473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31734371185303</t>
+    <t xml:space="preserve">8.31734561920166</t>
   </si>
   <si>
     <t xml:space="preserve">8.19521522521973</t>
@@ -62,64 +62,64 @@
     <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29207706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731525421143</t>
+    <t xml:space="preserve">8.29207611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731430053711</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363807678223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18679332733154</t>
+    <t xml:space="preserve">8.18679428100586</t>
   </si>
   <si>
     <t xml:space="preserve">8.08572292327881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13625621795654</t>
+    <t xml:space="preserve">8.13625717163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.11520099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03518676757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097343444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676391601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149536132812</t>
+    <t xml:space="preserve">8.03518581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097534179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676200866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149440765381</t>
   </si>
   <si>
     <t xml:space="preserve">7.99307250976562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96780490875244</t>
+    <t xml:space="preserve">7.96780443191528</t>
   </si>
   <si>
     <t xml:space="preserve">7.76145124435425</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83304214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619691848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356550216675</t>
+    <t xml:space="preserve">7.83304452896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356311798096</t>
   </si>
   <si>
     <t xml:space="preserve">7.73197174072266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66880226135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459035873413</t>
+    <t xml:space="preserve">7.66880130767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459131240845</t>
   </si>
   <si>
     <t xml:space="preserve">7.74881649017334</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">7.88357782363892</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91726875305176</t>
+    <t xml:space="preserve">7.91726922988892</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203151702881</t>
@@ -140,34 +140,34 @@
     <t xml:space="preserve">8.16994857788086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30470943450928</t>
+    <t xml:space="preserve">8.30471038818359</t>
   </si>
   <si>
     <t xml:space="preserve">8.25417518615723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11941337585449</t>
+    <t xml:space="preserve">8.11941242218018</t>
   </si>
   <si>
     <t xml:space="preserve">8.07729911804199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33840084075928</t>
+    <t xml:space="preserve">8.33839893341064</t>
   </si>
   <si>
     <t xml:space="preserve">8.48158550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44789409637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41420364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155513763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944183349609</t>
+    <t xml:space="preserve">8.44789505004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41420269012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944087982178</t>
   </si>
   <si>
     <t xml:space="preserve">8.4256010055542</t>
@@ -179,22 +179,22 @@
     <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084350585938</t>
+    <t xml:space="preserve">8.27084541320801</t>
   </si>
   <si>
     <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3267297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2536506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645305633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962535858154</t>
+    <t xml:space="preserve">8.32672882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25365161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645496368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962440490723</t>
   </si>
   <si>
     <t xml:space="preserve">8.33102703094482</t>
@@ -203,13 +203,13 @@
     <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32242965698242</t>
+    <t xml:space="preserve">8.32243061065674</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261222839355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21066188812256</t>
+    <t xml:space="preserve">8.21066093444824</t>
   </si>
   <si>
     <t xml:space="preserve">8.22785568237305</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572229385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273447036743</t>
+    <t xml:space="preserve">8.03871059417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572372436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273542404175</t>
   </si>
   <si>
     <t xml:space="preserve">8.24505233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05160808563232</t>
+    <t xml:space="preserve">8.05160617828369</t>
   </si>
   <si>
     <t xml:space="preserve">7.86675882339478</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">8.05590534210205</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92694282531738</t>
+    <t xml:space="preserve">7.92694234848022</t>
   </si>
   <si>
     <t xml:space="preserve">7.90974760055542</t>
@@ -254,28 +254,28 @@
     <t xml:space="preserve">7.73779535293579</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78078413009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133184432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3138313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755039215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64053916931152</t>
+    <t xml:space="preserve">7.78078508377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133232116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755229949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64054107666016</t>
   </si>
   <si>
     <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72651386260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91566181182861</t>
+    <t xml:space="preserve">8.7265157699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
     <t xml:space="preserve">8.84688091278076</t>
@@ -284,49 +284,49 @@
     <t xml:space="preserve">8.63194179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66633129119873</t>
+    <t xml:space="preserve">8.66633224487305</t>
   </si>
   <si>
     <t xml:space="preserve">8.59325313568115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58895301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072364807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94145393371582</t>
+    <t xml:space="preserve">8.58895397186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352794647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072174072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9414529800415</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76950263977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02742862701416</t>
+    <t xml:space="preserve">8.76950168609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02742958068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.15639209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23377132415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19937992095947</t>
+    <t xml:space="preserve">9.2337703704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19938087463379</t>
   </si>
   <si>
     <t xml:space="preserve">9.24236679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4143180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834339141846</t>
+    <t xml:space="preserve">9.41431713104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834434509277</t>
   </si>
   <si>
     <t xml:space="preserve">9.31974601745605</t>
@@ -335,28 +335,28 @@
     <t xml:space="preserve">9.20797729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22517395019531</t>
+    <t xml:space="preserve">9.22517108917236</t>
   </si>
   <si>
     <t xml:space="preserve">9.44011211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45730590820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956344604492</t>
+    <t xml:space="preserve">9.45730686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956249237061</t>
   </si>
   <si>
     <t xml:space="preserve">9.74962425231934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5432825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925815582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608680725098</t>
+    <t xml:space="preserve">9.54328155517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608776092529</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224597930908</t>
@@ -368,37 +368,37 @@
     <t xml:space="preserve">9.58627033233643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68084335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523284912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206340789795</t>
+    <t xml:space="preserve">9.68084526062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206245422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.55187892913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56047821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65505027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718509674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138910293579</t>
+    <t xml:space="preserve">9.5604772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663642883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718318939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138919830322</t>
   </si>
   <si>
     <t xml:space="preserve">10.4030389785767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2826728820801</t>
+    <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451110839844</t>
@@ -407,22 +407,22 @@
     <t xml:space="preserve">10.102123260498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279144287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333433151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0591354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623067855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084650039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.188099861145</t>
+    <t xml:space="preserve">10.1279153823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333423614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.059136390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623058319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.308464050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
     <t xml:space="preserve">9.84419727325439</t>
@@ -431,85 +431,85 @@
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8527946472168</t>
+    <t xml:space="preserve">9.85279273986816</t>
   </si>
   <si>
     <t xml:space="preserve">10.231086730957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0075511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2740726470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4460258483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867589950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695623397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.961877822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0736455917358</t>
+    <t xml:space="preserve">10.007550239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.274073600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.44602394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9618787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
     <t xml:space="preserve">11.0220603942871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1768178939819</t>
+    <t xml:space="preserve">11.1768169403076</t>
   </si>
   <si>
     <t xml:space="preserve">11.2198057174683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.443341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302307128906</t>
+    <t xml:space="preserve">11.4433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302316665649</t>
   </si>
   <si>
     <t xml:space="preserve">11.7528533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6496820449829</t>
+    <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
     <t xml:space="preserve">11.7614507675171</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8732204437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107803344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388299942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700462341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7786445617676</t>
+    <t xml:space="preserve">11.8732194900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505958557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786455154419</t>
   </si>
   <si>
     <t xml:space="preserve">11.7975358963013</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">11.9024038314819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8674478530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8499708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972315788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597038269043</t>
+    <t xml:space="preserve">11.8674488067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8499698638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9723148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597047805786</t>
   </si>
   <si>
     <t xml:space="preserve">12.0859203338623</t>
@@ -548,10 +548,10 @@
     <t xml:space="preserve">12.3218727111816</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160093307495</t>
+    <t xml:space="preserve">12.1733112335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160102844238</t>
   </si>
   <si>
     <t xml:space="preserve">11.9286212921143</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">12.0946607589722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1383562088013</t>
+    <t xml:space="preserve">12.138355255127</t>
   </si>
   <si>
     <t xml:space="preserve">12.217004776001</t>
@@ -578,31 +578,31 @@
     <t xml:space="preserve">11.9635763168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2082672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897928237915</t>
+    <t xml:space="preserve">12.2082653045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897937774658</t>
   </si>
   <si>
     <t xml:space="preserve">12.0684442520142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0509653091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985322952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422258377075</t>
+    <t xml:space="preserve">12.0509662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985303878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422248840332</t>
   </si>
   <si>
     <t xml:space="preserve">12.0771818161011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034002304077</t>
+    <t xml:space="preserve">12.1033992767334</t>
   </si>
   <si>
     <t xml:space="preserve">11.8936643600464</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">11.7800588607788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7451028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014093399048</t>
+    <t xml:space="preserve">11.7451038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014102935791</t>
   </si>
   <si>
     <t xml:space="preserve">11.5353689193726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5266304016113</t>
+    <t xml:space="preserve">11.5266313552856</t>
   </si>
   <si>
     <t xml:space="preserve">11.4479808807373</t>
@@ -635,49 +635,49 @@
     <t xml:space="preserve">11.395546913147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3605918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732028961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207689285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431129455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984239578247</t>
+    <t xml:space="preserve">11.3605909347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518514633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431119918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0984220504761</t>
   </si>
   <si>
     <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1858129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3693294525146</t>
+    <t xml:space="preserve">11.18581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469844818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.369330406189</t>
   </si>
   <si>
     <t xml:space="preserve">11.4829359054565</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6227588653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.710147857666</t>
+    <t xml:space="preserve">11.6227598190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7101469039917</t>
   </si>
   <si>
     <t xml:space="preserve">11.5790643692017</t>
@@ -686,28 +686,28 @@
     <t xml:space="preserve">11.4567193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3256368637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4305038452148</t>
+    <t xml:space="preserve">11.3256359100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
     <t xml:space="preserve">11.3168964385986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2032899856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878028869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868083953857</t>
+    <t xml:space="preserve">11.2032909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878038406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
     <t xml:space="preserve">11.4042863845825</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5091514587402</t>
+    <t xml:space="preserve">11.5091524124146</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159019470215</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">11.1246404647827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1683340072632</t>
+    <t xml:space="preserve">11.1683349609375</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88371467590332</t>
+    <t xml:space="preserve">9.883713722229</t>
   </si>
   <si>
     <t xml:space="preserve">9.14964580535889</t>
@@ -731,43 +731,43 @@
     <t xml:space="preserve">9.35064125061035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51668071746826</t>
+    <t xml:space="preserve">9.51667976379395</t>
   </si>
   <si>
     <t xml:space="preserve">9.63028526306152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6477632522583</t>
+    <t xml:space="preserve">9.64776229858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.73515224456787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7438907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8312816619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70893573760986</t>
+    <t xml:space="preserve">9.74389171600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83128070831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70893478393555</t>
   </si>
   <si>
     <t xml:space="preserve">9.53415775299072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48172378540039</t>
+    <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
     <t xml:space="preserve">9.39433479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43802928924561</t>
+    <t xml:space="preserve">9.43803119659424</t>
   </si>
   <si>
     <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42055130004883</t>
+    <t xml:space="preserve">9.42055225372314</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685680389404</t>
@@ -776,22 +776,22 @@
     <t xml:space="preserve">9.26325225830078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15838432312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34190082550049</t>
+    <t xml:space="preserve">9.1583833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3419017791748</t>
   </si>
   <si>
     <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84002017974854</t>
+    <t xml:space="preserve">9.84002113342285</t>
   </si>
   <si>
     <t xml:space="preserve">9.79632472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8050651550293</t>
+    <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
     <t xml:space="preserve">9.7875862121582</t>
@@ -800,43 +800,43 @@
     <t xml:space="preserve">9.81380271911621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90119171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85749816894531</t>
+    <t xml:space="preserve">9.90119361877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
     <t xml:space="preserve">9.22829627990723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07099533081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28072929382324</t>
+    <t xml:space="preserve">9.07099437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28072834014893</t>
   </si>
   <si>
     <t xml:space="preserve">9.25451278686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97984409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497520446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0497531890869</t>
+    <t xml:space="preserve">9.97984218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0497541427612</t>
   </si>
   <si>
     <t xml:space="preserve">9.91867065429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67397975921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63902568817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767425537109</t>
+    <t xml:space="preserve">9.67398071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63902378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767520904541</t>
   </si>
   <si>
     <t xml:space="preserve">9.72641372680664</t>
@@ -845,19 +845,19 @@
     <t xml:space="preserve">9.61280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56911277770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68272018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36811828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019817352295</t>
+    <t xml:space="preserve">9.56911182403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271923065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36812019348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019626617432</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650272369385</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">9.08847236633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04477977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586231231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216876983643</t>
+    <t xml:space="preserve">9.04477882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586326599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216686248779</t>
   </si>
   <si>
     <t xml:space="preserve">8.95738983154297</t>
@@ -887,49 +887,49 @@
     <t xml:space="preserve">8.82630634307861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00108337402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91369533538818</t>
+    <t xml:space="preserve">9.00108432769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91369438171387</t>
   </si>
   <si>
     <t xml:space="preserve">8.86999988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73891544342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78261184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161449432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19656562805176</t>
+    <t xml:space="preserve">8.73891735076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78261089324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161640167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
     <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15192317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10727977752686</t>
+    <t xml:space="preserve">9.15192222595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10727787017822</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.892991065979</t>
+    <t xml:space="preserve">9.01799201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">8.83941745758057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75013256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71441745758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78584480285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227405548096</t>
+    <t xml:space="preserve">8.75013065338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71441650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78584575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227310180664</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
@@ -962,31 +962,31 @@
     <t xml:space="preserve">8.66084384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57155799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39298248291016</t>
+    <t xml:space="preserve">8.57155704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39298343658447</t>
   </si>
   <si>
     <t xml:space="preserve">8.44655513763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41084003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91084766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92870426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370235443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37514019012451</t>
+    <t xml:space="preserve">8.41084098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91084671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92870616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37514114379883</t>
   </si>
   <si>
     <t xml:space="preserve">9.50906944274902</t>
@@ -1001,16 +1001,16 @@
     <t xml:space="preserve">9.28585243225098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5894136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53584289550781</t>
+    <t xml:space="preserve">8.58941459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5358419418335</t>
   </si>
   <si>
     <t xml:space="preserve">8.62512874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441173553467</t>
+    <t xml:space="preserve">8.46441268920898</t>
   </si>
   <si>
     <t xml:space="preserve">8.35726737976074</t>
@@ -1025,49 +1025,49 @@
     <t xml:space="preserve">8.30369567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583812713623</t>
+    <t xml:space="preserve">8.28583717346191</t>
   </si>
   <si>
     <t xml:space="preserve">8.33940982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37512683868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50012683868408</t>
+    <t xml:space="preserve">8.37512588500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
     <t xml:space="preserve">8.64298629760742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41978359222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55371570587158</t>
+    <t xml:space="preserve">9.4197826385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55371475219727</t>
   </si>
   <si>
     <t xml:space="preserve">9.77693176269531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73228931427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680101394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126554489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572988510132</t>
+    <t xml:space="preserve">9.7322883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447931289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680110931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126535415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572969436646</t>
   </si>
   <si>
     <t xml:space="preserve">10.491229057312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4465847015381</t>
+    <t xml:space="preserve">10.4465856552124</t>
   </si>
   <si>
     <t xml:space="preserve">10.5358724594116</t>
@@ -1076,43 +1076,43 @@
     <t xml:space="preserve">10.4019412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805149078369</t>
+    <t xml:space="preserve">10.5805158615112</t>
   </si>
   <si>
     <t xml:space="preserve">10.22336769104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6698017120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242055892944</t>
+    <t xml:space="preserve">10.6698026657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065958023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242046356201</t>
   </si>
   <si>
     <t xml:space="preserve">10.8521928787231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7609977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330114364624</t>
+    <t xml:space="preserve">10.7609968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330104827881</t>
   </si>
   <si>
     <t xml:space="preserve">10.3962173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">10.213828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5786085128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698026657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874124526978</t>
+    <t xml:space="preserve">10.2138290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5786075592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698036193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4874134063721</t>
   </si>
   <si>
     <t xml:space="preserve">10.4418153762817</t>
@@ -1130,34 +1130,34 @@
     <t xml:space="preserve">10.0770359039307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.031439781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3050231933594</t>
+    <t xml:space="preserve">10.0314378738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3050222396851</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682300567627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89464569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84904956817627</t>
+    <t xml:space="preserve">9.89464664459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84904861450195</t>
   </si>
   <si>
     <t xml:space="preserve">9.48426818847656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43867301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986812591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106037139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785446166992</t>
+    <t xml:space="preserve">9.43867206573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986621856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785541534424</t>
   </si>
   <si>
     <t xml:space="preserve">9.66665935516357</t>
@@ -1169,34 +1169,34 @@
     <t xml:space="preserve">9.25628185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16508769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3018798828125</t>
+    <t xml:space="preserve">9.16508674621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30187892913818</t>
   </si>
   <si>
     <t xml:space="preserve">9.21068477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39307308197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11948871612549</t>
+    <t xml:space="preserve">9.39307403564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80345153808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9402437210083</t>
+    <t xml:space="preserve">9.80345058441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6273498535156</t>
+    <t xml:space="preserve">11.6273488998413</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4449605941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.581750869751</t>
+    <t xml:space="preserve">11.1713743209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4449596405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5817518234253</t>
   </si>
   <si>
     <t xml:space="preserve">11.718544960022</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">12.0833234786987</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3113098144531</t>
+    <t xml:space="preserve">12.3113107681274</t>
   </si>
   <si>
     <t xml:space="preserve">12.1745185852051</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">11.9921283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7641410827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4937009811401</t>
+    <t xml:space="preserve">11.7641401290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4937000274658</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9952726364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9496746063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688579559326</t>
+    <t xml:space="preserve">13.1320638656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9952716827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9496755599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688570022583</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304931640625</t>
@@ -1274,10 +1274,10 @@
     <t xml:space="preserve">12.4481039047241</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5848951339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8128833770752</t>
+    <t xml:space="preserve">12.5848960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8128824234009</t>
   </si>
   <si>
     <t xml:space="preserve">12.8584804534912</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">13.0864686965942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9009342193604</t>
+    <t xml:space="preserve">11.900933265686</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
@@ -1304,61 +1304,61 @@
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6421332359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00691223144531</t>
+    <t xml:space="preserve">7.64213228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
     <t xml:space="preserve">8.66351509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07986736297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57231903076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73647022247314</t>
+    <t xml:space="preserve">8.07986831665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57231998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73647117614746</t>
   </si>
   <si>
     <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99181652069092</t>
+    <t xml:space="preserve">8.99181747436523</t>
   </si>
   <si>
     <t xml:space="preserve">9.34747695922852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0847988128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94472980499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0381088256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80466365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85135364532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99141883850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715530395508</t>
+    <t xml:space="preserve">10.0847978591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94473075866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0381078720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80466556549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85135269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99142074584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715539932251</t>
   </si>
   <si>
     <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5516862869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4583082199097</t>
+    <t xml:space="preserve">10.551685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.458309173584</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785076141357</t>
@@ -1367,52 +1367,52 @@
     <t xml:space="preserve">10.7384414672852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.018575668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8318195343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1586418151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7851305007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.925196647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6450643539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2987079620361</t>
+    <t xml:space="preserve">11.0185747146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8318185806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1586408615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7851314544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9251976013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6450634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2987089157104</t>
   </si>
   <si>
     <t xml:space="preserve">11.485463142395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6722202301025</t>
+    <t xml:space="preserve">11.6722192764282</t>
   </si>
   <si>
     <t xml:space="preserve">11.3453960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053318023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4387760162354</t>
+    <t xml:space="preserve">11.2053308486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.438775062561</t>
   </si>
   <si>
     <t xml:space="preserve">11.1119527816772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2520179748535</t>
+    <t xml:space="preserve">11.2520198822021</t>
   </si>
   <si>
     <t xml:space="preserve">10.9718866348267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652637481689</t>
+    <t xml:space="preserve">11.0652647018433</t>
   </si>
   <si>
     <t xml:space="preserve">11.5788412094116</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5321531295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189083099365</t>
+    <t xml:space="preserve">11.532154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189092636108</t>
   </si>
   <si>
     <t xml:space="preserve">11.7655973434448</t>
@@ -1436,31 +1436,31 @@
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391077041626</t>
+    <t xml:space="preserve">12.1391086578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857976913452</t>
+    <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
     <t xml:space="preserve">12.2791738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9056634902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9990425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2324857711792</t>
+    <t xml:space="preserve">11.9056644439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.999041557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2324867248535</t>
   </si>
   <si>
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924196243286</t>
+    <t xml:space="preserve">12.0924186706543</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122854232788</t>
@@ -1475,31 +1475,31 @@
     <t xml:space="preserve">12.9795074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2596406936646</t>
+    <t xml:space="preserve">13.2596416473389</t>
   </si>
   <si>
     <t xml:space="preserve">13.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1195755004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3997077941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4463958740234</t>
+    <t xml:space="preserve">13.119574546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3997087478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4463968276978</t>
   </si>
   <si>
     <t xml:space="preserve">13.3063297271729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3530187606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864639282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930858612061</t>
+    <t xml:space="preserve">13.3530197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864629745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930849075317</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
@@ -1508,28 +1508,28 @@
     <t xml:space="preserve">13.9132843017578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.633152961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6993761062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.559308052063</t>
+    <t xml:space="preserve">13.6331520080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6993751525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5593070983887</t>
   </si>
   <si>
     <t xml:space="preserve">13.0261964797974</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9328203201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8394403457642</t>
+    <t xml:space="preserve">12.9328193664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8394412994385</t>
   </si>
   <si>
     <t xml:space="preserve">13.53977394104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8199081420898</t>
+    <t xml:space="preserve">13.8199071884155</t>
   </si>
   <si>
     <t xml:space="preserve">14.0533533096313</t>
@@ -1538,31 +1538,31 @@
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801736831665</t>
+    <t xml:space="preserve">14.3801746368408</t>
   </si>
   <si>
     <t xml:space="preserve">14.5669298171997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3334846496582</t>
+    <t xml:space="preserve">14.3334865570068</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069969177246</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9404411315918</t>
+    <t xml:space="preserve">14.9404401779175</t>
   </si>
   <si>
     <t xml:space="preserve">14.8937511444092</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0338182449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0805072784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2672634124756</t>
+    <t xml:space="preserve">15.0338191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0805063247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.267261505127</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">14.8470630645752</t>
   </si>
   <si>
-    <t xml:space="preserve">14.660306930542</t>
+    <t xml:space="preserve">14.6603078842163</t>
   </si>
   <si>
     <t xml:space="preserve">14.4735517501831</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">14.5202417373657</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665962219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066633224487</t>
+    <t xml:space="preserve">13.8665981292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066623687744</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732181549072</t>
@@ -1595,19 +1595,19 @@
     <t xml:space="preserve">13.9599742889404</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1738862991333</t>
+    <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
     <t xml:space="preserve">14.2401075363159</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6393623352051</t>
+    <t xml:space="preserve">14.6393632888794</t>
   </si>
   <si>
     <t xml:space="preserve">14.591833114624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6868934631348</t>
+    <t xml:space="preserve">14.6868925094604</t>
   </si>
   <si>
     <t xml:space="preserve">14.9245452880859</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">15.2572574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3047876358032</t>
+    <t xml:space="preserve">15.3047885894775</t>
   </si>
   <si>
     <t xml:space="preserve">15.1146669387817</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.542441368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.972074508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.019606590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4473791122437</t>
+    <t xml:space="preserve">15.5424394607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9720754623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0196056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
     <t xml:space="preserve">15.7325601577759</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226846694946</t>
+    <t xml:space="preserve">15.9226837158203</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1670,10 +1670,10 @@
     <t xml:space="preserve">16.1603355407715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0177459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.350456237793</t>
+    <t xml:space="preserve">16.0177440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3504581451416</t>
   </si>
   <si>
     <t xml:space="preserve">16.0652732849121</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">16.7782306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1109447479248</t>
+    <t xml:space="preserve">17.1109428405762</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">16.4455165863037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5387172698975</t>
+    <t xml:space="preserve">17.5387191772461</t>
   </si>
   <si>
     <t xml:space="preserve">18.0615501403809</t>
@@ -1706,25 +1706,25 @@
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3485946655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7763710021973</t>
+    <t xml:space="preserve">16.8732929229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.348596572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7763690948486</t>
   </si>
   <si>
     <t xml:space="preserve">17.8714294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2992038726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8220386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0121574401855</t>
+    <t xml:space="preserve">18.299201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8220367431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0121593475342</t>
   </si>
   <si>
     <t xml:space="preserve">19.2022819519043</t>
@@ -1736,61 +1736,61 @@
     <t xml:space="preserve">19.8677062988281</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4874649047852</t>
+    <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
     <t xml:space="preserve">19.3924007415771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9627666473389</t>
+    <t xml:space="preserve">19.9627685546875</t>
   </si>
   <si>
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1528911590576</t>
+    <t xml:space="preserve">19.7726440429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.152889251709</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936172485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.578800201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3886775970459</t>
+    <t xml:space="preserve">21.2936191558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5788021087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3886795043945</t>
   </si>
   <si>
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034984588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1491661071777</t>
+    <t xml:space="preserve">21.1034965515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1491641998291</t>
   </si>
   <si>
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.054105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3392868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6244678497314</t>
+    <t xml:space="preserve">22.0541038513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3392887115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6244697570801</t>
   </si>
   <si>
     <t xml:space="preserve">22.8145923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9590435028076</t>
+    <t xml:space="preserve">21.9590454101562</t>
   </si>
   <si>
     <t xml:space="preserve">21.8639831542969</t>
@@ -1799,25 +1799,25 @@
     <t xml:space="preserve">20.5331325531006</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5843868255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2973403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9133739471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2442245483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0997734069824</t>
+    <t xml:space="preserve">18.5843849182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.297342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9133758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2442264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0997714996338</t>
   </si>
   <si>
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837417602539</t>
+    <t xml:space="preserve">21.4837398529053</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1826,58 +1826,58 @@
     <t xml:space="preserve">21.6738605499268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8183155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3430099487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0047130584717</t>
+    <t xml:space="preserve">20.8183135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3430118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0047149658203</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7195301055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2479476928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7232513427734</t>
+    <t xml:space="preserve">22.7195281982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2479496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7232532501221</t>
   </si>
   <si>
     <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6775856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1072216033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319160461426</t>
+    <t xml:space="preserve">19.6775875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1072196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6319179534912</t>
   </si>
   <si>
     <t xml:space="preserve">17.2060050964355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9189624786377</t>
+    <t xml:space="preserve">17.9189605712891</t>
   </si>
   <si>
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337795257568</t>
+    <t xml:space="preserve">17.6337757110596</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2041416168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5368556976318</t>
+    <t xml:space="preserve">18.2041435241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5368537902832</t>
   </si>
   <si>
     <t xml:space="preserve">19.1547508239746</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">18.5938911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798183441162</t>
+    <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
     <t xml:space="preserve">18.4988307952881</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">18.2136497497559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3847579956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.249813079834</t>
+    <t xml:space="preserve">18.3847599029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2498092651367</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">20.3905410766602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4856014251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4380722045898</t>
+    <t xml:space="preserve">20.4856033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4380702972412</t>
   </si>
   <si>
     <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8143920898438</t>
+    <t xml:space="preserve">17.8143939971924</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
@@ -58903,7 +58903,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6503703704</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>9459</v>
@@ -58924,6 +58924,32 @@
         <v>943</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6495717593</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>24.2999992370605</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>24.3999996185303</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>24.3500003814697</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>935</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -44,16 +44,16 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947315216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578079223633</t>
+    <t xml:space="preserve">8.43947219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578174591064</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206092834473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31734561920166</t>
+    <t xml:space="preserve">8.31734466552734</t>
   </si>
   <si>
     <t xml:space="preserve">8.19521522521973</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">8.20363807678223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18679428100586</t>
+    <t xml:space="preserve">8.18679332733154</t>
   </si>
   <si>
     <t xml:space="preserve">8.08572292327881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13625717163086</t>
+    <t xml:space="preserve">8.13625621795654</t>
   </si>
   <si>
     <t xml:space="preserve">8.11520099639893</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">8.02676200866699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00149440765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307250976562</t>
+    <t xml:space="preserve">8.00149536132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307346343994</t>
   </si>
   <si>
     <t xml:space="preserve">7.96780443191528</t>
@@ -104,34 +104,34 @@
     <t xml:space="preserve">7.76145124435425</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83304452896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619739532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356311798096</t>
+    <t xml:space="preserve">7.83304309844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619834899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356454849243</t>
   </si>
   <si>
     <t xml:space="preserve">7.73197174072266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66880130767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357782363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726922988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203151702881</t>
+    <t xml:space="preserve">7.66880083084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459035873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8835768699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9172682762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203056335449</t>
   </si>
   <si>
     <t xml:space="preserve">8.22048377990723</t>
@@ -146,13 +146,13 @@
     <t xml:space="preserve">8.25417518615723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11941242218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07729911804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33839893341064</t>
+    <t xml:space="preserve">8.11941337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07729816436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33840084075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.48158550262451</t>
@@ -161,16 +161,16 @@
     <t xml:space="preserve">8.44789505004883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420269012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4256010055542</t>
+    <t xml:space="preserve">8.41420364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560195922852</t>
   </si>
   <si>
     <t xml:space="preserve">8.48578357696533</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084541320801</t>
+    <t xml:space="preserve">8.27084350585938</t>
   </si>
   <si>
     <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32672882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25365161895752</t>
+    <t xml:space="preserve">8.32672786712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25364971160889</t>
   </si>
   <si>
     <t xml:space="preserve">8.23645496368408</t>
@@ -200,34 +200,34 @@
     <t xml:space="preserve">8.33102703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33532619476318</t>
+    <t xml:space="preserve">8.3353271484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.32243061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38261222839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21066093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785568237305</t>
+    <t xml:space="preserve">8.38261318206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21066188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785663604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.16767406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08169841766357</t>
+    <t xml:space="preserve">8.08169651031494</t>
   </si>
   <si>
     <t xml:space="preserve">8.03871059417725</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99572372436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273542404175</t>
+    <t xml:space="preserve">7.99572277069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273447036743</t>
   </si>
   <si>
     <t xml:space="preserve">8.24505233764648</t>
@@ -245,28 +245,28 @@
     <t xml:space="preserve">8.05590534210205</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92694234848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90974760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779535293579</t>
+    <t xml:space="preserve">7.92694330215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974569320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779582977295</t>
   </si>
   <si>
     <t xml:space="preserve">7.78078508377075</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96133232116699</t>
+    <t xml:space="preserve">7.96133327484131</t>
   </si>
   <si>
     <t xml:space="preserve">8.31383323669434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59755229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64054107666016</t>
+    <t xml:space="preserve">8.5975513458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.64913749694824</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">8.7265157699585</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9156608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84688091278076</t>
+    <t xml:space="preserve">8.91566181182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84687995910645</t>
   </si>
   <si>
     <t xml:space="preserve">8.63194179534912</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">8.59325313568115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58895397186279</t>
+    <t xml:space="preserve">8.58895301818848</t>
   </si>
   <si>
     <t xml:space="preserve">8.68352794647217</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">8.70072174072266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9414529800415</t>
+    <t xml:space="preserve">8.94145202636719</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547828674316</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">8.76950168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02742958068848</t>
+    <t xml:space="preserve">9.02743053436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.15639209747314</t>
@@ -317,13 +317,13 @@
     <t xml:space="preserve">9.2337703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19938087463379</t>
+    <t xml:space="preserve">9.19937992095947</t>
   </si>
   <si>
     <t xml:space="preserve">9.24236679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41431713104248</t>
+    <t xml:space="preserve">9.4143180847168</t>
   </si>
   <si>
     <t xml:space="preserve">9.32834434509277</t>
@@ -335,22 +335,22 @@
     <t xml:space="preserve">9.20797729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22517108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011211395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956249237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962425231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54328155517578</t>
+    <t xml:space="preserve">9.22517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.440110206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730590820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962329864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5432825088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.62925720214844</t>
@@ -359,19 +359,19 @@
     <t xml:space="preserve">9.52608776092529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67224597930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58627033233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68084526062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523380279541</t>
+    <t xml:space="preserve">9.67224502563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62066078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58626937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6808443069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523284912109</t>
   </si>
   <si>
     <t xml:space="preserve">9.61206245422363</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">9.55187892913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5604772567749</t>
+    <t xml:space="preserve">9.56047534942627</t>
   </si>
   <si>
     <t xml:space="preserve">9.65504932403564</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">9.70663642883301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88718318939209</t>
+    <t xml:space="preserve">9.88718414306641</t>
   </si>
   <si>
     <t xml:space="preserve">10.2138919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4030389785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826719284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451110839844</t>
+    <t xml:space="preserve">10.4030380249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826709747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451101303101</t>
   </si>
   <si>
     <t xml:space="preserve">10.102123260498</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">10.0333423614502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.059136390686</t>
+    <t xml:space="preserve">10.0591354370117</t>
   </si>
   <si>
     <t xml:space="preserve">10.1623058319092</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85279273986816</t>
+    <t xml:space="preserve">9.8527946472168</t>
   </si>
   <si>
     <t xml:space="preserve">10.231086730957</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">10.44602394104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6351699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695604324341</t>
+    <t xml:space="preserve">10.6351709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867580413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695613861084</t>
   </si>
   <si>
     <t xml:space="preserve">10.9618787765503</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0220603942871</t>
+    <t xml:space="preserve">11.0220613479614</t>
   </si>
   <si>
     <t xml:space="preserve">11.1768169403076</t>
@@ -470,10 +470,10 @@
     <t xml:space="preserve">11.2198057174683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4433422088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066951751709</t>
+    <t xml:space="preserve">11.4433403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066961288452</t>
   </si>
   <si>
     <t xml:space="preserve">11.8302316665649</t>
@@ -485,10 +485,10 @@
     <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614507675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8732194900513</t>
+    <t xml:space="preserve">11.7614498138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873218536377</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505958557129</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">11.9849872589111</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0107793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700481414795</t>
+    <t xml:space="preserve">12.0107803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.838828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700490951538</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926708221436</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">11.7786455154419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7975358963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024038314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674488067627</t>
+    <t xml:space="preserve">11.7975368499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024028778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.867449760437</t>
   </si>
   <si>
     <t xml:space="preserve">11.8499698638916</t>
@@ -530,10 +530,10 @@
     <t xml:space="preserve">12.0597047805786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0859203338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.243221282959</t>
+    <t xml:space="preserve">12.0859212875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2432222366333</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966506958008</t>
@@ -545,10 +545,10 @@
     <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3218727111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1733112335205</t>
+    <t xml:space="preserve">12.3218717575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1733102798462</t>
   </si>
   <si>
     <t xml:space="preserve">12.0160102844238</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">11.9286212921143</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8849258422852</t>
+    <t xml:space="preserve">11.8849267959595</t>
   </si>
   <si>
     <t xml:space="preserve">12.0247488021851</t>
@@ -566,25 +566,25 @@
     <t xml:space="preserve">12.0946607589722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.138355255127</t>
+    <t xml:space="preserve">12.1383562088013</t>
   </si>
   <si>
     <t xml:space="preserve">12.217004776001</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2257442474365</t>
+    <t xml:space="preserve">12.2257432937622</t>
   </si>
   <si>
     <t xml:space="preserve">11.9635763168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2082653045654</t>
+    <t xml:space="preserve">12.2082662582397</t>
   </si>
   <si>
     <t xml:space="preserve">12.1208763122559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9897937774658</t>
+    <t xml:space="preserve">11.9897928237915</t>
   </si>
   <si>
     <t xml:space="preserve">12.0684442520142</t>
@@ -593,19 +593,19 @@
     <t xml:space="preserve">12.0509662628174</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9985303878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422248840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0771818161011</t>
+    <t xml:space="preserve">11.9985313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422258377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0771827697754</t>
   </si>
   <si>
     <t xml:space="preserve">12.1033992767334</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8936643600464</t>
+    <t xml:space="preserve">11.8936653137207</t>
   </si>
   <si>
     <t xml:space="preserve">11.8412322998047</t>
@@ -638,34 +638,34 @@
     <t xml:space="preserve">11.3605909347534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3518514633179</t>
+    <t xml:space="preserve">11.3518524169922</t>
   </si>
   <si>
     <t xml:space="preserve">11.2732009887695</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2207679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431119918823</t>
+    <t xml:space="preserve">11.2207689285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431129455566</t>
   </si>
   <si>
     <t xml:space="preserve">11.2906799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0984220504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2295074462891</t>
+    <t xml:space="preserve">11.0984230041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2295083999634</t>
   </si>
   <si>
     <t xml:space="preserve">11.18581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2469844818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994184494019</t>
+    <t xml:space="preserve">11.2469854354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994194030762</t>
   </si>
   <si>
     <t xml:space="preserve">11.369330406189</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567193984985</t>
+    <t xml:space="preserve">11.4567184448242</t>
   </si>
   <si>
     <t xml:space="preserve">11.3256359100342</t>
@@ -698,13 +698,13 @@
     <t xml:space="preserve">11.2032909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5878038406372</t>
+    <t xml:space="preserve">11.5878028869629</t>
   </si>
   <si>
     <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4042863845825</t>
+    <t xml:space="preserve">11.4042854309082</t>
   </si>
   <si>
     <t xml:space="preserve">11.5091524124146</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">9.883713722229</t>
+    <t xml:space="preserve">9.88371276855469</t>
   </si>
   <si>
     <t xml:space="preserve">9.14964580535889</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">9.63028526306152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64776229858398</t>
+    <t xml:space="preserve">9.6477632522583</t>
   </si>
   <si>
     <t xml:space="preserve">9.73515224456787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74389171600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83128070831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70893478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53415775299072</t>
+    <t xml:space="preserve">9.7438907623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8312816619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70893573760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53415870666504</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172473907471</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">9.39433479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43803119659424</t>
+    <t xml:space="preserve">9.43802928924561</t>
   </si>
   <si>
     <t xml:space="preserve">9.5516357421875</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">9.37685680389404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1583833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3419017791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40307426452637</t>
+    <t xml:space="preserve">9.2632532119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15838241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34190082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40307331085205</t>
   </si>
   <si>
     <t xml:space="preserve">9.84002113342285</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">9.79632472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80506420135498</t>
+    <t xml:space="preserve">9.8050651550293</t>
   </si>
   <si>
     <t xml:space="preserve">9.7875862121582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81380271911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90119361877441</t>
+    <t xml:space="preserve">9.81380176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9011926651001</t>
   </si>
   <si>
     <t xml:space="preserve">9.857497215271</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">9.07099437713623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072834014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984218597412</t>
+    <t xml:space="preserve">9.28072929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451374053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984313964844</t>
   </si>
   <si>
     <t xml:space="preserve">9.87497615814209</t>
@@ -827,19 +827,19 @@
     <t xml:space="preserve">10.0497541427612</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91867065429688</t>
+    <t xml:space="preserve">9.91867160797119</t>
   </si>
   <si>
     <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63902378082275</t>
+    <t xml:space="preserve">9.63902473449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.71767520904541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72641372680664</t>
+    <t xml:space="preserve">9.72641468048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.61280822753906</t>
@@ -854,46 +854,46 @@
     <t xml:space="preserve">9.30694580078125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36812019348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019626617432</t>
+    <t xml:space="preserve">9.36811828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019721984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650272369385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0060596466064</t>
+    <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
     <t xml:space="preserve">9.08847236633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04477882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955585479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586326599121</t>
+    <t xml:space="preserve">9.04477787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586231231689</t>
   </si>
   <si>
     <t xml:space="preserve">9.13216686248779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95738983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82630634307861</t>
+    <t xml:space="preserve">8.95738887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263053894043</t>
   </si>
   <si>
     <t xml:space="preserve">9.00108432769775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91369438171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86999988555908</t>
+    <t xml:space="preserve">8.91369342803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8700008392334</t>
   </si>
   <si>
     <t xml:space="preserve">8.73891735076904</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">8.78261089324951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58161640167236</t>
+    <t xml:space="preserve">8.58161544799805</t>
   </si>
   <si>
     <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2412109375</t>
+    <t xml:space="preserve">9.24120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.15192222595215</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">9.10727787017822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06263542175293</t>
+    <t xml:space="preserve">9.06263637542725</t>
   </si>
   <si>
     <t xml:space="preserve">9.01799201965332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97334766387939</t>
+    <t xml:space="preserve">8.97334861755371</t>
   </si>
   <si>
     <t xml:space="preserve">8.89299011230469</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">8.75013065338135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71441650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78584575653076</t>
+    <t xml:space="preserve">8.71441555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78584671020508</t>
   </si>
   <si>
     <t xml:space="preserve">8.73227310180664</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82156181335449</t>
+    <t xml:space="preserve">8.82156085968018</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
@@ -986,25 +986,25 @@
     <t xml:space="preserve">8.80370426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37514114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50906944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33049774169922</t>
+    <t xml:space="preserve">9.37514019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50907039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442890167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3304967880249</t>
   </si>
   <si>
     <t xml:space="preserve">9.28585243225098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58941459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5358419418335</t>
+    <t xml:space="preserve">8.5894136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
   </si>
   <si>
     <t xml:space="preserve">8.62512874603271</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">8.25012397766113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30369567871094</t>
+    <t xml:space="preserve">8.30369663238525</t>
   </si>
   <si>
     <t xml:space="preserve">8.28583717346191</t>
@@ -1040,25 +1040,25 @@
     <t xml:space="preserve">8.64298629760742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4197826385498</t>
+    <t xml:space="preserve">9.41978359222412</t>
   </si>
   <si>
     <t xml:space="preserve">9.55371475219727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77693176269531</t>
+    <t xml:space="preserve">9.776930809021</t>
   </si>
   <si>
     <t xml:space="preserve">9.7322883605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0447931289673</t>
+    <t xml:space="preserve">10.0447940826416</t>
   </si>
   <si>
     <t xml:space="preserve">10.2680110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126535415649</t>
+    <t xml:space="preserve">10.3126544952393</t>
   </si>
   <si>
     <t xml:space="preserve">10.3572969436646</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">10.4019412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
+    <t xml:space="preserve">10.5805149078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="946">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262649536133</t>
+    <t xml:space="preserve">8.42262554168701</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947315216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578079223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21206188201904</t>
+    <t xml:space="preserve">8.43947219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578174591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21206092834473</t>
   </si>
   <si>
     <t xml:space="preserve">8.31734371185303</t>
@@ -59,34 +59,34 @@
     <t xml:space="preserve">8.19521522521973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27101898193359</t>
+    <t xml:space="preserve">8.27101993560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.29207706451416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15731430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18679428100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625717163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520099639893</t>
+    <t xml:space="preserve">8.15731525421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363807678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18679332733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520195007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.03518486022949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03097438812256</t>
+    <t xml:space="preserve">8.03097343444824</t>
   </si>
   <si>
     <t xml:space="preserve">8.02676296234131</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">7.99307250976562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96780395507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145124435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304309844971</t>
+    <t xml:space="preserve">7.96780633926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145029067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304357528687</t>
   </si>
   <si>
     <t xml:space="preserve">7.81619691848755</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">7.80356407165527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73197221755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6688027381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459035873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881601333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357973098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726970672607</t>
+    <t xml:space="preserve">7.73197174072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880178451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881839752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357877731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91727018356323</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203151702881</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">8.22048377990723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16994762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30471134185791</t>
+    <t xml:space="preserve">8.16994857788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30471038818359</t>
   </si>
   <si>
     <t xml:space="preserve">8.25417518615723</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">8.11941337585449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730102539062</t>
+    <t xml:space="preserve">8.07729911804199</t>
   </si>
   <si>
     <t xml:space="preserve">8.33839988708496</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420459747314</t>
+    <t xml:space="preserve">8.41420269012451</t>
   </si>
   <si>
     <t xml:space="preserve">8.32155513763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27944183349609</t>
+    <t xml:space="preserve">8.27944278717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.4256010055542</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48578262329102</t>
+    <t xml:space="preserve">8.48578357696533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55456352233887</t>
@@ -185,106 +185,106 @@
     <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3267297744751</t>
+    <t xml:space="preserve">8.32673072814941</t>
   </si>
   <si>
     <t xml:space="preserve">8.25364971160889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23645305633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962440490723</t>
+    <t xml:space="preserve">8.23645496368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962345123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.33102798461914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3353271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32242965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38261318206787</t>
+    <t xml:space="preserve">8.33532810211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32243061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38261222839355</t>
   </si>
   <si>
     <t xml:space="preserve">8.21066284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22785663604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767501831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08169841766357</t>
+    <t xml:space="preserve">8.22785758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08169746398926</t>
   </si>
   <si>
     <t xml:space="preserve">8.03871154785156</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99572324752808</t>
+    <t xml:space="preserve">7.99572277069092</t>
   </si>
   <si>
     <t xml:space="preserve">7.95273447036743</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2450532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86676073074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590534210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694282531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9097466468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3138313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59754943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64053916931152</t>
+    <t xml:space="preserve">8.24505233764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675977706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377290725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590629577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078317642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133136749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755229949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72651386260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91566181182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84687900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63194179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66633319854736</t>
+    <t xml:space="preserve">8.72651481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9156608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84688091278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6319408416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66633129119873</t>
   </si>
   <si>
     <t xml:space="preserve">8.59325218200684</t>
@@ -293,37 +293,37 @@
     <t xml:space="preserve">8.58895397186279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68352699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072174072266</t>
+    <t xml:space="preserve">8.68352794647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072364807129</t>
   </si>
   <si>
     <t xml:space="preserve">8.94145393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85547828674316</t>
+    <t xml:space="preserve">8.85547924041748</t>
   </si>
   <si>
     <t xml:space="preserve">8.76950168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02742958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639305114746</t>
+    <t xml:space="preserve">9.02742862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639114379883</t>
   </si>
   <si>
     <t xml:space="preserve">9.2337703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19938087463379</t>
+    <t xml:space="preserve">9.19937992095947</t>
   </si>
   <si>
     <t xml:space="preserve">9.2423677444458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41431903839111</t>
+    <t xml:space="preserve">9.4143180847168</t>
   </si>
   <si>
     <t xml:space="preserve">9.32834339141846</t>
@@ -332,34 +332,34 @@
     <t xml:space="preserve">9.31974601745605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20797634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517395019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.440110206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730590820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962329864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54328155517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67224597930908</t>
+    <t xml:space="preserve">9.20797729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44011116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956439971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962615966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328346252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925815582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608680725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67224502563477</t>
   </si>
   <si>
     <t xml:space="preserve">9.62065982818604</t>
@@ -368,10 +368,10 @@
     <t xml:space="preserve">9.58627033233643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68084239959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523475646973</t>
+    <t xml:space="preserve">9.68084335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523284912109</t>
   </si>
   <si>
     <t xml:space="preserve">9.61206245422363</t>
@@ -386,19 +386,19 @@
     <t xml:space="preserve">9.65504932403564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70663547515869</t>
+    <t xml:space="preserve">9.70663642883301</t>
   </si>
   <si>
     <t xml:space="preserve">9.88718414306641</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2138910293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4030380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826709747314</t>
+    <t xml:space="preserve">10.2138919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.403037071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451110839844</t>
@@ -407,22 +407,22 @@
     <t xml:space="preserve">10.102123260498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279144287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333433151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0591354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623067855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084630966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1880989074707</t>
+    <t xml:space="preserve">10.1279153823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333423614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0591344833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623058319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.308464050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1880979537964</t>
   </si>
   <si>
     <t xml:space="preserve">9.84419631958008</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85279369354248</t>
+    <t xml:space="preserve">9.8527946472168</t>
   </si>
   <si>
     <t xml:space="preserve">10.2310857772827</t>
@@ -443,37 +443,37 @@
     <t xml:space="preserve">10.2740745544434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4460248947144</t>
+    <t xml:space="preserve">10.44602394104</t>
   </si>
   <si>
     <t xml:space="preserve">10.6351709365845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6867561340332</t>
+    <t xml:space="preserve">10.6867570877075</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695613861084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9618787765503</t>
+    <t xml:space="preserve">10.961877822876</t>
   </si>
   <si>
     <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0220613479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768178939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198057174683</t>
+    <t xml:space="preserve">11.0220603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768169403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198047637939</t>
   </si>
   <si>
     <t xml:space="preserve">11.443341255188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6066951751709</t>
+    <t xml:space="preserve">11.6066942214966</t>
   </si>
   <si>
     <t xml:space="preserve">11.8302307128906</t>
@@ -485,76 +485,76 @@
     <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614517211914</t>
+    <t xml:space="preserve">11.7614498138428</t>
   </si>
   <si>
     <t xml:space="preserve">11.873218536377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9505958557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.010781288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700490951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926698684692</t>
+    <t xml:space="preserve">11.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.838828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
   </si>
   <si>
     <t xml:space="preserve">11.7786445617676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7975378036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024038314819</t>
+    <t xml:space="preserve">11.7975368499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024047851562</t>
   </si>
   <si>
     <t xml:space="preserve">11.8674488067627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8499717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9723148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597057342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859222412109</t>
+    <t xml:space="preserve">11.8499698638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9723138809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859212875366</t>
   </si>
   <si>
     <t xml:space="preserve">12.2432222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4966516494751</t>
+    <t xml:space="preserve">12.4966506958008</t>
   </si>
   <si>
     <t xml:space="preserve">12.5403451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2344837188721</t>
+    <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
     <t xml:space="preserve">12.3218717575073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1733112335205</t>
+    <t xml:space="preserve">12.1733093261719</t>
   </si>
   <si>
     <t xml:space="preserve">12.0160102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9286203384399</t>
+    <t xml:space="preserve">11.9286212921143</t>
   </si>
   <si>
     <t xml:space="preserve">11.8849258422852</t>
@@ -563,34 +563,34 @@
     <t xml:space="preserve">12.0247488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0946607589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1383562088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.217004776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257432937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897937774658</t>
+    <t xml:space="preserve">12.0946598052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1383571624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2170038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257452011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082662582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897928237915</t>
   </si>
   <si>
     <t xml:space="preserve">12.0684432983398</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0509653091431</t>
+    <t xml:space="preserve">12.0509672164917</t>
   </si>
   <si>
     <t xml:space="preserve">11.9985303878784</t>
@@ -599,19 +599,19 @@
     <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0771818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033992767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8936643600464</t>
+    <t xml:space="preserve">12.0771827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1034002304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8936653137207</t>
   </si>
   <si>
     <t xml:space="preserve">11.8412322998047</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8062772750854</t>
+    <t xml:space="preserve">11.8062763214111</t>
   </si>
   <si>
     <t xml:space="preserve">11.7800588607788</t>
@@ -620,67 +620,67 @@
     <t xml:space="preserve">11.7451038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7014083862305</t>
+    <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
     <t xml:space="preserve">11.5353698730469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.526629447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4479808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3955478668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605918884277</t>
+    <t xml:space="preserve">11.5266313552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.447979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955459594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605909347534</t>
   </si>
   <si>
     <t xml:space="preserve">11.3518524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2732019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207698822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431119918823</t>
+    <t xml:space="preserve">11.2732009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431129455566</t>
   </si>
   <si>
     <t xml:space="preserve">11.2906799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0984239578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2295074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1858129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3693294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829359054565</t>
+    <t xml:space="preserve">11.0984230041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2295083999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.18581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469844818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.369330406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829368591309</t>
   </si>
   <si>
     <t xml:space="preserve">11.6227588653564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7101469039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5790634155273</t>
+    <t xml:space="preserve">11.710147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
     <t xml:space="preserve">11.4567193984985</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">11.3256359100342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4305038452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3168964385986</t>
+    <t xml:space="preserve">11.4305019378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3168973922729</t>
   </si>
   <si>
     <t xml:space="preserve">11.2032909393311</t>
@@ -701,16 +701,16 @@
     <t xml:space="preserve">11.5878038406372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3868074417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042873382568</t>
+    <t xml:space="preserve">11.3868064880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042854309082</t>
   </si>
   <si>
     <t xml:space="preserve">11.5091533660889</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1159029006958</t>
+    <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.1246404647827</t>
@@ -719,16 +719,16 @@
     <t xml:space="preserve">11.1683349609375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2557249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88371467590332</t>
+    <t xml:space="preserve">11.2557258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88371562957764</t>
   </si>
   <si>
     <t xml:space="preserve">9.1496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35064029693604</t>
+    <t xml:space="preserve">9.35063934326172</t>
   </si>
   <si>
     <t xml:space="preserve">9.51668071746826</t>
@@ -740,31 +740,31 @@
     <t xml:space="preserve">9.6477632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74389171600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8312816619873</t>
+    <t xml:space="preserve">9.73515224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74388980865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83128070831299</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53415870666504</t>
+    <t xml:space="preserve">9.53415775299072</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3943338394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43803024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55163478851318</t>
+    <t xml:space="preserve">9.39433479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43803119659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.42055225372314</t>
@@ -773,10 +773,10 @@
     <t xml:space="preserve">9.37685680389404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26325130462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15838432312012</t>
+    <t xml:space="preserve">9.26325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1583833694458</t>
   </si>
   <si>
     <t xml:space="preserve">9.34190082550049</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84001922607422</t>
+    <t xml:space="preserve">9.84002017974854</t>
   </si>
   <si>
     <t xml:space="preserve">9.79632472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8050651550293</t>
+    <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
     <t xml:space="preserve">9.7875862121582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81380271911621</t>
+    <t xml:space="preserve">9.81380367279053</t>
   </si>
   <si>
     <t xml:space="preserve">9.9011926651001</t>
@@ -806,34 +806,34 @@
     <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22829627990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07099628448486</t>
+    <t xml:space="preserve">9.22829532623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07099437713623</t>
   </si>
   <si>
     <t xml:space="preserve">9.28072929382324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25451278686523</t>
+    <t xml:space="preserve">9.25451183319092</t>
   </si>
   <si>
     <t xml:space="preserve">9.97984218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87497615814209</t>
+    <t xml:space="preserve">9.87497711181641</t>
   </si>
   <si>
     <t xml:space="preserve">10.0497541427612</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91866970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67397975921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63902568817139</t>
+    <t xml:space="preserve">9.91867065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67398071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63902473449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.71767520904541</t>
@@ -845,31 +845,31 @@
     <t xml:space="preserve">9.61280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56911373138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68271923065186</t>
+    <t xml:space="preserve">9.56911277770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271827697754</t>
   </si>
   <si>
     <t xml:space="preserve">9.30694484710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3681173324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019626617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650272369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060596466064</t>
+    <t xml:space="preserve">9.36811828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
     <t xml:space="preserve">9.08847427368164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04477882385254</t>
+    <t xml:space="preserve">9.04477977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.219557762146</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">9.17586231231689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13216781616211</t>
+    <t xml:space="preserve">9.13216686248779</t>
   </si>
   <si>
     <t xml:space="preserve">8.95738887786865</t>
@@ -887,52 +887,52 @@
     <t xml:space="preserve">8.82630634307861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00108337402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91369533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86999988555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891544342041</t>
+    <t xml:space="preserve">9.00108528137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91369438171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86999893188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891639709473</t>
   </si>
   <si>
     <t xml:space="preserve">8.72143745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78261184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161544799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19656562805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24120998382568</t>
+    <t xml:space="preserve">8.7826099395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161449432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19656658172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.15192222595215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727977752686</t>
+    <t xml:space="preserve">9.10727882385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89298915863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727310180664</t>
+    <t xml:space="preserve">9.01799201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334861755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
     <t xml:space="preserve">8.83941745758057</t>
@@ -941,19 +941,19 @@
     <t xml:space="preserve">8.75013160705566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71441555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78584575653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227405548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85727500915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82156085968018</t>
+    <t xml:space="preserve">8.71441650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78584671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227310180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85727691650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82156181335449</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">8.66084384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57155609130859</t>
+    <t xml:space="preserve">8.57155799865723</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655418395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084003448486</t>
+    <t xml:space="preserve">8.44655609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084098815918</t>
   </si>
   <si>
     <t xml:space="preserve">8.91084671020508</t>
@@ -980,28 +980,28 @@
     <t xml:space="preserve">8.76798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92870426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37514019012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3304967880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28585433959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58941268920898</t>
+    <t xml:space="preserve">8.92870616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37514114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50906944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33049583435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28585338592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5894136428833</t>
   </si>
   <si>
     <t xml:space="preserve">8.53584289550781</t>
@@ -1010,46 +1010,46 @@
     <t xml:space="preserve">8.62512969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726833343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42869853973389</t>
+    <t xml:space="preserve">8.46441078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726737976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
     <t xml:space="preserve">8.2501220703125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30369663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28583908081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33941078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37512588500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5001277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64298725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41978454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55371475219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77693271636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73228740692139</t>
+    <t xml:space="preserve">8.30369567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28583717346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33940982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37512683868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50012683868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64298629760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41978359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55371379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77693176269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7322883605957</t>
   </si>
   <si>
     <t xml:space="preserve">10.0447940826416</t>
@@ -1058,40 +1058,40 @@
     <t xml:space="preserve">10.2680110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126554489136</t>
+    <t xml:space="preserve">10.3126544952393</t>
   </si>
   <si>
     <t xml:space="preserve">10.3572978973389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912281036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4465856552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5358715057373</t>
+    <t xml:space="preserve">10.4912300109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4465847015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5358724594116</t>
   </si>
   <si>
     <t xml:space="preserve">10.4019412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
+    <t xml:space="preserve">10.5805149078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065958023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242055892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8521928787231</t>
+    <t xml:space="preserve">10.8065948486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242046356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8521919250488</t>
   </si>
   <si>
     <t xml:space="preserve">10.7609977722168</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">10.5330104827881</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3962163925171</t>
+    <t xml:space="preserve">10.3962173461914</t>
   </si>
   <si>
     <t xml:space="preserve">10.2138290405273</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
-    <t xml:space="preserve">10.122633934021</t>
+    <t xml:space="preserve">10.1226348876953</t>
   </si>
   <si>
     <t xml:space="preserve">10.2594261169434</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">10.0314388275146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3050241470337</t>
+    <t xml:space="preserve">10.3050231933594</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682300567627</t>
@@ -1139,16 +1139,16 @@
     <t xml:space="preserve">9.89464664459229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84904861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48426818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43867206573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986621856689</t>
+    <t xml:space="preserve">9.84904956817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4842700958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43867301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986526489258</t>
   </si>
   <si>
     <t xml:space="preserve">9.62106227874756</t>
@@ -1163,19 +1163,19 @@
     <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25628185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16508674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3018798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21068572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39307403564453</t>
+    <t xml:space="preserve">9.25628280639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1650857925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30187892913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21068477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39307498931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.1194896697998</t>
@@ -1184,31 +1184,31 @@
     <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80345058441162</t>
+    <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
     <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1257762908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6273498535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.672947883606</t>
+    <t xml:space="preserve">11.1257772445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.627347946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
     <t xml:space="preserve">11.3993616104126</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3081684112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0801801681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0345830917358</t>
+    <t xml:space="preserve">11.3081665039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0801792144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0345821380615</t>
   </si>
   <si>
     <t xml:space="preserve">11.1713752746582</t>
@@ -1217,25 +1217,25 @@
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.581750869751</t>
+    <t xml:space="preserve">11.5817518234253</t>
   </si>
   <si>
     <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8553352355957</t>
+    <t xml:space="preserve">11.85533618927</t>
   </si>
   <si>
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833225250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1745195388794</t>
+    <t xml:space="preserve">12.0833234786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1745185852051</t>
   </si>
   <si>
     <t xml:space="preserve">11.9921283721924</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4937009811401</t>
+    <t xml:space="preserve">12.4936990737915</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">13.1320648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9952726364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9496746063232</t>
+    <t xml:space="preserve">12.9952735900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9496755599976</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688579559326</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">12.6304931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7216882705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4481019973755</t>
+    <t xml:space="preserve">12.7216873168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4481039047241</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
@@ -1295,22 +1295,22 @@
     <t xml:space="preserve">9.02829456329346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09810543060303</t>
+    <t xml:space="preserve">8.09810638427734</t>
   </si>
   <si>
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64213180541992</t>
+    <t xml:space="preserve">7.64213228225708</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6635160446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07986831665039</t>
+    <t xml:space="preserve">8.66351509094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07986736297607</t>
   </si>
   <si>
     <t xml:space="preserve">8.57231998443604</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">8.73647117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79118919372559</t>
+    <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
     <t xml:space="preserve">8.99181652069092</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">9.34747695922852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0847978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94473075866699</t>
+    <t xml:space="preserve">10.0847988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94472980499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.0381088256836</t>
@@ -1343,49 +1343,49 @@
     <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99142074584961</t>
+    <t xml:space="preserve">9.99141979217529</t>
   </si>
   <si>
     <t xml:space="preserve">10.2715539932251</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89804267883301</t>
+    <t xml:space="preserve">9.89804363250732</t>
   </si>
   <si>
     <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4583082199097</t>
+    <t xml:space="preserve">10.458309173584</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785076141357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7384405136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0185747146606</t>
+    <t xml:space="preserve">10.7384414672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.018575668335</t>
   </si>
   <si>
     <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1586408615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7851305007935</t>
+    <t xml:space="preserve">11.1586418151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7851314544678</t>
   </si>
   <si>
     <t xml:space="preserve">10.925196647644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6450624465942</t>
+    <t xml:space="preserve">10.6450634002686</t>
   </si>
   <si>
     <t xml:space="preserve">11.2987079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4854640960693</t>
+    <t xml:space="preserve">11.485463142395</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
@@ -1394,37 +1394,37 @@
     <t xml:space="preserve">11.3453969955444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.438775062561</t>
+    <t xml:space="preserve">11.2053308486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4387760162354</t>
   </si>
   <si>
     <t xml:space="preserve">11.1119518280029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2520198822021</t>
+    <t xml:space="preserve">11.2520189285278</t>
   </si>
   <si>
     <t xml:space="preserve">10.9718866348267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652647018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5788421630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6255302429199</t>
+    <t xml:space="preserve">11.0652637481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5788412094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6255311965942</t>
   </si>
   <si>
     <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.532154083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189092636108</t>
+    <t xml:space="preserve">11.5321531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189083099365</t>
   </si>
   <si>
     <t xml:space="preserve">11.7655973434448</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2791748046875</t>
+    <t xml:space="preserve">12.2791738510132</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9990425109863</t>
+    <t xml:space="preserve">11.999041557312</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
@@ -1457,52 +1457,52 @@
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924196243286</t>
+    <t xml:space="preserve">12.0924186706543</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3258628845215</t>
+    <t xml:space="preserve">12.3258638381958</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9795083999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2596406936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.07288646698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1195755004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3997077941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4463958740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3063287734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3530187606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864629745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930849075317</t>
+    <t xml:space="preserve">12.9795074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2596416473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0728855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.119574546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3997087478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4463968276978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3063306808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3530197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864639282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930858612061</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9132852554321</t>
+    <t xml:space="preserve">13.9132843017578</t>
   </si>
   <si>
     <t xml:space="preserve">13.633152961731</t>
@@ -1511,67 +1511,67 @@
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5593090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0261964797974</t>
+    <t xml:space="preserve">12.5593070983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.026195526123</t>
   </si>
   <si>
     <t xml:space="preserve">12.9328193664551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8394412994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5397748947144</t>
+    <t xml:space="preserve">12.8394403457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.53977394104</t>
   </si>
   <si>
     <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.053352355957</t>
+    <t xml:space="preserve">14.0533533096313</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801746368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.566930770874</t>
+    <t xml:space="preserve">14.3801736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5669298171997</t>
   </si>
   <si>
     <t xml:space="preserve">14.3334856033325</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7069959640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9404401779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8937511444092</t>
+    <t xml:space="preserve">14.7069969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9404411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8937520980835</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338182449341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0805072784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2672643661499</t>
+    <t xml:space="preserve">15.0805063247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2672634124756</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8470621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603078842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4735527038574</t>
+    <t xml:space="preserve">14.8470630645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.660306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
     <t xml:space="preserve">14.1934185028076</t>
@@ -1580,13 +1580,13 @@
     <t xml:space="preserve">14.5202417373657</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665962219238</t>
+    <t xml:space="preserve">13.8665971755981</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732181549072</t>
+    <t xml:space="preserve">13.7732191085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401075363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5918321609497</t>
+    <t xml:space="preserve">14.2401084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.591833114624</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">15.2572574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3047885894775</t>
+    <t xml:space="preserve">15.3047876358032</t>
   </si>
   <si>
     <t xml:space="preserve">15.1146669387817</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">15.1621971130371</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3998508453369</t>
+    <t xml:space="preserve">15.3998498916626</t>
   </si>
   <si>
     <t xml:space="preserve">15.3523187637329</t>
@@ -1637,25 +1637,25 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.542441368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9720754623413</t>
+    <t xml:space="preserve">15.5424404144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.972074508667</t>
   </si>
   <si>
     <t xml:space="preserve">15.0196056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">15.447380065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7325620651245</t>
+    <t xml:space="preserve">15.4473791122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7325601577759</t>
   </si>
   <si>
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226818084717</t>
+    <t xml:space="preserve">15.9226837158203</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1667,16 +1667,16 @@
     <t xml:space="preserve">16.1603355407715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0177440643311</t>
+    <t xml:space="preserve">16.0177459716797</t>
   </si>
   <si>
     <t xml:space="preserve">16.350456237793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0652732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7782325744629</t>
+    <t xml:space="preserve">16.0652751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7782306671143</t>
   </si>
   <si>
     <t xml:space="preserve">17.1109447479248</t>
@@ -1691,10 +1691,10 @@
     <t xml:space="preserve">16.4455165863037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5387191772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0615520477295</t>
+    <t xml:space="preserve">17.5387172698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0615501403809</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.348596572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7763710021973</t>
+    <t xml:space="preserve">16.8732929229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3485946655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7763690948486</t>
   </si>
   <si>
     <t xml:space="preserve">17.8714294433594</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">18.8220367431641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0121593475342</t>
+    <t xml:space="preserve">19.0121574401855</t>
   </si>
   <si>
     <t xml:space="preserve">19.2022838592529</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0578289031982</t>
+    <t xml:space="preserve">20.0578269958496</t>
   </si>
   <si>
     <t xml:space="preserve">19.8677062988281</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936172485352</t>
+    <t xml:space="preserve">21.2936191558838</t>
   </si>
   <si>
     <t xml:space="preserve">21.578800201416</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034984588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1491641998291</t>
+    <t xml:space="preserve">21.1034965515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1491661071777</t>
   </si>
   <si>
     <t xml:space="preserve">22.4343490600586</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">22.6244678497314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8145904541016</t>
+    <t xml:space="preserve">22.8145923614502</t>
   </si>
   <si>
     <t xml:space="preserve">21.9590435028076</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8639812469482</t>
+    <t xml:space="preserve">21.8639831542969</t>
   </si>
   <si>
     <t xml:space="preserve">20.5331325531006</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9133758544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2442264556885</t>
+    <t xml:space="preserve">20.9133739471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2442245483398</t>
   </si>
   <si>
     <t xml:space="preserve">23.0997734069824</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">21.6738605499268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8183135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3430118560791</t>
+    <t xml:space="preserve">20.8183155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3430099487305</t>
   </si>
   <si>
     <t xml:space="preserve">23.0047130584717</t>
@@ -1835,31 +1835,31 @@
     <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7195281982422</t>
+    <t xml:space="preserve">22.7195301055908</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7232513427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1985569000244</t>
+    <t xml:space="preserve">20.7232532501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1985549926758</t>
   </si>
   <si>
     <t xml:space="preserve">19.6775856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1072216033936</t>
+    <t xml:space="preserve">19.1072196960449</t>
   </si>
   <si>
     <t xml:space="preserve">18.6319160461426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2060070037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9189605712891</t>
+    <t xml:space="preserve">17.2060050964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9189624786377</t>
   </si>
   <si>
     <t xml:space="preserve">18.0140209197998</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">17.6337776184082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1566123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2041435241699</t>
+    <t xml:space="preserve">18.1566143035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2041416168213</t>
   </si>
   <si>
     <t xml:space="preserve">18.5368556976318</t>
   </si>
   <si>
-    <t xml:space="preserve">19.154748916626</t>
+    <t xml:space="preserve">19.1547508239746</t>
   </si>
   <si>
     <t xml:space="preserve">18.9170989990234</t>
@@ -1889,13 +1889,13 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988288879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7269763946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2136478424072</t>
+    <t xml:space="preserve">18.4988307952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.726978302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2136497497559</t>
   </si>
   <si>
     <t xml:space="preserve">18.3847579956055</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7650012969971</t>
+    <t xml:space="preserve">18.7649993896484</t>
   </si>
   <si>
     <t xml:space="preserve">17.8143939971924</t>
@@ -1925,25 +1925,25 @@
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249214172363</t>
+    <t xml:space="preserve">17.1333637237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249195098877</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2072010040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7032775878906</t>
+    <t xml:space="preserve">19.2071990966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.703275680542</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816356658936</t>
+    <t xml:space="preserve">19.3816337585449</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1955,37 +1955,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.226583480835</t>
+    <t xml:space="preserve">19.2265815734863</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3507175445557</t>
+    <t xml:space="preserve">20.350715637207</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4476261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383499145508</t>
+    <t xml:space="preserve">21.2228908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.447624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383480072021</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.866174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001842498779</t>
+    <t xml:space="preserve">21.8043384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8661766052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001861572266</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239051818848</t>
+    <t xml:space="preserve">19.6239070892334</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723594665527</t>
+    <t xml:space="preserve">18.9746208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723575592041</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538070678711</t>
+    <t xml:space="preserve">20.2538089752197</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919708251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4651584625244</t>
+    <t xml:space="preserve">22.1919727325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074298858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.465160369873</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.610523223877</t>
+    <t xml:space="preserve">21.6105213165283</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1568984985352</t>
+    <t xml:space="preserve">20.1569004058838</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2579612731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734222412109</t>
+    <t xml:space="preserve">23.257963180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.676513671875</t>
+    <t xml:space="preserve">22.6765117645264</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156452178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7692680358887</t>
+    <t xml:space="preserve">18.3156433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.76926612854</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486850738525</t>
+    <t xml:space="preserve">22.9672374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486869812012</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600364685059</t>
+    <t xml:space="preserve">24.7600383758545</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754974365234</t>
+    <t xml:space="preserve">24.2754955291748</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9054012298584</t>
+    <t xml:space="preserve">24.905403137207</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.729118347168</t>
+    <t xml:space="preserve">25.7291202545166</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827411651611</t>
+    <t xml:space="preserve">27.2796497344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827430725098</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167526245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652088165283</t>
+    <t xml:space="preserve">25.1961269378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322116851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167545318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652069091797</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260269165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3105697631836</t>
+    <t xml:space="preserve">25.8260288238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.310567855835</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703773498535</t>
+    <t xml:space="preserve">27.5703754425049</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.768346786499</t>
+    <t xml:space="preserve">30.7683448791504</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.605447769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1209049224854</t>
+    <t xml:space="preserve">29.6054458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085411071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.120906829834</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.702356338501</t>
+    <t xml:space="preserve">29.7023544311523</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2339,16 +2339,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776210784912</t>
+    <t xml:space="preserve">30.4776229858398</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559791564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198905944824</t>
+    <t xml:space="preserve">31.1559810638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198925018311</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2357,16 +2357,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332744598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600830078125</t>
+    <t xml:space="preserve">30.2353496551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363639831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600849151611</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -2847,6 +2847,9 @@
   </si>
   <si>
     <t xml:space="preserve">26.2999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5499992370605</t>
   </si>
 </sst>
 </file>
@@ -59036,27 +59039,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6493171296</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>9966</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>24.6000003814697</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>25.0499992370605</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>25.0499992370605</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>943</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>16281</v>
       </c>
-      <c r="C2149" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="D2149" t="n">
+      <c r="C2150" t="n">
+        <v>26.2999992370605</v>
+      </c>
+      <c r="D2150" t="n">
         <v>25.1000003814697</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>25.25</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>26.2999992370605</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>944</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6495486111</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>7097</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>26.2000007629395</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>26.2000007629395</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>945</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="949">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,64 +44,64 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947315216064</t>
+    <t xml:space="preserve">8.43947219848633</t>
   </si>
   <si>
     <t xml:space="preserve">8.40578079223633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21206092834473</t>
+    <t xml:space="preserve">8.21206188201904</t>
   </si>
   <si>
     <t xml:space="preserve">8.31734466552734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19521522521973</t>
+    <t xml:space="preserve">8.19521617889404</t>
   </si>
   <si>
     <t xml:space="preserve">8.27102088928223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29207515716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731525421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363807678223</t>
+    <t xml:space="preserve">8.29207706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363712310791</t>
   </si>
   <si>
     <t xml:space="preserve">8.18679332733154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08572292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625717163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520195007324</t>
+    <t xml:space="preserve">8.08572196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520099639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.03518581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03097629547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676486968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149440765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780681610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145124435425</t>
+    <t xml:space="preserve">8.03097438812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676391601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149536132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307298660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780443191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145029067993</t>
   </si>
   <si>
     <t xml:space="preserve">7.83304214477539</t>
@@ -110,28 +110,28 @@
     <t xml:space="preserve">7.81619739532471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80356454849243</t>
+    <t xml:space="preserve">7.80356502532959</t>
   </si>
   <si>
     <t xml:space="preserve">7.73197221755981</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66880178451538</t>
+    <t xml:space="preserve">7.66880083084106</t>
   </si>
   <si>
     <t xml:space="preserve">7.66459131240845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7488169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203247070312</t>
+    <t xml:space="preserve">7.74881744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357830047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726922988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203056335449</t>
   </si>
   <si>
     <t xml:space="preserve">8.22048377990723</t>
@@ -146,22 +146,22 @@
     <t xml:space="preserve">8.25417327880859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11941242218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07729911804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48158550262451</t>
+    <t xml:space="preserve">8.11941337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33839988708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4815845489502</t>
   </si>
   <si>
     <t xml:space="preserve">8.44789505004883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420269012451</t>
+    <t xml:space="preserve">8.41420459747314</t>
   </si>
   <si>
     <t xml:space="preserve">8.32155609130859</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">8.42560005187988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48578357696533</t>
+    <t xml:space="preserve">8.48578453063965</t>
   </si>
   <si>
     <t xml:space="preserve">8.55456352233887</t>
@@ -182,82 +182,82 @@
     <t xml:space="preserve">8.27084445953369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29663562774658</t>
+    <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
     <t xml:space="preserve">8.32672882080078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25364971160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962440490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532428741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32242965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38261127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21066188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767406463623</t>
+    <t xml:space="preserve">8.2536506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645305633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33532619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32243061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38261318206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21066093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767311096191</t>
   </si>
   <si>
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871059417725</t>
+    <t xml:space="preserve">8.03871154785156</t>
   </si>
   <si>
     <t xml:space="preserve">7.99572229385376</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95273447036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505233764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675882339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590534210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694330215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90974712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078365325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133279800415</t>
+    <t xml:space="preserve">7.95273590087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2450532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377147674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590629577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9097466468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779821395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078413009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133422851562</t>
   </si>
   <si>
     <t xml:space="preserve">8.31383228302002</t>
@@ -266,67 +266,67 @@
     <t xml:space="preserve">8.5975513458252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64053821563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64913654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7265157699585</t>
+    <t xml:space="preserve">8.64054012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64913749694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72651386260986</t>
   </si>
   <si>
     <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84688091278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6319408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66633129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325122833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895397186279</t>
+    <t xml:space="preserve">8.84687995910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63194179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66633319854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895492553711</t>
   </si>
   <si>
     <t xml:space="preserve">8.68352699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70072269439697</t>
+    <t xml:space="preserve">8.70072174072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.9414529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85547828674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76950359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02743053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23376846313477</t>
+    <t xml:space="preserve">8.85547924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76950263977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02742862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23376941680908</t>
   </si>
   <si>
     <t xml:space="preserve">9.19938087463379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2423677444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4143180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834434509277</t>
+    <t xml:space="preserve">9.24236869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431903839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">9.31974601745605</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">9.22517204284668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44011116027832</t>
+    <t xml:space="preserve">9.44011211395264</t>
   </si>
   <si>
     <t xml:space="preserve">9.45730686187744</t>
@@ -347,52 +347,52 @@
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74962329864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54328346252441</t>
+    <t xml:space="preserve">9.74962425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5432825088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.62925815582275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52608585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67224597930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62066173553467</t>
+    <t xml:space="preserve">9.52608680725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67224502563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62065982818604</t>
   </si>
   <si>
     <t xml:space="preserve">9.58626937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68084239959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56047630310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65505027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718509674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138919830322</t>
+    <t xml:space="preserve">9.68084335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206245422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5518798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5604772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138910293579</t>
   </si>
   <si>
     <t xml:space="preserve">10.4030380249023</t>
@@ -401,16 +401,16 @@
     <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451120376587</t>
+    <t xml:space="preserve">10.1451110839844</t>
   </si>
   <si>
     <t xml:space="preserve">10.102123260498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279163360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333433151245</t>
+    <t xml:space="preserve">10.1279153823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333423614502</t>
   </si>
   <si>
     <t xml:space="preserve">10.0591354370117</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">10.1623048782349</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3084650039673</t>
+    <t xml:space="preserve">10.308464050293</t>
   </si>
   <si>
     <t xml:space="preserve">10.1880989074707</t>
@@ -431,49 +431,49 @@
     <t xml:space="preserve">9.87858772277832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85279369354248</t>
+    <t xml:space="preserve">9.8527946472168</t>
   </si>
   <si>
     <t xml:space="preserve">10.231086730957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0075492858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.274073600769</t>
+    <t xml:space="preserve">10.007550239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2740745544434</t>
   </si>
   <si>
     <t xml:space="preserve">10.4460248947144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6351699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867570877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.961877822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0736474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0220613479614</t>
+    <t xml:space="preserve">10.6351709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9618787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0736455917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0220603942871</t>
   </si>
   <si>
     <t xml:space="preserve">11.1768178939819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2198047637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.443341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066942214966</t>
+    <t xml:space="preserve">11.2198038101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066932678223</t>
   </si>
   <si>
     <t xml:space="preserve">11.8302316665649</t>
@@ -482,52 +482,52 @@
     <t xml:space="preserve">11.7528533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6496820449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614507675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8732194900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505958557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849872589111</t>
+    <t xml:space="preserve">11.6496829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614498138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873218536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849863052368</t>
   </si>
   <si>
     <t xml:space="preserve">12.0107793807983</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8388290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700490951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926708221436</t>
+    <t xml:space="preserve">11.838828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926689147949</t>
   </si>
   <si>
     <t xml:space="preserve">11.7786455154419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7975368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024047851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674488067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8499708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9723148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597038269043</t>
+    <t xml:space="preserve">11.7975378036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024028778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8674478530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8499717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9723138809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597057342529</t>
   </si>
   <si>
     <t xml:space="preserve">12.0859212875366</t>
@@ -542,49 +542,49 @@
     <t xml:space="preserve">12.5403461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2344827651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3218717575073</t>
+    <t xml:space="preserve">12.2344837188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3218727111816</t>
   </si>
   <si>
     <t xml:space="preserve">12.1733112335205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0160093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286203384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849267959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247497558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.138355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2170057296753</t>
+    <t xml:space="preserve">12.0160102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286193847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849258422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1383562088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2170038223267</t>
   </si>
   <si>
     <t xml:space="preserve">12.2257442474365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9635772705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082662582397</t>
+    <t xml:space="preserve">11.9635763168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082672119141</t>
   </si>
   <si>
     <t xml:space="preserve">12.1208763122559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9897947311401</t>
+    <t xml:space="preserve">11.9897937774658</t>
   </si>
   <si>
     <t xml:space="preserve">12.0684442520142</t>
@@ -593,16 +593,16 @@
     <t xml:space="preserve">12.0509653091431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9985313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422258377075</t>
+    <t xml:space="preserve">11.9985322952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
     <t xml:space="preserve">12.0771818161011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1033992767334</t>
+    <t xml:space="preserve">12.1034002304077</t>
   </si>
   <si>
     <t xml:space="preserve">11.8936653137207</t>
@@ -611,31 +611,31 @@
     <t xml:space="preserve">11.8412313461304</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8062763214111</t>
+    <t xml:space="preserve">11.8062753677368</t>
   </si>
   <si>
     <t xml:space="preserve">11.7800588607788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7451019287109</t>
+    <t xml:space="preserve">11.7451038360596</t>
   </si>
   <si>
     <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5353679656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5266304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4479789733887</t>
+    <t xml:space="preserve">11.5353689193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.526629447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479808807373</t>
   </si>
   <si>
     <t xml:space="preserve">11.395546913147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3605918884277</t>
+    <t xml:space="preserve">11.3605909347534</t>
   </si>
   <si>
     <t xml:space="preserve">11.3518524169922</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">11.2732019424438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2207679748535</t>
+    <t xml:space="preserve">11.2207698822021</t>
   </si>
   <si>
     <t xml:space="preserve">11.3431129455566</t>
@@ -653,31 +653,31 @@
     <t xml:space="preserve">11.2906799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0984230041504</t>
+    <t xml:space="preserve">11.0984220504761</t>
   </si>
   <si>
     <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.18581199646</t>
+    <t xml:space="preserve">11.1858139038086</t>
   </si>
   <si>
     <t xml:space="preserve">11.2469854354858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3693294525146</t>
+    <t xml:space="preserve">11.2994184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.369330406189</t>
   </si>
   <si>
     <t xml:space="preserve">11.4829359054565</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6227588653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7101469039917</t>
+    <t xml:space="preserve">11.6227579116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.710147857666</t>
   </si>
   <si>
     <t xml:space="preserve">11.5790643692017</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">11.4567184448242</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3256359100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4305028915405</t>
+    <t xml:space="preserve">11.3256368637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4305019378662</t>
   </si>
   <si>
     <t xml:space="preserve">11.3168973922729</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">11.2032909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5878047943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868074417114</t>
+    <t xml:space="preserve">11.5878028869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868083953857</t>
   </si>
   <si>
     <t xml:space="preserve">11.4042854309082</t>
@@ -710,37 +710,37 @@
     <t xml:space="preserve">11.5091533660889</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1159019470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1246404647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683359146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557249069214</t>
+    <t xml:space="preserve">11.1159029006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1246395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683340072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557258605957</t>
   </si>
   <si>
     <t xml:space="preserve">9.88371467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14964580535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35064125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51667976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63028526306152</t>
+    <t xml:space="preserve">9.14964485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35064029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51668071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63028717041016</t>
   </si>
   <si>
     <t xml:space="preserve">9.6477632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73515224456787</t>
+    <t xml:space="preserve">9.7351541519165</t>
   </si>
   <si>
     <t xml:space="preserve">9.7438907623291</t>
@@ -749,88 +749,88 @@
     <t xml:space="preserve">9.8312816619873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70893478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53415775299072</t>
+    <t xml:space="preserve">9.70893573760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53415870666504</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39433479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43803024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55163669586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4205493927002</t>
+    <t xml:space="preserve">9.39433670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43802928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5516357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055130004883</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685680389404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2632532119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1583833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3419017791748</t>
+    <t xml:space="preserve">9.26325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15838527679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34190082550049</t>
   </si>
   <si>
     <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84001922607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80506420135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78758716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380271911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90119171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.857497215271</t>
+    <t xml:space="preserve">9.84002017974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8050651550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7875862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9011926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85749626159668</t>
   </si>
   <si>
     <t xml:space="preserve">9.22829723358154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07099533081055</t>
+    <t xml:space="preserve">9.07099437713623</t>
   </si>
   <si>
     <t xml:space="preserve">9.28072929382324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25451183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497711181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91866970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398071289062</t>
+    <t xml:space="preserve">9.25451374053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9798412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0497522354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91867065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397880554199</t>
   </si>
   <si>
     <t xml:space="preserve">9.63902473449707</t>
@@ -839,25 +839,25 @@
     <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72641372680664</t>
+    <t xml:space="preserve">9.72641468048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.61280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56911277770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68271827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694484710693</t>
+    <t xml:space="preserve">9.56911468505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68272018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694580078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.36811828613281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70019817352295</t>
+    <t xml:space="preserve">9.70019721984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650272369385</t>
@@ -866,55 +866,55 @@
     <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08847236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.219557762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586326599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216781616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95738983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8263053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00108432769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91369533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891639709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7826099395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19656658172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15192317962646</t>
+    <t xml:space="preserve">9.08847332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216686248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95738887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82630634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00108337402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91369342803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891544342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78261089324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161544799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19656562805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24120998382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15192222595215</t>
   </si>
   <si>
     <t xml:space="preserve">9.10727882385254</t>
@@ -923,46 +923,46 @@
     <t xml:space="preserve">9.06263542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.892991065979</t>
+    <t xml:space="preserve">9.01799297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334861755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83941745758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75012969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71441650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78584671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227214813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85727596282959</t>
+    <t xml:space="preserve">8.83941841125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75013065338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71441555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78584575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227405548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85727500915527</t>
   </si>
   <si>
     <t xml:space="preserve">8.82156085968018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87513256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66084289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155799865723</t>
+    <t xml:space="preserve">8.8751335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66084480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155704498291</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298343658447</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">8.41084098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91084671020508</t>
+    <t xml:space="preserve">8.91084766387939</t>
   </si>
   <si>
     <t xml:space="preserve">8.76798915863037</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">8.9287052154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80370330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37514114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50906944274902</t>
+    <t xml:space="preserve">8.80370426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37514019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50907039642334</t>
   </si>
   <si>
     <t xml:space="preserve">9.46442890167236</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3304967880249</t>
+    <t xml:space="preserve">9.33049583435059</t>
   </si>
   <si>
     <t xml:space="preserve">9.28585338592529</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">8.25012302398682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30369472503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28583717346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33941078186035</t>
+    <t xml:space="preserve">8.30369663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28583908081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33941173553467</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512588500977</t>
@@ -1037,43 +1037,43 @@
     <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64298725128174</t>
+    <t xml:space="preserve">8.64298629760742</t>
   </si>
   <si>
     <t xml:space="preserve">9.41978454589844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55371475219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77693271636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73228931427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680110931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126535415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.491229057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4465856552124</t>
+    <t xml:space="preserve">9.55371379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77693367004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73228740692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680101394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126554489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572988510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912281036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
     <t xml:space="preserve">10.5358724594116</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4019412994385</t>
+    <t xml:space="preserve">10.4019403457642</t>
   </si>
   <si>
     <t xml:space="preserve">10.5805158615112</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242055892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8521919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330095291138</t>
+    <t xml:space="preserve">10.8065958023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242046356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8521928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330114364624</t>
   </si>
   <si>
     <t xml:space="preserve">10.3962173461914</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1226348876953</t>
+    <t xml:space="preserve">10.1226329803467</t>
   </si>
   <si>
     <t xml:space="preserve">10.2594261169434</t>
@@ -1127,37 +1127,37 @@
     <t xml:space="preserve">10.0770359039307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0314378738403</t>
+    <t xml:space="preserve">10.0314388275146</t>
   </si>
   <si>
     <t xml:space="preserve">10.3050231933594</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1682300567627</t>
+    <t xml:space="preserve">10.168231010437</t>
   </si>
   <si>
     <t xml:space="preserve">9.89464664459229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84904956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48426914215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43867206573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986621856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106227874756</t>
+    <t xml:space="preserve">9.84904861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48426818847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43867301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986717224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106037139893</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66666030883789</t>
+    <t xml:space="preserve">9.66665935516357</t>
   </si>
   <si>
     <t xml:space="preserve">9.57546424865723</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">9.25628185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1650857925415</t>
+    <t xml:space="preserve">9.16508674621582</t>
   </si>
   <si>
     <t xml:space="preserve">9.30187892913818</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">9.21068477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39307498931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1194896697998</t>
+    <t xml:space="preserve">9.39307308197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11948871612549</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80345153808594</t>
+    <t xml:space="preserve">9.80345058441162</t>
   </si>
   <si>
     <t xml:space="preserve">9.9402437210083</t>
@@ -1193,49 +1193,49 @@
     <t xml:space="preserve">11.1257762908936</t>
   </si>
   <si>
-    <t xml:space="preserve">11.627347946167</t>
+    <t xml:space="preserve">11.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3993616104126</t>
+    <t xml:space="preserve">11.3993625640869</t>
   </si>
   <si>
     <t xml:space="preserve">11.3081665039062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0801792144775</t>
+    <t xml:space="preserve">11.0801801681519</t>
   </si>
   <si>
     <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713743209839</t>
+    <t xml:space="preserve">11.1713752746582</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5817518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.718544960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9465312957764</t>
+    <t xml:space="preserve">11.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7185440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.85533618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9465322494507</t>
   </si>
   <si>
     <t xml:space="preserve">12.0833234786987</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3113107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1745185852051</t>
+    <t xml:space="preserve">12.3113098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1745195388794</t>
   </si>
   <si>
     <t xml:space="preserve">11.9921283721924</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4937000274658</t>
+    <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320648193359</t>
+    <t xml:space="preserve">13.1320657730103</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496755599976</t>
+    <t xml:space="preserve">12.9496746063232</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688579559326</t>
@@ -1268,25 +1268,25 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481029510498</t>
+    <t xml:space="preserve">12.4481039047241</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8128824234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8584794998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0864686965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.900933265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9433879852295</t>
+    <t xml:space="preserve">12.8128833770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8584814071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0864677429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9009342193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9433889389038</t>
   </si>
   <si>
     <t xml:space="preserve">10.7154006958008</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64213228225708</t>
+    <t xml:space="preserve">7.6421332359314</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66351509094238</t>
+    <t xml:space="preserve">8.66351413726807</t>
   </si>
   <si>
     <t xml:space="preserve">8.07986736297607</t>
@@ -1316,16 +1316,16 @@
     <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73647117614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118824005127</t>
+    <t xml:space="preserve">8.73646926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118919372559</t>
   </si>
   <si>
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34747791290283</t>
+    <t xml:space="preserve">9.34747695922852</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847988128662</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">9.99141979217529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2715530395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89804363250732</t>
+    <t xml:space="preserve">10.2715539932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
     <t xml:space="preserve">10.5516862869263</t>
@@ -1358,10 +1358,10 @@
     <t xml:space="preserve">10.458309173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8785085678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7384414672852</t>
+    <t xml:space="preserve">10.8785076141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7384405136108</t>
   </si>
   <si>
     <t xml:space="preserve">11.018575668335</t>
@@ -1370,10 +1370,10 @@
     <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1586418151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7851305007935</t>
+    <t xml:space="preserve">11.1586408615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7851314544678</t>
   </si>
   <si>
     <t xml:space="preserve">10.925196647644</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">10.6450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2987089157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4854640960693</t>
+    <t xml:space="preserve">11.2987079620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.485463142395</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">11.2053308486938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.438775062561</t>
+    <t xml:space="preserve">11.4387760162354</t>
   </si>
   <si>
     <t xml:space="preserve">11.1119518280029</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">11.2520198822021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9718866348267</t>
+    <t xml:space="preserve">10.9718856811523</t>
   </si>
   <si>
     <t xml:space="preserve">11.0652637481689</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">11.5788412094116</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6255302429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3920850753784</t>
+    <t xml:space="preserve">11.6255311965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
     <t xml:space="preserve">11.5321531295776</t>
@@ -1433,22 +1433,22 @@
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391086578369</t>
+    <t xml:space="preserve">12.1391077041626</t>
   </si>
   <si>
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857957839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2791738510132</t>
+    <t xml:space="preserve">12.1857986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.999041557312</t>
+    <t xml:space="preserve">11.9990425109863</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924186706543</t>
+    <t xml:space="preserve">12.0924196243286</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122863769531</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">13.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1195735931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3997087478638</t>
+    <t xml:space="preserve">13.119574546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3997077941895</t>
   </si>
   <si>
     <t xml:space="preserve">13.4463968276978</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">13.3063297271729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3530197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864639282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930858612061</t>
+    <t xml:space="preserve">13.3530187606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864629745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930849075317</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">13.9132843017578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6331520080566</t>
+    <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5593070983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.026195526123</t>
+    <t xml:space="preserve">12.559308052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0261964797974</t>
   </si>
   <si>
     <t xml:space="preserve">12.9328193664551</t>
@@ -1523,13 +1523,13 @@
     <t xml:space="preserve">12.8394403457642</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5397748947144</t>
+    <t xml:space="preserve">13.53977394104</t>
   </si>
   <si>
     <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0533533096313</t>
+    <t xml:space="preserve">14.053352355957</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
@@ -1538,10 +1538,10 @@
     <t xml:space="preserve">14.3801746368408</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5669298171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3334865570068</t>
+    <t xml:space="preserve">14.566930770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3334846496582</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069959640503</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">14.9404411315918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8937520980835</t>
+    <t xml:space="preserve">14.8937511444092</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338182449341</t>
@@ -1559,25 +1559,25 @@
     <t xml:space="preserve">15.0805063247681</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2672624588013</t>
+    <t xml:space="preserve">15.2672634124756</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8470630645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603078842163</t>
+    <t xml:space="preserve">14.8470621109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.660306930542</t>
   </si>
   <si>
     <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1934185028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202417373657</t>
+    <t xml:space="preserve">14.1934194564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202407836914</t>
   </si>
   <si>
     <t xml:space="preserve">13.8665971755981</t>
@@ -1592,16 +1592,16 @@
     <t xml:space="preserve">13.9599742889404</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1738843917847</t>
+    <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
     <t xml:space="preserve">14.2401075363159</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6393632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.591833114624</t>
+    <t xml:space="preserve">14.6393623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5918321609497</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">15.2572574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3047876358032</t>
+    <t xml:space="preserve">15.3047885894775</t>
   </si>
   <si>
     <t xml:space="preserve">15.1146669387817</t>
@@ -1637,16 +1637,16 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424404144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.972074508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0196056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4473791122437</t>
+    <t xml:space="preserve">15.5424394607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9720754623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.019606590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
     <t xml:space="preserve">15.7325601577759</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">16.1603355407715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0177459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.350456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0652751922607</t>
+    <t xml:space="preserve">16.0177440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3504581451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
     <t xml:space="preserve">16.7782306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1109447479248</t>
+    <t xml:space="preserve">17.1109428405762</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1688,13 +1688,13 @@
     <t xml:space="preserve">16.8257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4455165863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5387172698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0615501403809</t>
+    <t xml:space="preserve">16.4455184936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5387191772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0615520477295</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">16.8732929229736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3485946655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7763690948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8714294433594</t>
+    <t xml:space="preserve">17.348596572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7763710021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.871431350708</t>
   </si>
   <si>
     <t xml:space="preserve">18.299201965332</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">18.8220367431641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0121574401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2022838592529</t>
+    <t xml:space="preserve">19.0121593475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2022819519043</t>
   </si>
   <si>
     <t xml:space="preserve">20.0578269958496</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924026489258</t>
+    <t xml:space="preserve">19.3924007415771</t>
   </si>
   <si>
     <t xml:space="preserve">19.9627666473389</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.152889251709</t>
+    <t xml:space="preserve">19.7726440429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1528911590576</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.578800201416</t>
+    <t xml:space="preserve">21.2936172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5788021087646</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1491661071777</t>
+    <t xml:space="preserve">21.1034984588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1491641998291</t>
   </si>
   <si>
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.054105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3392887115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6244678497314</t>
+    <t xml:space="preserve">22.0541038513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3392868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6244697570801</t>
   </si>
   <si>
     <t xml:space="preserve">22.8145923614502</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">21.9590435028076</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8639831542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5331325531006</t>
+    <t xml:space="preserve">21.8639812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5331344604492</t>
   </si>
   <si>
     <t xml:space="preserve">18.5843849182129</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9133739471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2442245483398</t>
+    <t xml:space="preserve">20.9133758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2442264556885</t>
   </si>
   <si>
     <t xml:space="preserve">23.0997734069824</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837417602539</t>
+    <t xml:space="preserve">21.4837398529053</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">21.6738605499268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8183155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3430099487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0047130584717</t>
+    <t xml:space="preserve">20.8183135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3430118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0047149658203</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
@@ -1844,13 +1844,13 @@
     <t xml:space="preserve">20.7232532501221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1985549926758</t>
+    <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
     <t xml:space="preserve">19.6775856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1072196960449</t>
+    <t xml:space="preserve">19.1072216033936</t>
   </si>
   <si>
     <t xml:space="preserve">18.6319160461426</t>
@@ -1859,19 +1859,19 @@
     <t xml:space="preserve">17.2060050964355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9189624786377</t>
+    <t xml:space="preserve">17.9189605712891</t>
   </si>
   <si>
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337776184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1566143035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2041416168213</t>
+    <t xml:space="preserve">17.6337757110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1566123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2041435241699</t>
   </si>
   <si>
     <t xml:space="preserve">18.5368556976318</t>
@@ -1889,16 +1889,16 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.726978302002</t>
+    <t xml:space="preserve">18.4988288879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
     <t xml:space="preserve">18.2136497497559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3847579956055</t>
+    <t xml:space="preserve">18.3847599029541</t>
   </si>
   <si>
     <t xml:space="preserve">19.2498111724854</t>
@@ -1916,34 +1916,34 @@
     <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7649993896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8143939971924</t>
+    <t xml:space="preserve">18.7650012969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249195098877</t>
+    <t xml:space="preserve">17.1333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249214172363</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2071990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.703275680542</t>
+    <t xml:space="preserve">19.2072010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7032775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816337585449</t>
+    <t xml:space="preserve">19.3816356658936</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1955,37 +1955,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2265815734863</t>
+    <t xml:space="preserve">19.226583480835</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.350715637207</t>
+    <t xml:space="preserve">20.3507175445557</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.447624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383480072021</t>
+    <t xml:space="preserve">21.2228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383499145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8661766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001861572266</t>
+    <t xml:space="preserve">21.8043403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.866174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001842498779</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239070892334</t>
+    <t xml:space="preserve">19.6239051818848</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723575592041</t>
+    <t xml:space="preserve">18.9746189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538089752197</t>
+    <t xml:space="preserve">20.2538070678711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919727325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.465160369873</t>
+    <t xml:space="preserve">22.1919708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4651584625244</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6105213165283</t>
+    <t xml:space="preserve">21.610523223877</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1569004058838</t>
+    <t xml:space="preserve">20.1568984985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.257963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734203338623</t>
+    <t xml:space="preserve">23.2579612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6765117645264</t>
+    <t xml:space="preserve">22.676513671875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.76926612854</t>
+    <t xml:space="preserve">18.3156452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7692680358887</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486869812012</t>
+    <t xml:space="preserve">22.9672393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486850738525</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600383758545</t>
+    <t xml:space="preserve">24.7600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754955291748</t>
+    <t xml:space="preserve">24.2754974365234</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.905403137207</t>
+    <t xml:space="preserve">24.9054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7291202545166</t>
+    <t xml:space="preserve">25.729118347168</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827430725098</t>
+    <t xml:space="preserve">27.2796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167545318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652069091797</t>
+    <t xml:space="preserve">25.1961250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167526245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652088165283</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310567855835</t>
+    <t xml:space="preserve">25.8260269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703754425049</t>
+    <t xml:space="preserve">27.5703773498535</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7683448791504</t>
+    <t xml:space="preserve">30.768346786499</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6054458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.120906829834</t>
+    <t xml:space="preserve">29.605447769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1209049224854</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7023544311523</t>
+    <t xml:space="preserve">29.702356338501</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2339,16 +2339,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776229858398</t>
+    <t xml:space="preserve">30.4776210784912</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198925018311</t>
+    <t xml:space="preserve">31.1559791564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2357,16 +2357,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363639831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600849151611</t>
+    <t xml:space="preserve">30.2353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -2856,6 +2856,9 @@
   </si>
   <si>
     <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4500007629395</t>
   </si>
 </sst>
 </file>
@@ -59149,7 +59152,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6495717593</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>12328</v>
@@ -59170,6 +59173,32 @@
         <v>947</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.649525463</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>7985</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>26.4500007629395</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>26.2999992370605</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>26.4500007629395</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>948</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947124481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578079223633</t>
+    <t xml:space="preserve">8.43947219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4057788848877</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206092834473</t>
@@ -56,16 +56,16 @@
     <t xml:space="preserve">8.31734371185303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19521522521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27101707458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731525421143</t>
+    <t xml:space="preserve">8.19521617889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27102088928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731620788574</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363903045654</t>
@@ -77,61 +77,61 @@
     <t xml:space="preserve">8.08572196960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520290374756</t>
+    <t xml:space="preserve">8.13625717163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520099639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.03518581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03097534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676391601562</t>
+    <t xml:space="preserve">8.03097438812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676200866699</t>
   </si>
   <si>
     <t xml:space="preserve">8.00149536132812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99307346343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780490875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145029067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619787216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356502532959</t>
+    <t xml:space="preserve">7.99307203292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9678053855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145172119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304262161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619834899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356359481812</t>
   </si>
   <si>
     <t xml:space="preserve">7.7319712638855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66880130767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66458988189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357877731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203056335449</t>
+    <t xml:space="preserve">7.66880035400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357830047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726922988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203151702881</t>
   </si>
   <si>
     <t xml:space="preserve">8.22048473358154</t>
@@ -140,49 +140,49 @@
     <t xml:space="preserve">8.16994762420654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30471134185791</t>
+    <t xml:space="preserve">8.30470943450928</t>
   </si>
   <si>
     <t xml:space="preserve">8.25417423248291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11941242218018</t>
+    <t xml:space="preserve">8.11941432952881</t>
   </si>
   <si>
     <t xml:space="preserve">8.07730007171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33839988708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4815845489502</t>
+    <t xml:space="preserve">8.33840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48158359527588</t>
   </si>
   <si>
     <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4256010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578357696533</t>
+    <t xml:space="preserve">8.41420459747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155418395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560005187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578453063965</t>
   </si>
   <si>
     <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29663753509521</t>
+    <t xml:space="preserve">8.27084255218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
     <t xml:space="preserve">8.3267297744751</t>
@@ -191,16 +191,16 @@
     <t xml:space="preserve">8.25364971160889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23645496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962440490723</t>
+    <t xml:space="preserve">8.23645305633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962345123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.33102798461914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33532619476318</t>
+    <t xml:space="preserve">8.33532524108887</t>
   </si>
   <si>
     <t xml:space="preserve">8.32242965698242</t>
@@ -215,52 +215,52 @@
     <t xml:space="preserve">8.22785568237305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16767406463623</t>
+    <t xml:space="preserve">8.16767501831055</t>
   </si>
   <si>
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572420120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273637771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2450532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675882339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377099990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590534210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694282531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9097466468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779582977295</t>
+    <t xml:space="preserve">8.03871059417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572229385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273399353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505233764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377243041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590629577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974760055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779678344727</t>
   </si>
   <si>
     <t xml:space="preserve">7.78078460693359</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96133184432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383323669434</t>
+    <t xml:space="preserve">7.96133327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383228302002</t>
   </si>
   <si>
     <t xml:space="preserve">8.59755229949951</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64913654327393</t>
+    <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
     <t xml:space="preserve">8.72651481628418</t>
@@ -284,28 +284,28 @@
     <t xml:space="preserve">8.63194179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66633319854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9414529800415</t>
+    <t xml:space="preserve">8.66633129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895492553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145393371582</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76950168609619</t>
+    <t xml:space="preserve">8.76950263977051</t>
   </si>
   <si>
     <t xml:space="preserve">9.02743053436279</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">9.19937992095947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2423677444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4143180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31974506378174</t>
+    <t xml:space="preserve">9.24236869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431999206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31974601745605</t>
   </si>
   <si>
     <t xml:space="preserve">9.20797824859619</t>
@@ -338,34 +338,34 @@
     <t xml:space="preserve">9.225172996521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44011116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730686187744</t>
+    <t xml:space="preserve">9.44011306762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730590820312</t>
   </si>
   <si>
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74962425231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54328155517578</t>
+    <t xml:space="preserve">9.74962329864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5432825088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.62925815582275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52608776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6722469329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62066078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58626937866211</t>
+    <t xml:space="preserve">9.52608585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67224502563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62065982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58627033233643</t>
   </si>
   <si>
     <t xml:space="preserve">9.68084335327148</t>
@@ -377,43 +377,43 @@
     <t xml:space="preserve">9.61206245422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56047821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65504932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663547515869</t>
+    <t xml:space="preserve">9.55188083648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65505027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663738250732</t>
   </si>
   <si>
     <t xml:space="preserve">9.88718509674072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2138891220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4030389785767</t>
+    <t xml:space="preserve">10.2138919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.403037071228</t>
   </si>
   <si>
     <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451101303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021242141724</t>
+    <t xml:space="preserve">10.1451120376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.102123260498</t>
   </si>
   <si>
     <t xml:space="preserve">10.1279163360596</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0333423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.059136390686</t>
+    <t xml:space="preserve">10.0333414077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0591344833374</t>
   </si>
   <si>
     <t xml:space="preserve">10.1623067855835</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">10.308464050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1880989074707</t>
+    <t xml:space="preserve">10.188099861145</t>
   </si>
   <si>
     <t xml:space="preserve">9.84419631958008</t>
@@ -431,25 +431,25 @@
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85279560089111</t>
+    <t xml:space="preserve">9.85279369354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.231086730957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.007550239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2740726470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.44602394104</t>
+    <t xml:space="preserve">10.0075511932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2740745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4460248947144</t>
   </si>
   <si>
     <t xml:space="preserve">10.6351709365845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6867561340332</t>
+    <t xml:space="preserve">10.6867580413818</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695613861084</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">10.961877822876</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0736455917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0220623016357</t>
+    <t xml:space="preserve">11.0736465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0220603942871</t>
   </si>
   <si>
     <t xml:space="preserve">11.1768169403076</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">11.6066942214966</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8302307128906</t>
+    <t xml:space="preserve">11.8302316665649</t>
   </si>
   <si>
     <t xml:space="preserve">11.7528533935547</t>
@@ -485,25 +485,25 @@
     <t xml:space="preserve">11.6496820449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614507675171</t>
+    <t xml:space="preserve">11.7614517211914</t>
   </si>
   <si>
     <t xml:space="preserve">11.8732204437256</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9505968093872</t>
+    <t xml:space="preserve">11.9505958557129</t>
   </si>
   <si>
     <t xml:space="preserve">11.9849872589111</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0107803344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.838828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700471878052</t>
+    <t xml:space="preserve">12.010778427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700481414795</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926698684692</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">11.8499708175659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9723148345947</t>
+    <t xml:space="preserve">11.972315788269</t>
   </si>
   <si>
     <t xml:space="preserve">12.0597038269043</t>
@@ -533,37 +533,37 @@
     <t xml:space="preserve">12.0859212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2432222366333</t>
+    <t xml:space="preserve">12.243221282959</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5403451919556</t>
+    <t xml:space="preserve">12.5403461456299</t>
   </si>
   <si>
     <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3218727111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1733121871948</t>
+    <t xml:space="preserve">12.3218717575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1733102798462</t>
   </si>
   <si>
     <t xml:space="preserve">12.0160102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9286212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849267959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946598052979</t>
+    <t xml:space="preserve">11.9286203384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849258422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247497558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946617126465</t>
   </si>
   <si>
     <t xml:space="preserve">12.138355255127</t>
@@ -572,88 +572,91 @@
     <t xml:space="preserve">12.217004776001</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2257432937622</t>
+    <t xml:space="preserve">12.2257423400879</t>
   </si>
   <si>
     <t xml:space="preserve">11.9635753631592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2082672119141</t>
+    <t xml:space="preserve">12.2082662582397</t>
   </si>
   <si>
     <t xml:space="preserve">12.1208763122559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9897928237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684442520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509653091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422267913818</t>
+    <t xml:space="preserve">11.9897947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684452056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985322952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422277450562</t>
   </si>
   <si>
     <t xml:space="preserve">12.0771818161011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1033992767334</t>
+    <t xml:space="preserve">12.1034002304077</t>
   </si>
   <si>
     <t xml:space="preserve">11.8936643600464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8412322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062772750854</t>
+    <t xml:space="preserve">11.8412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062763214111</t>
   </si>
   <si>
     <t xml:space="preserve">11.7800588607788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7451028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5353698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5266304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4479808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3955478668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605909347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518514633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207679748535</t>
+    <t xml:space="preserve">11.7451047897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5353689193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.526629447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.447979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.395546913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732028961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
     <t xml:space="preserve">11.3431129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2906789779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984239578247</t>
+    <t xml:space="preserve">11.2906808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
     <t xml:space="preserve">11.2295083999634</t>
@@ -665,82 +668,82 @@
     <t xml:space="preserve">11.2469854354858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3693313598633</t>
+    <t xml:space="preserve">11.2994184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.369330406189</t>
   </si>
   <si>
     <t xml:space="preserve">11.4829359054565</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6227588653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7101469039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5790634155273</t>
+    <t xml:space="preserve">11.6227598190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.710147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
     <t xml:space="preserve">11.4567193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3256349563599</t>
+    <t xml:space="preserve">11.3256359100342</t>
   </si>
   <si>
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168973922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032918930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878019332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868093490601</t>
+    <t xml:space="preserve">11.3168983459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878028869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
     <t xml:space="preserve">11.4042863845825</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5091524124146</t>
+    <t xml:space="preserve">11.5091533660889</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1246404647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557239532471</t>
+    <t xml:space="preserve">11.1246395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683359146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
     <t xml:space="preserve">9.88371467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14964580535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35064029693604</t>
+    <t xml:space="preserve">9.1496467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35064125061035</t>
   </si>
   <si>
     <t xml:space="preserve">9.51667976379395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63028526306152</t>
+    <t xml:space="preserve">9.63028621673584</t>
   </si>
   <si>
     <t xml:space="preserve">9.6477632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73515224456787</t>
+    <t xml:space="preserve">9.7351541519165</t>
   </si>
   <si>
     <t xml:space="preserve">9.7438907623291</t>
@@ -749,7 +752,7 @@
     <t xml:space="preserve">9.8312816619873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70893478393555</t>
+    <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
     <t xml:space="preserve">9.53415775299072</t>
@@ -761,37 +764,37 @@
     <t xml:space="preserve">9.39433479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43802928924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5516357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055225372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37685680389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26325130462646</t>
+    <t xml:space="preserve">9.43803024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55163669586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37685585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26325225830078</t>
   </si>
   <si>
     <t xml:space="preserve">9.1583833694458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34190082550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40307235717773</t>
+    <t xml:space="preserve">9.3419017791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
     <t xml:space="preserve">9.84002017974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79632568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80506420135498</t>
+    <t xml:space="preserve">9.79632472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80506324768066</t>
   </si>
   <si>
     <t xml:space="preserve">9.78758716583252</t>
@@ -800,43 +803,43 @@
     <t xml:space="preserve">9.81380271911621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90119361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85749816894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22829627990723</t>
+    <t xml:space="preserve">9.9011926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.857497215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22829532623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497520446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91867160797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67397975921631</t>
+    <t xml:space="preserve">9.28072834014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451183319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984313964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497711181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0497531890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91866970062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
     <t xml:space="preserve">9.63902378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71767520904541</t>
+    <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
     <t xml:space="preserve">9.72641277313232</t>
@@ -845,43 +848,43 @@
     <t xml:space="preserve">9.61280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56911277770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68271923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3681173324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019626617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060586929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477977752686</t>
+    <t xml:space="preserve">9.56911373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36811828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019721984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650272369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060596466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477787017822</t>
   </si>
   <si>
     <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17586421966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216781616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95738887786865</t>
+    <t xml:space="preserve">9.17586231231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216686248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95738983154297</t>
   </si>
   <si>
     <t xml:space="preserve">8.8263053894043</t>
@@ -890,19 +893,19 @@
     <t xml:space="preserve">9.00108432769775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91369342803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891735076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78261184692383</t>
+    <t xml:space="preserve">8.91369533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891639709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7826099395752</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161544799805</t>
@@ -911,13 +914,13 @@
     <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2412109375</t>
+    <t xml:space="preserve">9.24120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.15192222595215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727787017822</t>
+    <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263637542725</t>
@@ -926,40 +929,40 @@
     <t xml:space="preserve">9.01799201965332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.892991065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727024078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83941745758057</t>
+    <t xml:space="preserve">8.97334766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727214813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83941841125488</t>
   </si>
   <si>
     <t xml:space="preserve">8.75013065338135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71441650390625</t>
+    <t xml:space="preserve">8.71441555023193</t>
   </si>
   <si>
     <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73227310180664</t>
+    <t xml:space="preserve">8.73227405548096</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82156181335449</t>
+    <t xml:space="preserve">8.82156085968018</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66084384918213</t>
+    <t xml:space="preserve">8.66084289550781</t>
   </si>
   <si>
     <t xml:space="preserve">8.57155704498291</t>
@@ -974,64 +977,64 @@
     <t xml:space="preserve">8.41084098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91084671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92870616912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37514209747314</t>
+    <t xml:space="preserve">8.91084766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798915863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9287052154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37514114379883</t>
   </si>
   <si>
     <t xml:space="preserve">9.50907039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46442699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3304967880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28585243225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58941459655762</t>
+    <t xml:space="preserve">9.46442794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33049583435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28585338592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58941268920898</t>
   </si>
   <si>
     <t xml:space="preserve">8.53584098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62512874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46441173553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726737976074</t>
+    <t xml:space="preserve">8.62512969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46441268920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726833343506</t>
   </si>
   <si>
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25012302398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30369663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28583717346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33940982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37512683868408</t>
+    <t xml:space="preserve">8.2501220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30369567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28583908081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33941078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37512493133545</t>
   </si>
   <si>
     <t xml:space="preserve">8.5001277923584</t>
@@ -1040,13 +1043,13 @@
     <t xml:space="preserve">8.64298629760742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41978359222412</t>
+    <t xml:space="preserve">9.41978454589844</t>
   </si>
   <si>
     <t xml:space="preserve">9.55371475219727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77693176269531</t>
+    <t xml:space="preserve">9.77693271636963</t>
   </si>
   <si>
     <t xml:space="preserve">9.7322883605957</t>
@@ -1058,31 +1061,31 @@
     <t xml:space="preserve">10.2680110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126544952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572969436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4912300109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4465866088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5358715057373</t>
+    <t xml:space="preserve">10.3126535415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572988510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.491229057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4465847015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5358724594116</t>
   </si>
   <si>
     <t xml:space="preserve">10.4019412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233667373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698017120361</t>
+    <t xml:space="preserve">10.5805168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22336769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065958023071</t>
@@ -1094,7 +1097,7 @@
     <t xml:space="preserve">10.8521928787231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7609977722168</t>
+    <t xml:space="preserve">10.7609987258911</t>
   </si>
   <si>
     <t xml:space="preserve">10.5330104827881</t>
@@ -1106,25 +1109,22 @@
     <t xml:space="preserve">10.2138290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5786075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698036193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874134063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418153762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.350622177124</t>
+    <t xml:space="preserve">10.5786085128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4874124526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418163299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
     <t xml:space="preserve">10.122633934021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2594261169434</t>
+    <t xml:space="preserve">10.259425163269</t>
   </si>
   <si>
     <t xml:space="preserve">10.0770359039307</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">10.0314388275146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3050222396851</t>
+    <t xml:space="preserve">10.3050241470337</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682300567627</t>
@@ -1145,13 +1145,13 @@
     <t xml:space="preserve">9.84904861450195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48426818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43867301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986526489258</t>
+    <t xml:space="preserve">9.48426914215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43867206573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986621856689</t>
   </si>
   <si>
     <t xml:space="preserve">9.62106132507324</t>
@@ -1166,13 +1166,13 @@
     <t xml:space="preserve">9.57546520233154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25628280639648</t>
+    <t xml:space="preserve">9.25628185272217</t>
   </si>
   <si>
     <t xml:space="preserve">9.16508674621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30187797546387</t>
+    <t xml:space="preserve">9.30187892913818</t>
   </si>
   <si>
     <t xml:space="preserve">9.21068477630615</t>
@@ -1184,19 +1184,19 @@
     <t xml:space="preserve">9.11949062347412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71225643157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80345058441162</t>
+    <t xml:space="preserve">9.71225547790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
     <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1257772445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6273488998413</t>
+    <t xml:space="preserve">11.1257762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
@@ -1205,31 +1205,31 @@
     <t xml:space="preserve">11.3993616104126</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3081665039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0801782608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0345830917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1713743209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4449605941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5817518234253</t>
+    <t xml:space="preserve">11.3081684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0801801681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0345821380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1713752746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4449596405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.581750869751</t>
   </si>
   <si>
     <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9465322494507</t>
+    <t xml:space="preserve">11.8553352355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
     <t xml:space="preserve">12.0833234786987</t>
@@ -1238,40 +1238,40 @@
     <t xml:space="preserve">12.3113107681274</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1745185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9921283721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7641410827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4937000274658</t>
+    <t xml:space="preserve">12.1745204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9921274185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.764142036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320648193359</t>
+    <t xml:space="preserve">13.1320657730103</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496755599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688570022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6304931640625</t>
+    <t xml:space="preserve">12.9496746063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688579559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6304941177368</t>
   </si>
   <si>
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481039047241</t>
+    <t xml:space="preserve">12.4481019973755</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
@@ -1283,22 +1283,22 @@
     <t xml:space="preserve">12.8584794998169</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0864686965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9009342193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9433879852295</t>
+    <t xml:space="preserve">13.0864677429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.900933265686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9433870315552</t>
   </si>
   <si>
     <t xml:space="preserve">10.7154006958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02829456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810733795166</t>
+    <t xml:space="preserve">9.02829551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810638427734</t>
   </si>
   <si>
     <t xml:space="preserve">7.93395566940308</t>
@@ -1319,10 +1319,10 @@
     <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73647212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118728637695</t>
+    <t xml:space="preserve">8.73647022247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
     <t xml:space="preserve">8.99181652069092</t>
@@ -1337,43 +1337,43 @@
     <t xml:space="preserve">9.94473075866699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0381078720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80466556549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85135269165039</t>
+    <t xml:space="preserve">10.0381088256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80466461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
     <t xml:space="preserve">9.99142074584961</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2715539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89804267883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.551685333252</t>
+    <t xml:space="preserve">10.2715530395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89804363250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
     <t xml:space="preserve">10.458309173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8785076141357</t>
+    <t xml:space="preserve">10.8785085678101</t>
   </si>
   <si>
     <t xml:space="preserve">10.7384414672852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0185747146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8318185806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1586408615112</t>
+    <t xml:space="preserve">11.018575668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8318195343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1586418151855</t>
   </si>
   <si>
     <t xml:space="preserve">10.7851314544678</t>
@@ -1382,28 +1382,28 @@
     <t xml:space="preserve">10.9251976013184</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6450634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2987089157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.485463142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6722192764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3453960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2053308486938</t>
+    <t xml:space="preserve">10.6450624465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2987079620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4854640960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6722183227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3453969955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2053298950195</t>
   </si>
   <si>
     <t xml:space="preserve">11.438775062561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1119527816772</t>
+    <t xml:space="preserve">11.1119518280029</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520198822021</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">11.5788412094116</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6255311965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3920860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.532154083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189092636108</t>
+    <t xml:space="preserve">11.6255292892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3920850753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5321531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189083099365</t>
   </si>
   <si>
     <t xml:space="preserve">11.7655973434448</t>
@@ -1436,55 +1436,55 @@
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391086578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9523525238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1857967376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2791738510132</t>
+    <t xml:space="preserve">12.1391077041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.952353477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1857976913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056644439697</t>
   </si>
   <si>
-    <t xml:space="preserve">11.999041557312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2324867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.045729637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0924186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8122854232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3258638381958</t>
+    <t xml:space="preserve">11.9990425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2324857711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0457305908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0924196243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8122863769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3258628845215</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9795074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2596416473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0728855133057</t>
+    <t xml:space="preserve">12.9795083999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2596406936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.07288646698</t>
   </si>
   <si>
     <t xml:space="preserve">13.119574546814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3997087478638</t>
+    <t xml:space="preserve">13.3997077941895</t>
   </si>
   <si>
     <t xml:space="preserve">13.4463968276978</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">13.3063297271729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3530197143555</t>
+    <t xml:space="preserve">13.3530187606812</t>
   </si>
   <si>
     <t xml:space="preserve">13.5864629745483</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9132843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6331520080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6993751525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5593070983887</t>
+    <t xml:space="preserve">13.9132852554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.633152961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6993741989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.559308052063</t>
   </si>
   <si>
     <t xml:space="preserve">13.0261964797974</t>
@@ -1526,67 +1526,67 @@
     <t xml:space="preserve">12.8394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">13.53977394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8199071884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0533533096313</t>
+    <t xml:space="preserve">13.5397748947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8199081420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.053352355957</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801746368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5669298171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3334865570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7069969177246</t>
+    <t xml:space="preserve">14.3801736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.566930770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3334856033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069959640503</t>
   </si>
   <si>
     <t xml:space="preserve">14.9404401779175</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8937511444092</t>
+    <t xml:space="preserve">14.8937520980835</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338191986084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0805063247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.267261505127</t>
+    <t xml:space="preserve">15.0805072784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2672643661499</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8470630645752</t>
+    <t xml:space="preserve">14.8470621109009</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603078842163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4735517501831</t>
+    <t xml:space="preserve">14.4735527038574</t>
   </si>
   <si>
     <t xml:space="preserve">14.1934185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5202417373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066623687744</t>
+    <t xml:space="preserve">14.5202407836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665971755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.006664276123</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732181549072</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">14.2401075363159</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6393632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.591833114624</t>
+    <t xml:space="preserve">14.6393623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5918321609497</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621961593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3998498916626</t>
+    <t xml:space="preserve">15.1621971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3998508453369</t>
   </si>
   <si>
     <t xml:space="preserve">15.3523187637329</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424394607544</t>
+    <t xml:space="preserve">15.542441368103</t>
   </si>
   <si>
     <t xml:space="preserve">14.9720754623413</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7325601577759</t>
+    <t xml:space="preserve">15.7325620651245</t>
   </si>
   <si>
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226837158203</t>
+    <t xml:space="preserve">15.9226818084717</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">16.0177440643311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3504581451416</t>
+    <t xml:space="preserve">16.350456237793</t>
   </si>
   <si>
     <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7782306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1109428405762</t>
+    <t xml:space="preserve">16.7782325744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1109447479248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">17.5387191772461</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0615501403809</t>
+    <t xml:space="preserve">18.0615520477295</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8732929229736</t>
+    <t xml:space="preserve">16.873291015625</t>
   </si>
   <si>
     <t xml:space="preserve">17.348596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7763690948486</t>
+    <t xml:space="preserve">17.7763710021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.8714294433594</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">19.0121593475342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2022819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0578269958496</t>
+    <t xml:space="preserve">19.2022838592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0578289031982</t>
   </si>
   <si>
     <t xml:space="preserve">19.8677062988281</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924007415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9627685546875</t>
+    <t xml:space="preserve">19.3924026489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9627666473389</t>
   </si>
   <si>
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726440429688</t>
+    <t xml:space="preserve">19.7726459503174</t>
   </si>
   <si>
     <t xml:space="preserve">20.152889251709</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5788021087646</t>
+    <t xml:space="preserve">21.2936172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.578800201416</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034965515137</t>
+    <t xml:space="preserve">21.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">22.1491641998291</t>
@@ -1778,22 +1778,22 @@
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0541038513184</t>
+    <t xml:space="preserve">22.054105758667</t>
   </si>
   <si>
     <t xml:space="preserve">22.3392887115479</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6244697570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8145923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9590454101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8639831542969</t>
+    <t xml:space="preserve">22.6244678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8145904541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9590435028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8639812469482</t>
   </si>
   <si>
     <t xml:space="preserve">20.5331325531006</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">18.5843849182129</t>
   </si>
   <si>
-    <t xml:space="preserve">19.297342300415</t>
+    <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
     <t xml:space="preserve">20.9133758544922</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">22.2442264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0997714996338</t>
+    <t xml:space="preserve">23.0997734069824</t>
   </si>
   <si>
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837398529053</t>
+    <t xml:space="preserve">21.4837417602539</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">20.3430118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0047149658203</t>
+    <t xml:space="preserve">23.0047130584717</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
@@ -1844,22 +1844,22 @@
     <t xml:space="preserve">20.2479496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7232532501221</t>
+    <t xml:space="preserve">20.7232513427734</t>
   </si>
   <si>
     <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6775875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1072196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2060050964355</t>
+    <t xml:space="preserve">19.6775856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1072216033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6319160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2060070037842</t>
   </si>
   <si>
     <t xml:space="preserve">17.9189605712891</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337757110596</t>
+    <t xml:space="preserve">17.6337776184082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">18.2041435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5368537902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1547508239746</t>
+    <t xml:space="preserve">18.5368556976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.154748916626</t>
   </si>
   <si>
     <t xml:space="preserve">18.9170989990234</t>
@@ -1892,19 +1892,19 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988307952881</t>
+    <t xml:space="preserve">18.4988288879395</t>
   </si>
   <si>
     <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3847599029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2498092651367</t>
+    <t xml:space="preserve">18.2136478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3847579956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2498111724854</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">20.3905410766602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4856033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4380702972412</t>
+    <t xml:space="preserve">20.4856014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
     <t xml:space="preserve">18.7650012969971</t>
@@ -1928,25 +1928,25 @@
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249195098877</t>
+    <t xml:space="preserve">17.1333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249214172363</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2071990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.703275680542</t>
+    <t xml:space="preserve">19.2072010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7032775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816337585449</t>
+    <t xml:space="preserve">19.3816356658936</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1958,37 +1958,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2265815734863</t>
+    <t xml:space="preserve">19.226583480835</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.350715637207</t>
+    <t xml:space="preserve">20.3507175445557</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.447624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383480072021</t>
+    <t xml:space="preserve">21.2228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383499145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8661766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001861572266</t>
+    <t xml:space="preserve">21.8043403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.866174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001842498779</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239070892334</t>
+    <t xml:space="preserve">19.6239051818848</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723575592041</t>
+    <t xml:space="preserve">18.9746189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538089752197</t>
+    <t xml:space="preserve">20.2538070678711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919727325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.465160369873</t>
+    <t xml:space="preserve">22.1919708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4651584625244</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6105213165283</t>
+    <t xml:space="preserve">21.610523223877</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1569004058838</t>
+    <t xml:space="preserve">20.1568984985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.257963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734203338623</t>
+    <t xml:space="preserve">23.2579612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6765117645264</t>
+    <t xml:space="preserve">22.676513671875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.76926612854</t>
+    <t xml:space="preserve">18.3156452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7692680358887</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486869812012</t>
+    <t xml:space="preserve">22.9672393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486850738525</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600383758545</t>
+    <t xml:space="preserve">24.7600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754955291748</t>
+    <t xml:space="preserve">24.2754974365234</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.905403137207</t>
+    <t xml:space="preserve">24.9054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7291202545166</t>
+    <t xml:space="preserve">25.729118347168</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827430725098</t>
+    <t xml:space="preserve">27.2796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167545318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652069091797</t>
+    <t xml:space="preserve">25.1961250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167526245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652088165283</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310567855835</t>
+    <t xml:space="preserve">25.8260269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703754425049</t>
+    <t xml:space="preserve">27.5703773498535</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7683448791504</t>
+    <t xml:space="preserve">30.768346786499</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6054458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.120906829834</t>
+    <t xml:space="preserve">29.605447769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1209049224854</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7023544311523</t>
+    <t xml:space="preserve">29.702356338501</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776229858398</t>
+    <t xml:space="preserve">30.4776210784912</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198925018311</t>
+    <t xml:space="preserve">31.1559791564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363639831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600849151611</t>
+    <t xml:space="preserve">30.2353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -13402,7 +13402,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G392" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13428,7 +13428,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G393" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13454,7 +13454,7 @@
         <v>13.1899995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13480,7 +13480,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13506,7 +13506,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G396" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13532,7 +13532,7 @@
         <v>13</v>
       </c>
       <c r="G397" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13558,7 +13558,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G398" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13584,7 +13584,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G399" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13610,7 +13610,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G400" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13636,7 +13636,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G401" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13662,7 +13662,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G402" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13688,7 +13688,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G403" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13714,7 +13714,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G404" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13740,7 +13740,7 @@
         <v>13</v>
       </c>
       <c r="G405" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13766,7 +13766,7 @@
         <v>13</v>
       </c>
       <c r="G406" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13792,7 +13792,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G407" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13818,7 +13818,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13844,7 +13844,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G409" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13870,7 +13870,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G410" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13896,7 +13896,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G411" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13922,7 +13922,7 @@
         <v>13.0100002288818</v>
       </c>
       <c r="G412" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13948,7 +13948,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G413" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13974,7 +13974,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G414" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14000,7 +14000,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G415" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14026,7 +14026,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G416" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14052,7 +14052,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G417" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14078,7 +14078,7 @@
         <v>13.25</v>
       </c>
       <c r="G418" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14104,7 +14104,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G419" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14130,7 +14130,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G420" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14156,7 +14156,7 @@
         <v>13</v>
       </c>
       <c r="G421" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14182,7 +14182,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G422" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14208,7 +14208,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G423" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14234,7 +14234,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G424" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14260,7 +14260,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G425" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14286,7 +14286,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G426" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14312,7 +14312,7 @@
         <v>13.0100002288818</v>
       </c>
       <c r="G427" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14338,7 +14338,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G428" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14364,7 +14364,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G429" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14390,7 +14390,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G430" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14416,7 +14416,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G431" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14442,7 +14442,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G432" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14468,7 +14468,7 @@
         <v>13.1700000762939</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14494,7 +14494,7 @@
         <v>13</v>
       </c>
       <c r="G434" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14520,7 +14520,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G435" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14546,7 +14546,7 @@
         <v>12.7299995422363</v>
       </c>
       <c r="G436" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14572,7 +14572,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G437" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14598,7 +14598,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G438" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14624,7 +14624,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G439" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14650,7 +14650,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G440" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14676,7 +14676,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G441" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14702,7 +14702,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G442" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14728,7 +14728,7 @@
         <v>10.4700002670288</v>
       </c>
       <c r="G443" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14754,7 +14754,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G444" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14780,7 +14780,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G445" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14806,7 +14806,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G446" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14832,7 +14832,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G447" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14858,7 +14858,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G448" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14884,7 +14884,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G449" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14910,7 +14910,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G450" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14936,7 +14936,7 @@
         <v>11.25</v>
       </c>
       <c r="G451" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14962,7 +14962,7 @@
         <v>11.1099996566772</v>
       </c>
       <c r="G452" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14988,7 +14988,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G453" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15014,7 +15014,7 @@
         <v>11.25</v>
       </c>
       <c r="G454" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15040,7 +15040,7 @@
         <v>10.9099998474121</v>
       </c>
       <c r="G455" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15066,7 +15066,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G456" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15092,7 +15092,7 @@
         <v>10.75</v>
       </c>
       <c r="G457" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15118,7 +15118,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15144,7 +15144,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G459" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15170,7 +15170,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G460" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15196,7 +15196,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G461" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15222,7 +15222,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G462" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15248,7 +15248,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G463" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15274,7 +15274,7 @@
         <v>10.4799995422363</v>
       </c>
       <c r="G464" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15300,7 +15300,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G465" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15326,7 +15326,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G466" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15352,7 +15352,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G467" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15378,7 +15378,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G468" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15404,7 +15404,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G469" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15430,7 +15430,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15456,7 +15456,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G471" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15482,7 +15482,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G472" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15508,7 +15508,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G473" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15534,7 +15534,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G474" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15560,7 +15560,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G475" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15586,7 +15586,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G476" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15612,7 +15612,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G477" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15638,7 +15638,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G478" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15664,7 +15664,7 @@
         <v>10.75</v>
       </c>
       <c r="G479" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15690,7 +15690,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G480" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15716,7 +15716,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G481" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15742,7 +15742,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G482" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15768,7 +15768,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G483" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15794,7 +15794,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G484" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15820,7 +15820,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G485" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15846,7 +15846,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G486" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15872,7 +15872,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G487" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15898,7 +15898,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G488" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15924,7 +15924,7 @@
         <v>11.5</v>
       </c>
       <c r="G489" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15950,7 +15950,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G490" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15976,7 +15976,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16002,7 +16002,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G492" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16028,7 +16028,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G493" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16054,7 +16054,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G494" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16080,7 +16080,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G495" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16106,7 +16106,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G496" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16132,7 +16132,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G497" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16158,7 +16158,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G498" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16184,7 +16184,7 @@
         <v>11.25</v>
       </c>
       <c r="G499" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16210,7 +16210,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G500" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16236,7 +16236,7 @@
         <v>11</v>
       </c>
       <c r="G501" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16262,7 +16262,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G502" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16288,7 +16288,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G503" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16314,7 +16314,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G504" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16340,7 +16340,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16366,7 +16366,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16392,7 +16392,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G507" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16418,7 +16418,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G508" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16444,7 +16444,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G509" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16470,7 +16470,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G510" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16496,7 +16496,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G511" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16522,7 +16522,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16548,7 +16548,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G513" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16574,7 +16574,7 @@
         <v>10.75</v>
       </c>
       <c r="G514" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16600,7 +16600,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16626,7 +16626,7 @@
         <v>10.75</v>
       </c>
       <c r="G516" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16652,7 +16652,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G517" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16678,7 +16678,7 @@
         <v>11</v>
       </c>
       <c r="G518" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16704,7 +16704,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G519" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16730,7 +16730,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G520" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16756,7 +16756,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G521" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16782,7 +16782,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G522" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16808,7 +16808,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G523" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16834,7 +16834,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G524" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16860,7 +16860,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G525" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16886,7 +16886,7 @@
         <v>11.25</v>
       </c>
       <c r="G526" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16912,7 +16912,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16938,7 +16938,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G528" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16964,7 +16964,7 @@
         <v>11.25</v>
       </c>
       <c r="G529" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16990,7 +16990,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G530" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17016,7 +17016,7 @@
         <v>11.5</v>
       </c>
       <c r="G531" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17042,7 +17042,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G532" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17068,7 +17068,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G533" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17094,7 +17094,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G534" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17120,7 +17120,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17146,7 +17146,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G536" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17172,7 +17172,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17198,7 +17198,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G538" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17224,7 +17224,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G539" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17250,7 +17250,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G540" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17276,7 +17276,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G541" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17302,7 +17302,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G542" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17328,7 +17328,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17354,7 +17354,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G544" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17380,7 +17380,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17406,7 +17406,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G546" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17432,7 +17432,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17458,7 +17458,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G548" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17484,7 +17484,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G549" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17510,7 +17510,7 @@
         <v>10.5</v>
       </c>
       <c r="G550" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17536,7 +17536,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G551" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17562,7 +17562,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17588,7 +17588,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G553" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17614,7 +17614,7 @@
         <v>10.25</v>
       </c>
       <c r="G554" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17640,7 +17640,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17666,7 +17666,7 @@
         <v>10.25</v>
       </c>
       <c r="G556" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17692,7 +17692,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17718,7 +17718,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17744,7 +17744,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G559" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17770,7 +17770,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G560" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17796,7 +17796,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17822,7 +17822,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17848,7 +17848,7 @@
         <v>10.5</v>
       </c>
       <c r="G563" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17874,7 +17874,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G564" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17900,7 +17900,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G565" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17926,7 +17926,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G566" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17952,7 +17952,7 @@
         <v>10.25</v>
       </c>
       <c r="G567" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17978,7 +17978,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G568" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18004,7 +18004,7 @@
         <v>10.25</v>
       </c>
       <c r="G569" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18030,7 +18030,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G570" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18056,7 +18056,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G571" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18082,7 +18082,7 @@
         <v>10</v>
       </c>
       <c r="G572" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18108,7 +18108,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G573" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18134,7 +18134,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G574" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18160,7 +18160,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18186,7 +18186,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18212,7 +18212,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G577" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18238,7 +18238,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G578" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18264,7 +18264,7 @@
         <v>10</v>
       </c>
       <c r="G579" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18290,7 +18290,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G580" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18316,7 +18316,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18342,7 +18342,7 @@
         <v>10.25</v>
       </c>
       <c r="G582" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18368,7 +18368,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G583" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18394,7 +18394,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18420,7 +18420,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18446,7 +18446,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18472,7 +18472,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18498,7 +18498,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G588" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18524,7 +18524,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G589" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18550,7 +18550,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G590" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18576,7 +18576,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G591" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18602,7 +18602,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G592" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18628,7 +18628,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18654,7 +18654,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G594" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18680,7 +18680,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G595" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18706,7 +18706,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18732,7 +18732,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18758,7 +18758,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18784,7 +18784,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18810,7 +18810,7 @@
         <v>10.25</v>
       </c>
       <c r="G600" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18836,7 +18836,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18862,7 +18862,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18888,7 +18888,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G603" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18914,7 +18914,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18940,7 +18940,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18966,7 +18966,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18992,7 +18992,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19018,7 +19018,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19044,7 +19044,7 @@
         <v>10.25</v>
       </c>
       <c r="G609" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19070,7 +19070,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19096,7 +19096,7 @@
         <v>10.25</v>
       </c>
       <c r="G611" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19122,7 +19122,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G612" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19148,7 +19148,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G613" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19174,7 +19174,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G614" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19200,7 +19200,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G615" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19226,7 +19226,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G616" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19252,7 +19252,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G617" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19278,7 +19278,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G618" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19304,7 +19304,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G619" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19330,7 +19330,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G620" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19356,7 +19356,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G621" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19382,7 +19382,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G622" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19408,7 +19408,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19434,7 +19434,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G624" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19460,7 +19460,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19486,7 +19486,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19512,7 +19512,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G627" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19538,7 +19538,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19564,7 +19564,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G629" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19590,7 +19590,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G630" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19616,7 +19616,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G631" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19642,7 +19642,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G632" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19668,7 +19668,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G633" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19694,7 +19694,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19720,7 +19720,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G635" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19746,7 +19746,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G636" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19772,7 +19772,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G637" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19798,7 +19798,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G638" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19824,7 +19824,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G639" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19850,7 +19850,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G640" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19876,7 +19876,7 @@
         <v>10</v>
       </c>
       <c r="G641" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19902,7 +19902,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G642" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19928,7 +19928,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19954,7 +19954,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G644" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19980,7 +19980,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G645" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20006,7 +20006,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20032,7 +20032,7 @@
         <v>10</v>
       </c>
       <c r="G647" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20058,7 +20058,7 @@
         <v>10</v>
       </c>
       <c r="G648" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20084,7 +20084,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G649" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20110,7 +20110,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G650" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20136,7 +20136,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G651" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20162,7 +20162,7 @@
         <v>10</v>
       </c>
       <c r="G652" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20188,7 +20188,7 @@
         <v>10</v>
       </c>
       <c r="G653" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20214,7 +20214,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G654" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20240,7 +20240,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G655" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20266,7 +20266,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G656" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20292,7 +20292,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G657" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20318,7 +20318,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G658" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20344,7 +20344,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G659" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20370,7 +20370,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G660" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20396,7 +20396,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G661" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20422,7 +20422,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G662" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20448,7 +20448,7 @@
         <v>10</v>
       </c>
       <c r="G663" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20474,7 +20474,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G664" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20500,7 +20500,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20526,7 +20526,7 @@
         <v>10.25</v>
       </c>
       <c r="G666" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20552,7 +20552,7 @@
         <v>10</v>
       </c>
       <c r="G667" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20578,7 +20578,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20604,7 +20604,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G669" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20630,7 +20630,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G670" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20656,7 +20656,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G671" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20682,7 +20682,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G672" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20708,7 +20708,7 @@
         <v>10</v>
       </c>
       <c r="G673" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20734,7 +20734,7 @@
         <v>10</v>
       </c>
       <c r="G674" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20760,7 +20760,7 @@
         <v>10</v>
       </c>
       <c r="G675" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20786,7 +20786,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G676" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20812,7 +20812,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G677" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20838,7 +20838,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20864,7 +20864,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G679" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20890,7 +20890,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20916,7 +20916,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G681" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20942,7 +20942,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G682" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20968,7 +20968,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G683" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20994,7 +20994,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21020,7 +21020,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G685" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21046,7 +21046,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G686" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21072,7 +21072,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G687" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21098,7 +21098,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21124,7 +21124,7 @@
         <v>10</v>
       </c>
       <c r="G689" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21150,7 +21150,7 @@
         <v>10</v>
       </c>
       <c r="G690" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21176,7 +21176,7 @@
         <v>10</v>
       </c>
       <c r="G691" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21202,7 +21202,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21228,7 +21228,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G693" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21254,7 +21254,7 @@
         <v>10</v>
       </c>
       <c r="G694" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21280,7 +21280,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G695" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21306,7 +21306,7 @@
         <v>10</v>
       </c>
       <c r="G696" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21332,7 +21332,7 @@
         <v>10</v>
       </c>
       <c r="G697" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21358,7 +21358,7 @@
         <v>10.5</v>
       </c>
       <c r="G698" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21384,7 +21384,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21410,7 +21410,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21436,7 +21436,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21462,7 +21462,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G702" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21488,7 +21488,7 @@
         <v>10.25</v>
       </c>
       <c r="G703" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21514,7 +21514,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G704" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21540,7 +21540,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21566,7 +21566,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21592,7 +21592,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21618,7 +21618,7 @@
         <v>10</v>
       </c>
       <c r="G708" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21644,7 +21644,7 @@
         <v>10</v>
       </c>
       <c r="G709" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21670,7 +21670,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G710" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21696,7 +21696,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G711" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21722,7 +21722,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G712" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21748,7 +21748,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G713" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21774,7 +21774,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G714" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21800,7 +21800,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G715" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21826,7 +21826,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G716" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21852,7 +21852,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21878,7 +21878,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G718" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21904,7 +21904,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21930,7 +21930,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G720" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21956,7 +21956,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G721" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21982,7 +21982,7 @@
         <v>10</v>
       </c>
       <c r="G722" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22008,7 +22008,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G723" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22034,7 +22034,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G724" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22060,7 +22060,7 @@
         <v>10</v>
       </c>
       <c r="G725" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22086,7 +22086,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G726" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22112,7 +22112,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G727" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22138,7 +22138,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G728" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22164,7 +22164,7 @@
         <v>10</v>
       </c>
       <c r="G729" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22190,7 +22190,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G730" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22216,7 +22216,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G731" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22242,7 +22242,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G732" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22268,7 +22268,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G733" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22294,7 +22294,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G734" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22320,7 +22320,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G735" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22346,7 +22346,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G736" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22372,7 +22372,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G737" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22398,7 +22398,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G738" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22424,7 +22424,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G739" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22450,7 +22450,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G740" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22476,7 +22476,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G741" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22502,7 +22502,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G742" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22528,7 +22528,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22554,7 +22554,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G744" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22580,7 +22580,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G745" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22606,7 +22606,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G746" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22632,7 +22632,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G747" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22658,7 +22658,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G748" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22684,7 +22684,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G749" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22710,7 +22710,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G750" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22736,7 +22736,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G751" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22762,7 +22762,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G752" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22788,7 +22788,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G753" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22814,7 +22814,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G754" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22840,7 +22840,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G755" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22866,7 +22866,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G756" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22892,7 +22892,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G757" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22918,7 +22918,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G758" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22944,7 +22944,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G759" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22970,7 +22970,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G760" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22996,7 +22996,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G761" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23022,7 +23022,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G762" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23048,7 +23048,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G763" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23074,7 +23074,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G764" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23100,7 +23100,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G765" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23126,7 +23126,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G766" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23152,7 +23152,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G767" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23178,7 +23178,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G768" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23204,7 +23204,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G769" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23230,7 +23230,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G770" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23256,7 +23256,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23282,7 +23282,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G772" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23308,7 +23308,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G773" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23334,7 +23334,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G774" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23360,7 +23360,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G775" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23386,7 +23386,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23412,7 +23412,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G777" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23438,7 +23438,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G778" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23464,7 +23464,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G779" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23490,7 +23490,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G780" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23516,7 +23516,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G781" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23542,7 +23542,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23568,7 +23568,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G783" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23594,7 +23594,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23620,7 +23620,7 @@
         <v>10</v>
       </c>
       <c r="G785" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23646,7 +23646,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23672,7 +23672,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G787" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23698,7 +23698,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G788" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23724,7 +23724,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G789" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23750,7 +23750,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23776,7 +23776,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23802,7 +23802,7 @@
         <v>10</v>
       </c>
       <c r="G792" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23828,7 +23828,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23854,7 +23854,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23880,7 +23880,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G795" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23906,7 +23906,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G796" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23932,7 +23932,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G797" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23958,7 +23958,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G798" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23984,7 +23984,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G799" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24010,7 +24010,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G800" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24036,7 +24036,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G801" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24062,7 +24062,7 @@
         <v>10.25</v>
       </c>
       <c r="G802" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24088,7 +24088,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24114,7 +24114,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G804" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24140,7 +24140,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G805" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24166,7 +24166,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G806" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24192,7 +24192,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G807" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24218,7 +24218,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G808" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24244,7 +24244,7 @@
         <v>10.5</v>
       </c>
       <c r="G809" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24270,7 +24270,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G810" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24296,7 +24296,7 @@
         <v>10</v>
       </c>
       <c r="G811" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24322,7 +24322,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24348,7 +24348,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G813" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24374,7 +24374,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G814" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24400,7 +24400,7 @@
         <v>10.5</v>
       </c>
       <c r="G815" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24426,7 +24426,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G816" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24452,7 +24452,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G817" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24478,7 +24478,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24504,7 +24504,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G819" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24530,7 +24530,7 @@
         <v>11.25</v>
       </c>
       <c r="G820" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24556,7 +24556,7 @@
         <v>11.5</v>
       </c>
       <c r="G821" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24582,7 +24582,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24608,7 +24608,7 @@
         <v>11.5</v>
       </c>
       <c r="G823" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24634,7 +24634,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24660,7 +24660,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G825" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24686,7 +24686,7 @@
         <v>11.75</v>
       </c>
       <c r="G826" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24712,7 +24712,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24738,7 +24738,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G828" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24764,7 +24764,7 @@
         <v>11.75</v>
       </c>
       <c r="G829" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24790,7 +24790,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G830" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24816,7 +24816,7 @@
         <v>11.75</v>
       </c>
       <c r="G831" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24842,7 +24842,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24868,7 +24868,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G833" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24894,7 +24894,7 @@
         <v>11.75</v>
       </c>
       <c r="G834" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24920,7 +24920,7 @@
         <v>11.75</v>
       </c>
       <c r="G835" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24946,7 +24946,7 @@
         <v>11.75</v>
       </c>
       <c r="G836" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24972,7 +24972,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G837" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24998,7 +24998,7 @@
         <v>11.75</v>
       </c>
       <c r="G838" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25024,7 +25024,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G839" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25050,7 +25050,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25076,7 +25076,7 @@
         <v>11.25</v>
       </c>
       <c r="G841" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25102,7 +25102,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G842" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25128,7 +25128,7 @@
         <v>11.5</v>
       </c>
       <c r="G843" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25154,7 +25154,7 @@
         <v>11.5</v>
       </c>
       <c r="G844" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25180,7 +25180,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G845" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25206,7 +25206,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G846" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25232,7 +25232,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G847" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25258,7 +25258,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G848" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25284,7 +25284,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G849" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25310,7 +25310,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25336,7 +25336,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G851" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25362,7 +25362,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G852" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25388,7 +25388,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G853" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25414,7 +25414,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25440,7 +25440,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25466,7 +25466,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G856" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25492,7 +25492,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G857" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25518,7 +25518,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G858" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25544,7 +25544,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G859" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25570,7 +25570,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25596,7 +25596,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G861" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25622,7 +25622,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25648,7 +25648,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G863" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25674,7 +25674,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25700,7 +25700,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25726,7 +25726,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G866" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25752,7 +25752,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G867" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25778,7 +25778,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G868" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25804,7 +25804,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G869" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25830,7 +25830,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26064,7 +26064,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G879" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26168,7 +26168,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26220,7 +26220,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G885" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26350,7 +26350,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G890" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26454,7 +26454,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26506,7 +26506,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G896" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26532,7 +26532,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G897" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26792,7 +26792,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G907" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26870,7 +26870,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G910" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26896,7 +26896,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26922,7 +26922,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G912" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27026,7 +27026,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G916" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27078,7 +27078,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G918" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28924,7 +28924,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G989" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29002,7 +29002,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G992" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30874,7 +30874,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1064" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31732,7 +31732,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31784,7 +31784,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1099" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -59404,7 +59404,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6495486111</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>23621</v>
@@ -59425,6 +59425,32 @@
         <v>954</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6493287037</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>4010</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>26.2000007629395</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>25.7000007629395</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>25.9500007629395</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>947</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262744903564</t>
+    <t xml:space="preserve">8.42262649536133</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">8.43947219848633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4057788848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21206092834473</t>
+    <t xml:space="preserve">8.40578079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21206188201904</t>
   </si>
   <si>
     <t xml:space="preserve">8.31734371185303</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">8.19521617889404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27102088928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731620788574</t>
+    <t xml:space="preserve">8.27101898193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731430053711</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363903045654</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">8.18679332733154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08572196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625717163086</t>
+    <t xml:space="preserve">8.08572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625812530518</t>
   </si>
   <si>
     <t xml:space="preserve">8.11520099639893</t>
@@ -86,76 +86,76 @@
     <t xml:space="preserve">8.03518581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03097438812256</t>
+    <t xml:space="preserve">8.03097343444824</t>
   </si>
   <si>
     <t xml:space="preserve">8.02676200866699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00149536132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307203292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9678053855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145172119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304262161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619834899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356359481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7319712638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880035400391</t>
+    <t xml:space="preserve">8.00149440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9930739402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780443191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304214477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356407165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880083084106</t>
   </si>
   <si>
     <t xml:space="preserve">7.66459131240845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74881649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726922988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203151702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048473358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30470943450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941432952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07730007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48158359527588</t>
+    <t xml:space="preserve">7.7488169670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357877731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203247070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048377990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994857788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30471038818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941242218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07729911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33839988708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48158550262451</t>
   </si>
   <si>
     <t xml:space="preserve">8.44789409637451</t>
@@ -170,40 +170,40 @@
     <t xml:space="preserve">8.27944278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42560005187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578453063965</t>
+    <t xml:space="preserve">8.42560195922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578357696533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084255218506</t>
+    <t xml:space="preserve">8.27084445953369</t>
   </si>
   <si>
     <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3267297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25364971160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645305633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962345123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102798461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532524108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32242965698242</t>
+    <t xml:space="preserve">8.32672882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2536506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645496368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962440490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33532619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32243061065674</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261318206787</t>
@@ -212,49 +212,49 @@
     <t xml:space="preserve">8.21066188812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22785568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767501831055</t>
+    <t xml:space="preserve">8.22785663604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767406463623</t>
   </si>
   <si>
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572229385376</t>
+    <t xml:space="preserve">8.03871250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572277069092</t>
   </si>
   <si>
     <t xml:space="preserve">7.95273399353027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24505233764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160713195801</t>
+    <t xml:space="preserve">8.24505138397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160617828369</t>
   </si>
   <si>
     <t xml:space="preserve">7.86675930023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82377243041992</t>
+    <t xml:space="preserve">7.82377338409424</t>
   </si>
   <si>
     <t xml:space="preserve">8.05590629577637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92694234848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90974760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078460693359</t>
+    <t xml:space="preserve">7.92694330215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078365325928</t>
   </si>
   <si>
     <t xml:space="preserve">7.96133327484131</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72651481628418</t>
+    <t xml:space="preserve">8.7265157699585</t>
   </si>
   <si>
     <t xml:space="preserve">8.9156608581543</t>
@@ -284,40 +284,40 @@
     <t xml:space="preserve">8.63194179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66633129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895492553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072269439697</t>
+    <t xml:space="preserve">8.66633033752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895397186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352794647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072078704834</t>
   </si>
   <si>
     <t xml:space="preserve">8.94145393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85547828674316</t>
+    <t xml:space="preserve">8.85547924041748</t>
   </si>
   <si>
     <t xml:space="preserve">8.76950263977051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02743053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639209747314</t>
+    <t xml:space="preserve">9.02742958068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639114379883</t>
   </si>
   <si>
     <t xml:space="preserve">9.2337703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19937992095947</t>
+    <t xml:space="preserve">9.19938087463379</t>
   </si>
   <si>
     <t xml:space="preserve">9.24236869812012</t>
@@ -335,64 +335,64 @@
     <t xml:space="preserve">9.20797824859619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.225172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011306762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730590820312</t>
+    <t xml:space="preserve">9.22517108917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44010925292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730781555176</t>
   </si>
   <si>
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74962329864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5432825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925815582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608585357666</t>
+    <t xml:space="preserve">9.74962425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328346252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925910949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608680725098</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224502563477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58627033233643</t>
+    <t xml:space="preserve">9.62065887451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58626937866211</t>
   </si>
   <si>
     <t xml:space="preserve">9.68084335327148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71523380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206245422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55188083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56047630310059</t>
+    <t xml:space="preserve">9.71523284912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55187892913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5604772567749</t>
   </si>
   <si>
     <t xml:space="preserve">9.65505027770996</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70663738250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718509674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138919830322</t>
+    <t xml:space="preserve">9.70663642883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138910293579</t>
   </si>
   <si>
     <t xml:space="preserve">10.403037071228</t>
@@ -401,58 +401,58 @@
     <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451120376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.102123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1279163360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333414077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0591344833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623067855835</t>
+    <t xml:space="preserve">10.1451110839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1279144287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333423614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0591354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623058319092</t>
   </si>
   <si>
     <t xml:space="preserve">10.308464050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.188099861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84419631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.878586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85279369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.231086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2740745544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4460248947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867580413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695613861084</t>
+    <t xml:space="preserve">10.1880979537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84419536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87858772277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8527946472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2310857772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075492858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.274073600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4460258483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351718902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695623397827</t>
   </si>
   <si>
     <t xml:space="preserve">10.961877822876</t>
@@ -476,157 +476,157 @@
     <t xml:space="preserve">11.6066942214966</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8302316665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7528533935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496820449829</t>
+    <t xml:space="preserve">11.8302307128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7528514862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
     <t xml:space="preserve">11.7614517211914</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8732204437256</t>
+    <t xml:space="preserve">11.8732194900513</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505958557129</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9849872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.010778427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388299942017</t>
+    <t xml:space="preserve">11.9849882125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388290405273</t>
   </si>
   <si>
     <t xml:space="preserve">11.7700481414795</t>
   </si>
   <si>
+    <t xml:space="preserve">11.6926717758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786455154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975368499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024038314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8674478530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8499717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9723148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597047805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5403451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2344837188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3218717575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1733102798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160093307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849277496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.138355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2170038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257442474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635763168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082662582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897937774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684442520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985322952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422258377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0771827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1033992767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8936653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062772750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800588607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7451038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014093399048</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.6926698684692</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786455154419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024038314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674488067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8499708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972315788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5403461456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2344827651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3218717575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286203384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849258422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247497558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946617126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.138355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.217004776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257423400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082662582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208763122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897947311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985322952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422277450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0771818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1034002304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8936643600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062763214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800588607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7451047897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926708221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5353689193726</t>
+    <t xml:space="preserve">11.5353708267212</t>
   </si>
   <si>
     <t xml:space="preserve">11.526629447937</t>
@@ -638,46 +638,46 @@
     <t xml:space="preserve">11.395546913147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3605899810791</t>
+    <t xml:space="preserve">11.3605909347534</t>
   </si>
   <si>
     <t xml:space="preserve">11.3518524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2732028961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207689285278</t>
+    <t xml:space="preserve">11.2732019424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207679748535</t>
   </si>
   <si>
     <t xml:space="preserve">11.3431129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2906808853149</t>
+    <t xml:space="preserve">11.2906789779663</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2295083999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1858129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469854354858</t>
+    <t xml:space="preserve">11.2295093536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.18581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469844818115</t>
   </si>
   <si>
     <t xml:space="preserve">11.2994184494019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.369330406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829359054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6227598190308</t>
+    <t xml:space="preserve">11.3693294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829378128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6227579116821</t>
   </si>
   <si>
     <t xml:space="preserve">11.710147857666</t>
@@ -686,19 +686,19 @@
     <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256359100342</t>
+    <t xml:space="preserve">11.4567203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256349563599</t>
   </si>
   <si>
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168983459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032899856567</t>
+    <t xml:space="preserve">11.3168964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032909393311</t>
   </si>
   <si>
     <t xml:space="preserve">11.5878028869629</t>
@@ -707,46 +707,46 @@
     <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4042863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091533660889</t>
+    <t xml:space="preserve">11.4042854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091524124146</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1246395111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683359146118</t>
+    <t xml:space="preserve">11.124641418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683349609375</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88371467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35064125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51667976379395</t>
+    <t xml:space="preserve">9.883713722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14964580535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35064029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51668071746826</t>
   </si>
   <si>
     <t xml:space="preserve">9.63028621673584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6477632522583</t>
+    <t xml:space="preserve">9.64776420593262</t>
   </si>
   <si>
     <t xml:space="preserve">9.7351541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7438907623291</t>
+    <t xml:space="preserve">9.74389171600342</t>
   </si>
   <si>
     <t xml:space="preserve">9.8312816619873</t>
@@ -755,22 +755,22 @@
     <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53415775299072</t>
+    <t xml:space="preserve">9.53415679931641</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39433479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43803024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55163669586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055130004883</t>
+    <t xml:space="preserve">9.39433574676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43803119659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5516357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055034637451</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685585021973</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">9.1583833694458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3419017791748</t>
+    <t xml:space="preserve">9.34190082550049</t>
   </si>
   <si>
     <t xml:space="preserve">9.40307426452637</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">9.84002017974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79632472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80506324768066</t>
+    <t xml:space="preserve">9.79632568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
     <t xml:space="preserve">9.78758716583252</t>
@@ -815,16 +815,16 @@
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072834014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451183319092</t>
+    <t xml:space="preserve">9.28072929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451278686523</t>
   </si>
   <si>
     <t xml:space="preserve">9.97984313964844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87497711181641</t>
+    <t xml:space="preserve">9.87497520446777</t>
   </si>
   <si>
     <t xml:space="preserve">10.0497531890869</t>
@@ -839,13 +839,13 @@
     <t xml:space="preserve">9.63902378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71767425537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72641277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61280822753906</t>
+    <t xml:space="preserve">9.71767520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72641372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61280918121338</t>
   </si>
   <si>
     <t xml:space="preserve">9.56911373138428</t>
@@ -854,40 +854,40 @@
     <t xml:space="preserve">9.68271827697754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30694580078125</t>
+    <t xml:space="preserve">9.30694484710693</t>
   </si>
   <si>
     <t xml:space="preserve">9.36811828613281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70019721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650272369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060596466064</t>
+    <t xml:space="preserve">9.70019817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
     <t xml:space="preserve">9.08847332000732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04477787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586231231689</t>
+    <t xml:space="preserve">9.04477882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.219557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586326599121</t>
   </si>
   <si>
     <t xml:space="preserve">9.13216686248779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95738983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8263053894043</t>
+    <t xml:space="preserve">8.95738887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82630634307861</t>
   </si>
   <si>
     <t xml:space="preserve">9.00108432769775</t>
@@ -896,16 +896,16 @@
     <t xml:space="preserve">8.91369533538818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86999988555908</t>
+    <t xml:space="preserve">8.8700008392334</t>
   </si>
   <si>
     <t xml:space="preserve">8.73891639709473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72143840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7826099395752</t>
+    <t xml:space="preserve">8.72143745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78261184692383</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161544799805</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24120998382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15192222595215</t>
+    <t xml:space="preserve">9.2412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15192317962646</t>
   </si>
   <si>
     <t xml:space="preserve">9.10727977752686</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">9.06263637542725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334766387939</t>
+    <t xml:space="preserve">9.01799297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334957122803</t>
   </si>
   <si>
     <t xml:space="preserve">8.89299011230469</t>
@@ -938,49 +938,49 @@
     <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83941841125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75013065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71441555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78584575653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227405548096</t>
+    <t xml:space="preserve">8.83941745758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75013256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71441650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78584671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227310180664</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82156085968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87513256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66084289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39298248291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44655609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084098815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91084766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798915863037</t>
+    <t xml:space="preserve">8.82155990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8751335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66084384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39298343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44655513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91084671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798820495605</t>
   </si>
   <si>
     <t xml:space="preserve">8.9287052154541</t>
@@ -995,43 +995,43 @@
     <t xml:space="preserve">9.50907039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46442794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33049583435059</t>
+    <t xml:space="preserve">9.46442890167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3304967880249</t>
   </si>
   <si>
     <t xml:space="preserve">9.28585338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58941268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53584098815918</t>
+    <t xml:space="preserve">8.5894136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
   </si>
   <si>
     <t xml:space="preserve">8.62512969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726833343506</t>
+    <t xml:space="preserve">8.46441173553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726737976074</t>
   </si>
   <si>
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2501220703125</t>
+    <t xml:space="preserve">8.25012302398682</t>
   </si>
   <si>
     <t xml:space="preserve">8.30369567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583908081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33941078186035</t>
+    <t xml:space="preserve">8.28583812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33940982818604</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512493133545</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64298629760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41978454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55371475219727</t>
+    <t xml:space="preserve">8.64298725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41978549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55371379852295</t>
   </si>
   <si>
     <t xml:space="preserve">9.77693271636963</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">10.0447940826416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2680110931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126535415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572988510132</t>
+    <t xml:space="preserve">10.2680101394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126544952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572978973389</t>
   </si>
   <si>
     <t xml:space="preserve">10.491229057312</t>
@@ -1076,31 +1076,31 @@
     <t xml:space="preserve">10.5358724594116</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4019412994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805168151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
+    <t xml:space="preserve">10.4019403457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805149078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065958023071</t>
+    <t xml:space="preserve">10.8065948486328</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8521928787231</t>
+    <t xml:space="preserve">10.8521919250488</t>
   </si>
   <si>
     <t xml:space="preserve">10.7609987258911</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5330104827881</t>
+    <t xml:space="preserve">10.5330114364624</t>
   </si>
   <si>
     <t xml:space="preserve">10.3962173461914</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">10.4874124526978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4418163299561</t>
+    <t xml:space="preserve">10.4418144226074</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506212234497</t>
@@ -1127,25 +1127,25 @@
     <t xml:space="preserve">10.259425163269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0770359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0314388275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3050241470337</t>
+    <t xml:space="preserve">10.0770349502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.031439781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3050231933594</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682300567627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89464664459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84904861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48426914215088</t>
+    <t xml:space="preserve">9.89464569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84905052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4842700958252</t>
   </si>
   <si>
     <t xml:space="preserve">9.43867206573486</t>
@@ -1154,25 +1154,25 @@
     <t xml:space="preserve">9.52986621856689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62106132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785446166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66665935516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57546520233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25628185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16508674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30187892913818</t>
+    <t xml:space="preserve">9.62106227874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785350799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66666030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57546424865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25628089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1650857925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3018798828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.21068477630615</t>
@@ -1190,22 +1190,22 @@
     <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94024276733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1257762908936</t>
+    <t xml:space="preserve">9.9402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
     <t xml:space="preserve">11.6273498535156</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6729469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3993616104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081684112549</t>
+    <t xml:space="preserve">11.672947883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3993606567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081665039062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0801801681519</t>
@@ -1220,52 +1220,52 @@
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.581750869751</t>
+    <t xml:space="preserve">11.5817518234253</t>
   </si>
   <si>
     <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8553352355957</t>
+    <t xml:space="preserve">11.8553371429443</t>
   </si>
   <si>
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833234786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1745204925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9921274185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.764142036438</t>
+    <t xml:space="preserve">12.083324432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1745195388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9921293258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
     <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7672853469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1320657730103</t>
+    <t xml:space="preserve">12.7672863006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1320648193359</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496746063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688579559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6304941177368</t>
+    <t xml:space="preserve">12.9496755599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688570022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6304931640625</t>
   </si>
   <si>
     <t xml:space="preserve">12.7216873168945</t>
@@ -1274,28 +1274,28 @@
     <t xml:space="preserve">12.4481019973755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5848960876465</t>
+    <t xml:space="preserve">12.5848970413208</t>
   </si>
   <si>
     <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8584794998169</t>
+    <t xml:space="preserve">12.8584804534912</t>
   </si>
   <si>
     <t xml:space="preserve">13.0864677429199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.900933265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9433870315552</t>
+    <t xml:space="preserve">11.9009342193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
     <t xml:space="preserve">10.7154006958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02829551696777</t>
+    <t xml:space="preserve">9.02829456329346</t>
   </si>
   <si>
     <t xml:space="preserve">8.09810638427734</t>
@@ -1304,19 +1304,19 @@
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64213228225708</t>
+    <t xml:space="preserve">7.64213275909424</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6635160446167</t>
+    <t xml:space="preserve">8.66351509094238</t>
   </si>
   <si>
     <t xml:space="preserve">8.07986736297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57231998443604</t>
+    <t xml:space="preserve">8.57232093811035</t>
   </si>
   <si>
     <t xml:space="preserve">8.73647022247314</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34747695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0847978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94473075866699</t>
+    <t xml:space="preserve">9.34747505187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0847988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94472980499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.0381088256836</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99142074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715530395508</t>
+    <t xml:space="preserve">9.99141979217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715539932251</t>
   </si>
   <si>
     <t xml:space="preserve">9.89804363250732</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">10.458309173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8785085678101</t>
+    <t xml:space="preserve">10.8785076141357</t>
   </si>
   <si>
     <t xml:space="preserve">10.7384414672852</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">11.018575668335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8318195343018</t>
+    <t xml:space="preserve">10.8318204879761</t>
   </si>
   <si>
     <t xml:space="preserve">11.1586418151855</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">10.7851314544678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9251976013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6450624465942</t>
+    <t xml:space="preserve">10.925196647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6450634002686</t>
   </si>
   <si>
     <t xml:space="preserve">11.2987079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4854640960693</t>
+    <t xml:space="preserve">11.485463142395</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722183227539</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">11.3453969955444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053298950195</t>
+    <t xml:space="preserve">11.2053308486938</t>
   </si>
   <si>
     <t xml:space="preserve">11.438775062561</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">11.1119518280029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2520198822021</t>
+    <t xml:space="preserve">11.2520189285278</t>
   </si>
   <si>
     <t xml:space="preserve">10.9718866348267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652647018433</t>
+    <t xml:space="preserve">11.0652637481689</t>
   </si>
   <si>
     <t xml:space="preserve">11.5788412094116</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6255292892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3920850753784</t>
+    <t xml:space="preserve">11.6255302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
     <t xml:space="preserve">11.5321531295776</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">11.7189083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7655973434448</t>
+    <t xml:space="preserve">11.7655982971191</t>
   </si>
   <si>
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391077041626</t>
+    <t xml:space="preserve">12.1391086578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.952353477478</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">12.2324857711792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0457305908203</t>
+    <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
     <t xml:space="preserve">12.0924196243286</t>
@@ -1466,16 +1466,16 @@
     <t xml:space="preserve">11.8122863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3258628845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8861303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9795083999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2596406936646</t>
+    <t xml:space="preserve">12.3258638381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8861312866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9795074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2596416473389</t>
   </si>
   <si>
     <t xml:space="preserve">13.07288646698</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993741989136</t>
+    <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
     <t xml:space="preserve">12.559308052063</t>
@@ -1526,10 +1526,10 @@
     <t xml:space="preserve">12.8394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5397748947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8199081420898</t>
+    <t xml:space="preserve">13.53977394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8199090957642</t>
   </si>
   <si>
     <t xml:space="preserve">14.053352355957</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">14.3801736831665</t>
   </si>
   <si>
-    <t xml:space="preserve">14.566930770874</t>
+    <t xml:space="preserve">14.5669298171997</t>
   </si>
   <si>
     <t xml:space="preserve">14.3334856033325</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">14.8937520980835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0338191986084</t>
+    <t xml:space="preserve">15.0338182449341</t>
   </si>
   <si>
     <t xml:space="preserve">15.0805072784424</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">14.7536849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8470621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603078842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4735527038574</t>
+    <t xml:space="preserve">14.8470630645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.660306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
     <t xml:space="preserve">14.1934185028076</t>
@@ -59430,7 +59430,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6493287037</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>4010</v>
@@ -59451,6 +59451,32 @@
         <v>947</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6495023148</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>18943</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>25.9500007629395</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>24.9500007629395</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>25.9500007629395</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>25.4500007629395</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>953</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="956">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,40 +44,40 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947219848633</t>
+    <t xml:space="preserve">8.43947410583496</t>
   </si>
   <si>
     <t xml:space="preserve">8.40578079223633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21206188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31734371185303</t>
+    <t xml:space="preserve">8.21206283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31734180450439</t>
   </si>
   <si>
     <t xml:space="preserve">8.19521617889404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27101898193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18679332733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625812530518</t>
+    <t xml:space="preserve">8.27101802825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731525421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363807678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18679237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625717163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.11520099639893</t>
@@ -86,76 +86,76 @@
     <t xml:space="preserve">8.03518581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03097343444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676200866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149440765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9930739402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780443191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619739532471</t>
+    <t xml:space="preserve">8.03097534179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676296234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149536132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780395507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145172119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304262161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619787216187</t>
   </si>
   <si>
     <t xml:space="preserve">7.80356407165527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73197269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880083084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7488169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357877731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726875305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048377990723</t>
+    <t xml:space="preserve">7.7319712638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880178451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66458988189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357639312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91727066040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203056335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048282623291</t>
   </si>
   <si>
     <t xml:space="preserve">8.16994857788086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30471038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417518615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941242218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07729911804199</t>
+    <t xml:space="preserve">8.30470943450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417423248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941432952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730007171631</t>
   </si>
   <si>
     <t xml:space="preserve">8.33839988708496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48158550262451</t>
+    <t xml:space="preserve">8.4815845489502</t>
   </si>
   <si>
     <t xml:space="preserve">8.44789409637451</t>
@@ -164,28 +164,28 @@
     <t xml:space="preserve">8.41420459747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32155418395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42560195922852</t>
+    <t xml:space="preserve">8.32155704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560005187988</t>
   </si>
   <si>
     <t xml:space="preserve">8.48578357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55456352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27084445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2966365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32672882080078</t>
+    <t xml:space="preserve">8.55456447601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27084350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29663562774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3267297744751</t>
   </si>
   <si>
     <t xml:space="preserve">8.2536506652832</t>
@@ -194,16 +194,16 @@
     <t xml:space="preserve">8.23645496368408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33962440490723</t>
+    <t xml:space="preserve">8.33962535858154</t>
   </si>
   <si>
     <t xml:space="preserve">8.33102703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33532619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32243061065674</t>
+    <t xml:space="preserve">8.33532524108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32243156433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261318206787</t>
@@ -221,25 +221,25 @@
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871250152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572277069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273399353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505138397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377338409424</t>
+    <t xml:space="preserve">8.03871154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572229385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273447036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505233764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675977706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377099990845</t>
   </si>
   <si>
     <t xml:space="preserve">8.05590629577637</t>
@@ -248,127 +248,127 @@
     <t xml:space="preserve">7.92694330215454</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90974807739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779773712158</t>
+    <t xml:space="preserve">7.90974712371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779630661011</t>
   </si>
   <si>
     <t xml:space="preserve">7.78078365325928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96133327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64054012298584</t>
+    <t xml:space="preserve">7.96133375167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755039215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64053821563721</t>
   </si>
   <si>
     <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7265157699585</t>
+    <t xml:space="preserve">8.72651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84688091278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63194179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66633033752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895397186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352794647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072078704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94145393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547924041748</t>
+    <t xml:space="preserve">8.84688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63194274902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66633129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895492553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9414529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547828674316</t>
   </si>
   <si>
     <t xml:space="preserve">8.76950263977051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02742958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639114379883</t>
+    <t xml:space="preserve">9.02742862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639305114746</t>
   </si>
   <si>
     <t xml:space="preserve">9.2337703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19938087463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24236869812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41431999206543</t>
+    <t xml:space="preserve">9.19937992095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2423677444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431713104248</t>
   </si>
   <si>
     <t xml:space="preserve">9.32834339141846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31974601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20797824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44010925292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730781555176</t>
+    <t xml:space="preserve">9.31974506378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20797729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44011116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730686187744</t>
   </si>
   <si>
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74962425231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54328346252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925910949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608680725098</t>
+    <t xml:space="preserve">9.74962329864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328155517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925815582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608776092529</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224502563477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62065887451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58626937866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68084335327148</t>
+    <t xml:space="preserve">9.62066078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58627033233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6808443069458</t>
   </si>
   <si>
     <t xml:space="preserve">9.71523284912109</t>
@@ -377,22 +377,22 @@
     <t xml:space="preserve">9.61206340789795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65505027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718414306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138910293579</t>
+    <t xml:space="preserve">9.5518798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663452148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718509674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138919830322</t>
   </si>
   <si>
     <t xml:space="preserve">10.403037071228</t>
@@ -407,19 +407,19 @@
     <t xml:space="preserve">10.1021242141724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279144287109</t>
+    <t xml:space="preserve">10.1279163360596</t>
   </si>
   <si>
     <t xml:space="preserve">10.0333423614502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0591354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623058319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.308464050293</t>
+    <t xml:space="preserve">10.059136390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623048782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084650039673</t>
   </si>
   <si>
     <t xml:space="preserve">10.1880979537964</t>
@@ -428,88 +428,88 @@
     <t xml:space="preserve">9.84419536590576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87858772277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8527946472168</t>
+    <t xml:space="preserve">9.87858581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85279369354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.2310857772827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0075492858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.274073600769</t>
+    <t xml:space="preserve">10.0075511932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2740745544434</t>
   </si>
   <si>
     <t xml:space="preserve">10.4460258483887</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6351718902588</t>
+    <t xml:space="preserve">10.6351709365845</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867561340332</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6695623397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.961877822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0736465454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0220603942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768169403076</t>
+    <t xml:space="preserve">10.6695604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9618787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0736474990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0220623016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768178939819</t>
   </si>
   <si>
     <t xml:space="preserve">11.2198047637939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4433422088623</t>
+    <t xml:space="preserve">11.443341255188</t>
   </si>
   <si>
     <t xml:space="preserve">11.6066942214966</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8302307128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7528514862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496829986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8732194900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505958557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849882125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388290405273</t>
+    <t xml:space="preserve">11.8302297592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7528524398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496820449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614507675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873218536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.838828086853</t>
   </si>
   <si>
     <t xml:space="preserve">11.7700481414795</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6926717758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7786455154419</t>
+    <t xml:space="preserve">11.6926708221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786464691162</t>
   </si>
   <si>
     <t xml:space="preserve">11.7975368499756</t>
@@ -518,19 +518,19 @@
     <t xml:space="preserve">11.9024038314819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8674478530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8499717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9723148345947</t>
+    <t xml:space="preserve">11.8674488067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8499708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.972315788269</t>
   </si>
   <si>
     <t xml:space="preserve">12.0597047805786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0859203338623</t>
+    <t xml:space="preserve">12.0859212875366</t>
   </si>
   <si>
     <t xml:space="preserve">12.2432222366333</t>
@@ -539,10 +539,10 @@
     <t xml:space="preserve">12.4966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5403451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2344837188721</t>
+    <t xml:space="preserve">12.5403461456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
     <t xml:space="preserve">12.3218717575073</t>
@@ -551,19 +551,19 @@
     <t xml:space="preserve">12.1733102798462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0160093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849277496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946607589722</t>
+    <t xml:space="preserve">12.0160102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286193847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849267959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247478485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946617126465</t>
   </si>
   <si>
     <t xml:space="preserve">12.138355255127</t>
@@ -578,88 +578,88 @@
     <t xml:space="preserve">11.9635763168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2082662582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208763122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897937774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684442520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985322952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422258377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0771827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033992767334</t>
+    <t xml:space="preserve">12.2082672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208772659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897928237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509672164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985332489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422277450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0771818161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1033983230591</t>
   </si>
   <si>
     <t xml:space="preserve">11.8936653137207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8412322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062772750854</t>
+    <t xml:space="preserve">11.8412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062763214111</t>
   </si>
   <si>
     <t xml:space="preserve">11.7800588607788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7451038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014093399048</t>
+    <t xml:space="preserve">11.7451047897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014102935791</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926698684692</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5353708267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.526629447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.447979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.395546913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605909347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431129455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906789779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984230041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2295093536377</t>
+    <t xml:space="preserve">11.5353689193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5266304016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479808807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955459594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207689285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431119918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0984220504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
     <t xml:space="preserve">11.18581199646</t>
@@ -671,10 +671,10 @@
     <t xml:space="preserve">11.2994184494019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3693294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829378128052</t>
+    <t xml:space="preserve">11.369330406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829359054565</t>
   </si>
   <si>
     <t xml:space="preserve">11.6227579116821</t>
@@ -683,25 +683,25 @@
     <t xml:space="preserve">11.710147857666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5790643692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4567203521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256349563599</t>
+    <t xml:space="preserve">11.5790634155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4567184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256359100342</t>
   </si>
   <si>
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878028869629</t>
+    <t xml:space="preserve">11.3168973922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032918930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878038406372</t>
   </si>
   <si>
     <t xml:space="preserve">11.3868074417114</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">11.4042854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5091524124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1159019470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.124641418457</t>
+    <t xml:space="preserve">11.5091543197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1159009933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1246404647827</t>
   </si>
   <si>
     <t xml:space="preserve">11.1683349609375</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">9.883713722229</t>
+    <t xml:space="preserve">9.88371467590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.14964580535889</t>
@@ -737,34 +737,34 @@
     <t xml:space="preserve">9.51668071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63028621673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64776420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7351541519165</t>
+    <t xml:space="preserve">9.63028717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6477632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73515319824219</t>
   </si>
   <si>
     <t xml:space="preserve">9.74389171600342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8312816619873</t>
+    <t xml:space="preserve">9.83128070831299</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53415679931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48172473907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39433574676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43803119659424</t>
+    <t xml:space="preserve">9.53415870666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48172378540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39433479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43803024291992</t>
   </si>
   <si>
     <t xml:space="preserve">9.5516357421875</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">9.42055034637451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37685585021973</t>
+    <t xml:space="preserve">9.37685680389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.26325225830078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1583833694458</t>
+    <t xml:space="preserve">9.15838527679443</t>
   </si>
   <si>
     <t xml:space="preserve">9.34190082550049</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84002017974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632568359375</t>
+    <t xml:space="preserve">9.84002113342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632472991943</t>
   </si>
   <si>
     <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78758716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380271911621</t>
+    <t xml:space="preserve">9.7875862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380176544189</t>
   </si>
   <si>
     <t xml:space="preserve">9.9011926651001</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22829532623291</t>
+    <t xml:space="preserve">9.22829627990723</t>
   </si>
   <si>
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072929382324</t>
+    <t xml:space="preserve">9.28072834014893</t>
   </si>
   <si>
     <t xml:space="preserve">9.25451278686523</t>
@@ -827,88 +827,88 @@
     <t xml:space="preserve">9.87497520446777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0497531890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91866970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63902378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72641372680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61280918121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56911373138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68271827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694484710693</t>
+    <t xml:space="preserve">10.0497541427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91867065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397975921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63902473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767425537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72641468048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61280822753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56911182403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68272018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694675445557</t>
   </si>
   <si>
     <t xml:space="preserve">9.36811828613281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70019817352295</t>
+    <t xml:space="preserve">9.70019626617432</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650177001953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0060586929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477882385254</t>
+    <t xml:space="preserve">10.0060577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.219557762146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17586326599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95738887786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82630634307861</t>
+    <t xml:space="preserve">9.17586135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216781616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95738983154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263053894043</t>
   </si>
   <si>
     <t xml:space="preserve">9.00108432769775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91369533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891639709473</t>
+    <t xml:space="preserve">8.91369438171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891544342041</t>
   </si>
   <si>
     <t xml:space="preserve">8.72143745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78261184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161544799805</t>
+    <t xml:space="preserve">8.7826099395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161449432373</t>
   </si>
   <si>
     <t xml:space="preserve">9.19656658172607</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15192317962646</t>
+    <t xml:space="preserve">9.15192127227783</t>
   </si>
   <si>
     <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06263637542725</t>
+    <t xml:space="preserve">9.06263542175293</t>
   </si>
   <si>
     <t xml:space="preserve">9.01799297332764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97334957122803</t>
+    <t xml:space="preserve">8.97334861755371</t>
   </si>
   <si>
     <t xml:space="preserve">8.89299011230469</t>
@@ -938,34 +938,34 @@
     <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83941745758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75013256072998</t>
+    <t xml:space="preserve">8.83941841125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75012969970703</t>
   </si>
   <si>
     <t xml:space="preserve">8.71441650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78584671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227310180664</t>
+    <t xml:space="preserve">8.78584575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227405548096</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8751335144043</t>
+    <t xml:space="preserve">8.82156085968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87513256072998</t>
   </si>
   <si>
     <t xml:space="preserve">8.66084384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57155799865723</t>
+    <t xml:space="preserve">8.57155704498291</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298343658447</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">8.44655513763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41084003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91084671020508</t>
+    <t xml:space="preserve">8.41084098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91084575653076</t>
   </si>
   <si>
     <t xml:space="preserve">8.76798820495605</t>
@@ -989,13 +989,13 @@
     <t xml:space="preserve">8.80370330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37514114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442890167236</t>
+    <t xml:space="preserve">9.37514019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50907135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442699432373</t>
   </si>
   <si>
     <t xml:space="preserve">9.3304967880249</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">8.53584289550781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62512969970703</t>
+    <t xml:space="preserve">8.62512874603271</t>
   </si>
   <si>
     <t xml:space="preserve">8.46441173553467</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">8.25012302398682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30369567871094</t>
+    <t xml:space="preserve">8.30369663238525</t>
   </si>
   <si>
     <t xml:space="preserve">8.28583812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33940982818604</t>
+    <t xml:space="preserve">8.33941078186035</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512493133545</t>
@@ -1043,16 +1043,16 @@
     <t xml:space="preserve">8.64298725128174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41978549957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55371379852295</t>
+    <t xml:space="preserve">9.41978359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55371284484863</t>
   </si>
   <si>
     <t xml:space="preserve">9.77693271636963</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7322883605957</t>
+    <t xml:space="preserve">9.73228740692139</t>
   </si>
   <si>
     <t xml:space="preserve">10.0447940826416</t>
@@ -1061,64 +1061,64 @@
     <t xml:space="preserve">10.2680101394653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126544952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.491229057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4465847015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5358724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019403457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805149078369</t>
+    <t xml:space="preserve">10.3126554489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572969436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912281036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4465856552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5358715057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805168151855</t>
   </si>
   <si>
     <t xml:space="preserve">10.2233667373657</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6698026657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065948486328</t>
+    <t xml:space="preserve">10.6698017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065958023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8521919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330114364624</t>
+    <t xml:space="preserve">10.8521928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330104827881</t>
   </si>
   <si>
     <t xml:space="preserve">10.3962173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2138290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5786085128784</t>
+    <t xml:space="preserve">10.213828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5786075592041</t>
   </si>
   <si>
     <t xml:space="preserve">10.4874124526978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4418144226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506212234497</t>
+    <t xml:space="preserve">10.4418153762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506202697754</t>
   </si>
   <si>
     <t xml:space="preserve">10.122633934021</t>
@@ -1127,25 +1127,25 @@
     <t xml:space="preserve">10.259425163269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0770349502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.031439781189</t>
+    <t xml:space="preserve">10.0770359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0314388275146</t>
   </si>
   <si>
     <t xml:space="preserve">10.3050231933594</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1682300567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89464569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84905052185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4842700958252</t>
+    <t xml:space="preserve">10.168231010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8946475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84904956817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48426723480225</t>
   </si>
   <si>
     <t xml:space="preserve">9.43867206573486</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">9.52986621856689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62106227874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785350799561</t>
+    <t xml:space="preserve">9.62106132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785446166992</t>
   </si>
   <si>
     <t xml:space="preserve">9.66666030883789</t>
@@ -1166,13 +1166,13 @@
     <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25628089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1650857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3018798828125</t>
+    <t xml:space="preserve">9.25628185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16508674621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30187892913818</t>
   </si>
   <si>
     <t xml:space="preserve">9.21068477630615</t>
@@ -1181,10 +1181,10 @@
     <t xml:space="preserve">9.39307403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11949062347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71225547790527</t>
+    <t xml:space="preserve">9.1194896697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71225643157959</t>
   </si>
   <si>
     <t xml:space="preserve">9.80345153808594</t>
@@ -1196,22 +1196,22 @@
     <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6273498535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.672947883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3993606567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081665039062</t>
+    <t xml:space="preserve">11.6273488998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6729459762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3993625640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081674575806</t>
   </si>
   <si>
     <t xml:space="preserve">11.0801801681519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0345821380615</t>
+    <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
     <t xml:space="preserve">11.1713752746582</t>
@@ -1220,46 +1220,46 @@
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5817518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.718544960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9465312957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.083324432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113098144531</t>
+    <t xml:space="preserve">11.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7185440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.85533618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9465322494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0833234786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113107681274</t>
   </si>
   <si>
     <t xml:space="preserve">12.1745195388794</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921293258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7641410827637</t>
+    <t xml:space="preserve">11.9921283721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7641401290894</t>
   </si>
   <si>
     <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7672863006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1320648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9952726364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9496755599976</t>
+    <t xml:space="preserve">12.7672853469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1320657730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9952716827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9496746063232</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688570022583</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481019973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5848970413208</t>
+    <t xml:space="preserve">12.4481039047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5848960876465</t>
   </si>
   <si>
     <t xml:space="preserve">12.8128833770752</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">13.0864677429199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9009342193604</t>
+    <t xml:space="preserve">11.900933265686</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7154006958008</t>
+    <t xml:space="preserve">10.7153997421265</t>
   </si>
   <si>
     <t xml:space="preserve">9.02829456329346</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66351509094238</t>
+    <t xml:space="preserve">8.6635160446167</t>
   </si>
   <si>
     <t xml:space="preserve">8.07986736297607</t>
@@ -1319,22 +1319,22 @@
     <t xml:space="preserve">8.57232093811035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73647022247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118824005127</t>
+    <t xml:space="preserve">8.73647117614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118728637695</t>
   </si>
   <si>
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34747505187988</t>
+    <t xml:space="preserve">9.34747695922852</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94472980499268</t>
+    <t xml:space="preserve">9.94473075866699</t>
   </si>
   <si>
     <t xml:space="preserve">10.0381088256836</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">9.80466461181641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85135364532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99141979217529</t>
+    <t xml:space="preserve">9.85135269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99142074584961</t>
   </si>
   <si>
     <t xml:space="preserve">10.2715539932251</t>
@@ -1358,40 +1358,40 @@
     <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.458309173584</t>
+    <t xml:space="preserve">10.4583082199097</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785076141357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7384414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.018575668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8318204879761</t>
+    <t xml:space="preserve">10.7384405136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0185747146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8318185806274</t>
   </si>
   <si>
     <t xml:space="preserve">11.1586418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7851314544678</t>
+    <t xml:space="preserve">10.7851305007935</t>
   </si>
   <si>
     <t xml:space="preserve">10.925196647644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6450634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2987079620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.485463142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6722183227539</t>
+    <t xml:space="preserve">10.6450624465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2987089157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4854640960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6722192764282</t>
   </si>
   <si>
     <t xml:space="preserve">11.3453969955444</t>
@@ -1403,64 +1403,64 @@
     <t xml:space="preserve">11.438775062561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1119518280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2520189285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9718866348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652637481689</t>
+    <t xml:space="preserve">11.1119527816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2520198822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9718856811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652647018433</t>
   </si>
   <si>
     <t xml:space="preserve">11.5788412094116</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6255302429199</t>
+    <t xml:space="preserve">11.6255311965942</t>
   </si>
   <si>
     <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5321531295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189083099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7655982971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8589744567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1391086578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.952353477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1857976913452</t>
+    <t xml:space="preserve">11.532154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189092636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7655973434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8589735031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1391077041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9523515701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
     <t xml:space="preserve">12.2791748046875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9056644439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9990425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2324857711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.045729637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0924196243286</t>
+    <t xml:space="preserve">11.9056634902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.999041557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2324867248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0457286834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0924186706543</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122863769531</t>
@@ -1469,16 +1469,16 @@
     <t xml:space="preserve">12.3258638381958</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8861312866211</t>
+    <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
     <t xml:space="preserve">12.9795074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2596416473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.07288646698</t>
+    <t xml:space="preserve">13.2596406936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0728855133057</t>
   </si>
   <si>
     <t xml:space="preserve">13.119574546814</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">13.4463968276978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3063297271729</t>
+    <t xml:space="preserve">13.3063287734985</t>
   </si>
   <si>
     <t xml:space="preserve">13.3530187606812</t>
@@ -1526,10 +1526,10 @@
     <t xml:space="preserve">12.8394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">13.53977394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8199090957642</t>
+    <t xml:space="preserve">13.5397748947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
     <t xml:space="preserve">14.053352355957</t>
@@ -1538,10 +1538,10 @@
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801736831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5669298171997</t>
+    <t xml:space="preserve">14.3801746368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5669317245483</t>
   </si>
   <si>
     <t xml:space="preserve">14.3334856033325</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">14.9404401779175</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8937520980835</t>
+    <t xml:space="preserve">14.8937511444092</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338182449341</t>
@@ -1562,19 +1562,19 @@
     <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2672643661499</t>
+    <t xml:space="preserve">15.2672624588013</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8470630645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.660306930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4735517501831</t>
+    <t xml:space="preserve">14.8470621109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603078842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4735527038574</t>
   </si>
   <si>
     <t xml:space="preserve">14.1934185028076</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">13.8665971755981</t>
   </si>
   <si>
-    <t xml:space="preserve">14.006664276123</t>
+    <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732181549072</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">15.1621971130371</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3998508453369</t>
+    <t xml:space="preserve">15.3998498916626</t>
   </si>
   <si>
     <t xml:space="preserve">15.3523187637329</t>
@@ -1640,25 +1640,25 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.542441368103</t>
+    <t xml:space="preserve">15.5424394607544</t>
   </si>
   <si>
     <t xml:space="preserve">14.9720754623413</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0196056365967</t>
+    <t xml:space="preserve">15.019606590271</t>
   </si>
   <si>
     <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7325620651245</t>
+    <t xml:space="preserve">15.7325601577759</t>
   </si>
   <si>
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226818084717</t>
+    <t xml:space="preserve">15.9226837158203</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">16.0177440643311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.350456237793</t>
+    <t xml:space="preserve">16.3504581451416</t>
   </si>
   <si>
     <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7782325744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1109447479248</t>
+    <t xml:space="preserve">16.7782306671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1109428405762</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">16.8257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4455165863037</t>
+    <t xml:space="preserve">16.4455184936523</t>
   </si>
   <si>
     <t xml:space="preserve">17.5387191772461</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873291015625</t>
+    <t xml:space="preserve">16.8732929229736</t>
   </si>
   <si>
     <t xml:space="preserve">17.348596572876</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">17.7763710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8714294433594</t>
+    <t xml:space="preserve">17.871431350708</t>
   </si>
   <si>
     <t xml:space="preserve">18.299201965332</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">19.0121593475342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2022838592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0578289031982</t>
+    <t xml:space="preserve">19.2022819519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0578269958496</t>
   </si>
   <si>
     <t xml:space="preserve">19.8677062988281</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924026489258</t>
+    <t xml:space="preserve">19.3924007415771</t>
   </si>
   <si>
     <t xml:space="preserve">19.9627666473389</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.152889251709</t>
+    <t xml:space="preserve">19.7726440429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1528911590576</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">21.2936172485352</t>
   </si>
   <si>
-    <t xml:space="preserve">21.578800201416</t>
+    <t xml:space="preserve">21.5788021087646</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
@@ -1778,16 +1778,16 @@
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.054105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3392887115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6244678497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8145904541016</t>
+    <t xml:space="preserve">22.0541038513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3392868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6244697570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8145923614502</t>
   </si>
   <si>
     <t xml:space="preserve">21.9590435028076</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">21.8639812469482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5331325531006</t>
+    <t xml:space="preserve">20.5331344604492</t>
   </si>
   <si>
     <t xml:space="preserve">18.5843849182129</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837417602539</t>
+    <t xml:space="preserve">21.4837398529053</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">20.3430118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0047130584717</t>
+    <t xml:space="preserve">23.0047149658203</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7195281982422</t>
+    <t xml:space="preserve">22.7195301055908</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7232513427734</t>
+    <t xml:space="preserve">20.7232532501221</t>
   </si>
   <si>
     <t xml:space="preserve">21.1985569000244</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">18.6319160461426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2060070037842</t>
+    <t xml:space="preserve">17.2060050964355</t>
   </si>
   <si>
     <t xml:space="preserve">17.9189605712891</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337776184082</t>
+    <t xml:space="preserve">17.6337757110596</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">18.5368556976318</t>
   </si>
   <si>
-    <t xml:space="preserve">19.154748916626</t>
+    <t xml:space="preserve">19.1547508239746</t>
   </si>
   <si>
     <t xml:space="preserve">18.9170989990234</t>
@@ -1898,10 +1898,10 @@
     <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136478424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3847579956055</t>
+    <t xml:space="preserve">18.2136497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3847599029541</t>
   </si>
   <si>
     <t xml:space="preserve">19.2498111724854</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8143939971924</t>
+    <t xml:space="preserve">17.8143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
@@ -2877,6 +2877,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.9500007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1000003814697</t>
   </si>
 </sst>
 </file>
@@ -59456,7 +59459,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6495023148</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>18943</v>
@@ -59477,6 +59480,32 @@
         <v>953</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6493518519</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>6101</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>26.2999992370605</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>25.4500007629395</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>26.1000003814697</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>955</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="960">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,199 +38,199 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262744903564</t>
+    <t xml:space="preserve">8.42262649536133</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947124481201</t>
+    <t xml:space="preserve">8.43947219848633</t>
   </si>
   <si>
     <t xml:space="preserve">8.40578174591064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21206188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31734466552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19521427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27101802825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207611083984</t>
+    <t xml:space="preserve">8.21206092834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31734371185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19521617889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27101898193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207515716553</t>
   </si>
   <si>
     <t xml:space="preserve">8.15731430053711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20363903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18679428100586</t>
+    <t xml:space="preserve">8.20363998413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18679332733154</t>
   </si>
   <si>
     <t xml:space="preserve">8.08572196960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13625621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03518486022949</t>
+    <t xml:space="preserve">8.13625907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03518581390381</t>
   </si>
   <si>
     <t xml:space="preserve">8.03097534179688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02676296234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149536132812</t>
+    <t xml:space="preserve">8.02676200866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149631500244</t>
   </si>
   <si>
     <t xml:space="preserve">7.99307346343994</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96780443191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145219802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304309844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619739532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356454849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880083084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459035873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357782363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91727018356323</t>
+    <t xml:space="preserve">7.96780490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304357528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619787216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356407165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880130767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66458940505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726875305176</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203151702881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22048377990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30471134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417613983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07729911804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33839988708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48158645629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44789409637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41420364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155513763428</t>
+    <t xml:space="preserve">8.22048473358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994857788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30470943450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417423248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941242218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48158550262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44789505004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41420459747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155609130859</t>
   </si>
   <si>
     <t xml:space="preserve">8.27944278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4256010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578357696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55456447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27084445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29663753509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32672786712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2536506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962345123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102798461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3353271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32242965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38261318206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21066093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785568237305</t>
+    <t xml:space="preserve">8.42560005187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578262329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55456352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27084350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2966365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32672882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25364971160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962440490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33532619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32243061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38261222839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21066188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785663604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.16767406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08169841766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03870964050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572277069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273542404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505233764648</t>
+    <t xml:space="preserve">8.08169746398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03871154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572324752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273447036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2450532913208</t>
   </si>
   <si>
     <t xml:space="preserve">8.05160713195801</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">7.86675882339478</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82377195358276</t>
+    <t xml:space="preserve">7.82377099990845</t>
   </si>
   <si>
     <t xml:space="preserve">8.05590534210205</t>
@@ -248,28 +248,28 @@
     <t xml:space="preserve">7.92694330215454</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9097466468811</t>
+    <t xml:space="preserve">7.90974617004395</t>
   </si>
   <si>
     <t xml:space="preserve">7.73779678344727</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78078508377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133232116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755229949951</t>
+    <t xml:space="preserve">7.78078460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133375167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755039215088</t>
   </si>
   <si>
     <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64913654327393</t>
+    <t xml:space="preserve">8.64913845062256</t>
   </si>
   <si>
     <t xml:space="preserve">8.7265157699585</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">8.63194179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66633224487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895206451416</t>
+    <t xml:space="preserve">8.66633129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325122833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895492553711</t>
   </si>
   <si>
     <t xml:space="preserve">8.68352699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70072174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9414529800415</t>
+    <t xml:space="preserve">8.70072269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145202636719</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547733306885</t>
@@ -311,16 +311,16 @@
     <t xml:space="preserve">9.02742958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15639209747314</t>
+    <t xml:space="preserve">9.15639114379883</t>
   </si>
   <si>
     <t xml:space="preserve">9.2337703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19937992095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24236679077148</t>
+    <t xml:space="preserve">9.19938087463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2423677444458</t>
   </si>
   <si>
     <t xml:space="preserve">9.4143180847168</t>
@@ -329,25 +329,25 @@
     <t xml:space="preserve">9.32834339141846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31974601745605</t>
+    <t xml:space="preserve">9.31974697113037</t>
   </si>
   <si>
     <t xml:space="preserve">9.20797729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22517204284668</t>
+    <t xml:space="preserve">9.22517108917236</t>
   </si>
   <si>
     <t xml:space="preserve">9.44011211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45730686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962329864502</t>
+    <t xml:space="preserve">9.45730590820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962425231934</t>
   </si>
   <si>
     <t xml:space="preserve">9.5432825088501</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">9.62925815582275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52608776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67224407196045</t>
+    <t xml:space="preserve">9.52608680725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67224502563477</t>
   </si>
   <si>
     <t xml:space="preserve">9.62065982818604</t>
@@ -371,70 +371,70 @@
     <t xml:space="preserve">9.6808443069458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71523284912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206245422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65504932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718509674072</t>
+    <t xml:space="preserve">9.71523380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5518798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65505027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718414306641</t>
   </si>
   <si>
     <t xml:space="preserve">10.2138919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4030389785767</t>
+    <t xml:space="preserve">10.403037071228</t>
   </si>
   <si>
     <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451101303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021242141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1279153823853</t>
+    <t xml:space="preserve">10.1451120376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.102123260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1279163360596</t>
   </si>
   <si>
     <t xml:space="preserve">10.0333423614502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.059136390686</t>
+    <t xml:space="preserve">10.0591354370117</t>
   </si>
   <si>
     <t xml:space="preserve">10.1623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.308464050293</t>
+    <t xml:space="preserve">10.3084630966187</t>
   </si>
   <si>
     <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84419536590576</t>
+    <t xml:space="preserve">9.84419631958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.87858581542969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8527946472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2310876846313</t>
+    <t xml:space="preserve">9.85279369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2310848236084</t>
   </si>
   <si>
     <t xml:space="preserve">10.007550239563</t>
@@ -443,82 +443,82 @@
     <t xml:space="preserve">10.274073600769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4460248947144</t>
+    <t xml:space="preserve">10.44602394104</t>
   </si>
   <si>
     <t xml:space="preserve">10.6351718902588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6867561340332</t>
+    <t xml:space="preserve">10.6867580413818</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695613861084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9618787765503</t>
+    <t xml:space="preserve">10.961877822876</t>
   </si>
   <si>
     <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0220613479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768178939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198057174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.443341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302307128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7528533935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614498138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8732204437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849872589111</t>
+    <t xml:space="preserve">11.0220603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768169403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066942214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302316665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7528524398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496820449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614517211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8732194900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505958557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849863052368</t>
   </si>
   <si>
     <t xml:space="preserve">12.0107793807983</t>
   </si>
   <si>
-    <t xml:space="preserve">11.838828086853</t>
+    <t xml:space="preserve">11.8388290405273</t>
   </si>
   <si>
     <t xml:space="preserve">11.7700471878052</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6926708221436</t>
+    <t xml:space="preserve">11.6926698684692</t>
   </si>
   <si>
     <t xml:space="preserve">11.7786455154419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7975358963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024038314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674488067627</t>
+    <t xml:space="preserve">11.7975368499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8674478530884</t>
   </si>
   <si>
     <t xml:space="preserve">11.8499708175659</t>
@@ -530,10 +530,10 @@
     <t xml:space="preserve">12.0597047805786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0859212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2432222366333</t>
+    <t xml:space="preserve">12.0859203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.243221282959</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966506958008</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">12.5403451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2344827651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.321870803833</t>
+    <t xml:space="preserve">12.2344818115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3218727111816</t>
   </si>
   <si>
     <t xml:space="preserve">12.1733112335205</t>
@@ -554,13 +554,13 @@
     <t xml:space="preserve">12.0160093307495</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9286212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849267959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247488021851</t>
+    <t xml:space="preserve">11.9286203384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849258422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247497558594</t>
   </si>
   <si>
     <t xml:space="preserve">12.0946598052979</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">12.1383562088013</t>
   </si>
   <si>
-    <t xml:space="preserve">12.217004776001</t>
+    <t xml:space="preserve">12.2170028686523</t>
   </si>
   <si>
     <t xml:space="preserve">12.2257432937622</t>
@@ -581,19 +581,19 @@
     <t xml:space="preserve">12.2082662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1208763122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897937774658</t>
+    <t xml:space="preserve">12.1208772659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897947311401</t>
   </si>
   <si>
     <t xml:space="preserve">12.0684442520142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0509662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985313415527</t>
+    <t xml:space="preserve">12.0509653091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985322952271</t>
   </si>
   <si>
     <t xml:space="preserve">12.0422258377075</t>
@@ -602,34 +602,34 @@
     <t xml:space="preserve">12.0771827697754</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034002304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8936643600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062763214111</t>
+    <t xml:space="preserve">12.1033992767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8936653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062772750854</t>
   </si>
   <si>
     <t xml:space="preserve">11.7800598144531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7451038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5353698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5266304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4479808807373</t>
+    <t xml:space="preserve">11.7451028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014093399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5353689193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5266284942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.447979927063</t>
   </si>
   <si>
     <t xml:space="preserve">11.395546913147</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">11.3605909347534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3518505096436</t>
+    <t xml:space="preserve">11.3518533706665</t>
   </si>
   <si>
     <t xml:space="preserve">11.2732019424438</t>
@@ -650,25 +650,25 @@
     <t xml:space="preserve">11.3431129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2906789779663</t>
+    <t xml:space="preserve">11.2906808853149</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2295083999634</t>
+    <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
     <t xml:space="preserve">11.18581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.369330406189</t>
+    <t xml:space="preserve">11.2469844818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994203567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3693313598633</t>
   </si>
   <si>
     <t xml:space="preserve">11.4829359054565</t>
@@ -680,40 +680,40 @@
     <t xml:space="preserve">11.710147857666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5790643692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4567184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256349563599</t>
+    <t xml:space="preserve">11.5790634155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4567193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256359100342</t>
   </si>
   <si>
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032909393311</t>
+    <t xml:space="preserve">11.3168973922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032899856567</t>
   </si>
   <si>
     <t xml:space="preserve">11.5878028869629</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3868074417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091524124146</t>
+    <t xml:space="preserve">11.3868083953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091533660889</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1246404647827</t>
+    <t xml:space="preserve">11.1246385574341</t>
   </si>
   <si>
     <t xml:space="preserve">11.1683349609375</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">11.2557239532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.883713722229</t>
+    <t xml:space="preserve">9.88371467590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.14964580535889</t>
@@ -734,28 +734,28 @@
     <t xml:space="preserve">9.51667976379395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63028621673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6477632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73515224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7438907623291</t>
+    <t xml:space="preserve">9.63028717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64776229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73515319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74389171600342</t>
   </si>
   <si>
     <t xml:space="preserve">9.83128070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70893478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53415775299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48172473907471</t>
+    <t xml:space="preserve">9.70893573760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53415870666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48172378540039</t>
   </si>
   <si>
     <t xml:space="preserve">9.39433479309082</t>
@@ -764,37 +764,37 @@
     <t xml:space="preserve">9.43802928924561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5516357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37685680389404</t>
+    <t xml:space="preserve">9.55163669586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055225372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37685585021973</t>
   </si>
   <si>
     <t xml:space="preserve">9.26325225830078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15838241577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3419017791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40307331085205</t>
+    <t xml:space="preserve">9.1583833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34190082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
     <t xml:space="preserve">9.84002113342285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79632377624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80506420135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78758716583252</t>
+    <t xml:space="preserve">9.79632472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8050651550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7875862121582</t>
   </si>
   <si>
     <t xml:space="preserve">9.81380271911621</t>
@@ -803,46 +803,46 @@
     <t xml:space="preserve">9.9011926651001</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85749816894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22829627990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07099437713623</t>
+    <t xml:space="preserve">9.857497215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22829723358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
     <t xml:space="preserve">9.28072929382324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25451374053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497520446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91867160797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63902473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767520904541</t>
+    <t xml:space="preserve">9.25451278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984313964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0497531890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91866874694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397975921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63902378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
     <t xml:space="preserve">9.72641372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61280918121338</t>
+    <t xml:space="preserve">9.61280727386475</t>
   </si>
   <si>
     <t xml:space="preserve">9.56911277770996</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">9.68271923065186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30694580078125</t>
+    <t xml:space="preserve">9.30694484710693</t>
   </si>
   <si>
     <t xml:space="preserve">9.36811828613281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70019817352295</t>
+    <t xml:space="preserve">9.70019721984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650177001953</t>
@@ -866,22 +866,22 @@
     <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08847236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477977752686</t>
+    <t xml:space="preserve">9.08847141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477787017822</t>
   </si>
   <si>
     <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17586326599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216590881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95738887786865</t>
+    <t xml:space="preserve">9.17586231231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216686248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95738792419434</t>
   </si>
   <si>
     <t xml:space="preserve">8.8263053894043</t>
@@ -890,19 +890,19 @@
     <t xml:space="preserve">9.00108337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91369342803955</t>
+    <t xml:space="preserve">8.91369438171387</t>
   </si>
   <si>
     <t xml:space="preserve">8.8700008392334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73891735076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78261089324951</t>
+    <t xml:space="preserve">8.73891544342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78261184692383</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161544799805</t>
@@ -911,31 +911,31 @@
     <t xml:space="preserve">9.19656562805176</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24121189117432</t>
+    <t xml:space="preserve">9.24120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.15192222595215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06263637542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01799201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334861755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.892991065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727119445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83941745758057</t>
+    <t xml:space="preserve">9.10727977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06263542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01799297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727214813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8394193649292</t>
   </si>
   <si>
     <t xml:space="preserve">8.75013065338135</t>
@@ -947,28 +947,28 @@
     <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73227214813232</t>
+    <t xml:space="preserve">8.73227310180664</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82156181335449</t>
+    <t xml:space="preserve">8.82156085968018</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66084289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39298343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44655513763428</t>
+    <t xml:space="preserve">8.66084384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39298248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44655609130859</t>
   </si>
   <si>
     <t xml:space="preserve">8.41084098815918</t>
@@ -980,22 +980,22 @@
     <t xml:space="preserve">8.76798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92870616912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37514114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907039642334</t>
+    <t xml:space="preserve">8.9287052154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37514019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50907135009766</t>
   </si>
   <si>
     <t xml:space="preserve">9.46442794799805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33049583435059</t>
+    <t xml:space="preserve">9.3304967880249</t>
   </si>
   <si>
     <t xml:space="preserve">9.28585243225098</t>
@@ -1007,25 +1007,25 @@
     <t xml:space="preserve">8.5358419418335</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62512874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46441268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726737976074</t>
+    <t xml:space="preserve">8.62512969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46441173553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726833343506</t>
   </si>
   <si>
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30369567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28583717346191</t>
+    <t xml:space="preserve">8.25012302398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30369663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28583908081055</t>
   </si>
   <si>
     <t xml:space="preserve">8.33940982818604</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">8.64298725128174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41978359222412</t>
+    <t xml:space="preserve">9.41978454589844</t>
   </si>
   <si>
     <t xml:space="preserve">9.55371475219727</t>
@@ -1049,40 +1049,40 @@
     <t xml:space="preserve">9.77693176269531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7322883605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680110931396</t>
+    <t xml:space="preserve">9.73228740692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680101394653</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126544952393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3572969436646</t>
+    <t xml:space="preserve">10.3572978973389</t>
   </si>
   <si>
     <t xml:space="preserve">10.491229057312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4465866088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5358724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019412994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805168151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233667373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698017120361</t>
+    <t xml:space="preserve">10.4465856552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5358734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019403457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805158615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22336769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065958023071</t>
@@ -1091,10 +1091,10 @@
     <t xml:space="preserve">10.6242046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8521928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609977722168</t>
+    <t xml:space="preserve">10.8521919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609987258911</t>
   </si>
   <si>
     <t xml:space="preserve">10.5330104827881</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">10.6698036193848</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4874134063721</t>
+    <t xml:space="preserve">10.4874124526978</t>
   </si>
   <si>
     <t xml:space="preserve">10.4418153762817</t>
   </si>
   <si>
-    <t xml:space="preserve">10.350622177124</t>
+    <t xml:space="preserve">10.3506202697754</t>
   </si>
   <si>
     <t xml:space="preserve">10.122633934021</t>
@@ -1130,31 +1130,31 @@
     <t xml:space="preserve">10.0770359039307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0314388275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3050222396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1682300567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89464664459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84904861450195</t>
+    <t xml:space="preserve">10.0314378738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3050241470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.168231010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89464569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84904956817627</t>
   </si>
   <si>
     <t xml:space="preserve">9.48426818847656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43867301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986526489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106132507324</t>
+    <t xml:space="preserve">9.43867206573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986621856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106227874756</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785446166992</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">9.66665935516357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57546520233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25628280639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16508674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30187797546387</t>
+    <t xml:space="preserve">9.57546424865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25628185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16508769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3018798828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.21068477630615</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">9.39307403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11949062347412</t>
+    <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225643157959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80345058441162</t>
+    <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
     <t xml:space="preserve">9.94024276733398</t>
@@ -1205,31 +1205,31 @@
     <t xml:space="preserve">11.3993616104126</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3081665039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0801782608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0345830917358</t>
+    <t xml:space="preserve">11.3081674575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0801792144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0345821380615</t>
   </si>
   <si>
     <t xml:space="preserve">11.1713743209839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4449605941772</t>
+    <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
     <t xml:space="preserve">11.5817518234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.718544960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9465322494507</t>
+    <t xml:space="preserve">11.7185440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.85533618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
     <t xml:space="preserve">12.0833234786987</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">11.9921283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7641410827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4937000274658</t>
+    <t xml:space="preserve">11.764142036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320648193359</t>
+    <t xml:space="preserve">13.1320638656616</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952726364136</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">12.9496755599976</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688570022583</t>
+    <t xml:space="preserve">13.2688579559326</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304931640625</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481039047241</t>
+    <t xml:space="preserve">12.4481029510498</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
@@ -1280,28 +1280,28 @@
     <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8584794998169</t>
+    <t xml:space="preserve">12.8584814071655</t>
   </si>
   <si>
     <t xml:space="preserve">13.0864686965942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9009342193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9433879852295</t>
+    <t xml:space="preserve">11.900933265686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9433870315552</t>
   </si>
   <si>
     <t xml:space="preserve">10.7154006958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02829456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93395566940308</t>
+    <t xml:space="preserve">9.02829551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93395662307739</t>
   </si>
   <si>
     <t xml:space="preserve">7.64213228225708</t>
@@ -1310,25 +1310,25 @@
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6635160446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07986736297607</t>
+    <t xml:space="preserve">8.66351509094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07986831665039</t>
   </si>
   <si>
     <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73647212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118728637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99181652069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34747695922852</t>
+    <t xml:space="preserve">8.73647022247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9918155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3474760055542</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847978591919</t>
@@ -1337,25 +1337,25 @@
     <t xml:space="preserve">9.94473075866699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0381078720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80466556549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85135269165039</t>
+    <t xml:space="preserve">10.0381088256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80466461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
     <t xml:space="preserve">9.99142074584961</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2715539932251</t>
+    <t xml:space="preserve">10.2715520858765</t>
   </si>
   <si>
     <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.551685333252</t>
+    <t xml:space="preserve">10.5516872406006</t>
   </si>
   <si>
     <t xml:space="preserve">10.458309173584</t>
@@ -1367,16 +1367,16 @@
     <t xml:space="preserve">10.7384414672852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0185747146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8318185806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1586408615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7851314544678</t>
+    <t xml:space="preserve">11.018575668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8318195343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1586418151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7851305007935</t>
   </si>
   <si>
     <t xml:space="preserve">10.9251976013184</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">10.6450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2987089157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.485463142395</t>
+    <t xml:space="preserve">11.2987079620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4854650497437</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">11.3453960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053308486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.438775062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1119527816772</t>
+    <t xml:space="preserve">11.2053298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4387741088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1119518280029</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520198822021</t>
@@ -1415,28 +1415,28 @@
     <t xml:space="preserve">11.0652647018433</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5788412094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6255311965942</t>
+    <t xml:space="preserve">11.5788421630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6255302429199</t>
   </si>
   <si>
     <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.532154083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189092636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7655973434448</t>
+    <t xml:space="preserve">11.5321531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189083099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7655963897705</t>
   </si>
   <si>
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391086578369</t>
+    <t xml:space="preserve">12.1391077041626</t>
   </si>
   <si>
     <t xml:space="preserve">11.9523525238037</t>
@@ -1448,19 +1448,19 @@
     <t xml:space="preserve">12.2791738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9056644439697</t>
+    <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
     <t xml:space="preserve">11.999041557312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2324867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.045729637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0924186706543</t>
+    <t xml:space="preserve">12.2324857711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0457305908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0924205780029</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122854232788</t>
@@ -1487,34 +1487,34 @@
     <t xml:space="preserve">13.3997087478638</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4463968276978</t>
+    <t xml:space="preserve">13.4463958740234</t>
   </si>
   <si>
     <t xml:space="preserve">13.3063297271729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3530197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864629745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930849075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662635803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9132843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6331520080566</t>
+    <t xml:space="preserve">13.3530187606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864639282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930858612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662645339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9132852554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5593070983887</t>
+    <t xml:space="preserve">12.559308052063</t>
   </si>
   <si>
     <t xml:space="preserve">13.0261964797974</t>
@@ -1529,40 +1529,40 @@
     <t xml:space="preserve">13.53977394104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8199071884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0533533096313</t>
+    <t xml:space="preserve">13.8199081420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.053352355957</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801746368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5669298171997</t>
+    <t xml:space="preserve">14.3801736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.566930770874</t>
   </si>
   <si>
     <t xml:space="preserve">14.3334865570068</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7069969177246</t>
+    <t xml:space="preserve">14.706995010376</t>
   </si>
   <si>
     <t xml:space="preserve">14.9404401779175</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8937511444092</t>
+    <t xml:space="preserve">14.8937520980835</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338191986084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0805063247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.267261505127</t>
+    <t xml:space="preserve">15.0805072784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2672643661499</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1934185028076</t>
+    <t xml:space="preserve">14.1934175491333</t>
   </si>
   <si>
     <t xml:space="preserve">14.5202417373657</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066623687744</t>
+    <t xml:space="preserve">13.8665971755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732181549072</t>
@@ -1598,22 +1598,22 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401075363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393632888794</t>
+    <t xml:space="preserve">14.2401065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393623352051</t>
   </si>
   <si>
     <t xml:space="preserve">14.591833114624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6868925094604</t>
+    <t xml:space="preserve">14.6868934631348</t>
   </si>
   <si>
     <t xml:space="preserve">14.9245452880859</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0671367645264</t>
+    <t xml:space="preserve">15.0671358108521</t>
   </si>
   <si>
     <t xml:space="preserve">15.2572574615479</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621961593628</t>
+    <t xml:space="preserve">15.1621971130371</t>
   </si>
   <si>
     <t xml:space="preserve">15.3998498916626</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424394607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9720754623413</t>
+    <t xml:space="preserve">15.542441368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.972074508667</t>
   </si>
   <si>
     <t xml:space="preserve">15.0196056365967</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7325601577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3029270172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9226837158203</t>
+    <t xml:space="preserve">15.7325620651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3029251098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.922682762146</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">16.0177440643311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3504581451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0652732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7782306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1109428405762</t>
+    <t xml:space="preserve">16.350456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0652751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7782325744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1109447479248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1694,34 +1694,34 @@
     <t xml:space="preserve">16.4455165863037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5387191772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0615501403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7288379669189</t>
+    <t xml:space="preserve">17.5387172698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0615520477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7288398742676</t>
   </si>
   <si>
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8732929229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.348596572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7763690948486</t>
+    <t xml:space="preserve">16.873291015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3485946655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7763710021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.8714294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8220367431641</t>
+    <t xml:space="preserve">18.2992038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8220386505127</t>
   </si>
   <si>
     <t xml:space="preserve">19.0121593475342</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">19.2022819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0578269958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8677062988281</t>
+    <t xml:space="preserve">20.0578289031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8677043914795</t>
   </si>
   <si>
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924007415771</t>
+    <t xml:space="preserve">19.3924026489258</t>
   </si>
   <si>
     <t xml:space="preserve">19.9627685546875</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">19.7726440429688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.152889251709</t>
+    <t xml:space="preserve">20.1528911590576</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
@@ -1760,16 +1760,16 @@
     <t xml:space="preserve">21.2936191558838</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5788021087646</t>
+    <t xml:space="preserve">21.578800201416</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7689228057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1034965515137</t>
+    <t xml:space="preserve">21.7689208984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">22.1491641998291</t>
@@ -1778,19 +1778,19 @@
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0541038513184</t>
+    <t xml:space="preserve">22.054105758667</t>
   </si>
   <si>
     <t xml:space="preserve">22.3392887115479</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6244697570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8145923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9590454101562</t>
+    <t xml:space="preserve">22.6244678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8145904541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9590435028076</t>
   </si>
   <si>
     <t xml:space="preserve">21.8639831542969</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">19.297342300415</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9133758544922</t>
+    <t xml:space="preserve">20.9133739471436</t>
   </si>
   <si>
     <t xml:space="preserve">22.2442264556885</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837398529053</t>
+    <t xml:space="preserve">21.4837417602539</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1832,31 +1832,31 @@
     <t xml:space="preserve">20.3430118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0047149658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5294094085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7195281982422</t>
+    <t xml:space="preserve">23.0047130584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.529411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7195301055908</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7232532501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1985569000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6775875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1072196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319179534912</t>
+    <t xml:space="preserve">20.7232513427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.198558807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6775856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1072216033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6319160461426</t>
   </si>
   <si>
     <t xml:space="preserve">17.2060050964355</t>
@@ -1868,13 +1868,13 @@
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337757110596</t>
+    <t xml:space="preserve">17.6337776184082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2041435241699</t>
+    <t xml:space="preserve">18.2041416168213</t>
   </si>
   <si>
     <t xml:space="preserve">18.5368537902832</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">18.5938911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798202514648</t>
+    <t xml:space="preserve">18.4798183441162</t>
   </si>
   <si>
     <t xml:space="preserve">18.4988307952881</t>
@@ -1898,13 +1898,13 @@
     <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3847599029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2498092651367</t>
+    <t xml:space="preserve">18.2136478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3847579956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2498111724854</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">20.3905410766602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4856033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4380702972412</t>
+    <t xml:space="preserve">20.4856014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
     <t xml:space="preserve">18.7650012969971</t>
@@ -1928,25 +1928,25 @@
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249195098877</t>
+    <t xml:space="preserve">17.1333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249214172363</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2071990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.703275680542</t>
+    <t xml:space="preserve">19.2072010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7032775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816337585449</t>
+    <t xml:space="preserve">19.3816356658936</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1958,37 +1958,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2265815734863</t>
+    <t xml:space="preserve">19.226583480835</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.350715637207</t>
+    <t xml:space="preserve">20.3507175445557</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.447624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383480072021</t>
+    <t xml:space="preserve">21.2228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383499145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8661766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001861572266</t>
+    <t xml:space="preserve">21.8043403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.866174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001842498779</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239070892334</t>
+    <t xml:space="preserve">19.6239051818848</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723575592041</t>
+    <t xml:space="preserve">18.9746189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538089752197</t>
+    <t xml:space="preserve">20.2538070678711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919727325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.465160369873</t>
+    <t xml:space="preserve">22.1919708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4651584625244</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6105213165283</t>
+    <t xml:space="preserve">21.610523223877</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1569004058838</t>
+    <t xml:space="preserve">20.1568984985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.257963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734203338623</t>
+    <t xml:space="preserve">23.2579612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6765117645264</t>
+    <t xml:space="preserve">22.676513671875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.76926612854</t>
+    <t xml:space="preserve">18.3156452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7692680358887</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486869812012</t>
+    <t xml:space="preserve">22.9672393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486850738525</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600383758545</t>
+    <t xml:space="preserve">24.7600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754955291748</t>
+    <t xml:space="preserve">24.2754974365234</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.905403137207</t>
+    <t xml:space="preserve">24.9054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7291202545166</t>
+    <t xml:space="preserve">25.729118347168</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827430725098</t>
+    <t xml:space="preserve">27.2796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167545318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652069091797</t>
+    <t xml:space="preserve">25.1961250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167526245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652088165283</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310567855835</t>
+    <t xml:space="preserve">25.8260269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703754425049</t>
+    <t xml:space="preserve">27.5703773498535</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7683448791504</t>
+    <t xml:space="preserve">30.768346786499</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6054458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.120906829834</t>
+    <t xml:space="preserve">29.605447769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1209049224854</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7023544311523</t>
+    <t xml:space="preserve">29.702356338501</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776229858398</t>
+    <t xml:space="preserve">30.4776210784912</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198925018311</t>
+    <t xml:space="preserve">31.1559791564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363639831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600849151611</t>
+    <t xml:space="preserve">30.2353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -2889,6 +2889,9 @@
   </si>
   <si>
     <t xml:space="preserve">26.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9500007629395</t>
   </si>
 </sst>
 </file>
@@ -59650,7 +59653,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6494907407</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>13990</v>
@@ -59671,6 +59674,32 @@
         <v>958</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6495023148</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>14024</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>26.8999996185303</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>26.5499992370605</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>26.9500007629395</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>959</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -47,28 +47,28 @@
     <t xml:space="preserve">8.43947219848633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40578174591064</t>
+    <t xml:space="preserve">8.40577983856201</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206092834473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31734371185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19521617889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27101898193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207515716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363998413086</t>
+    <t xml:space="preserve">8.31734466552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19521522521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27101802825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731334686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363807678223</t>
   </si>
   <si>
     <t xml:space="preserve">8.18679332733154</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">8.08572196960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13625907897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520195007324</t>
+    <t xml:space="preserve">8.13625717163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520099639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.03518581390381</t>
@@ -89,100 +89,100 @@
     <t xml:space="preserve">8.03097534179688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02676200866699</t>
+    <t xml:space="preserve">8.02676391601562</t>
   </si>
   <si>
     <t xml:space="preserve">8.00149631500244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99307346343994</t>
+    <t xml:space="preserve">7.99307250976562</t>
   </si>
   <si>
     <t xml:space="preserve">7.96780490875244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76145076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304357528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619787216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356407165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880130767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66458940505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726875305176</t>
+    <t xml:space="preserve">7.76145172119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304500579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619691848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356550216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197221755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6688027381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459035873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881601333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88358020782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9172682762146</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203151702881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22048473358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994857788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30470943450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417423248291</t>
+    <t xml:space="preserve">8.22048377990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994953155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30471038818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417518615723</t>
   </si>
   <si>
     <t xml:space="preserve">8.11941242218018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48158550262451</t>
+    <t xml:space="preserve">8.07729911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33839988708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4815845489502</t>
   </si>
   <si>
     <t xml:space="preserve">8.44789505004883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420459747314</t>
+    <t xml:space="preserve">8.4142017364502</t>
   </si>
   <si>
     <t xml:space="preserve">8.32155609130859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27944278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42560005187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55456352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27084350585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2966365814209</t>
+    <t xml:space="preserve">8.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560195922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578548431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55456447601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27084541320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29663753509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.32672882080078</t>
@@ -191,19 +191,19 @@
     <t xml:space="preserve">8.25364971160889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23645401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962440490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32243061065674</t>
+    <t xml:space="preserve">8.23645305633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3353271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32242965698242</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261222839355</t>
@@ -224,22 +224,22 @@
     <t xml:space="preserve">8.03871154785156</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99572324752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273447036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2450532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675882339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377099990845</t>
+    <t xml:space="preserve">7.99572372436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273494720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505138397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160522460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675834655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377195358276</t>
   </si>
   <si>
     <t xml:space="preserve">8.05590534210205</t>
@@ -248,106 +248,106 @@
     <t xml:space="preserve">7.92694330215454</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90974617004395</t>
+    <t xml:space="preserve">7.90974712371826</t>
   </si>
   <si>
     <t xml:space="preserve">7.73779678344727</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78078460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755039215088</t>
+    <t xml:space="preserve">7.78078508377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133279800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383228302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755229949951</t>
   </si>
   <si>
     <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64913845062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7265157699585</t>
+    <t xml:space="preserve">8.64913749694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84688091278076</t>
+    <t xml:space="preserve">8.84687995910645</t>
   </si>
   <si>
     <t xml:space="preserve">8.63194179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66633129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325122833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895492553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352699279785</t>
+    <t xml:space="preserve">8.66633224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895206451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352794647217</t>
   </si>
   <si>
     <t xml:space="preserve">8.70072269439697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94145202636719</t>
+    <t xml:space="preserve">8.94145393371582</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547733306885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76950263977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02742958068848</t>
+    <t xml:space="preserve">8.76950168609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02742862701416</t>
   </si>
   <si>
     <t xml:space="preserve">9.15639114379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2337703704834</t>
+    <t xml:space="preserve">9.23376941680908</t>
   </si>
   <si>
     <t xml:space="preserve">9.19938087463379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2423677444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4143180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834339141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31974697113037</t>
+    <t xml:space="preserve">9.24236869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431713104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834434509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31974601745605</t>
   </si>
   <si>
     <t xml:space="preserve">9.20797729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22517108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011211395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730590820312</t>
+    <t xml:space="preserve">9.22517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44011116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730686187744</t>
   </si>
   <si>
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74962425231934</t>
+    <t xml:space="preserve">9.74962520599365</t>
   </si>
   <si>
     <t xml:space="preserve">9.5432825088501</t>
@@ -356,25 +356,25 @@
     <t xml:space="preserve">9.62925815582275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52608680725098</t>
+    <t xml:space="preserve">9.52608776092529</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224502563477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58627033233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6808443069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206340789795</t>
+    <t xml:space="preserve">9.62066173553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58626937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68084335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523189544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206245422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.5518798828125</t>
@@ -395,31 +395,31 @@
     <t xml:space="preserve">10.2138919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.403037071228</t>
+    <t xml:space="preserve">10.4030389785767</t>
   </si>
   <si>
     <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451120376587</t>
+    <t xml:space="preserve">10.1451101303101</t>
   </si>
   <si>
     <t xml:space="preserve">10.102123260498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279163360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0591354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623067855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084630966187</t>
+    <t xml:space="preserve">10.1279153823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333433151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0591344833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623058319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084650039673</t>
   </si>
   <si>
     <t xml:space="preserve">10.1880989074707</t>
@@ -428,37 +428,37 @@
     <t xml:space="preserve">9.84419631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87858581542969</t>
+    <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
     <t xml:space="preserve">9.85279369354248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2310848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.007550239563</t>
+    <t xml:space="preserve">10.231086730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075511932373</t>
   </si>
   <si>
     <t xml:space="preserve">10.274073600769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.44602394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351718902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867580413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695613861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.961877822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0736465454102</t>
+    <t xml:space="preserve">10.4460258483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695623397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9618797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0736455917358</t>
   </si>
   <si>
     <t xml:space="preserve">11.0220603942871</t>
@@ -476,46 +476,46 @@
     <t xml:space="preserve">11.6066942214966</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8302316665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7528524398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496820449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614517211914</t>
+    <t xml:space="preserve">11.8302297592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7528514862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496839523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614498138428</t>
   </si>
   <si>
     <t xml:space="preserve">11.8732194900513</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9505958557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700471878052</t>
+    <t xml:space="preserve">11.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.838828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700481414795</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926698684692</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786455154419</t>
+    <t xml:space="preserve">11.7786445617676</t>
   </si>
   <si>
     <t xml:space="preserve">11.7975368499756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9024047851562</t>
+    <t xml:space="preserve">11.9024028778076</t>
   </si>
   <si>
     <t xml:space="preserve">11.8674478530884</t>
@@ -524,28 +524,28 @@
     <t xml:space="preserve">11.8499708175659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9723148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597047805786</t>
+    <t xml:space="preserve">11.9723138809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597057342529</t>
   </si>
   <si>
     <t xml:space="preserve">12.0859203338623</t>
   </si>
   <si>
-    <t xml:space="preserve">12.243221282959</t>
+    <t xml:space="preserve">12.2432222366333</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5403451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2344818115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3218727111816</t>
+    <t xml:space="preserve">12.5403442382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2344827651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3218717575073</t>
   </si>
   <si>
     <t xml:space="preserve">12.1733112335205</t>
@@ -554,49 +554,49 @@
     <t xml:space="preserve">12.0160093307495</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9286203384399</t>
+    <t xml:space="preserve">11.9286212921143</t>
   </si>
   <si>
     <t xml:space="preserve">11.8849258422852</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0247497558594</t>
+    <t xml:space="preserve">12.0247478485107</t>
   </si>
   <si>
     <t xml:space="preserve">12.0946598052979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1383562088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2170028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257432937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635753631592</t>
+    <t xml:space="preserve">12.138355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.217004776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257452011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635763168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.2082662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1208772659302</t>
+    <t xml:space="preserve">12.1208763122559</t>
   </si>
   <si>
     <t xml:space="preserve">11.9897947311401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0684442520142</t>
+    <t xml:space="preserve">12.0684432983398</t>
   </si>
   <si>
     <t xml:space="preserve">12.0509653091431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9985322952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422258377075</t>
+    <t xml:space="preserve">11.9985313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
     <t xml:space="preserve">12.0771827697754</t>
@@ -608,49 +608,52 @@
     <t xml:space="preserve">11.8936653137207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062772750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800598144531</t>
+    <t xml:space="preserve">11.841233253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062753677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800588607788</t>
   </si>
   <si>
     <t xml:space="preserve">11.7451028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7014093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5353689193726</t>
+    <t xml:space="preserve">11.7014102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5353698730469</t>
   </si>
   <si>
     <t xml:space="preserve">11.5266284942627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.447979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.395546913147</t>
+    <t xml:space="preserve">11.4479808807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955478668213</t>
   </si>
   <si>
     <t xml:space="preserve">11.3605909347534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3518533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207679748535</t>
+    <t xml:space="preserve">11.3518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732028961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
     <t xml:space="preserve">11.3431129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2906808853149</t>
+    <t xml:space="preserve">11.2906799316406</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984230041504</t>
@@ -659,19 +662,19 @@
     <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.18581199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469844818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994203567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3693313598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829359054565</t>
+    <t xml:space="preserve">11.1858129501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469854354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.369330406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829368591309</t>
   </si>
   <si>
     <t xml:space="preserve">11.6227588653564</t>
@@ -680,19 +683,19 @@
     <t xml:space="preserve">11.710147857666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5790634155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4567193984985</t>
+    <t xml:space="preserve">11.5790643692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4567184448242</t>
   </si>
   <si>
     <t xml:space="preserve">11.3256359100342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4305028915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3168973922729</t>
+    <t xml:space="preserve">11.4305019378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3168964385986</t>
   </si>
   <si>
     <t xml:space="preserve">11.2032899856567</t>
@@ -707,13 +710,13 @@
     <t xml:space="preserve">11.4042854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5091533660889</t>
+    <t xml:space="preserve">11.5091524124146</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1246385574341</t>
+    <t xml:space="preserve">11.1246404647827</t>
   </si>
   <si>
     <t xml:space="preserve">11.1683349609375</t>
@@ -722,16 +725,16 @@
     <t xml:space="preserve">11.2557239532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88371467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14964580535889</t>
+    <t xml:space="preserve">9.883713722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14964485168457</t>
   </si>
   <si>
     <t xml:space="preserve">9.35064125061035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51667976379395</t>
+    <t xml:space="preserve">9.51668071746826</t>
   </si>
   <si>
     <t xml:space="preserve">9.63028717041016</t>
@@ -740,49 +743,49 @@
     <t xml:space="preserve">9.64776229858398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74389171600342</t>
+    <t xml:space="preserve">9.73515224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7438907623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.83128070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70893573760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53415870666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48172378540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39433479309082</t>
+    <t xml:space="preserve">9.70893669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53415775299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48172569274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39433670043945</t>
   </si>
   <si>
     <t xml:space="preserve">9.43802928924561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55163669586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055225372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37685585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1583833694458</t>
+    <t xml:space="preserve">9.5516357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055034637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37685680389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26325130462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15838432312012</t>
   </si>
   <si>
     <t xml:space="preserve">9.34190082550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40307426452637</t>
+    <t xml:space="preserve">9.40307331085205</t>
   </si>
   <si>
     <t xml:space="preserve">9.84002113342285</t>
@@ -791,49 +794,49 @@
     <t xml:space="preserve">9.79632472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8050651550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7875862121582</t>
+    <t xml:space="preserve">9.80506324768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78758716583252</t>
   </si>
   <si>
     <t xml:space="preserve">9.81380271911621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9011926651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.857497215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22829723358154</t>
+    <t xml:space="preserve">9.90119171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85749816894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22829532623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984313964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497615814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0497531890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91866874694824</t>
+    <t xml:space="preserve">9.28073024749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451374053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497425079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0497541427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91867065429688</t>
   </si>
   <si>
     <t xml:space="preserve">9.67397975921631</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63902378082275</t>
+    <t xml:space="preserve">9.63902473449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.71767425537109</t>
@@ -842,10 +845,10 @@
     <t xml:space="preserve">9.72641372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61280727386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56911277770996</t>
+    <t xml:space="preserve">9.61280918121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56911182403564</t>
   </si>
   <si>
     <t xml:space="preserve">9.68271923065186</t>
@@ -854,37 +857,37 @@
     <t xml:space="preserve">9.30694484710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36811828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060586929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477787017822</t>
+    <t xml:space="preserve">9.36811923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650272369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060596466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17586231231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216686248779</t>
+    <t xml:space="preserve">9.17586135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216781616211</t>
   </si>
   <si>
     <t xml:space="preserve">8.95738792419434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8263053894043</t>
+    <t xml:space="preserve">8.82630634307861</t>
   </si>
   <si>
     <t xml:space="preserve">9.00108337402344</t>
@@ -893,34 +896,34 @@
     <t xml:space="preserve">8.91369438171387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891544342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143840789795</t>
+    <t xml:space="preserve">8.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891639709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143745422363</t>
   </si>
   <si>
     <t xml:space="preserve">8.78261184692383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58161544799805</t>
+    <t xml:space="preserve">8.58161449432373</t>
   </si>
   <si>
     <t xml:space="preserve">9.19656562805176</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24120998382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15192222595215</t>
+    <t xml:space="preserve">9.2412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15192127227783</t>
   </si>
   <si>
     <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06263542175293</t>
+    <t xml:space="preserve">9.06263637542725</t>
   </si>
   <si>
     <t xml:space="preserve">9.01799297332764</t>
@@ -929,25 +932,25 @@
     <t xml:space="preserve">8.97334957122803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89299011230469</t>
+    <t xml:space="preserve">8.892991065979</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8394193649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75013065338135</t>
+    <t xml:space="preserve">8.83941650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75013256072998</t>
   </si>
   <si>
     <t xml:space="preserve">8.71441650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78584575653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227310180664</t>
+    <t xml:space="preserve">8.78584671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227500915527</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
@@ -959,7 +962,7 @@
     <t xml:space="preserve">8.87513256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66084384918213</t>
+    <t xml:space="preserve">8.66084480285645</t>
   </si>
   <si>
     <t xml:space="preserve">8.57155704498291</t>
@@ -968,16 +971,16 @@
     <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084098815918</t>
+    <t xml:space="preserve">8.44655513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084003448486</t>
   </si>
   <si>
     <t xml:space="preserve">8.91084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76798820495605</t>
+    <t xml:space="preserve">8.76798725128174</t>
   </si>
   <si>
     <t xml:space="preserve">8.9287052154541</t>
@@ -986,28 +989,28 @@
     <t xml:space="preserve">8.80370235443115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37514019012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907135009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442794799805</t>
+    <t xml:space="preserve">9.37514114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50906944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442699432373</t>
   </si>
   <si>
     <t xml:space="preserve">9.3304967880249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28585243225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5894136428833</t>
+    <t xml:space="preserve">9.28585338592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58941459655762</t>
   </si>
   <si>
     <t xml:space="preserve">8.5358419418335</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62512969970703</t>
+    <t xml:space="preserve">8.62512874603271</t>
   </si>
   <si>
     <t xml:space="preserve">8.46441173553467</t>
@@ -1016,7 +1019,7 @@
     <t xml:space="preserve">8.35726833343506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42869758605957</t>
+    <t xml:space="preserve">8.42869853973389</t>
   </si>
   <si>
     <t xml:space="preserve">8.25012302398682</t>
@@ -1025,7 +1028,7 @@
     <t xml:space="preserve">8.30369663238525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583908081055</t>
+    <t xml:space="preserve">8.28583717346191</t>
   </si>
   <si>
     <t xml:space="preserve">8.33940982818604</t>
@@ -1037,7 +1040,7 @@
     <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64298725128174</t>
+    <t xml:space="preserve">8.64298629760742</t>
   </si>
   <si>
     <t xml:space="preserve">9.41978454589844</t>
@@ -1046,37 +1049,37 @@
     <t xml:space="preserve">9.55371475219727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77693176269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73228740692139</t>
+    <t xml:space="preserve">9.776930809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7322883605957</t>
   </si>
   <si>
     <t xml:space="preserve">10.0447940826416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2680101394653</t>
+    <t xml:space="preserve">10.2680110931396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126544952393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3572978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.491229057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4465856552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5358734130859</t>
+    <t xml:space="preserve">10.3572998046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912281036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4465837478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5358724594116</t>
   </si>
   <si>
     <t xml:space="preserve">10.4019403457642</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805158615112</t>
+    <t xml:space="preserve">10.5805168151855</t>
   </si>
   <si>
     <t xml:space="preserve">10.22336769104</t>
@@ -1091,7 +1094,7 @@
     <t xml:space="preserve">10.6242046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8521919250488</t>
+    <t xml:space="preserve">10.8521928787231</t>
   </si>
   <si>
     <t xml:space="preserve">10.7609987258911</t>
@@ -1100,43 +1103,40 @@
     <t xml:space="preserve">10.5330104827881</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3962173461914</t>
+    <t xml:space="preserve">10.3962182998657</t>
   </si>
   <si>
     <t xml:space="preserve">10.2138290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5786075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698036193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874124526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418153762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506202697754</t>
+    <t xml:space="preserve">10.5786094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4874134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418144226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
     <t xml:space="preserve">10.122633934021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2594261169434</t>
+    <t xml:space="preserve">10.259425163269</t>
   </si>
   <si>
     <t xml:space="preserve">10.0770359039307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0314378738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3050241470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.168231010437</t>
+    <t xml:space="preserve">10.0314388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3050231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1682300567627</t>
   </si>
   <si>
     <t xml:space="preserve">9.89464569091797</t>
@@ -1145,16 +1145,16 @@
     <t xml:space="preserve">9.84904956817627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48426818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43867206573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986621856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106227874756</t>
+    <t xml:space="preserve">9.48426914215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43867301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986717224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106132507324</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785446166992</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">9.25628185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16508769989014</t>
+    <t xml:space="preserve">9.16508865356445</t>
   </si>
   <si>
     <t xml:space="preserve">9.3018798828125</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">9.21068477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39307403564453</t>
+    <t xml:space="preserve">9.39307308197021</t>
   </si>
   <si>
     <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71225643157959</t>
+    <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
     <t xml:space="preserve">9.80345153808594</t>
@@ -1196,34 +1196,34 @@
     <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6273488998413</t>
+    <t xml:space="preserve">11.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3993616104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0801792144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0345821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1713743209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4449596405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5817518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7185440063477</t>
+    <t xml:space="preserve">11.3993625640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081655502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0801801681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0345830917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1713752746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4449605941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
     <t xml:space="preserve">11.85533618927</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833234786987</t>
+    <t xml:space="preserve">12.083324432373</t>
   </si>
   <si>
     <t xml:space="preserve">12.3113107681274</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">12.1745185852051</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921283721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.764142036438</t>
+    <t xml:space="preserve">11.992130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
     <t xml:space="preserve">12.4937009811401</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320638656616</t>
+    <t xml:space="preserve">13.1320648193359</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952726364136</t>
@@ -1268,64 +1268,64 @@
     <t xml:space="preserve">12.6304931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7216873168945</t>
+    <t xml:space="preserve">12.7216882705688</t>
   </si>
   <si>
     <t xml:space="preserve">12.4481029510498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5848960876465</t>
+    <t xml:space="preserve">12.5848951339722</t>
   </si>
   <si>
     <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8584814071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0864686965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.900933265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9433870315552</t>
+    <t xml:space="preserve">12.8584804534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0864677429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9009342193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
     <t xml:space="preserve">10.7154006958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02829551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93395662307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64213228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.006911277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66351509094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07986831665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57231998443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73647022247314</t>
+    <t xml:space="preserve">9.02829360961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93395566940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6421332359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00691223144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66351413726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07986640930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57231903076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73647117614746</t>
   </si>
   <si>
     <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9918155670166</t>
+    <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
     <t xml:space="preserve">9.3474760055542</t>
@@ -1343,25 +1343,25 @@
     <t xml:space="preserve">9.80466461181641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85135364532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99142074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715520858765</t>
+    <t xml:space="preserve">9.85135459899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99141979217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715530395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5516872406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.458309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785076141357</t>
+    <t xml:space="preserve">10.5516862869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4583082199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785085678101</t>
   </si>
   <si>
     <t xml:space="preserve">10.7384414672852</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1586418151855</t>
+    <t xml:space="preserve">11.1586408615112</t>
   </si>
   <si>
     <t xml:space="preserve">10.7851305007935</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">10.6450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2987079620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4854650497437</t>
+    <t xml:space="preserve">11.2987089157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4854640960693</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
@@ -1397,16 +1397,16 @@
     <t xml:space="preserve">11.3453960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4387741088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1119518280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2520198822021</t>
+    <t xml:space="preserve">11.2053308486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.438775062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1119527816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2520189285278</t>
   </si>
   <si>
     <t xml:space="preserve">10.9718866348267</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">11.0652647018433</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5788421630859</t>
+    <t xml:space="preserve">11.5788412094116</t>
   </si>
   <si>
     <t xml:space="preserve">11.6255302429199</t>
@@ -1424,13 +1424,13 @@
     <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5321531295776</t>
+    <t xml:space="preserve">11.532154083252</t>
   </si>
   <si>
     <t xml:space="preserve">11.7189083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7655963897705</t>
+    <t xml:space="preserve">11.7655973434448</t>
   </si>
   <si>
     <t xml:space="preserve">11.8589744567871</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">11.999041557312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2324857711792</t>
+    <t xml:space="preserve">12.2324867248535</t>
   </si>
   <si>
     <t xml:space="preserve">12.0457305908203</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924205780029</t>
+    <t xml:space="preserve">12.0924196243286</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122854232788</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">13.119574546814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3997087478638</t>
+    <t xml:space="preserve">13.3997077941895</t>
   </si>
   <si>
     <t xml:space="preserve">13.4463958740234</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">13.3063297271729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3530187606812</t>
+    <t xml:space="preserve">13.3530197143555</t>
   </si>
   <si>
     <t xml:space="preserve">13.5864639282227</t>
@@ -1502,13 +1502,13 @@
     <t xml:space="preserve">13.4930858612061</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1662645339966</t>
+    <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
     <t xml:space="preserve">13.9132852554321</t>
   </si>
   <si>
-    <t xml:space="preserve">13.633152961731</t>
+    <t xml:space="preserve">13.6331520080566</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993751525879</t>
@@ -1541,19 +1541,19 @@
     <t xml:space="preserve">14.3801736831665</t>
   </si>
   <si>
-    <t xml:space="preserve">14.566930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3334865570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.706995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9404401779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8937520980835</t>
+    <t xml:space="preserve">14.5669298171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3334856033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069959640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9404411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8937511444092</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338191986084</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2672643661499</t>
+    <t xml:space="preserve">15.2672634124756</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">14.8470630645752</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603078842163</t>
+    <t xml:space="preserve">14.660306930542</t>
   </si>
   <si>
     <t xml:space="preserve">14.4735517501831</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732181549072</t>
+    <t xml:space="preserve">13.7732191085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
@@ -13417,7 +13417,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G392" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13443,7 +13443,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G393" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13469,7 +13469,7 @@
         <v>13.1899995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13495,7 +13495,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13521,7 +13521,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G396" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13547,7 +13547,7 @@
         <v>13</v>
       </c>
       <c r="G397" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13573,7 +13573,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G398" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13599,7 +13599,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G399" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13625,7 +13625,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G400" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13651,7 +13651,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G401" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13677,7 +13677,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G402" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13703,7 +13703,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G403" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13729,7 +13729,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G404" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13755,7 +13755,7 @@
         <v>13</v>
       </c>
       <c r="G405" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13781,7 +13781,7 @@
         <v>13</v>
       </c>
       <c r="G406" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13807,7 +13807,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G407" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13833,7 +13833,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13859,7 +13859,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G409" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13885,7 +13885,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G410" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13911,7 +13911,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G411" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13937,7 +13937,7 @@
         <v>13.0100002288818</v>
       </c>
       <c r="G412" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13963,7 +13963,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G413" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13989,7 +13989,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G414" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14015,7 +14015,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G415" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14041,7 +14041,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G416" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14067,7 +14067,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G417" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14093,7 +14093,7 @@
         <v>13.25</v>
       </c>
       <c r="G418" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14119,7 +14119,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G419" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14145,7 +14145,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G420" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14171,7 +14171,7 @@
         <v>13</v>
       </c>
       <c r="G421" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14197,7 +14197,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G422" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14223,7 +14223,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G423" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14249,7 +14249,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G424" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14275,7 +14275,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G425" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14301,7 +14301,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G426" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14327,7 +14327,7 @@
         <v>13.0100002288818</v>
       </c>
       <c r="G427" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14353,7 +14353,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G428" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14379,7 +14379,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G429" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14405,7 +14405,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G430" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14431,7 +14431,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G431" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14457,7 +14457,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G432" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14483,7 +14483,7 @@
         <v>13.1700000762939</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14509,7 +14509,7 @@
         <v>13</v>
       </c>
       <c r="G434" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14535,7 +14535,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G435" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14561,7 +14561,7 @@
         <v>12.7299995422363</v>
       </c>
       <c r="G436" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14587,7 +14587,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G437" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14613,7 +14613,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G438" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14639,7 +14639,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G439" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14665,7 +14665,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G440" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14691,7 +14691,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G441" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14717,7 +14717,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G442" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14743,7 +14743,7 @@
         <v>10.4700002670288</v>
       </c>
       <c r="G443" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14769,7 +14769,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G444" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14795,7 +14795,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G445" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14821,7 +14821,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G446" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14847,7 +14847,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G447" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14873,7 +14873,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G448" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14899,7 +14899,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G449" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14925,7 +14925,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G450" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14951,7 +14951,7 @@
         <v>11.25</v>
       </c>
       <c r="G451" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14977,7 +14977,7 @@
         <v>11.1099996566772</v>
       </c>
       <c r="G452" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15003,7 +15003,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G453" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15029,7 +15029,7 @@
         <v>11.25</v>
       </c>
       <c r="G454" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15055,7 +15055,7 @@
         <v>10.9099998474121</v>
       </c>
       <c r="G455" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15081,7 +15081,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G456" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15107,7 +15107,7 @@
         <v>10.75</v>
       </c>
       <c r="G457" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15133,7 +15133,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15159,7 +15159,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G459" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15185,7 +15185,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G460" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15211,7 +15211,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G461" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15237,7 +15237,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G462" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15263,7 +15263,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G463" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15289,7 +15289,7 @@
         <v>10.4799995422363</v>
       </c>
       <c r="G464" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15315,7 +15315,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G465" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15341,7 +15341,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G466" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15367,7 +15367,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G467" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15393,7 +15393,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G468" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15419,7 +15419,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G469" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15445,7 +15445,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15471,7 +15471,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G471" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15497,7 +15497,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G472" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15523,7 +15523,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G473" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15549,7 +15549,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G474" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15575,7 +15575,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G475" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15601,7 +15601,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G476" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15627,7 +15627,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G477" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15653,7 +15653,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G478" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15679,7 +15679,7 @@
         <v>10.75</v>
       </c>
       <c r="G479" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15705,7 +15705,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G480" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15731,7 +15731,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G481" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15757,7 +15757,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G482" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15783,7 +15783,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G483" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15809,7 +15809,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G484" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15835,7 +15835,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G485" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15861,7 +15861,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G486" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15887,7 +15887,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G487" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15913,7 +15913,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G488" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15939,7 +15939,7 @@
         <v>11.5</v>
       </c>
       <c r="G489" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15965,7 +15965,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G490" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15991,7 +15991,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16017,7 +16017,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G492" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16043,7 +16043,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G493" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16069,7 +16069,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G494" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16095,7 +16095,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G495" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16121,7 +16121,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G496" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16147,7 +16147,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G497" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16173,7 +16173,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G498" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16199,7 +16199,7 @@
         <v>11.25</v>
       </c>
       <c r="G499" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16225,7 +16225,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G500" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16251,7 +16251,7 @@
         <v>11</v>
       </c>
       <c r="G501" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16277,7 +16277,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G502" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16303,7 +16303,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G503" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16329,7 +16329,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G504" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16355,7 +16355,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16381,7 +16381,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16407,7 +16407,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G507" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16433,7 +16433,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G508" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16459,7 +16459,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G509" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16485,7 +16485,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G510" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16511,7 +16511,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G511" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16537,7 +16537,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16563,7 +16563,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G513" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16589,7 +16589,7 @@
         <v>10.75</v>
       </c>
       <c r="G514" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16615,7 +16615,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16641,7 +16641,7 @@
         <v>10.75</v>
       </c>
       <c r="G516" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16667,7 +16667,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G517" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16693,7 +16693,7 @@
         <v>11</v>
       </c>
       <c r="G518" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16719,7 +16719,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G519" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16745,7 +16745,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G520" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16771,7 +16771,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G521" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16797,7 +16797,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G522" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16823,7 +16823,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G523" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16849,7 +16849,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G524" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16875,7 +16875,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G525" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16901,7 +16901,7 @@
         <v>11.25</v>
       </c>
       <c r="G526" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16927,7 +16927,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16953,7 +16953,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G528" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16979,7 +16979,7 @@
         <v>11.25</v>
       </c>
       <c r="G529" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17005,7 +17005,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G530" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17031,7 +17031,7 @@
         <v>11.5</v>
       </c>
       <c r="G531" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17057,7 +17057,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G532" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17083,7 +17083,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G533" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17109,7 +17109,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G534" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17135,7 +17135,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17161,7 +17161,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G536" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17187,7 +17187,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17213,7 +17213,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G538" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17239,7 +17239,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G539" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17265,7 +17265,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G540" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17291,7 +17291,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G541" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17317,7 +17317,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G542" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17343,7 +17343,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17369,7 +17369,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G544" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17395,7 +17395,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17421,7 +17421,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G546" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17447,7 +17447,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17473,7 +17473,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G548" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17499,7 +17499,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G549" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17525,7 +17525,7 @@
         <v>10.5</v>
       </c>
       <c r="G550" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17551,7 +17551,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G551" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17577,7 +17577,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17603,7 +17603,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G553" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17629,7 +17629,7 @@
         <v>10.25</v>
       </c>
       <c r="G554" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17655,7 +17655,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17681,7 +17681,7 @@
         <v>10.25</v>
       </c>
       <c r="G556" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17707,7 +17707,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17733,7 +17733,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17759,7 +17759,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G559" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17785,7 +17785,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G560" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17811,7 +17811,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17837,7 +17837,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17863,7 +17863,7 @@
         <v>10.5</v>
       </c>
       <c r="G563" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17889,7 +17889,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G564" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17915,7 +17915,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G565" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17941,7 +17941,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G566" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17967,7 +17967,7 @@
         <v>10.25</v>
       </c>
       <c r="G567" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17993,7 +17993,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G568" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18019,7 +18019,7 @@
         <v>10.25</v>
       </c>
       <c r="G569" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18045,7 +18045,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G570" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18071,7 +18071,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G571" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18097,7 +18097,7 @@
         <v>10</v>
       </c>
       <c r="G572" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18123,7 +18123,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G573" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18149,7 +18149,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G574" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18175,7 +18175,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18201,7 +18201,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18227,7 +18227,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G577" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18253,7 +18253,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G578" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18279,7 +18279,7 @@
         <v>10</v>
       </c>
       <c r="G579" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18305,7 +18305,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G580" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18331,7 +18331,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18357,7 +18357,7 @@
         <v>10.25</v>
       </c>
       <c r="G582" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18383,7 +18383,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G583" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18409,7 +18409,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18435,7 +18435,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18461,7 +18461,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18487,7 +18487,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18513,7 +18513,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G588" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18539,7 +18539,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G589" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18565,7 +18565,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G590" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18591,7 +18591,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G591" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18617,7 +18617,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G592" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18643,7 +18643,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18669,7 +18669,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G594" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18695,7 +18695,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G595" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18721,7 +18721,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18747,7 +18747,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18773,7 +18773,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18799,7 +18799,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18825,7 +18825,7 @@
         <v>10.25</v>
       </c>
       <c r="G600" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18851,7 +18851,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18877,7 +18877,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18903,7 +18903,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G603" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18929,7 +18929,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18955,7 +18955,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18981,7 +18981,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19007,7 +19007,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19033,7 +19033,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19059,7 +19059,7 @@
         <v>10.25</v>
       </c>
       <c r="G609" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19085,7 +19085,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19111,7 +19111,7 @@
         <v>10.25</v>
       </c>
       <c r="G611" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19137,7 +19137,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G612" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19163,7 +19163,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G613" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19189,7 +19189,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G614" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19215,7 +19215,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G615" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19241,7 +19241,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G616" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19267,7 +19267,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G617" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19293,7 +19293,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G618" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19319,7 +19319,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G619" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19345,7 +19345,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G620" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19371,7 +19371,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G621" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19397,7 +19397,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G622" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19423,7 +19423,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19449,7 +19449,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G624" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19475,7 +19475,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19501,7 +19501,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19527,7 +19527,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G627" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19553,7 +19553,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19579,7 +19579,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G629" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19605,7 +19605,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G630" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19631,7 +19631,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G631" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19657,7 +19657,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G632" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19683,7 +19683,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G633" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19709,7 +19709,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19735,7 +19735,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G635" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19761,7 +19761,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G636" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19787,7 +19787,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G637" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19813,7 +19813,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G638" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19839,7 +19839,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G639" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19865,7 +19865,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G640" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19891,7 +19891,7 @@
         <v>10</v>
       </c>
       <c r="G641" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19917,7 +19917,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G642" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19943,7 +19943,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19969,7 +19969,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G644" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19995,7 +19995,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G645" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20021,7 +20021,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20047,7 +20047,7 @@
         <v>10</v>
       </c>
       <c r="G647" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20073,7 +20073,7 @@
         <v>10</v>
       </c>
       <c r="G648" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20099,7 +20099,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G649" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20125,7 +20125,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G650" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20151,7 +20151,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G651" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20177,7 +20177,7 @@
         <v>10</v>
       </c>
       <c r="G652" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20203,7 +20203,7 @@
         <v>10</v>
       </c>
       <c r="G653" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20229,7 +20229,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G654" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20255,7 +20255,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G655" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20281,7 +20281,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G656" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20307,7 +20307,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G657" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20333,7 +20333,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G658" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20359,7 +20359,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G659" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20385,7 +20385,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G660" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20411,7 +20411,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G661" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20437,7 +20437,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G662" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20463,7 +20463,7 @@
         <v>10</v>
       </c>
       <c r="G663" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20489,7 +20489,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G664" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20515,7 +20515,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20541,7 +20541,7 @@
         <v>10.25</v>
       </c>
       <c r="G666" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20567,7 +20567,7 @@
         <v>10</v>
       </c>
       <c r="G667" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20593,7 +20593,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20619,7 +20619,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G669" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20645,7 +20645,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G670" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20671,7 +20671,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G671" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20697,7 +20697,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G672" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20723,7 +20723,7 @@
         <v>10</v>
       </c>
       <c r="G673" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20749,7 +20749,7 @@
         <v>10</v>
       </c>
       <c r="G674" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20775,7 +20775,7 @@
         <v>10</v>
       </c>
       <c r="G675" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20801,7 +20801,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G676" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20827,7 +20827,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G677" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20853,7 +20853,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20879,7 +20879,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G679" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20905,7 +20905,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20931,7 +20931,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G681" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20957,7 +20957,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G682" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20983,7 +20983,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G683" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21009,7 +21009,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21035,7 +21035,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G685" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21061,7 +21061,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G686" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21087,7 +21087,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G687" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21113,7 +21113,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21139,7 +21139,7 @@
         <v>10</v>
       </c>
       <c r="G689" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21165,7 +21165,7 @@
         <v>10</v>
       </c>
       <c r="G690" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21191,7 +21191,7 @@
         <v>10</v>
       </c>
       <c r="G691" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21217,7 +21217,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21243,7 +21243,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G693" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21269,7 +21269,7 @@
         <v>10</v>
       </c>
       <c r="G694" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21295,7 +21295,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G695" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21321,7 +21321,7 @@
         <v>10</v>
       </c>
       <c r="G696" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21347,7 +21347,7 @@
         <v>10</v>
       </c>
       <c r="G697" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21373,7 +21373,7 @@
         <v>10.5</v>
       </c>
       <c r="G698" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21399,7 +21399,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21425,7 +21425,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21451,7 +21451,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21477,7 +21477,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G702" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21503,7 +21503,7 @@
         <v>10.25</v>
       </c>
       <c r="G703" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21529,7 +21529,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G704" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21555,7 +21555,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21581,7 +21581,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21607,7 +21607,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21633,7 +21633,7 @@
         <v>10</v>
       </c>
       <c r="G708" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21659,7 +21659,7 @@
         <v>10</v>
       </c>
       <c r="G709" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21685,7 +21685,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G710" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21711,7 +21711,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G711" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21737,7 +21737,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G712" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21763,7 +21763,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G713" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21789,7 +21789,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G714" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21815,7 +21815,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G715" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21841,7 +21841,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G716" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21867,7 +21867,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21893,7 +21893,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G718" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21919,7 +21919,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21945,7 +21945,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G720" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21971,7 +21971,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G721" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21997,7 +21997,7 @@
         <v>10</v>
       </c>
       <c r="G722" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22023,7 +22023,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G723" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22049,7 +22049,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G724" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22075,7 +22075,7 @@
         <v>10</v>
       </c>
       <c r="G725" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22101,7 +22101,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G726" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22127,7 +22127,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G727" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22153,7 +22153,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G728" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22179,7 +22179,7 @@
         <v>10</v>
       </c>
       <c r="G729" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22205,7 +22205,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G730" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22231,7 +22231,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G731" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22257,7 +22257,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G732" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22283,7 +22283,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G733" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22309,7 +22309,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G734" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22335,7 +22335,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G735" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22361,7 +22361,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G736" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22387,7 +22387,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G737" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22413,7 +22413,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G738" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22439,7 +22439,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G739" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22465,7 +22465,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G740" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22491,7 +22491,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G741" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22517,7 +22517,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G742" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22543,7 +22543,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22569,7 +22569,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G744" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22595,7 +22595,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G745" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22621,7 +22621,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G746" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22647,7 +22647,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G747" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22673,7 +22673,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G748" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22699,7 +22699,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G749" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22725,7 +22725,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G750" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22751,7 +22751,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G751" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22777,7 +22777,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G752" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22803,7 +22803,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G753" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22829,7 +22829,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G754" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22855,7 +22855,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G755" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22881,7 +22881,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G756" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22907,7 +22907,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G757" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22933,7 +22933,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G758" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22959,7 +22959,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G759" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22985,7 +22985,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G760" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23011,7 +23011,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G761" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23037,7 +23037,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G762" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23063,7 +23063,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G763" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23089,7 +23089,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G764" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23115,7 +23115,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G765" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23141,7 +23141,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G766" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23167,7 +23167,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G767" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23193,7 +23193,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G768" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23219,7 +23219,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G769" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23245,7 +23245,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G770" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23271,7 +23271,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23297,7 +23297,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G772" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23323,7 +23323,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G773" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23349,7 +23349,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G774" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23375,7 +23375,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G775" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23401,7 +23401,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23427,7 +23427,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G777" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23453,7 +23453,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G778" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23479,7 +23479,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G779" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23505,7 +23505,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G780" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23531,7 +23531,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G781" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23557,7 +23557,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23583,7 +23583,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G783" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23609,7 +23609,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23635,7 +23635,7 @@
         <v>10</v>
       </c>
       <c r="G785" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23661,7 +23661,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23687,7 +23687,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G787" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23713,7 +23713,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G788" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23739,7 +23739,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G789" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23765,7 +23765,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23791,7 +23791,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23817,7 +23817,7 @@
         <v>10</v>
       </c>
       <c r="G792" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23843,7 +23843,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23869,7 +23869,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23895,7 +23895,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G795" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23921,7 +23921,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G796" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23947,7 +23947,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G797" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23973,7 +23973,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G798" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23999,7 +23999,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G799" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24025,7 +24025,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G800" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24051,7 +24051,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G801" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24077,7 +24077,7 @@
         <v>10.25</v>
       </c>
       <c r="G802" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24103,7 +24103,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24129,7 +24129,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G804" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24155,7 +24155,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G805" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24181,7 +24181,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G806" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24207,7 +24207,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G807" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24233,7 +24233,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G808" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24259,7 +24259,7 @@
         <v>10.5</v>
       </c>
       <c r="G809" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24285,7 +24285,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G810" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24311,7 +24311,7 @@
         <v>10</v>
       </c>
       <c r="G811" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24337,7 +24337,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24363,7 +24363,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G813" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24389,7 +24389,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G814" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24415,7 +24415,7 @@
         <v>10.5</v>
       </c>
       <c r="G815" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24441,7 +24441,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G816" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24467,7 +24467,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G817" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24493,7 +24493,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24519,7 +24519,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G819" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24545,7 +24545,7 @@
         <v>11.25</v>
       </c>
       <c r="G820" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24571,7 +24571,7 @@
         <v>11.5</v>
       </c>
       <c r="G821" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24597,7 +24597,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24623,7 +24623,7 @@
         <v>11.5</v>
       </c>
       <c r="G823" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24649,7 +24649,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24675,7 +24675,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G825" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24701,7 +24701,7 @@
         <v>11.75</v>
       </c>
       <c r="G826" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24727,7 +24727,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24753,7 +24753,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G828" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24779,7 +24779,7 @@
         <v>11.75</v>
       </c>
       <c r="G829" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24805,7 +24805,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G830" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24831,7 +24831,7 @@
         <v>11.75</v>
       </c>
       <c r="G831" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24857,7 +24857,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24883,7 +24883,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G833" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24909,7 +24909,7 @@
         <v>11.75</v>
       </c>
       <c r="G834" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24935,7 +24935,7 @@
         <v>11.75</v>
       </c>
       <c r="G835" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24961,7 +24961,7 @@
         <v>11.75</v>
       </c>
       <c r="G836" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24987,7 +24987,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G837" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25013,7 +25013,7 @@
         <v>11.75</v>
       </c>
       <c r="G838" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25039,7 +25039,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G839" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25065,7 +25065,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25091,7 +25091,7 @@
         <v>11.25</v>
       </c>
       <c r="G841" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25117,7 +25117,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G842" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25143,7 +25143,7 @@
         <v>11.5</v>
       </c>
       <c r="G843" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25169,7 +25169,7 @@
         <v>11.5</v>
       </c>
       <c r="G844" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25195,7 +25195,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G845" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25221,7 +25221,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G846" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25247,7 +25247,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G847" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25273,7 +25273,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G848" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25299,7 +25299,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G849" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25325,7 +25325,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25351,7 +25351,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G851" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25377,7 +25377,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G852" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25403,7 +25403,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G853" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25429,7 +25429,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25455,7 +25455,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25481,7 +25481,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G856" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25507,7 +25507,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G857" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25533,7 +25533,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G858" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25559,7 +25559,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G859" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25585,7 +25585,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25611,7 +25611,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G861" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25637,7 +25637,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25663,7 +25663,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G863" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25689,7 +25689,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25715,7 +25715,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25741,7 +25741,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G866" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25767,7 +25767,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G867" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25793,7 +25793,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G868" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25819,7 +25819,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G869" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25845,7 +25845,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26079,7 +26079,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G879" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26183,7 +26183,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26235,7 +26235,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G885" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26365,7 +26365,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G890" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26469,7 +26469,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26521,7 +26521,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G896" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26547,7 +26547,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G897" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26807,7 +26807,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G907" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26885,7 +26885,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G910" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26911,7 +26911,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26937,7 +26937,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G912" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27041,7 +27041,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G916" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27093,7 +27093,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G918" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28939,7 +28939,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G989" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29017,7 +29017,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G992" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30889,7 +30889,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1064" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31747,7 +31747,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31799,7 +31799,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1099" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -59679,13 +59679,13 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6495023148</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>14024</v>
       </c>
       <c r="C2172" t="n">
-        <v>26.8999996185303</v>
+        <v>26.9500007629395</v>
       </c>
       <c r="D2172" t="n">
         <v>26.25</v>
@@ -59700,6 +59700,32 @@
         <v>959</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6494328704</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>5259</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>27.1499996185303</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>27.1499996185303</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>951</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947219848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578174591064</t>
+    <t xml:space="preserve">8.43947410583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578079223633</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206092834473</t>
@@ -56,37 +56,37 @@
     <t xml:space="preserve">8.31734466552734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19521617889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27102088928223</t>
+    <t xml:space="preserve">8.19521522521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27101993560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.29207706451416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15731525421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363807678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18679237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03518581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097438812256</t>
+    <t xml:space="preserve">8.15731430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363903045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18679332733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572101593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625717163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520290374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03518486022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097343444824</t>
   </si>
   <si>
     <t xml:space="preserve">8.02676391601562</t>
@@ -95,55 +95,55 @@
     <t xml:space="preserve">8.00149631500244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99307298660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9678053855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304309844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619834899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356407165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7319712638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880083084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726922988892</t>
+    <t xml:space="preserve">7.99307203292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780347824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145029067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304262161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619787216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356454849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197221755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66879940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459178924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881601333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357782363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91727018356323</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203247070312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22048377990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994857788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30471038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417518615723</t>
+    <t xml:space="preserve">8.22048282623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994762420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30471134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417423248291</t>
   </si>
   <si>
     <t xml:space="preserve">8.11941337585449</t>
@@ -155,25 +155,25 @@
     <t xml:space="preserve">8.33840084075928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48158550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44789505004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41420364379883</t>
+    <t xml:space="preserve">8.4815845489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44789409637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41420459747314</t>
   </si>
   <si>
     <t xml:space="preserve">8.32155513763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27944183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4256010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578357696533</t>
+    <t xml:space="preserve">8.27944278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560005187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578453063965</t>
   </si>
   <si>
     <t xml:space="preserve">8.55456352233887</t>
@@ -185,34 +185,34 @@
     <t xml:space="preserve">8.29663753509521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32672882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2536506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645305633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532428741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32242965698242</t>
+    <t xml:space="preserve">8.32672786712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25364971160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962440490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102798461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33532524108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32243156433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261222839355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21066188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785568237305</t>
+    <t xml:space="preserve">8.21066093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785663604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.16767406463623</t>
@@ -221,40 +221,40 @@
     <t xml:space="preserve">8.08169937133789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572324752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273590087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2450532913208</t>
+    <t xml:space="preserve">8.03871154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572229385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273494720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505233764648</t>
   </si>
   <si>
     <t xml:space="preserve">8.05160713195801</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86675977706909</t>
+    <t xml:space="preserve">7.86675930023193</t>
   </si>
   <si>
     <t xml:space="preserve">7.82377290725708</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05590629577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694234848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90974760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078413009644</t>
+    <t xml:space="preserve">8.05590724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694330215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9097466468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078460693359</t>
   </si>
   <si>
     <t xml:space="preserve">7.96133327484131</t>
@@ -266,16 +266,16 @@
     <t xml:space="preserve">8.59755229949951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64054012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64913749694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91565990447998</t>
+    <t xml:space="preserve">8.64053821563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64913845062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7265157699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
     <t xml:space="preserve">8.84688091278076</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">8.63194179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66633129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325122833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895492553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9414529800415</t>
+    <t xml:space="preserve">8.66633319854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895397186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145393371582</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547828674316</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">8.76950263977051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02742958068848</t>
+    <t xml:space="preserve">9.02742862701416</t>
   </si>
   <si>
     <t xml:space="preserve">9.15639209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23377132415771</t>
+    <t xml:space="preserve">9.23376941680908</t>
   </si>
   <si>
     <t xml:space="preserve">9.19937992095947</t>
@@ -329,13 +329,13 @@
     <t xml:space="preserve">9.32834434509277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31974697113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20797634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517395019531</t>
+    <t xml:space="preserve">9.31974601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20797729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.225172996521</t>
   </si>
   <si>
     <t xml:space="preserve">9.44011116027832</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">9.45730686187744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25956249237061</t>
+    <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
     <t xml:space="preserve">9.74962425231934</t>
@@ -356,13 +356,13 @@
     <t xml:space="preserve">9.62925720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52608776092529</t>
+    <t xml:space="preserve">9.52608680725098</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224597930908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62066078186035</t>
+    <t xml:space="preserve">9.62065982818604</t>
   </si>
   <si>
     <t xml:space="preserve">9.58627033233643</t>
@@ -374,19 +374,19 @@
     <t xml:space="preserve">9.71523284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61206340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5518798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56047630310059</t>
+    <t xml:space="preserve">9.61206436157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55187892913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047821044922</t>
   </si>
   <si>
     <t xml:space="preserve">9.65504932403564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70663547515869</t>
+    <t xml:space="preserve">9.70663642883301</t>
   </si>
   <si>
     <t xml:space="preserve">9.88718414306641</t>
@@ -395,10 +395,10 @@
     <t xml:space="preserve">10.2138910293579</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4030380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826709747314</t>
+    <t xml:space="preserve">10.4030389785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451110839844</t>
@@ -407,49 +407,49 @@
     <t xml:space="preserve">10.1021223068237</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279163360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333433151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.059136390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623067855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084630966187</t>
+    <t xml:space="preserve">10.1279144287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333442687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0591354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623048782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.308464050293</t>
   </si>
   <si>
     <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84419536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87858772277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85279369354248</t>
+    <t xml:space="preserve">9.84419441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.878586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8527946472168</t>
   </si>
   <si>
     <t xml:space="preserve">10.2310857772827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.007550239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2740745544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4460229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867561340332</t>
+    <t xml:space="preserve">10.0075511932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.274073600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4460258483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867570877075</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695613861084</t>
@@ -458,22 +458,22 @@
     <t xml:space="preserve">10.961877822876</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0736474990845</t>
+    <t xml:space="preserve">11.0736455917358</t>
   </si>
   <si>
     <t xml:space="preserve">11.0220613479614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1768159866333</t>
+    <t xml:space="preserve">11.1768188476562</t>
   </si>
   <si>
     <t xml:space="preserve">11.2198047637939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4433422088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066942214966</t>
+    <t xml:space="preserve">11.4433403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066951751709</t>
   </si>
   <si>
     <t xml:space="preserve">11.8302316665649</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">11.7528533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6496820449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614507675171</t>
+    <t xml:space="preserve">11.6496829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614517211914</t>
   </si>
   <si>
     <t xml:space="preserve">11.873218536377</t>
@@ -503,55 +503,55 @@
     <t xml:space="preserve">11.8388290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7700471878052</t>
+    <t xml:space="preserve">11.7700481414795</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926689147949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786464691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975378036499</t>
+    <t xml:space="preserve">11.7786455154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975368499756</t>
   </si>
   <si>
     <t xml:space="preserve">11.9024038314819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8674488067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8499717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9723148345947</t>
+    <t xml:space="preserve">11.8674478530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8499708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9723167419434</t>
   </si>
   <si>
     <t xml:space="preserve">12.0597057342529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0859212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2432231903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5403461456299</t>
+    <t xml:space="preserve">12.085919380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966516494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5403451919556</t>
   </si>
   <si>
     <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3218727111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160102844238</t>
+    <t xml:space="preserve">12.321870803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1733093261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160093307495</t>
   </si>
   <si>
     <t xml:space="preserve">11.9286203384399</t>
@@ -566,31 +566,31 @@
     <t xml:space="preserve">12.0946607589722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1383562088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2170038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257423400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635772705078</t>
+    <t xml:space="preserve">12.138355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.217004776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257432937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635763168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.2082681655884</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1208763122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897947311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509653091431</t>
+    <t xml:space="preserve">12.1208782196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897937774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684442520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509662628174</t>
   </si>
   <si>
     <t xml:space="preserve">11.9985322952271</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0771808624268</t>
+    <t xml:space="preserve">12.0771818161011</t>
   </si>
   <si>
     <t xml:space="preserve">12.1033992767334</t>
@@ -620,19 +620,19 @@
     <t xml:space="preserve">11.7451038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7014102935791</t>
+    <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
     <t xml:space="preserve">11.5353698730469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.526629447937</t>
+    <t xml:space="preserve">11.5266304016113</t>
   </si>
   <si>
     <t xml:space="preserve">11.4479808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.395546913147</t>
+    <t xml:space="preserve">11.3955459594727</t>
   </si>
   <si>
     <t xml:space="preserve">11.3605909347534</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">11.3518533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2732019424438</t>
+    <t xml:space="preserve">11.2732028961182</t>
   </si>
   <si>
     <t xml:space="preserve">11.2207689285278</t>
@@ -653,19 +653,19 @@
     <t xml:space="preserve">11.2906799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0984239578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2295064926147</t>
+    <t xml:space="preserve">11.0984230041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
     <t xml:space="preserve">11.1858129501343</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994184494019</t>
+    <t xml:space="preserve">11.2469844818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994194030762</t>
   </si>
   <si>
     <t xml:space="preserve">11.369330406189</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256349563599</t>
+    <t xml:space="preserve">11.4567203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256368637085</t>
   </si>
   <si>
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168973922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032909393311</t>
+    <t xml:space="preserve">11.3168964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032899856567</t>
   </si>
   <si>
     <t xml:space="preserve">11.5878028869629</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">11.1683349609375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2557249069214</t>
+    <t xml:space="preserve">11.2557239532471</t>
   </si>
   <si>
     <t xml:space="preserve">9.88371562957764</t>
@@ -728,46 +728,46 @@
     <t xml:space="preserve">9.14964580535889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35064125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51667976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63028526306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64776420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7438907623291</t>
+    <t xml:space="preserve">9.35063934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51668071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63028717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6477632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7351541519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74389171600342</t>
   </si>
   <si>
     <t xml:space="preserve">9.8312816619873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70893669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53415775299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48172378540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39433574676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43802833557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55163478851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055225372314</t>
+    <t xml:space="preserve">9.70893573760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53415870666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48172473907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39433479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43803215026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5516357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055130004883</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685680389404</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">9.15838432312012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34190082550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40307426452637</t>
+    <t xml:space="preserve">9.3419017791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40307331085205</t>
   </si>
   <si>
     <t xml:space="preserve">9.84002017974854</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">9.79632472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8050651550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78758716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380176544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9011926651001</t>
+    <t xml:space="preserve">9.80506324768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78758525848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380271911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90119171142578</t>
   </si>
   <si>
     <t xml:space="preserve">9.857497215271</t>
@@ -815,49 +815,49 @@
     <t xml:space="preserve">9.28072834014893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25451278686523</t>
+    <t xml:space="preserve">9.25451183319092</t>
   </si>
   <si>
     <t xml:space="preserve">9.97984313964844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87497615814209</t>
+    <t xml:space="preserve">9.87497520446777</t>
   </si>
   <si>
     <t xml:space="preserve">10.0497531890869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91866970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67397975921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63902568817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767520904541</t>
+    <t xml:space="preserve">9.91867065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67398071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63902378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
     <t xml:space="preserve">9.72641372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61280822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56911373138428</t>
+    <t xml:space="preserve">9.61280727386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56911277770996</t>
   </si>
   <si>
     <t xml:space="preserve">9.68272113800049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30694675445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36811828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019626617432</t>
+    <t xml:space="preserve">9.30694580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36811923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019721984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650272369385</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08847236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955585479736</t>
+    <t xml:space="preserve">9.08847332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
     <t xml:space="preserve">9.17586231231689</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">9.13216686248779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95738887786865</t>
+    <t xml:space="preserve">8.95738792419434</t>
   </si>
   <si>
     <t xml:space="preserve">8.8263053894043</t>
@@ -890,13 +890,13 @@
     <t xml:space="preserve">9.00108432769775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91369438171387</t>
+    <t xml:space="preserve">8.91369533538818</t>
   </si>
   <si>
     <t xml:space="preserve">8.86999893188477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73891639709473</t>
+    <t xml:space="preserve">8.73891544342041</t>
   </si>
   <si>
     <t xml:space="preserve">8.72143745422363</t>
@@ -911,37 +911,37 @@
     <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24120998382568</t>
+    <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.15192222595215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06263542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01799392700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.892991065979</t>
+    <t xml:space="preserve">9.10727977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06263637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01799297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83941745758057</t>
+    <t xml:space="preserve">8.83941841125488</t>
   </si>
   <si>
     <t xml:space="preserve">8.75013065338135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71441650390625</t>
+    <t xml:space="preserve">8.71441555023193</t>
   </si>
   <si>
     <t xml:space="preserve">8.78584575653076</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">8.73227310180664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85727596282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82156181335449</t>
+    <t xml:space="preserve">8.85727500915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82155990600586</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
@@ -974,34 +974,34 @@
     <t xml:space="preserve">8.41084003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91084575653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798725128174</t>
+    <t xml:space="preserve">8.91084766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798915863037</t>
   </si>
   <si>
     <t xml:space="preserve">8.9287052154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80370235443115</t>
+    <t xml:space="preserve">8.80370330810547</t>
   </si>
   <si>
     <t xml:space="preserve">9.37514019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50907135009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3304967880249</t>
+    <t xml:space="preserve">9.50907039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442890167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33049583435059</t>
   </si>
   <si>
     <t xml:space="preserve">9.28585338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58941268920898</t>
+    <t xml:space="preserve">8.5894136428833</t>
   </si>
   <si>
     <t xml:space="preserve">8.53584289550781</t>
@@ -1013,22 +1013,22 @@
     <t xml:space="preserve">8.46441268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35726833343506</t>
+    <t xml:space="preserve">8.35726737976074</t>
   </si>
   <si>
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25012397766113</t>
+    <t xml:space="preserve">8.25012302398682</t>
   </si>
   <si>
     <t xml:space="preserve">8.30369567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583908081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33941078186035</t>
+    <t xml:space="preserve">8.28583812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33940982818604</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512493133545</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64298725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41978359222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55371379852295</t>
+    <t xml:space="preserve">8.64298534393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41978549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55371475219727</t>
   </si>
   <si>
     <t xml:space="preserve">9.77693271636963</t>
@@ -1058,40 +1058,40 @@
     <t xml:space="preserve">10.2680110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126554489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.491229057312</t>
+    <t xml:space="preserve">10.3126544952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572988510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912271499634</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358715057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019412994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805168151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233667373657</t>
+    <t xml:space="preserve">10.5358734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019403457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805158615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22336769104</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698017120361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065948486328</t>
+    <t xml:space="preserve">10.8065958023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8521919250488</t>
+    <t xml:space="preserve">10.8521928787231</t>
   </si>
   <si>
     <t xml:space="preserve">10.7609987258911</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">10.259425163269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0770349502563</t>
+    <t xml:space="preserve">10.0770359039307</t>
   </si>
   <si>
     <t xml:space="preserve">10.0314388275146</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">10.3050231933594</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1682300567627</t>
+    <t xml:space="preserve">10.168231010437</t>
   </si>
   <si>
     <t xml:space="preserve">9.89464664459229</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">9.48426818847656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43867301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986621856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106227874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785350799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66665935516357</t>
+    <t xml:space="preserve">9.43867206573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986526489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785446166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66666030883789</t>
   </si>
   <si>
     <t xml:space="preserve">9.57546424865723</t>
@@ -1169,16 +1169,16 @@
     <t xml:space="preserve">9.1650857925415</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3018798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21068572998047</t>
+    <t xml:space="preserve">9.30187892913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21068477630615</t>
   </si>
   <si>
     <t xml:space="preserve">9.39307403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11949062347412</t>
+    <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225547790527</t>
@@ -1196,10 +1196,10 @@
     <t xml:space="preserve">11.6273488998413</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6729469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3993625640869</t>
+    <t xml:space="preserve">11.6729459762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3993616104126</t>
   </si>
   <si>
     <t xml:space="preserve">11.3081674575806</t>
@@ -1208,25 +1208,25 @@
     <t xml:space="preserve">11.0801801681519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0345821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1713762283325</t>
+    <t xml:space="preserve">11.0345830917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1713752746582</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449586868286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5817518234253</t>
+    <t xml:space="preserve">11.581750869751</t>
   </si>
   <si>
     <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.85533618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9465312957764</t>
+    <t xml:space="preserve">11.8553352355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9465322494507</t>
   </si>
   <si>
     <t xml:space="preserve">12.083324432373</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">11.9921283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7641410827637</t>
+    <t xml:space="preserve">11.7641401290894</t>
   </si>
   <si>
     <t xml:space="preserve">12.4937009811401</t>
@@ -1256,10 +1256,10 @@
     <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496755599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688570022583</t>
+    <t xml:space="preserve">12.9496746063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688579559326</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304931640625</t>
@@ -1280,22 +1280,22 @@
     <t xml:space="preserve">12.8584804534912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0864677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9009351730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9433879852295</t>
+    <t xml:space="preserve">13.0864686965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9009342193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9433889389038</t>
   </si>
   <si>
     <t xml:space="preserve">10.7153997421265</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02829551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810638427734</t>
+    <t xml:space="preserve">9.02829456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810733795166</t>
   </si>
   <si>
     <t xml:space="preserve">7.93395566940308</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">8.07986736297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57231998443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73647117614746</t>
+    <t xml:space="preserve">8.57232093811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73647022247314</t>
   </si>
   <si>
     <t xml:space="preserve">8.79118824005127</t>
@@ -59754,7 +59754,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6495486111</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>6252</v>
@@ -59775,6 +59775,32 @@
         <v>956</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6493287037</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>7782</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>26.3500003814697</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>26.1000003814697</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>26.2999992370605</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>26.1000003814697</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>954</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="962">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262649536133</t>
+    <t xml:space="preserve">8.42262744903564</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">8.43947219848633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40578079223633</t>
+    <t xml:space="preserve">8.40578174591064</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206092834473</t>
@@ -62,124 +62,124 @@
     <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29207706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731525421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18679523468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572292327881</t>
+    <t xml:space="preserve">8.29207515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363712310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18679237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572196960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.13625717163086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11520004272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03518581390381</t>
+    <t xml:space="preserve">8.11520195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03518486022949</t>
   </si>
   <si>
     <t xml:space="preserve">8.03097534179688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02676296234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307203292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9678053855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304309844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619739532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356407165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197221755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880083084106</t>
+    <t xml:space="preserve">8.02676200866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307346343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145029067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304262161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619787216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356311798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880035400391</t>
   </si>
   <si>
     <t xml:space="preserve">7.66459083557129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74881649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357782363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726875305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048473358154</t>
+    <t xml:space="preserve">7.74881744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357830047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726922988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203056335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048187255859</t>
   </si>
   <si>
     <t xml:space="preserve">8.16994667053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30470943450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07730007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33839988708496</t>
+    <t xml:space="preserve">8.30471134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417327880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941146850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07729911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33840084075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.4815845489502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4478931427002</t>
+    <t xml:space="preserve">8.44789505004883</t>
   </si>
   <si>
     <t xml:space="preserve">8.41420459747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32155513763428</t>
+    <t xml:space="preserve">8.32155609130859</t>
   </si>
   <si>
     <t xml:space="preserve">8.27944278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4256010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578357696533</t>
+    <t xml:space="preserve">8.42560005187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578453063965</t>
   </si>
   <si>
     <t xml:space="preserve">8.55456447601318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084541320801</t>
+    <t xml:space="preserve">8.27084636688232</t>
   </si>
   <si>
     <t xml:space="preserve">8.2966365814209</t>
@@ -188,22 +188,22 @@
     <t xml:space="preserve">8.3267297744751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2536506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645305633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962345123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102703094482</t>
+    <t xml:space="preserve">8.25364971160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962440490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102607727051</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32243061065674</t>
+    <t xml:space="preserve">8.32242965698242</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261318206787</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">8.21066188812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22785758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767501831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08169746398926</t>
+    <t xml:space="preserve">8.22785568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1676721572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
     <t xml:space="preserve">8.03871154785156</t>
@@ -230,34 +230,34 @@
     <t xml:space="preserve">7.95273494720459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24505233764648</t>
+    <t xml:space="preserve">8.24505138397217</t>
   </si>
   <si>
     <t xml:space="preserve">8.05160617828369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86675930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590629577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694330215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90974712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779535293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078603744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133327484131</t>
+    <t xml:space="preserve">7.86675834655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377290725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590534210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078508377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133232116699</t>
   </si>
   <si>
     <t xml:space="preserve">8.31383323669434</t>
@@ -266,10 +266,10 @@
     <t xml:space="preserve">8.5975513458252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64054012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64913749694824</t>
+    <t xml:space="preserve">8.64053916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64913654327393</t>
   </si>
   <si>
     <t xml:space="preserve">8.72651386260986</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">8.91566181182861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84688186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63194179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66633129119873</t>
+    <t xml:space="preserve">8.84687995910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63193988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66633224487305</t>
   </si>
   <si>
     <t xml:space="preserve">8.59325218200684</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">8.68352794647217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70072174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9414529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547828674316</t>
+    <t xml:space="preserve">8.70072269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547733306885</t>
   </si>
   <si>
     <t xml:space="preserve">8.76950263977051</t>
@@ -311,46 +311,46 @@
     <t xml:space="preserve">9.02742862701416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15639209747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2337703704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19938087463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24236869812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4143180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834339141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31974506378174</t>
+    <t xml:space="preserve">9.15639114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23376941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19937896728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2423677444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431903839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31974601745605</t>
   </si>
   <si>
     <t xml:space="preserve">9.20797824859619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22517204284668</t>
+    <t xml:space="preserve">9.225172996521</t>
   </si>
   <si>
     <t xml:space="preserve">9.44011116027832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45730686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962520599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5432825088501</t>
+    <t xml:space="preserve">9.45730590820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956439971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328155517578</t>
   </si>
   <si>
     <t xml:space="preserve">9.62925720214844</t>
@@ -359,58 +359,58 @@
     <t xml:space="preserve">9.52608776092529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67224502563477</t>
+    <t xml:space="preserve">9.67224407196045</t>
   </si>
   <si>
     <t xml:space="preserve">9.62066078186035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58627033233643</t>
+    <t xml:space="preserve">9.58626842498779</t>
   </si>
   <si>
     <t xml:space="preserve">9.68084239959717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71523284912109</t>
+    <t xml:space="preserve">9.71523380279541</t>
   </si>
   <si>
     <t xml:space="preserve">9.61206340789795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5518798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65505027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663547515869</t>
+    <t xml:space="preserve">9.55187797546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663642883301</t>
   </si>
   <si>
     <t xml:space="preserve">9.88718318939209</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2138910293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4030380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451101303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.102123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1279153823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333433151245</t>
+    <t xml:space="preserve">10.2138919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4030389785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826719284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451110839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021223068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1279163360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333423614502</t>
   </si>
   <si>
     <t xml:space="preserve">10.0591344833374</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">10.1623058319092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.308464050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.188099861145</t>
+    <t xml:space="preserve">10.3084650039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
     <t xml:space="preserve">9.84419631958008</t>
@@ -431,16 +431,16 @@
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85279273986816</t>
+    <t xml:space="preserve">9.85279369354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.231086730957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0075511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.274073600769</t>
+    <t xml:space="preserve">10.0075521469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2740745544434</t>
   </si>
   <si>
     <t xml:space="preserve">10.4460258483887</t>
@@ -455,28 +455,28 @@
     <t xml:space="preserve">10.6695604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9618797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0736474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0220594406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768169403076</t>
+    <t xml:space="preserve">10.9618787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0736455917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0220603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768178939819</t>
   </si>
   <si>
     <t xml:space="preserve">11.2198047637939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4433422088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066961288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302307128906</t>
+    <t xml:space="preserve">11.443341255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302326202393</t>
   </si>
   <si>
     <t xml:space="preserve">11.7528533935547</t>
@@ -485,43 +485,43 @@
     <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614498138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873218536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505977630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.010778427124</t>
+    <t xml:space="preserve">11.7614507675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8732194900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107793807983</t>
   </si>
   <si>
     <t xml:space="preserve">11.8388290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7700471878052</t>
+    <t xml:space="preserve">11.7700481414795</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926708221436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786455154419</t>
+    <t xml:space="preserve">11.7786464691162</t>
   </si>
   <si>
     <t xml:space="preserve">11.7975378036499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9024047851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674488067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8499717712402</t>
+    <t xml:space="preserve">11.9024038314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8674478530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8499708175659</t>
   </si>
   <si>
     <t xml:space="preserve">11.972315788269</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">12.0859212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2432222366333</t>
+    <t xml:space="preserve">12.2432231903076</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966506958008</t>
@@ -542,31 +542,31 @@
     <t xml:space="preserve">12.5403451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2344837188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3218717575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1733112335205</t>
+    <t xml:space="preserve">12.2344827651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3218727111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1733102798462</t>
   </si>
   <si>
     <t xml:space="preserve">12.0160102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9286203384399</t>
+    <t xml:space="preserve">11.9286212921143</t>
   </si>
   <si>
     <t xml:space="preserve">11.8849267959595</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0247488021851</t>
+    <t xml:space="preserve">12.0247507095337</t>
   </si>
   <si>
     <t xml:space="preserve">12.0946607589722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.138355255127</t>
+    <t xml:space="preserve">12.1383562088013</t>
   </si>
   <si>
     <t xml:space="preserve">12.217004776001</t>
@@ -578,16 +578,16 @@
     <t xml:space="preserve">11.9635753631592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2082672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208753585815</t>
+    <t xml:space="preserve">12.2082662582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208772659302</t>
   </si>
   <si>
     <t xml:space="preserve">11.9897937774658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0684442520142</t>
+    <t xml:space="preserve">12.0684432983398</t>
   </si>
   <si>
     <t xml:space="preserve">12.0509653091431</t>
@@ -596,52 +596,52 @@
     <t xml:space="preserve">11.9985313415527</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0422267913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0771827697754</t>
+    <t xml:space="preserve">12.0422277450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0771818161011</t>
   </si>
   <si>
     <t xml:space="preserve">12.1033992767334</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8936643600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062753677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800579071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7451038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014093399048</t>
+    <t xml:space="preserve">11.8936653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062772750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800588607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7451028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014102935791</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926698684692</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5353689193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5266304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4479808807373</t>
+    <t xml:space="preserve">11.5353679656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.526629447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.447979927063</t>
   </si>
   <si>
     <t xml:space="preserve">11.3955478668213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3605909347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518524169922</t>
+    <t xml:space="preserve">11.3605918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518514633179</t>
   </si>
   <si>
     <t xml:space="preserve">11.2732019424438</t>
@@ -650,55 +650,55 @@
     <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431129455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906799316406</t>
+    <t xml:space="preserve">11.3431119918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906789779663</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2295083999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1858129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469844818115</t>
+    <t xml:space="preserve">11.2295074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.18581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469854354858</t>
   </si>
   <si>
     <t xml:space="preserve">11.2994184494019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3693294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6227588653564</t>
+    <t xml:space="preserve">11.369330406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829359054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6227579116821</t>
   </si>
   <si>
     <t xml:space="preserve">11.710147857666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.579065322876</t>
+    <t xml:space="preserve">11.5790634155273</t>
   </si>
   <si>
     <t xml:space="preserve">11.4567193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3256359100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4305028915405</t>
+    <t xml:space="preserve">11.3256349563599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4305019378662</t>
   </si>
   <si>
     <t xml:space="preserve">11.3168964385986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2032899856567</t>
+    <t xml:space="preserve">11.2032909393311</t>
   </si>
   <si>
     <t xml:space="preserve">11.5878038406372</t>
@@ -710,31 +710,31 @@
     <t xml:space="preserve">11.4042854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5091524124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1159019470215</t>
+    <t xml:space="preserve">11.5091533660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1159009933472</t>
   </si>
   <si>
     <t xml:space="preserve">11.1246395111084</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1683330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.883713722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35064220428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51667976379395</t>
+    <t xml:space="preserve">11.1683349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557229995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88371467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14964580535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35064029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51667881011963</t>
   </si>
   <si>
     <t xml:space="preserve">9.63028526306152</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">9.64776420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73515224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74389171600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8312816619873</t>
+    <t xml:space="preserve">9.73515319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74388980865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83128070831299</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53415584564209</t>
+    <t xml:space="preserve">9.53415870666504</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172378540039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39433479309082</t>
+    <t xml:space="preserve">9.39433574676514</t>
   </si>
   <si>
     <t xml:space="preserve">9.43803024291992</t>
@@ -770,25 +770,25 @@
     <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42055225372314</t>
+    <t xml:space="preserve">9.42055034637451</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685775756836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26325035095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1583833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34190082550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40307521820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84001922607422</t>
+    <t xml:space="preserve">9.26325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15838432312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3419017791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40307331085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84002017974854</t>
   </si>
   <si>
     <t xml:space="preserve">9.79632472991943</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78758525848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380271911621</t>
+    <t xml:space="preserve">9.7875862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380176544189</t>
   </si>
   <si>
     <t xml:space="preserve">9.90119171142578</t>
@@ -809,10 +809,10 @@
     <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22829627990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07099533081055</t>
+    <t xml:space="preserve">9.22829723358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07099437713623</t>
   </si>
   <si>
     <t xml:space="preserve">9.28072929382324</t>
@@ -821,10 +821,10 @@
     <t xml:space="preserve">9.25451374053955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97984313964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497520446777</t>
+    <t xml:space="preserve">9.97984218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497615814209</t>
   </si>
   <si>
     <t xml:space="preserve">10.0497531890869</t>
@@ -833,34 +833,34 @@
     <t xml:space="preserve">9.91866970062256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67398166656494</t>
+    <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
     <t xml:space="preserve">9.63902378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71767425537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72641468048096</t>
+    <t xml:space="preserve">9.71767520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72641277313232</t>
   </si>
   <si>
     <t xml:space="preserve">9.61280727386475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56911277770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68271827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694675445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36811828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019817352295</t>
+    <t xml:space="preserve">9.56911373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271923065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694484710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36811923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019721984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650177001953</t>
@@ -869,43 +869,43 @@
     <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08847332000732</t>
+    <t xml:space="preserve">9.08847236633301</t>
   </si>
   <si>
     <t xml:space="preserve">9.04477882385254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.219557762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586231231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95738887786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82630634307861</t>
+    <t xml:space="preserve">9.21955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216781616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95738983154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82630729675293</t>
   </si>
   <si>
     <t xml:space="preserve">9.00108337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91369533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86999988555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891639709473</t>
+    <t xml:space="preserve">8.91369438171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86999893188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891544342041</t>
   </si>
   <si>
     <t xml:space="preserve">8.72143840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78261089324951</t>
+    <t xml:space="preserve">8.78261184692383</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161544799805</t>
@@ -920,46 +920,46 @@
     <t xml:space="preserve">9.15192317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06263542175293</t>
+    <t xml:space="preserve">9.10727787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06263446807861</t>
   </si>
   <si>
     <t xml:space="preserve">9.01799297332764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97334861755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.892991065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727214813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83941745758057</t>
+    <t xml:space="preserve">8.97334957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727119445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83941841125488</t>
   </si>
   <si>
     <t xml:space="preserve">8.75013065338135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71441745758057</t>
+    <t xml:space="preserve">8.71441555023193</t>
   </si>
   <si>
     <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73227310180664</t>
+    <t xml:space="preserve">8.73227405548096</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87513256072998</t>
+    <t xml:space="preserve">8.82156085968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8751335144043</t>
   </si>
   <si>
     <t xml:space="preserve">8.66084384918213</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084098815918</t>
+    <t xml:space="preserve">8.44655513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084003448486</t>
   </si>
   <si>
     <t xml:space="preserve">8.91084671020508</t>
@@ -986,67 +986,67 @@
     <t xml:space="preserve">8.9287052154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80370330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37514114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907135009766</t>
+    <t xml:space="preserve">8.80370235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37514019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50906944274902</t>
   </si>
   <si>
     <t xml:space="preserve">9.46442794799805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3304967880249</t>
+    <t xml:space="preserve">9.33049774169922</t>
   </si>
   <si>
     <t xml:space="preserve">9.28585338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5894136428833</t>
+    <t xml:space="preserve">8.58941459655762</t>
   </si>
   <si>
     <t xml:space="preserve">8.53584289550781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62512874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46441078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726737976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42869758605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25012302398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30369567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28583717346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33941173553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37512493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5001277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64298629760742</t>
+    <t xml:space="preserve">8.62512969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46441173553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726833343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42869853973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30369472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28583812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33941078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37512588500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50012683868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64298725128174</t>
   </si>
   <si>
     <t xml:space="preserve">9.41978454589844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55371570587158</t>
+    <t xml:space="preserve">9.55371379852295</t>
   </si>
   <si>
     <t xml:space="preserve">9.77693271636963</t>
@@ -1055,94 +1055,94 @@
     <t xml:space="preserve">9.7322883605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0447940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680101394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126544952393</t>
+    <t xml:space="preserve">10.0447931289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680110931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126535415649</t>
   </si>
   <si>
     <t xml:space="preserve">10.3572978973389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.491229057312</t>
+    <t xml:space="preserve">10.4912271499634</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358715057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019412994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805168151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
+    <t xml:space="preserve">10.5358734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019422531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805158615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233686447144</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065958023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242046356201</t>
+    <t xml:space="preserve">10.8065948486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242065429688</t>
   </si>
   <si>
     <t xml:space="preserve">10.8521919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7609977722168</t>
+    <t xml:space="preserve">10.7609987258911</t>
   </si>
   <si>
     <t xml:space="preserve">10.5330104827881</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3962163925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.213828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5786075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874114990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418153762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506202697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1226348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2594261169434</t>
+    <t xml:space="preserve">10.3962173461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138271331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5786085128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4874124526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418163299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506212234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.122633934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.259425163269</t>
   </si>
   <si>
     <t xml:space="preserve">10.0770359039307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.031439781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3050231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.168231010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89464664459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84904956817627</t>
+    <t xml:space="preserve">10.0314388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3050241470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1682300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89464569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84905052185059</t>
   </si>
   <si>
     <t xml:space="preserve">9.48426914215088</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">9.43867206573486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52986621856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106227874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785446166992</t>
+    <t xml:space="preserve">9.52986717224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785350799561</t>
   </si>
   <si>
     <t xml:space="preserve">9.66665935516357</t>
@@ -1166,31 +1166,31 @@
     <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25628089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16508674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3018798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21068572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39307403564453</t>
+    <t xml:space="preserve">9.25628185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16508769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30187892913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21068477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39307308197021</t>
   </si>
   <si>
     <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71225643157959</t>
+    <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
     <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9402437210083</t>
+    <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">11.1257772445679</t>
@@ -1202,52 +1202,52 @@
     <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3993616104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081674575806</t>
+    <t xml:space="preserve">11.3993625640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081665039062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0801801681519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0345821380615</t>
+    <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
     <t xml:space="preserve">11.1713752746582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4449605941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5817518234253</t>
+    <t xml:space="preserve">11.4449596405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.581750869751</t>
   </si>
   <si>
     <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.85533618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9465312957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.083324432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113107681274</t>
+    <t xml:space="preserve">11.8553371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9465322494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0833234786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113098144531</t>
   </si>
   <si>
     <t xml:space="preserve">12.1745195388794</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921293258667</t>
+    <t xml:space="preserve">11.9921283721924</t>
   </si>
   <si>
     <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4937009811401</t>
+    <t xml:space="preserve">12.4937019348145</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672863006592</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">13.1320638656616</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9952716827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9496746063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688570022583</t>
+    <t xml:space="preserve">12.9952726364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9496755599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688579559326</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304931640625</t>
@@ -1271,31 +1271,31 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481019973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5848960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8128843307495</t>
+    <t xml:space="preserve">12.4481029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5848951339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
     <t xml:space="preserve">12.8584804534912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0864677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.900933265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9433870315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7154006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02829456329346</t>
+    <t xml:space="preserve">13.0864686965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9009342193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9433879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7153997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02829551696777</t>
   </si>
   <si>
     <t xml:space="preserve">8.09810638427734</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64213228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.006911277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6635160446167</t>
+    <t xml:space="preserve">7.6421332359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00691223144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66351413726807</t>
   </si>
   <si>
     <t xml:space="preserve">8.07986736297607</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73647022247314</t>
+    <t xml:space="preserve">8.73647212982178</t>
   </si>
   <si>
     <t xml:space="preserve">8.79118824005127</t>
@@ -1328,28 +1328,28 @@
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3474760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0847978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94473075866699</t>
+    <t xml:space="preserve">9.34747695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0847988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94472980499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.0381088256836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80466461181641</t>
+    <t xml:space="preserve">9.80466365814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99142074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715539932251</t>
+    <t xml:space="preserve">9.99141883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715530395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.89804267883301</t>
@@ -1358,16 +1358,16 @@
     <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4583082199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785076141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7384405136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0185747146606</t>
+    <t xml:space="preserve">10.4583072662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785095214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7384414672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.018575668335</t>
   </si>
   <si>
     <t xml:space="preserve">10.8318195343018</t>
@@ -1382,40 +1382,40 @@
     <t xml:space="preserve">10.925196647644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6450624465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2987079620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4854640960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6722192764282</t>
+    <t xml:space="preserve">10.6450634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2987089157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.485463142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6722202301025</t>
   </si>
   <si>
     <t xml:space="preserve">11.3453969955444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053298950195</t>
+    <t xml:space="preserve">11.2053318023682</t>
   </si>
   <si>
     <t xml:space="preserve">11.438775062561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1119518280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2520198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9718866348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652647018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5788421630859</t>
+    <t xml:space="preserve">11.1119527816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2520189285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9718856811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652637481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5788402557373</t>
   </si>
   <si>
     <t xml:space="preserve">11.6255302429199</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.532154083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189092636108</t>
+    <t xml:space="preserve">11.5321531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189083099365</t>
   </si>
   <si>
     <t xml:space="preserve">11.7655973434448</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391077041626</t>
+    <t xml:space="preserve">12.1391086578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.9523525238037</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2791748046875</t>
+    <t xml:space="preserve">12.2791738510132</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
@@ -1454,34 +1454,34 @@
     <t xml:space="preserve">11.9990425109863</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2324857711792</t>
+    <t xml:space="preserve">12.2324867248535</t>
   </si>
   <si>
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924196243286</t>
+    <t xml:space="preserve">12.0924186706543</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3258628845215</t>
+    <t xml:space="preserve">12.3258638381958</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9795083999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2596406936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.07288646698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1195755004883</t>
+    <t xml:space="preserve">12.9795074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2596416473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0728855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.119574546814</t>
   </si>
   <si>
     <t xml:space="preserve">13.3997077941895</t>
@@ -1490,31 +1490,31 @@
     <t xml:space="preserve">13.4463958740234</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3063287734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3530187606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864629745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930849075317</t>
+    <t xml:space="preserve">13.3063297271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3530197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864639282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930858612061</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9132852554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.633152961731</t>
+    <t xml:space="preserve">13.9132843017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6331520080566</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5593090057373</t>
+    <t xml:space="preserve">12.559308052063</t>
   </si>
   <si>
     <t xml:space="preserve">13.0261964797974</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">12.8394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5397748947144</t>
+    <t xml:space="preserve">13.53977394104</t>
   </si>
   <si>
     <t xml:space="preserve">13.8199081420898</t>
@@ -1538,10 +1538,10 @@
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801746368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.566930770874</t>
+    <t xml:space="preserve">14.3801736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5669288635254</t>
   </si>
   <si>
     <t xml:space="preserve">14.3334856033325</t>
@@ -1550,10 +1550,10 @@
     <t xml:space="preserve">14.7069959640503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9404401779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8937511444092</t>
+    <t xml:space="preserve">14.9404411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8937501907349</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338182449341</t>
@@ -1562,19 +1562,19 @@
     <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2672643661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7536849975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8470621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603078842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4735527038574</t>
+    <t xml:space="preserve">15.2672634124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7536859512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8470630645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.660306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
     <t xml:space="preserve">14.1934185028076</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">14.5202417373657</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665962219238</t>
+    <t xml:space="preserve">13.8665971755981</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732181549072</t>
+    <t xml:space="preserve">13.7732191085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
   </si>
   <si>
-    <t xml:space="preserve">15.173885345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2401075363159</t>
+    <t xml:space="preserve">15.1738843917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2401065826416</t>
   </si>
   <si>
     <t xml:space="preserve">14.6393623352051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5918321609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6868925094604</t>
+    <t xml:space="preserve">14.591833114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6868934631348</t>
   </si>
   <si>
     <t xml:space="preserve">14.9245452880859</t>
@@ -1619,16 +1619,16 @@
     <t xml:space="preserve">15.2572574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3047885894775</t>
+    <t xml:space="preserve">15.3047876358032</t>
   </si>
   <si>
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621971130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3998508453369</t>
+    <t xml:space="preserve">15.1621961593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3998498916626</t>
   </si>
   <si>
     <t xml:space="preserve">15.3523187637329</t>
@@ -1643,22 +1643,22 @@
     <t xml:space="preserve">15.542441368103</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9720754623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0196056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.447380065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7325620651245</t>
+    <t xml:space="preserve">14.972074508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.019606590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4473791122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7325601577759</t>
   </si>
   <si>
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226818084717</t>
+    <t xml:space="preserve">15.9226846694946</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">16.1603355407715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0177440643311</t>
+    <t xml:space="preserve">16.0177459716797</t>
   </si>
   <si>
     <t xml:space="preserve">16.350456237793</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7782325744629</t>
+    <t xml:space="preserve">16.7782306671143</t>
   </si>
   <si>
     <t xml:space="preserve">17.1109447479248</t>
@@ -1694,10 +1694,10 @@
     <t xml:space="preserve">16.4455165863037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5387191772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0615520477295</t>
+    <t xml:space="preserve">17.5387172698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0615501403809</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">16.873291015625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.348596572876</t>
+    <t xml:space="preserve">17.3485946655273</t>
   </si>
   <si>
     <t xml:space="preserve">17.7763710021973</t>
@@ -1718,28 +1718,28 @@
     <t xml:space="preserve">17.8714294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8220367431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0121593475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2022838592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0578289031982</t>
+    <t xml:space="preserve">18.2992038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8220386505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0121574401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2022819519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0578269958496</t>
   </si>
   <si>
     <t xml:space="preserve">19.8677062988281</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4874629974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3924026489258</t>
+    <t xml:space="preserve">19.4874649047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3924007415771</t>
   </si>
   <si>
     <t xml:space="preserve">19.9627666473389</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">19.7726459503174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.152889251709</t>
+    <t xml:space="preserve">20.1528911590576</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">21.578800201416</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3886795043945</t>
+    <t xml:space="preserve">21.3886775970459</t>
   </si>
   <si>
     <t xml:space="preserve">21.7689228057861</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">21.1034984588623</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1491641998291</t>
+    <t xml:space="preserve">22.1491661071777</t>
   </si>
   <si>
     <t xml:space="preserve">22.4343490600586</t>
@@ -1781,34 +1781,34 @@
     <t xml:space="preserve">22.054105758667</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3392887115479</t>
+    <t xml:space="preserve">22.3392868041992</t>
   </si>
   <si>
     <t xml:space="preserve">22.6244678497314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8145904541016</t>
+    <t xml:space="preserve">22.8145923614502</t>
   </si>
   <si>
     <t xml:space="preserve">21.9590435028076</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8639812469482</t>
+    <t xml:space="preserve">21.8639831542969</t>
   </si>
   <si>
     <t xml:space="preserve">20.5331325531006</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5843849182129</t>
+    <t xml:space="preserve">18.5843868255615</t>
   </si>
   <si>
     <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9133758544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2442264556885</t>
+    <t xml:space="preserve">20.9133739471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2442245483398</t>
   </si>
   <si>
     <t xml:space="preserve">23.0997734069824</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">21.6738605499268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8183135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3430118560791</t>
+    <t xml:space="preserve">20.8183155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3430099487305</t>
   </si>
   <si>
     <t xml:space="preserve">23.0047130584717</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7195281982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2479496002197</t>
+    <t xml:space="preserve">22.7195301055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2479476928711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7232513427734</t>
@@ -1859,28 +1859,28 @@
     <t xml:space="preserve">18.6319160461426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2060070037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9189605712891</t>
+    <t xml:space="preserve">17.2060050964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9189624786377</t>
   </si>
   <si>
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337776184082</t>
+    <t xml:space="preserve">17.6337795257568</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2041435241699</t>
+    <t xml:space="preserve">18.2041416168213</t>
   </si>
   <si>
     <t xml:space="preserve">18.5368556976318</t>
   </si>
   <si>
-    <t xml:space="preserve">19.154748916626</t>
+    <t xml:space="preserve">19.1547508239746</t>
   </si>
   <si>
     <t xml:space="preserve">18.9170989990234</t>
@@ -1889,22 +1889,22 @@
     <t xml:space="preserve">18.5938911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4988288879395</t>
+    <t xml:space="preserve">18.4798183441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4988307952881</t>
   </si>
   <si>
     <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136478424072</t>
+    <t xml:space="preserve">18.2136497497559</t>
   </si>
   <si>
     <t xml:space="preserve">18.3847579956055</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2498111724854</t>
+    <t xml:space="preserve">19.249813079834</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1922,31 +1922,31 @@
     <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8143939971924</t>
+    <t xml:space="preserve">17.8143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249214172363</t>
+    <t xml:space="preserve">17.1333637237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249195098877</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2072010040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7032775878906</t>
+    <t xml:space="preserve">19.2071990966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.703275680542</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816356658936</t>
+    <t xml:space="preserve">19.3816337585449</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1958,37 +1958,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.226583480835</t>
+    <t xml:space="preserve">19.2265815734863</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3507175445557</t>
+    <t xml:space="preserve">20.350715637207</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4476261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383499145508</t>
+    <t xml:space="preserve">21.2228908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.447624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383480072021</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.866174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001842498779</t>
+    <t xml:space="preserve">21.8043384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8661766052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001861572266</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239051818848</t>
+    <t xml:space="preserve">19.6239070892334</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723594665527</t>
+    <t xml:space="preserve">18.9746208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723575592041</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538070678711</t>
+    <t xml:space="preserve">20.2538089752197</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919708251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4651584625244</t>
+    <t xml:space="preserve">22.1919727325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074298858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.465160369873</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.610523223877</t>
+    <t xml:space="preserve">21.6105213165283</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1568984985352</t>
+    <t xml:space="preserve">20.1569004058838</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2579612731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734222412109</t>
+    <t xml:space="preserve">23.257963180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.676513671875</t>
+    <t xml:space="preserve">22.6765117645264</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156452178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7692680358887</t>
+    <t xml:space="preserve">18.3156433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.76926612854</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486850738525</t>
+    <t xml:space="preserve">22.9672374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486869812012</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600364685059</t>
+    <t xml:space="preserve">24.7600383758545</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754974365234</t>
+    <t xml:space="preserve">24.2754955291748</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9054012298584</t>
+    <t xml:space="preserve">24.905403137207</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.729118347168</t>
+    <t xml:space="preserve">25.7291202545166</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827411651611</t>
+    <t xml:space="preserve">27.2796497344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827430725098</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167526245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652088165283</t>
+    <t xml:space="preserve">25.1961269378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322116851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167545318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652069091797</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260269165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3105697631836</t>
+    <t xml:space="preserve">25.8260288238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.310567855835</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703773498535</t>
+    <t xml:space="preserve">27.5703754425049</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.768346786499</t>
+    <t xml:space="preserve">30.7683448791504</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.605447769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1209049224854</t>
+    <t xml:space="preserve">29.6054458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085411071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.120906829834</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.702356338501</t>
+    <t xml:space="preserve">29.7023544311523</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776210784912</t>
+    <t xml:space="preserve">30.4776229858398</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559791564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198905944824</t>
+    <t xml:space="preserve">31.1559810638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198925018311</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332744598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600830078125</t>
+    <t xml:space="preserve">30.2353496551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363639831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600849151611</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -2895,6 +2895,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7999992370605</t>
   </si>
 </sst>
 </file>
@@ -59812,7 +59815,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.6496064815</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>14312</v>
@@ -59833,6 +59836,32 @@
         <v>960</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6493634259</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>11214</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>25.7999992370605</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>25.1000003814697</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>25.4500007629395</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>25.7999992370605</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>961</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="965">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262649536133</t>
+    <t xml:space="preserve">8.42262554168701</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">8.43947124481201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40578174591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21205997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31734371185303</t>
+    <t xml:space="preserve">8.40578079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21206092834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31734561920166</t>
   </si>
   <si>
     <t xml:space="preserve">8.19521522521973</t>
@@ -62,109 +62,109 @@
     <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29207611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731525421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363998413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18679523468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03518486022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676200866699</t>
+    <t xml:space="preserve">8.29207515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363807678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18679428100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625717163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520004272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03518581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097438812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676296234131</t>
   </si>
   <si>
     <t xml:space="preserve">8.00149631500244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99307155609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780490875244</t>
+    <t xml:space="preserve">7.99307203292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780443191528</t>
   </si>
   <si>
     <t xml:space="preserve">7.76145076751709</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83304357528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619787216187</t>
+    <t xml:space="preserve">7.83304214477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619739532471</t>
   </si>
   <si>
     <t xml:space="preserve">7.80356407165527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73197078704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880083084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459035873413</t>
+    <t xml:space="preserve">7.73197221755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880178451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66458988189697</t>
   </si>
   <si>
     <t xml:space="preserve">7.74881553649902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88357734680176</t>
+    <t xml:space="preserve">7.88357782363892</t>
   </si>
   <si>
     <t xml:space="preserve">7.91726875305176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05203342437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048377990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30470848083496</t>
+    <t xml:space="preserve">8.05203247070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048473358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994667053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30471038818359</t>
   </si>
   <si>
     <t xml:space="preserve">8.25417518615723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11941242218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07729911804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48158550262451</t>
+    <t xml:space="preserve">8.11941337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33839893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48158359527588</t>
   </si>
   <si>
     <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420459747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155609130859</t>
+    <t xml:space="preserve">8.41420555114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">8.27944278717041</t>
@@ -173,16 +173,16 @@
     <t xml:space="preserve">8.4256010055542</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48578357696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55456352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27084350585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2966365814209</t>
+    <t xml:space="preserve">8.48578262329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55456447601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27084541320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29663753509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.3267297744751</t>
@@ -200,109 +200,109 @@
     <t xml:space="preserve">8.33102703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33532619476318</t>
+    <t xml:space="preserve">8.33532524108887</t>
   </si>
   <si>
     <t xml:space="preserve">8.32243061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38261127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21066188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767501831055</t>
+    <t xml:space="preserve">8.38261318206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21066284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785663604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767406463623</t>
   </si>
   <si>
     <t xml:space="preserve">8.08169746398926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572324752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273447036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505233764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675977706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377195358276</t>
+    <t xml:space="preserve">8.03870964050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572372436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273494720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505138397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675834655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377243041992</t>
   </si>
   <si>
     <t xml:space="preserve">8.05590629577637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92694330215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90974617004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779726028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078365325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5975513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64053821563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64913749694824</t>
+    <t xml:space="preserve">7.92694234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974712371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779535293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133232116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3138313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755229949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64053916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64913845062256</t>
   </si>
   <si>
     <t xml:space="preserve">8.72651481628418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9156608581543</t>
+    <t xml:space="preserve">8.91566181182861</t>
   </si>
   <si>
     <t xml:space="preserve">8.84687995910645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63194179534912</t>
+    <t xml:space="preserve">8.63194274902344</t>
   </si>
   <si>
     <t xml:space="preserve">8.66633129119873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59325313568115</t>
+    <t xml:space="preserve">8.59325218200684</t>
   </si>
   <si>
     <t xml:space="preserve">8.58895492553711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68352699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9414529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547828674316</t>
+    <t xml:space="preserve">8.68352794647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072174072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145202636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547733306885</t>
   </si>
   <si>
     <t xml:space="preserve">8.76950263977051</t>
@@ -311,25 +311,25 @@
     <t xml:space="preserve">9.02742862701416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15639305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23377132415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19938087463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24236679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41431713104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31974506378174</t>
+    <t xml:space="preserve">9.15639209747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23376941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19938182830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24236869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431999206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31974697113037</t>
   </si>
   <si>
     <t xml:space="preserve">9.20797729492188</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">9.22517204284668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44011211395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730781555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956153869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962329864502</t>
+    <t xml:space="preserve">9.44011116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956439971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962425231934</t>
   </si>
   <si>
     <t xml:space="preserve">9.5432825088501</t>
@@ -368,61 +368,61 @@
     <t xml:space="preserve">9.58627033233643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6808443069458</t>
+    <t xml:space="preserve">9.68084335327148</t>
   </si>
   <si>
     <t xml:space="preserve">9.71523284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61206436157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56047534942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65504837036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718414306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138929367065</t>
+    <t xml:space="preserve">9.61206340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5518798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65505027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663642883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718318939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138900756836</t>
   </si>
   <si>
     <t xml:space="preserve">10.4030380249023</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2826719284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451110839844</t>
+    <t xml:space="preserve">10.2826728820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451120376587</t>
   </si>
   <si>
     <t xml:space="preserve">10.1021242141724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279144287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333414077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.059136390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623067855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084650039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1880979537964</t>
+    <t xml:space="preserve">10.1279153823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333423614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0591344833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623058319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.308464050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1881008148193</t>
   </si>
   <si>
     <t xml:space="preserve">9.84419631958008</t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">9.85279369354248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.231086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075521469116</t>
+    <t xml:space="preserve">10.2310857772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075511932373</t>
   </si>
   <si>
     <t xml:space="preserve">10.274073600769</t>
@@ -446,187 +446,187 @@
     <t xml:space="preserve">10.4460248947144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6351718902588</t>
+    <t xml:space="preserve">10.6351709365845</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867570877075</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9618787765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0736474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0220613479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768178939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198066711426</t>
+    <t xml:space="preserve">10.6695613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.961877822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0736455917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0220603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768169403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198047637939</t>
   </si>
   <si>
     <t xml:space="preserve">11.4433422088623</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6066942214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302297592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7528533935547</t>
+    <t xml:space="preserve">11.6066951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302326202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.752854347229</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614507675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873218536377</t>
+    <t xml:space="preserve">11.7614517211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8732204437256</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505968093872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9849853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107803344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.838828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700490951538</t>
+    <t xml:space="preserve">11.9849863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926698684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786455154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975378036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.867449760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8499708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9723148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.243221282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5403451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2344846725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3218717575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1733112335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286203384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849248886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247507095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946598052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1383543014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2170038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257442474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082662582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208772659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897937774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684442520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985322952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422258377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0771827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1033983230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8936653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062753677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800588607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7451047897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014083862305</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926708221436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786455154419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024047851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.867449760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8499717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9723148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597047805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859203338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966516494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5403461456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2344827651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3218717575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286193847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849267959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247478485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946617126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.138355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2170038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257432937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635772705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208763122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897928237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985322952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422267913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0771827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033983230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8936653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062763214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800579071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7451038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5353689193726</t>
+    <t xml:space="preserve">11.5353698730469</t>
   </si>
   <si>
     <t xml:space="preserve">11.5266304016113</t>
@@ -635,10 +635,10 @@
     <t xml:space="preserve">11.4479808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3955459594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605918884277</t>
+    <t xml:space="preserve">11.395546913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605909347534</t>
   </si>
   <si>
     <t xml:space="preserve">11.3518524169922</t>
@@ -647,37 +647,37 @@
     <t xml:space="preserve">11.2732019424438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2207689285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431119918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906799316406</t>
+    <t xml:space="preserve">11.2207679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431129455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906808853149</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984239578247</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2295074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.18581199646</t>
+    <t xml:space="preserve">11.2295083999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1858129501343</t>
   </si>
   <si>
     <t xml:space="preserve">11.2469844818115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2994184494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.369330406189</t>
+    <t xml:space="preserve">11.2994194030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3693294525146</t>
   </si>
   <si>
     <t xml:space="preserve">11.4829368591309</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6227579116821</t>
+    <t xml:space="preserve">11.6227588653564</t>
   </si>
   <si>
     <t xml:space="preserve">11.710147857666</t>
@@ -686,46 +686,46 @@
     <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256359100342</t>
+    <t xml:space="preserve">11.4567193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256349563599</t>
   </si>
   <si>
     <t xml:space="preserve">11.4305019378662</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168964385986</t>
+    <t xml:space="preserve">11.3168973922729</t>
   </si>
   <si>
     <t xml:space="preserve">11.2032909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5878028869629</t>
+    <t xml:space="preserve">11.5878047943115</t>
   </si>
   <si>
     <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4042873382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091524124146</t>
+    <t xml:space="preserve">11.4042863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091533660889</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159029006958</t>
   </si>
   <si>
-    <t xml:space="preserve">11.124641418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683349609375</t>
+    <t xml:space="preserve">11.1246395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683340072632</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88371562957764</t>
+    <t xml:space="preserve">9.883713722229</t>
   </si>
   <si>
     <t xml:space="preserve">9.1496467590332</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">9.35064125061035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51668071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63028621673584</t>
+    <t xml:space="preserve">9.51668167114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63028717041016</t>
   </si>
   <si>
     <t xml:space="preserve">9.6477632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73515224456787</t>
+    <t xml:space="preserve">9.73515319824219</t>
   </si>
   <si>
     <t xml:space="preserve">9.74389171600342</t>
@@ -752,16 +752,16 @@
     <t xml:space="preserve">9.83128070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70893478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53415870666504</t>
+    <t xml:space="preserve">9.70893573760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53415775299072</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3943338394165</t>
+    <t xml:space="preserve">9.39433479309082</t>
   </si>
   <si>
     <t xml:space="preserve">9.43803024291992</t>
@@ -770,37 +770,37 @@
     <t xml:space="preserve">9.55163478851318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42055225372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37685680389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26325225830078</t>
+    <t xml:space="preserve">9.42055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37685585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26325130462646</t>
   </si>
   <si>
     <t xml:space="preserve">9.1583833694458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3419017791748</t>
+    <t xml:space="preserve">9.34190082550049</t>
   </si>
   <si>
     <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84002113342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632472991943</t>
+    <t xml:space="preserve">9.84001922607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632568359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7875862121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380081176758</t>
+    <t xml:space="preserve">9.78758716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380367279053</t>
   </si>
   <si>
     <t xml:space="preserve">9.9011926651001</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">9.22829627990723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07099533081055</t>
+    <t xml:space="preserve">9.07099628448486</t>
   </si>
   <si>
     <t xml:space="preserve">9.28072834014893</t>
@@ -824,61 +824,61 @@
     <t xml:space="preserve">9.97984313964844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87497520446777</t>
+    <t xml:space="preserve">9.87497615814209</t>
   </si>
   <si>
     <t xml:space="preserve">10.0497531890869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91867065429688</t>
+    <t xml:space="preserve">9.91866970062256</t>
   </si>
   <si>
     <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63902378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767330169678</t>
+    <t xml:space="preserve">9.63902473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
     <t xml:space="preserve">9.72641468048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61280918121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56911182403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68272018432617</t>
+    <t xml:space="preserve">9.61280822753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56911373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271923065186</t>
   </si>
   <si>
     <t xml:space="preserve">9.30694675445557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36811828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650272369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060586929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586135864258</t>
+    <t xml:space="preserve">9.3681173324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060596466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586231231689</t>
   </si>
   <si>
     <t xml:space="preserve">9.13216686248779</t>
@@ -890,37 +890,37 @@
     <t xml:space="preserve">8.8263053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00108432769775</t>
+    <t xml:space="preserve">9.00108337402344</t>
   </si>
   <si>
     <t xml:space="preserve">8.91369438171387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86999988555908</t>
+    <t xml:space="preserve">8.8700008392334</t>
   </si>
   <si>
     <t xml:space="preserve">8.73891639709473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72143840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7826099395752</t>
+    <t xml:space="preserve">8.72143745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78261089324951</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161544799805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19656658172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24120998382568</t>
+    <t xml:space="preserve">9.19656562805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.15192317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727882385254</t>
+    <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263637542725</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">9.01799297332764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97334861755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.892991065979</t>
+    <t xml:space="preserve">8.97335052490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">8.83941841125488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75013065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71441650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78584480285645</t>
+    <t xml:space="preserve">8.75013160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71441745758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
     <t xml:space="preserve">8.73227310180664</t>
@@ -956,25 +956,25 @@
     <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82156181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87513160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66084384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155704498291</t>
+    <t xml:space="preserve">8.82155895233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87513256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66084289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155799865723</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655513763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084003448486</t>
+    <t xml:space="preserve">8.44655609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084098815918</t>
   </si>
   <si>
     <t xml:space="preserve">8.91084671020508</t>
@@ -986,34 +986,34 @@
     <t xml:space="preserve">8.9287052154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80370235443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37514019012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907135009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442890167236</t>
+    <t xml:space="preserve">8.80370330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37514114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50907230377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442794799805</t>
   </si>
   <si>
     <t xml:space="preserve">9.3304967880249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28585243225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58941268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53584289550781</t>
+    <t xml:space="preserve">9.28585338592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58941459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5358419418335</t>
   </si>
   <si>
     <t xml:space="preserve">8.62512874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441268920898</t>
+    <t xml:space="preserve">8.46441173553467</t>
   </si>
   <si>
     <t xml:space="preserve">8.35726737976074</t>
@@ -1022,10 +1022,10 @@
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30369567871094</t>
+    <t xml:space="preserve">8.2501220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30369663238525</t>
   </si>
   <si>
     <t xml:space="preserve">8.28583812713623</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">8.37512493133545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5001277923584</t>
+    <t xml:space="preserve">8.50012683868408</t>
   </si>
   <si>
     <t xml:space="preserve">8.64298725128174</t>
@@ -1046,64 +1046,64 @@
     <t xml:space="preserve">9.41978454589844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.776930809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73228740692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680110931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126554489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572969436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4912281036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4465856552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5358724594116</t>
+    <t xml:space="preserve">9.55371475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77693271636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7322883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680101394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126544952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572978973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.491229057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4465847015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5358715057373</t>
   </si>
   <si>
     <t xml:space="preserve">10.4019403457642</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
+    <t xml:space="preserve">10.5805168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698017120361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065948486328</t>
+    <t xml:space="preserve">10.8065958023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8521928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330114364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3962173461914</t>
+    <t xml:space="preserve">10.8521919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330104827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3962163925171</t>
   </si>
   <si>
     <t xml:space="preserve">10.213828086853</t>
@@ -1115,31 +1115,31 @@
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4874124526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418163299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506212234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.122633934021</t>
+    <t xml:space="preserve">10.4874114990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418153762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506202697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1226348876953</t>
   </si>
   <si>
     <t xml:space="preserve">10.2594261169434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0770349502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0314388275146</t>
+    <t xml:space="preserve">10.0770359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.031439781189</t>
   </si>
   <si>
     <t xml:space="preserve">10.3050231933594</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1682300567627</t>
+    <t xml:space="preserve">10.168231010437</t>
   </si>
   <si>
     <t xml:space="preserve">9.89464664459229</t>
@@ -1148,19 +1148,19 @@
     <t xml:space="preserve">9.84904956817627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48426723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43867301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986717224121</t>
+    <t xml:space="preserve">9.48426914215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43867206573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986621856689</t>
   </si>
   <si>
     <t xml:space="preserve">9.62106227874756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75785350799561</t>
+    <t xml:space="preserve">9.75785446166992</t>
   </si>
   <si>
     <t xml:space="preserve">9.66665935516357</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25628185272217</t>
+    <t xml:space="preserve">9.25628089904785</t>
   </si>
   <si>
     <t xml:space="preserve">9.16508674621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30187892913818</t>
+    <t xml:space="preserve">9.3018798828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.21068572998047</t>
@@ -1184,19 +1184,19 @@
     <t xml:space="preserve">9.39307403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11949062347412</t>
+    <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225643157959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80345058441162</t>
+    <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
     <t xml:space="preserve">9.9402437210083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1257762908936</t>
+    <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
     <t xml:space="preserve">11.6273488998413</t>
@@ -1205,37 +1205,37 @@
     <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3993625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081665039062</t>
+    <t xml:space="preserve">11.3993616104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081674575806</t>
   </si>
   <si>
     <t xml:space="preserve">11.0801801681519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0345830917358</t>
+    <t xml:space="preserve">11.0345821380615</t>
   </si>
   <si>
     <t xml:space="preserve">11.1713752746582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4449596405029</t>
+    <t xml:space="preserve">11.4449605941772</t>
   </si>
   <si>
     <t xml:space="preserve">11.5817518234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7185440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8553371429443</t>
+    <t xml:space="preserve">11.718544960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.85533618927</t>
   </si>
   <si>
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833234786987</t>
+    <t xml:space="preserve">12.083324432373</t>
   </si>
   <si>
     <t xml:space="preserve">12.3113107681274</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">12.1745195388794</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921283721924</t>
+    <t xml:space="preserve">11.9921293258667</t>
   </si>
   <si>
     <t xml:space="preserve">11.7641410827637</t>
@@ -1253,16 +1253,16 @@
     <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7672853469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1320657730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9952726364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9496755599976</t>
+    <t xml:space="preserve">12.7672863006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1320638656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9952716827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9496746063232</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688570022583</t>
@@ -1274,31 +1274,31 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481029510498</t>
+    <t xml:space="preserve">12.4481019973755</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8128833770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8584794998169</t>
+    <t xml:space="preserve">12.8128843307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8584804534912</t>
   </si>
   <si>
     <t xml:space="preserve">13.0864677429199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9009342193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9433879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7153997421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02829551696777</t>
+    <t xml:space="preserve">11.900933265686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9433870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7154006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02829456329346</t>
   </si>
   <si>
     <t xml:space="preserve">8.09810638427734</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6421332359314</t>
+    <t xml:space="preserve">7.64213228225708</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66351509094238</t>
+    <t xml:space="preserve">8.6635160446167</t>
   </si>
   <si>
     <t xml:space="preserve">8.07986736297607</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73647117614746</t>
+    <t xml:space="preserve">8.73647022247314</t>
   </si>
   <si>
     <t xml:space="preserve">8.79118824005127</t>
@@ -1331,16 +1331,16 @@
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34747695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0847988128662</t>
+    <t xml:space="preserve">9.3474760055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0847978591919</t>
   </si>
   <si>
     <t xml:space="preserve">9.94473075866699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0381078720093</t>
+    <t xml:space="preserve">10.0381088256836</t>
   </si>
   <si>
     <t xml:space="preserve">9.80466461181641</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99141979217529</t>
+    <t xml:space="preserve">9.99142074584961</t>
   </si>
   <si>
     <t xml:space="preserve">10.2715539932251</t>
@@ -1370,28 +1370,28 @@
     <t xml:space="preserve">10.7384405136108</t>
   </si>
   <si>
-    <t xml:space="preserve">11.018575668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8318185806274</t>
+    <t xml:space="preserve">11.0185747146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
     <t xml:space="preserve">11.1586408615112</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7851314544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9251976013184</t>
+    <t xml:space="preserve">10.7851305007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.925196647644</t>
   </si>
   <si>
     <t xml:space="preserve">10.6450624465942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2987089157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.485463142395</t>
+    <t xml:space="preserve">11.2987079620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4854640960693</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
@@ -1400,31 +1400,31 @@
     <t xml:space="preserve">11.3453969955444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053308486938</t>
+    <t xml:space="preserve">11.2053298950195</t>
   </si>
   <si>
     <t xml:space="preserve">11.438775062561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1119527816772</t>
+    <t xml:space="preserve">11.1119518280029</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520198822021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9718856811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652637481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5788402557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6255311965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3920850753784</t>
+    <t xml:space="preserve">10.9718866348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652647018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5788421630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6255302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
     <t xml:space="preserve">11.532154083252</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391086578369</t>
+    <t xml:space="preserve">12.1391077041626</t>
   </si>
   <si>
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857976913452</t>
+    <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
     <t xml:space="preserve">12.2791748046875</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.999041557312</t>
+    <t xml:space="preserve">11.9990425109863</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">12.0924196243286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8122854232788</t>
+    <t xml:space="preserve">11.8122863769531</t>
   </si>
   <si>
     <t xml:space="preserve">12.3258628845215</t>
@@ -1475,28 +1475,28 @@
     <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9795074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2596416473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0728855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.119574546814</t>
+    <t xml:space="preserve">12.9795083999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2596406936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.07288646698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1195755004883</t>
   </si>
   <si>
     <t xml:space="preserve">13.3997077941895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4463968276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3063297271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3530197143555</t>
+    <t xml:space="preserve">13.4463958740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3063287734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3530187606812</t>
   </si>
   <si>
     <t xml:space="preserve">13.5864629745483</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">13.4930849075317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1662626266479</t>
+    <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
     <t xml:space="preserve">13.9132852554321</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.559308052063</t>
+    <t xml:space="preserve">12.5593090057373</t>
   </si>
   <si>
     <t xml:space="preserve">13.0261964797974</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">12.9328193664551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8394403457642</t>
+    <t xml:space="preserve">12.8394412994385</t>
   </si>
   <si>
     <t xml:space="preserve">13.5397748947144</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">14.7069959640503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9404411315918</t>
+    <t xml:space="preserve">14.9404401779175</t>
   </si>
   <si>
     <t xml:space="preserve">14.8937511444092</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2672634124756</t>
+    <t xml:space="preserve">15.2672643661499</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">14.1934185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5202407836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665971755981</t>
+    <t xml:space="preserve">14.5202417373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665962219238</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066633224487</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">15.1621971130371</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3998498916626</t>
+    <t xml:space="preserve">15.3998508453369</t>
   </si>
   <si>
     <t xml:space="preserve">15.3523187637329</t>
@@ -1643,25 +1643,25 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424394607544</t>
+    <t xml:space="preserve">15.542441368103</t>
   </si>
   <si>
     <t xml:space="preserve">14.9720754623413</t>
   </si>
   <si>
-    <t xml:space="preserve">15.019606590271</t>
+    <t xml:space="preserve">15.0196056365967</t>
   </si>
   <si>
     <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7325601577759</t>
+    <t xml:space="preserve">15.7325620651245</t>
   </si>
   <si>
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226837158203</t>
+    <t xml:space="preserve">15.9226818084717</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1676,16 +1676,16 @@
     <t xml:space="preserve">16.0177440643311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3504581451416</t>
+    <t xml:space="preserve">16.350456237793</t>
   </si>
   <si>
     <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7782306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1109428405762</t>
+    <t xml:space="preserve">16.7782325744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1109447479248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">16.8257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4455184936523</t>
+    <t xml:space="preserve">16.4455165863037</t>
   </si>
   <si>
     <t xml:space="preserve">17.5387191772461</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8732929229736</t>
+    <t xml:space="preserve">16.873291015625</t>
   </si>
   <si>
     <t xml:space="preserve">17.348596572876</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">17.7763710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.871431350708</t>
+    <t xml:space="preserve">17.8714294433594</t>
   </si>
   <si>
     <t xml:space="preserve">18.299201965332</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">19.0121593475342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2022819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0578269958496</t>
+    <t xml:space="preserve">19.2022838592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0578289031982</t>
   </si>
   <si>
     <t xml:space="preserve">19.8677062988281</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924007415771</t>
+    <t xml:space="preserve">19.3924026489258</t>
   </si>
   <si>
     <t xml:space="preserve">19.9627666473389</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1528911590576</t>
+    <t xml:space="preserve">19.7726459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.152889251709</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">21.2936172485352</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5788021087646</t>
+    <t xml:space="preserve">21.578800201416</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0541038513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3392868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6244697570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8145923614502</t>
+    <t xml:space="preserve">22.054105758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3392887115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6244678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8145904541016</t>
   </si>
   <si>
     <t xml:space="preserve">21.9590435028076</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">21.8639812469482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5331344604492</t>
+    <t xml:space="preserve">20.5331325531006</t>
   </si>
   <si>
     <t xml:space="preserve">18.5843849182129</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837398529053</t>
+    <t xml:space="preserve">21.4837417602539</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1835,19 +1835,19 @@
     <t xml:space="preserve">20.3430118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0047149658203</t>
+    <t xml:space="preserve">23.0047130584717</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7195301055908</t>
+    <t xml:space="preserve">22.7195281982422</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7232532501221</t>
+    <t xml:space="preserve">20.7232513427734</t>
   </si>
   <si>
     <t xml:space="preserve">21.1985569000244</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">18.6319160461426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2060050964355</t>
+    <t xml:space="preserve">17.2060070037842</t>
   </si>
   <si>
     <t xml:space="preserve">17.9189605712891</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337757110596</t>
+    <t xml:space="preserve">17.6337776184082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">18.5368556976318</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1547508239746</t>
+    <t xml:space="preserve">19.154748916626</t>
   </si>
   <si>
     <t xml:space="preserve">18.9170989990234</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3847599029541</t>
+    <t xml:space="preserve">18.2136478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3847579956055</t>
   </si>
   <si>
     <t xml:space="preserve">19.2498111724854</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8143920898438</t>
+    <t xml:space="preserve">17.8143939971924</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
@@ -2904,6 +2904,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.6499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3500003814697</t>
   </si>
 </sst>
 </file>
@@ -59873,7 +59876,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6493402778</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>8729</v>
@@ -59894,6 +59897,32 @@
         <v>963</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6496064815</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>5859</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>25.7000007629395</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>25.6499996185303</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>25.3500003814697</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>964</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262744903564</t>
+    <t xml:space="preserve">8.42262649536133</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947219848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578174591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21206188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31734466552734</t>
+    <t xml:space="preserve">8.43947124481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578269958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21206092834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31734371185303</t>
   </si>
   <si>
     <t xml:space="preserve">8.19521522521973</t>
@@ -65,19 +65,19 @@
     <t xml:space="preserve">8.29207706451416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15731525421143</t>
+    <t xml:space="preserve">8.15731430053711</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18679332733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625907897949</t>
+    <t xml:space="preserve">8.18679428100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625812530518</t>
   </si>
   <si>
     <t xml:space="preserve">8.11520099639893</t>
@@ -86,52 +86,52 @@
     <t xml:space="preserve">8.03518486022949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03097343444824</t>
+    <t xml:space="preserve">8.03097438812256</t>
   </si>
   <si>
     <t xml:space="preserve">8.02676296234131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00149440765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780586242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145124435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619691848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356454849243</t>
+    <t xml:space="preserve">8.00149631500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307298660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780443191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145029067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304309844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619834899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356311798096</t>
   </si>
   <si>
     <t xml:space="preserve">7.73197174072266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66880083084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66458988189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881792068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357877731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203151702881</t>
+    <t xml:space="preserve">7.66880130767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459083557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881601333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357782363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203247070312</t>
   </si>
   <si>
     <t xml:space="preserve">8.22048473358154</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">8.16994762420654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30471038818359</t>
+    <t xml:space="preserve">8.30470848083496</t>
   </si>
   <si>
     <t xml:space="preserve">8.25417518615723</t>
@@ -149,28 +149,28 @@
     <t xml:space="preserve">8.11941242218018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33839988708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4815845489502</t>
+    <t xml:space="preserve">8.07730102539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48158359527588</t>
   </si>
   <si>
     <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155513763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42560005187988</t>
+    <t xml:space="preserve">8.41420555114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560195922852</t>
   </si>
   <si>
     <t xml:space="preserve">8.48578357696533</t>
@@ -185,25 +185,25 @@
     <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3267297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2536506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645305633545</t>
+    <t xml:space="preserve">8.32672882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25364875793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645401000977</t>
   </si>
   <si>
     <t xml:space="preserve">8.33962440490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33102798461914</t>
+    <t xml:space="preserve">8.33102703094482</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32242965698242</t>
+    <t xml:space="preserve">8.32242870330811</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261318206787</t>
@@ -212,55 +212,55 @@
     <t xml:space="preserve">8.21066188812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22785758972168</t>
+    <t xml:space="preserve">8.22785663604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.16767406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08169937133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03871059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572229385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273447036743</t>
+    <t xml:space="preserve">8.08169746398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03871154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572277069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273494720459</t>
   </si>
   <si>
     <t xml:space="preserve">8.24505233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05160713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675977706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377099990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694330215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90974760055542</t>
+    <t xml:space="preserve">8.05160617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377243041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590534210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974712371826</t>
   </si>
   <si>
     <t xml:space="preserve">7.73779726028442</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78078317642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133279800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383228302002</t>
+    <t xml:space="preserve">7.78078413009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383323669434</t>
   </si>
   <si>
     <t xml:space="preserve">8.5975513458252</t>
@@ -275,22 +275,22 @@
     <t xml:space="preserve">8.7265157699585</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91566181182861</t>
+    <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
     <t xml:space="preserve">8.84688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63194179534912</t>
+    <t xml:space="preserve">8.63194274902344</t>
   </si>
   <si>
     <t xml:space="preserve">8.66633129119873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59325313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895301818848</t>
+    <t xml:space="preserve">8.59325218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895492553711</t>
   </si>
   <si>
     <t xml:space="preserve">8.68352699279785</t>
@@ -299,19 +299,19 @@
     <t xml:space="preserve">8.70072269439697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94145488739014</t>
+    <t xml:space="preserve">8.9414529800415</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76950263977051</t>
+    <t xml:space="preserve">8.76950359344482</t>
   </si>
   <si>
     <t xml:space="preserve">9.02742862701416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15639114379883</t>
+    <t xml:space="preserve">9.15639209747314</t>
   </si>
   <si>
     <t xml:space="preserve">9.2337703704834</t>
@@ -326,43 +326,43 @@
     <t xml:space="preserve">9.41431903839111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32834339141846</t>
+    <t xml:space="preserve">9.32834434509277</t>
   </si>
   <si>
     <t xml:space="preserve">9.31974601745605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20797729492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517204284668</t>
+    <t xml:space="preserve">9.20797824859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22517108917236</t>
   </si>
   <si>
     <t xml:space="preserve">9.44011116027832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45730686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962520599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5432825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925815582275</t>
+    <t xml:space="preserve">9.45730781555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956249237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328155517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925910949707</t>
   </si>
   <si>
     <t xml:space="preserve">9.52608680725098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67224502563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62065982818604</t>
+    <t xml:space="preserve">9.67224407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6206579208374</t>
   </si>
   <si>
     <t xml:space="preserve">9.58627033233643</t>
@@ -371,49 +371,49 @@
     <t xml:space="preserve">9.68084335327148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71523475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206245422363</t>
+    <t xml:space="preserve">9.71523284912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206436157227</t>
   </si>
   <si>
     <t xml:space="preserve">9.5518798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65504932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718509674072</t>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65505027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663738250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718318939209</t>
   </si>
   <si>
     <t xml:space="preserve">10.2138929367065</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4030380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826719284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451110839844</t>
+    <t xml:space="preserve">10.4030361175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826709747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451120376587</t>
   </si>
   <si>
     <t xml:space="preserve">10.102123260498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279163360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0591344833374</t>
+    <t xml:space="preserve">10.1279134750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333414077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0591354370117</t>
   </si>
   <si>
     <t xml:space="preserve">10.1623048782349</t>
@@ -422,19 +422,19 @@
     <t xml:space="preserve">10.308464050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1880979537964</t>
+    <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
     <t xml:space="preserve">9.84419536590576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87858772277832</t>
+    <t xml:space="preserve">9.87858581542969</t>
   </si>
   <si>
     <t xml:space="preserve">9.8527946472168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2310857772827</t>
+    <t xml:space="preserve">10.231086730957</t>
   </si>
   <si>
     <t xml:space="preserve">10.007550239563</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">10.4460248947144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6351709365845</t>
+    <t xml:space="preserve">10.6351718902588</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867570877075</t>
@@ -455,25 +455,25 @@
     <t xml:space="preserve">10.6695613861084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9618768692017</t>
+    <t xml:space="preserve">10.9618787765503</t>
   </si>
   <si>
     <t xml:space="preserve">11.0736474990845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0220623016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768169403076</t>
+    <t xml:space="preserve">11.0220603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768159866333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2198057174683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.443341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066932678223</t>
+    <t xml:space="preserve">11.4433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066942214966</t>
   </si>
   <si>
     <t xml:space="preserve">11.8302307128906</t>
@@ -488,112 +488,112 @@
     <t xml:space="preserve">11.7614507675171</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8732204437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505958557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388299942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700471878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7786436080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975358963013</t>
+    <t xml:space="preserve">11.873218536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.838828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700490951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786455154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975368499756</t>
   </si>
   <si>
     <t xml:space="preserve">11.9024047851562</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8674468994141</t>
+    <t xml:space="preserve">11.867449760437</t>
   </si>
   <si>
     <t xml:space="preserve">11.8499717712402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9723138809204</t>
+    <t xml:space="preserve">11.9723148345947</t>
   </si>
   <si>
     <t xml:space="preserve">12.0597047805786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0859222412109</t>
+    <t xml:space="preserve">12.0859203338623</t>
   </si>
   <si>
     <t xml:space="preserve">12.243221282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4966516494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5403451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2344827651978</t>
+    <t xml:space="preserve">12.4966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5403461456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2344837188721</t>
   </si>
   <si>
     <t xml:space="preserve">12.3218717575073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849258422852</t>
+    <t xml:space="preserve">12.1733112335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286203384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849267959595</t>
   </si>
   <si>
     <t xml:space="preserve">12.0247488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0946598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1383562088013</t>
+    <t xml:space="preserve">12.0946607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1383543014526</t>
   </si>
   <si>
     <t xml:space="preserve">12.2170038223267</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2257442474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082662582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897937774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684442520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509653091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985313415527</t>
+    <t xml:space="preserve">12.2257432937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635772705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897928237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985322952271</t>
   </si>
   <si>
     <t xml:space="preserve">12.0422258377075</t>
@@ -602,70 +602,70 @@
     <t xml:space="preserve">12.0771827697754</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1033992767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8936643600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412313461304</t>
+    <t xml:space="preserve">12.1033983230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8936653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412322998047</t>
   </si>
   <si>
     <t xml:space="preserve">11.8062763214111</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800588607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7451028823853</t>
+    <t xml:space="preserve">11.7800579071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7451038360596</t>
   </si>
   <si>
     <t xml:space="preserve">11.7014083862305</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5353689193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.526629447937</t>
+    <t xml:space="preserve">11.5353698730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5266304016113</t>
   </si>
   <si>
     <t xml:space="preserve">11.4479808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.395546913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605909347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518514633179</t>
+    <t xml:space="preserve">11.3955459594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518524169922</t>
   </si>
   <si>
     <t xml:space="preserve">11.2732019424438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2207679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431148529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984239578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2295083999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1858129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994194030762</t>
+    <t xml:space="preserve">11.2207689285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431129455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.098424911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2295093536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.18581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469844818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994184494019</t>
   </si>
   <si>
     <t xml:space="preserve">11.3693294525146</t>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">11.710147857666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5790634155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4567193984985</t>
+    <t xml:space="preserve">11.579065322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4567184448242</t>
   </si>
   <si>
     <t xml:space="preserve">11.3256359100342</t>
@@ -692,46 +692,46 @@
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168973922729</t>
+    <t xml:space="preserve">11.3168964385986</t>
   </si>
   <si>
     <t xml:space="preserve">11.2032909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5878019332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868083953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091533660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1159029006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.124641418457</t>
+    <t xml:space="preserve">11.5878038406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868074417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042873382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091524124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1159019470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1246404647827</t>
   </si>
   <si>
     <t xml:space="preserve">11.1683349609375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2557258605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88371467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14964580535889</t>
+    <t xml:space="preserve">11.2557249069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88371562957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1496467590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.35064029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51667881011963</t>
+    <t xml:space="preserve">9.51668167114258</t>
   </si>
   <si>
     <t xml:space="preserve">9.63028621673584</t>
@@ -740,19 +740,19 @@
     <t xml:space="preserve">9.64776420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7438907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8312816619873</t>
+    <t xml:space="preserve">9.73515224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74389171600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83127975463867</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53415679931641</t>
+    <t xml:space="preserve">9.53415775299072</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172473907471</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">9.55163478851318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42055130004883</t>
+    <t xml:space="preserve">9.42055225372314</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685585021973</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">9.1583833694458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34189987182617</t>
+    <t xml:space="preserve">9.34190082550049</t>
   </si>
   <si>
     <t xml:space="preserve">9.40307426452637</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">9.84002017974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79632472991943</t>
+    <t xml:space="preserve">9.79632568359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.80506420135498</t>
@@ -806,31 +806,31 @@
     <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22829627990723</t>
+    <t xml:space="preserve">9.22829532623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984218597412</t>
+    <t xml:space="preserve">9.28072834014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451183319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984313964844</t>
   </si>
   <si>
     <t xml:space="preserve">9.87497520446777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0497541427612</t>
+    <t xml:space="preserve">10.0497531890869</t>
   </si>
   <si>
     <t xml:space="preserve">9.91867065429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67397975921631</t>
+    <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
     <t xml:space="preserve">9.63902473449707</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72641277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61280822753906</t>
+    <t xml:space="preserve">9.72641468048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61280918121338</t>
   </si>
   <si>
     <t xml:space="preserve">9.56911373138428</t>
@@ -851,28 +851,28 @@
     <t xml:space="preserve">9.68271827697754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30694484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3681173324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019817352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650272369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060596466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847427368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.219557762146</t>
+    <t xml:space="preserve">9.30694580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36811828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019721984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060586929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
     <t xml:space="preserve">9.17586231231689</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">9.13216686248779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95738983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82630634307861</t>
+    <t xml:space="preserve">8.95738887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263053894043</t>
   </si>
   <si>
     <t xml:space="preserve">9.00108432769775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91369438171387</t>
+    <t xml:space="preserve">8.91369533538818</t>
   </si>
   <si>
     <t xml:space="preserve">8.8700008392334</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">8.73891639709473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72143745422363</t>
+    <t xml:space="preserve">8.72143840789795</t>
   </si>
   <si>
     <t xml:space="preserve">8.7826099395752</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">9.15192317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727882385254</t>
+    <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263637542725</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">9.01799297332764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97334766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89299011230469</t>
+    <t xml:space="preserve">8.97334861755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.892991065979</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
@@ -938,13 +938,13 @@
     <t xml:space="preserve">8.83941841125488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75013065338135</t>
+    <t xml:space="preserve">8.75013160705566</t>
   </si>
   <si>
     <t xml:space="preserve">8.71441650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78584671020508</t>
+    <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
     <t xml:space="preserve">8.73227310180664</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82156085968018</t>
+    <t xml:space="preserve">8.82155990600586</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">8.66084384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57155799865723</t>
+    <t xml:space="preserve">8.57155704498291</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084098815918</t>
+    <t xml:space="preserve">8.44655513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084003448486</t>
   </si>
   <si>
     <t xml:space="preserve">8.91084671020508</t>
@@ -983,34 +983,34 @@
     <t xml:space="preserve">8.9287052154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80370330810547</t>
+    <t xml:space="preserve">8.80370235443115</t>
   </si>
   <si>
     <t xml:space="preserve">9.37514019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50907039642334</t>
+    <t xml:space="preserve">9.50907135009766</t>
   </si>
   <si>
     <t xml:space="preserve">9.46442890167236</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33049583435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28585433959961</t>
+    <t xml:space="preserve">9.3304967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28585338592529</t>
   </si>
   <si>
     <t xml:space="preserve">8.5894136428833</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5358419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62513065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46441173553467</t>
+    <t xml:space="preserve">8.53584289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62512969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46441268920898</t>
   </si>
   <si>
     <t xml:space="preserve">8.35726737976074</t>
@@ -1019,28 +1019,28 @@
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25012302398682</t>
+    <t xml:space="preserve">8.25012397766113</t>
   </si>
   <si>
     <t xml:space="preserve">8.30369567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583717346191</t>
+    <t xml:space="preserve">8.28583812713623</t>
   </si>
   <si>
     <t xml:space="preserve">8.33940982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37512588500977</t>
+    <t xml:space="preserve">8.37512493133545</t>
   </si>
   <si>
     <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64298725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41978454589844</t>
+    <t xml:space="preserve">8.64298629760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41978549957275</t>
   </si>
   <si>
     <t xml:space="preserve">9.55371475219727</t>
@@ -1052,22 +1052,22 @@
     <t xml:space="preserve">9.73228740692139</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0447940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680110931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126544952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572988510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.491229057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4465847015381</t>
+    <t xml:space="preserve">10.0447931289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680101394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126554489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572978973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912281036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4465837478638</t>
   </si>
   <si>
     <t xml:space="preserve">10.5358724594116</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">10.4019403457642</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805149078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
+    <t xml:space="preserve">10.5805158615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">10.8521919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7609977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330104827881</t>
+    <t xml:space="preserve">10.7609987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330114364624</t>
   </si>
   <si>
     <t xml:space="preserve">10.3962173461914</t>
@@ -1106,28 +1106,28 @@
     <t xml:space="preserve">10.2138290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5786085128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874134063721</t>
+    <t xml:space="preserve">10.5786075592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4874114990234</t>
   </si>
   <si>
     <t xml:space="preserve">10.4418153762817</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3506212234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1226348876953</t>
+    <t xml:space="preserve">10.350622177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.122633934021</t>
   </si>
   <si>
     <t xml:space="preserve">10.2594261169434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0770359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0314388275146</t>
+    <t xml:space="preserve">10.0770349502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.031439781189</t>
   </si>
   <si>
     <t xml:space="preserve">10.3050231933594</t>
@@ -1136,49 +1136,49 @@
     <t xml:space="preserve">10.1682300567627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89464664459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84904956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4842700958252</t>
+    <t xml:space="preserve">9.89464569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84905052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48426914215088</t>
   </si>
   <si>
     <t xml:space="preserve">9.43867301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52986526489258</t>
+    <t xml:space="preserve">9.52986621856689</t>
   </si>
   <si>
     <t xml:space="preserve">9.62106227874756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75785446166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66666030883789</t>
+    <t xml:space="preserve">9.75785350799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66665935516357</t>
   </si>
   <si>
     <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25628280639648</t>
+    <t xml:space="preserve">9.25628089904785</t>
   </si>
   <si>
     <t xml:space="preserve">9.1650857925415</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21068477630615</t>
+    <t xml:space="preserve">9.3018798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21068572998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.39307498931885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1194896697998</t>
+    <t xml:space="preserve">9.11949062347412</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225547790527</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94024276733398</t>
+    <t xml:space="preserve">9.9402437210083</t>
   </si>
   <si>
     <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
-    <t xml:space="preserve">11.627347946167</t>
+    <t xml:space="preserve">11.6273488998413</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">11.3081665039062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0801792144775</t>
+    <t xml:space="preserve">11.0801801681519</t>
   </si>
   <si>
     <t xml:space="preserve">11.0345821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713752746582</t>
+    <t xml:space="preserve">11.1713762283325</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449596405029</t>
@@ -1229,22 +1229,22 @@
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833234786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113098144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1745185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9921283721924</t>
+    <t xml:space="preserve">12.0833253860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113107681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1745195388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9921293258667</t>
   </si>
   <si>
     <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4936990737915</t>
+    <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
@@ -1253,13 +1253,13 @@
     <t xml:space="preserve">13.1320648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9952735900879</t>
+    <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
     <t xml:space="preserve">12.9496755599976</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688579559326</t>
+    <t xml:space="preserve">13.2688570022583</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304931640625</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481039047241</t>
+    <t xml:space="preserve">12.4481019973755</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
@@ -1277,22 +1277,22 @@
     <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8584794998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0864686965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9009342193604</t>
+    <t xml:space="preserve">12.8584804534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0864677429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9009351730347</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7154006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02829456329346</t>
+    <t xml:space="preserve">10.7153997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02829551696777</t>
   </si>
   <si>
     <t xml:space="preserve">8.09810638427734</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64213228225708</t>
+    <t xml:space="preserve">7.64213275909424</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34747695922852</t>
+    <t xml:space="preserve">9.34747505187988</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847988128662</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">10.2715539932251</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89804363250732</t>
+    <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
     <t xml:space="preserve">10.5516862869263</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">10.8785076141357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7384414672852</t>
+    <t xml:space="preserve">10.7384405136108</t>
   </si>
   <si>
     <t xml:space="preserve">11.018575668335</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1586418151855</t>
+    <t xml:space="preserve">11.1586408615112</t>
   </si>
   <si>
     <t xml:space="preserve">10.7851314544678</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">11.1119518280029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2520189285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9718866348267</t>
+    <t xml:space="preserve">11.2520198822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9718856811523</t>
   </si>
   <si>
     <t xml:space="preserve">11.0652637481689</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857967376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2791738510132</t>
+    <t xml:space="preserve">12.1857986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.999041557312</t>
+    <t xml:space="preserve">11.9990425109863</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924186706543</t>
+    <t xml:space="preserve">12.0924196243286</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3258638381958</t>
+    <t xml:space="preserve">12.3258628845215</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">13.119574546814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3997087478638</t>
+    <t xml:space="preserve">13.3997077941895</t>
   </si>
   <si>
     <t xml:space="preserve">13.4463968276978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3063306808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3530197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864639282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930858612061</t>
+    <t xml:space="preserve">13.3063297271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3530187606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864629745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930849075317</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
@@ -1511,10 +1511,10 @@
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5593070983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.026195526123</t>
+    <t xml:space="preserve">12.559308052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0261964797974</t>
   </si>
   <si>
     <t xml:space="preserve">12.9328193664551</t>
@@ -1529,28 +1529,28 @@
     <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0533533096313</t>
+    <t xml:space="preserve">14.053352355957</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801736831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5669298171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3334856033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7069969177246</t>
+    <t xml:space="preserve">14.3801746368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.566930770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3334846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069959640503</t>
   </si>
   <si>
     <t xml:space="preserve">14.9404411315918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8937520980835</t>
+    <t xml:space="preserve">14.8937511444092</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338182449341</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">14.7536849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8470630645752</t>
+    <t xml:space="preserve">14.8470621109009</t>
   </si>
   <si>
     <t xml:space="preserve">14.660306930542</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1934185028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202417373657</t>
+    <t xml:space="preserve">14.1934194564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202407836914</t>
   </si>
   <si>
     <t xml:space="preserve">13.8665971755981</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401084899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.591833114624</t>
+    <t xml:space="preserve">14.2401075363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5918321609497</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">15.2572574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3047876358032</t>
+    <t xml:space="preserve">15.3047885894775</t>
   </si>
   <si>
     <t xml:space="preserve">15.1146669387817</t>
@@ -1637,16 +1637,16 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424404144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.972074508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0196056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4473791122437</t>
+    <t xml:space="preserve">15.5424394607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9720754623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.019606590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
     <t xml:space="preserve">15.7325601577759</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">16.1603355407715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0177459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.350456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0652751922607</t>
+    <t xml:space="preserve">16.0177440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3504581451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
     <t xml:space="preserve">16.7782306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1109447479248</t>
+    <t xml:space="preserve">17.1109428405762</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1688,13 +1688,13 @@
     <t xml:space="preserve">16.8257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4455165863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5387172698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0615501403809</t>
+    <t xml:space="preserve">16.4455184936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5387191772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0615520477295</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">16.8732929229736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3485946655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7763690948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8714294433594</t>
+    <t xml:space="preserve">17.348596572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7763710021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.871431350708</t>
   </si>
   <si>
     <t xml:space="preserve">18.299201965332</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">18.8220367431641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0121574401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2022838592529</t>
+    <t xml:space="preserve">19.0121593475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2022819519043</t>
   </si>
   <si>
     <t xml:space="preserve">20.0578269958496</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924026489258</t>
+    <t xml:space="preserve">19.3924007415771</t>
   </si>
   <si>
     <t xml:space="preserve">19.9627666473389</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.152889251709</t>
+    <t xml:space="preserve">19.7726440429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1528911590576</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.578800201416</t>
+    <t xml:space="preserve">21.2936172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5788021087646</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1491661071777</t>
+    <t xml:space="preserve">21.1034984588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1491641998291</t>
   </si>
   <si>
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.054105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3392887115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6244678497314</t>
+    <t xml:space="preserve">22.0541038513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3392868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6244697570801</t>
   </si>
   <si>
     <t xml:space="preserve">22.8145923614502</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">21.9590435028076</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8639831542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5331325531006</t>
+    <t xml:space="preserve">21.8639812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5331344604492</t>
   </si>
   <si>
     <t xml:space="preserve">18.5843849182129</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9133739471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2442245483398</t>
+    <t xml:space="preserve">20.9133758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2442264556885</t>
   </si>
   <si>
     <t xml:space="preserve">23.0997734069824</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837417602539</t>
+    <t xml:space="preserve">21.4837398529053</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">21.6738605499268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8183155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3430099487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0047130584717</t>
+    <t xml:space="preserve">20.8183135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3430118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0047149658203</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
@@ -1844,13 +1844,13 @@
     <t xml:space="preserve">20.7232532501221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1985549926758</t>
+    <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
     <t xml:space="preserve">19.6775856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1072196960449</t>
+    <t xml:space="preserve">19.1072216033936</t>
   </si>
   <si>
     <t xml:space="preserve">18.6319160461426</t>
@@ -1859,19 +1859,19 @@
     <t xml:space="preserve">17.2060050964355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9189624786377</t>
+    <t xml:space="preserve">17.9189605712891</t>
   </si>
   <si>
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337776184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1566143035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2041416168213</t>
+    <t xml:space="preserve">17.6337757110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1566123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2041435241699</t>
   </si>
   <si>
     <t xml:space="preserve">18.5368556976318</t>
@@ -1889,16 +1889,16 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.726978302002</t>
+    <t xml:space="preserve">18.4988288879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
     <t xml:space="preserve">18.2136497497559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3847579956055</t>
+    <t xml:space="preserve">18.3847599029541</t>
   </si>
   <si>
     <t xml:space="preserve">19.2498111724854</t>
@@ -1916,34 +1916,34 @@
     <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7649993896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8143939971924</t>
+    <t xml:space="preserve">18.7650012969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249195098877</t>
+    <t xml:space="preserve">17.1333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249214172363</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2071990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.703275680542</t>
+    <t xml:space="preserve">19.2072010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7032775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816337585449</t>
+    <t xml:space="preserve">19.3816356658936</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1955,37 +1955,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2265815734863</t>
+    <t xml:space="preserve">19.226583480835</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.350715637207</t>
+    <t xml:space="preserve">20.3507175445557</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.447624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383480072021</t>
+    <t xml:space="preserve">21.2228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383499145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8661766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001861572266</t>
+    <t xml:space="preserve">21.8043403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.866174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001842498779</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239070892334</t>
+    <t xml:space="preserve">19.6239051818848</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723575592041</t>
+    <t xml:space="preserve">18.9746189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538089752197</t>
+    <t xml:space="preserve">20.2538070678711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919727325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.465160369873</t>
+    <t xml:space="preserve">22.1919708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4651584625244</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6105213165283</t>
+    <t xml:space="preserve">21.610523223877</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1569004058838</t>
+    <t xml:space="preserve">20.1568984985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.257963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734203338623</t>
+    <t xml:space="preserve">23.2579612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6765117645264</t>
+    <t xml:space="preserve">22.676513671875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.76926612854</t>
+    <t xml:space="preserve">18.3156452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7692680358887</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486869812012</t>
+    <t xml:space="preserve">22.9672393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486850738525</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600383758545</t>
+    <t xml:space="preserve">24.7600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754955291748</t>
+    <t xml:space="preserve">24.2754974365234</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.905403137207</t>
+    <t xml:space="preserve">24.9054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7291202545166</t>
+    <t xml:space="preserve">25.729118347168</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827430725098</t>
+    <t xml:space="preserve">27.2796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167545318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652069091797</t>
+    <t xml:space="preserve">25.1961250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167526245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652088165283</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310567855835</t>
+    <t xml:space="preserve">25.8260269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703754425049</t>
+    <t xml:space="preserve">27.5703773498535</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7683448791504</t>
+    <t xml:space="preserve">30.768346786499</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6054458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.120906829834</t>
+    <t xml:space="preserve">29.605447769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1209049224854</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7023544311523</t>
+    <t xml:space="preserve">29.702356338501</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2339,16 +2339,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776229858398</t>
+    <t xml:space="preserve">30.4776210784912</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198925018311</t>
+    <t xml:space="preserve">31.1559791564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2357,16 +2357,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363639831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600849151611</t>
+    <t xml:space="preserve">30.2353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -60003,7 +60003,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n">
-        <v>45503.6495717593</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B2184" t="n">
         <v>25407</v>
@@ -60024,6 +60024,32 @@
         <v>954</v>
       </c>
       <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.6494560185</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>4709</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>26.4500007629395</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>26.4500007629395</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>25.6499996185303</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>961</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262744903564</t>
+    <t xml:space="preserve">8.42262649536133</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
@@ -53,19 +53,19 @@
     <t xml:space="preserve">8.21206188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31734466552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19521522521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27101898193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731334686279</t>
+    <t xml:space="preserve">8.31734371185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19521617889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27101993560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731525421143</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363903045654</t>
@@ -74,49 +74,49 @@
     <t xml:space="preserve">8.18679428100586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08572101593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03518676757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097534179688</t>
+    <t xml:space="preserve">8.08572196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03518581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097438812256</t>
   </si>
   <si>
     <t xml:space="preserve">8.02676296234131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00149631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307346343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780443191528</t>
+    <t xml:space="preserve">8.00149536132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307203292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9678053855896</t>
   </si>
   <si>
     <t xml:space="preserve">7.76145029067993</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83304262161255</t>
+    <t xml:space="preserve">7.83304452896118</t>
   </si>
   <si>
     <t xml:space="preserve">7.81619739532471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80356454849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880130767822</t>
+    <t xml:space="preserve">7.80356502532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197317123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880035400391</t>
   </si>
   <si>
     <t xml:space="preserve">7.66459083557129</t>
@@ -125,46 +125,46 @@
     <t xml:space="preserve">7.74881649017334</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88357877731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726922988892</t>
+    <t xml:space="preserve">7.88357734680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9172682762146</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22048282623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994857788086</t>
+    <t xml:space="preserve">8.22048473358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994762420654</t>
   </si>
   <si>
     <t xml:space="preserve">8.30470943450928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25417518615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941432952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07729816436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33839988708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48158550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44789505004883</t>
+    <t xml:space="preserve">8.25417423248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07729911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4815845489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44789600372314</t>
   </si>
   <si>
     <t xml:space="preserve">8.41420459747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32155513763428</t>
+    <t xml:space="preserve">8.32155609130859</t>
   </si>
   <si>
     <t xml:space="preserve">8.27944183349609</t>
@@ -173,22 +173,22 @@
     <t xml:space="preserve">8.4256010055542</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48578548431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55456447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27084541320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2966365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32672786712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25364875793457</t>
+    <t xml:space="preserve">8.48578262329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55456352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27084350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29663562774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32672882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2536506652832</t>
   </si>
   <si>
     <t xml:space="preserve">8.23645401000977</t>
@@ -197,46 +197,46 @@
     <t xml:space="preserve">8.33962535858154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33102703094482</t>
+    <t xml:space="preserve">8.33102798461914</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32242965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38261318206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21066188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767501831055</t>
+    <t xml:space="preserve">8.32243061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38261222839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21066093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785663604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767406463623</t>
   </si>
   <si>
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572277069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273637771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505138397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675977706909</t>
+    <t xml:space="preserve">8.03871154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572229385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273494720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505233764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675882339478</t>
   </si>
   <si>
     <t xml:space="preserve">7.82377195358276</t>
@@ -245,34 +245,34 @@
     <t xml:space="preserve">8.05590724945068</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92694330215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90974760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779630661011</t>
+    <t xml:space="preserve">7.92694234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779678344727</t>
   </si>
   <si>
     <t xml:space="preserve">7.78078365325928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96133327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755229949951</t>
+    <t xml:space="preserve">7.96133422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755325317383</t>
   </si>
   <si>
     <t xml:space="preserve">8.64053916931152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64913558959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72651481628418</t>
+    <t xml:space="preserve">8.64913749694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72651386260986</t>
   </si>
   <si>
     <t xml:space="preserve">8.9156608581543</t>
@@ -281,19 +281,19 @@
     <t xml:space="preserve">8.84688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63194274902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66633224487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895492553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352603912354</t>
+    <t xml:space="preserve">8.63194179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66633033752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325122833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895397186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352699279785</t>
   </si>
   <si>
     <t xml:space="preserve">8.70072269439697</t>
@@ -305,37 +305,37 @@
     <t xml:space="preserve">8.85547828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76950263977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02742958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639305114746</t>
+    <t xml:space="preserve">8.76950359344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02743053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639209747314</t>
   </si>
   <si>
     <t xml:space="preserve">9.23377132415771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19938087463379</t>
+    <t xml:space="preserve">9.19937992095947</t>
   </si>
   <si>
     <t xml:space="preserve">9.2423677444458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41431999206543</t>
+    <t xml:space="preserve">9.41431903839111</t>
   </si>
   <si>
     <t xml:space="preserve">9.32834339141846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31974411010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20797729492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517204284668</t>
+    <t xml:space="preserve">9.31974601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20797824859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.225172996521</t>
   </si>
   <si>
     <t xml:space="preserve">9.44011116027832</t>
@@ -347,16 +347,16 @@
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7496223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5432825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925910949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608776092529</t>
+    <t xml:space="preserve">9.74962520599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328155517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925815582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608680725098</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224597930908</t>
@@ -371,40 +371,40 @@
     <t xml:space="preserve">9.68084335327148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71523189544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206245422363</t>
+    <t xml:space="preserve">9.71523284912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206436157227</t>
   </si>
   <si>
     <t xml:space="preserve">9.5518798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65504932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718414306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138919830322</t>
+    <t xml:space="preserve">9.56047821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65505027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718509674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138929367065</t>
   </si>
   <si>
     <t xml:space="preserve">10.403037071228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2826719284058</t>
+    <t xml:space="preserve">10.2826709747314</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451101303101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1021242141724</t>
+    <t xml:space="preserve">10.102123260498</t>
   </si>
   <si>
     <t xml:space="preserve">10.1279153823853</t>
@@ -413,10 +413,10 @@
     <t xml:space="preserve">10.0333433151245</t>
   </si>
   <si>
-    <t xml:space="preserve">10.059136390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623058319092</t>
+    <t xml:space="preserve">10.0591344833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623048782349</t>
   </si>
   <si>
     <t xml:space="preserve">10.308464050293</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">10.1880979537964</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84419631958008</t>
+    <t xml:space="preserve">9.84419536590576</t>
   </si>
   <si>
     <t xml:space="preserve">9.878586769104</t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">9.85279369354248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.231086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075492858887</t>
+    <t xml:space="preserve">10.2310848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.007550239563</t>
   </si>
   <si>
     <t xml:space="preserve">10.2740745544434</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">10.9618787765503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0736465454102</t>
+    <t xml:space="preserve">11.0736474990845</t>
   </si>
   <si>
     <t xml:space="preserve">11.0220613479614</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">11.2198057174683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.443341255188</t>
+    <t xml:space="preserve">11.4433431625366</t>
   </si>
   <si>
     <t xml:space="preserve">11.6066951751709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8302316665649</t>
+    <t xml:space="preserve">11.8302307128906</t>
   </si>
   <si>
     <t xml:space="preserve">11.7528524398804</t>
@@ -485,13 +485,13 @@
     <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614488601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873218536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505958557129</t>
+    <t xml:space="preserve">11.7614507675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8732194900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505949020386</t>
   </si>
   <si>
     <t xml:space="preserve">11.9849863052368</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">12.0107803344727</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8388290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700471878052</t>
+    <t xml:space="preserve">11.8388299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700481414795</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926698684692</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">11.7786455154419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7975368499756</t>
+    <t xml:space="preserve">11.7975378036499</t>
   </si>
   <si>
     <t xml:space="preserve">11.9024047851562</t>
@@ -521,16 +521,16 @@
     <t xml:space="preserve">11.8674488067627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8499698638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972315788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859203338623</t>
+    <t xml:space="preserve">11.8499708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9723148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597047805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859222412109</t>
   </si>
   <si>
     <t xml:space="preserve">12.2432222366333</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3218717575073</t>
+    <t xml:space="preserve">12.321870803833</t>
   </si>
   <si>
     <t xml:space="preserve">12.1733102798462</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">11.9286203384399</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8849248886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946598052979</t>
+    <t xml:space="preserve">11.8849258422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247478485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946607589722</t>
   </si>
   <si>
     <t xml:space="preserve">12.138355255127</t>
@@ -572,31 +572,31 @@
     <t xml:space="preserve">12.2170038223267</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2257442474365</t>
+    <t xml:space="preserve">12.2257432937622</t>
   </si>
   <si>
     <t xml:space="preserve">11.9635763168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2082662582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897928237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509662628174</t>
+    <t xml:space="preserve">12.2082672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897937774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684442520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509653091431</t>
   </si>
   <si>
     <t xml:space="preserve">11.9985313415527</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0422267913818</t>
+    <t xml:space="preserve">12.0422258377075</t>
   </si>
   <si>
     <t xml:space="preserve">12.0771827697754</t>
@@ -605,25 +605,25 @@
     <t xml:space="preserve">12.1033992767334</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8936643600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062763214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800579071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7451019287109</t>
+    <t xml:space="preserve">11.8936653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062772750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800588607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7451038360596</t>
   </si>
   <si>
     <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6926717758179</t>
+    <t xml:space="preserve">11.6926689147949</t>
   </si>
   <si>
     <t xml:space="preserve">11.5353698730469</t>
@@ -632,85 +632,85 @@
     <t xml:space="preserve">11.5266304016113</t>
   </si>
   <si>
-    <t xml:space="preserve">11.447979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3955478668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732000350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207698822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431119918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984230041504</t>
+    <t xml:space="preserve">11.4479808807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955459594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605928421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207689285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431129455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0984239578247</t>
   </si>
   <si>
     <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1858139038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994174957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.369330406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829359054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6227588653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7101469039917</t>
+    <t xml:space="preserve">11.1858129501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469844818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3693313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829378128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6227598190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.710147857666</t>
   </si>
   <si>
     <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256368637085</t>
+    <t xml:space="preserve">11.4567193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256340026855</t>
   </si>
   <si>
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168973922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878038406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868083953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091524124146</t>
+    <t xml:space="preserve">11.3168964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032918930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878028869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868074417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042873382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091533660889</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159019470215</t>
@@ -722,16 +722,16 @@
     <t xml:space="preserve">11.1683349609375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2557249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88371467590332</t>
+    <t xml:space="preserve">11.2557258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88371562957764</t>
   </si>
   <si>
     <t xml:space="preserve">9.14964580535889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35064125061035</t>
+    <t xml:space="preserve">9.35064029693604</t>
   </si>
   <si>
     <t xml:space="preserve">9.51667976379395</t>
@@ -740,22 +740,22 @@
     <t xml:space="preserve">9.63028621673584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6477632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73515224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7438907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83128070831299</t>
+    <t xml:space="preserve">9.64776420593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73515319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74389171600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8312816619873</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53415775299072</t>
+    <t xml:space="preserve">9.53415870666504</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172473907471</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42055225372314</t>
+    <t xml:space="preserve">9.42055130004883</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685680389404</t>
@@ -788,25 +788,25 @@
     <t xml:space="preserve">9.40307331085205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84001922607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80506420135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78758811950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380176544189</t>
+    <t xml:space="preserve">9.84002017974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8050651550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7875862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380271911621</t>
   </si>
   <si>
     <t xml:space="preserve">9.9011926651001</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85749816894531</t>
+    <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
     <t xml:space="preserve">9.22829532623291</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">9.07099437713623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28073024749756</t>
+    <t xml:space="preserve">9.28072834014893</t>
   </si>
   <si>
     <t xml:space="preserve">9.25451183319092</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">9.91867065429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67398071289062</t>
+    <t xml:space="preserve">9.67397880554199</t>
   </si>
   <si>
     <t xml:space="preserve">9.63902568817139</t>
@@ -842,49 +842,49 @@
     <t xml:space="preserve">9.71767520904541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72641468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61280918121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56911373138428</t>
+    <t xml:space="preserve">9.72641372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61280822753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56911277770996</t>
   </si>
   <si>
     <t xml:space="preserve">9.68271923065186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30694580078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3681173324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060586929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955585479736</t>
+    <t xml:space="preserve">9.30694484710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36811923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019626617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650272369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
     <t xml:space="preserve">9.17586231231689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13216781616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95738983154297</t>
+    <t xml:space="preserve">9.13216590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95738887786865</t>
   </si>
   <si>
     <t xml:space="preserve">8.8263053894043</t>
@@ -902,55 +902,55 @@
     <t xml:space="preserve">8.73891735076904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72143650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78261089324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161544799805</t>
+    <t xml:space="preserve">8.72143840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7826099395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161449432373</t>
   </si>
   <si>
     <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24120998382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15192317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10727882385254</t>
+    <t xml:space="preserve">9.24120903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15192222595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799201965332</t>
+    <t xml:space="preserve">9.01799392700195</t>
   </si>
   <si>
     <t xml:space="preserve">8.97334861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89299201965332</t>
+    <t xml:space="preserve">8.89299011230469</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83941841125488</t>
+    <t xml:space="preserve">8.83941745758057</t>
   </si>
   <si>
     <t xml:space="preserve">8.75013065338135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71441555023193</t>
+    <t xml:space="preserve">8.71441650390625</t>
   </si>
   <si>
     <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73227405548096</t>
+    <t xml:space="preserve">8.73227310180664</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">8.82156085968018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8751335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66084480285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155704498291</t>
+    <t xml:space="preserve">8.87513256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66084384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155799865723</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
@@ -974,25 +974,25 @@
     <t xml:space="preserve">8.44655513763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41084098815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91084766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798915863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92870616912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370426177979</t>
+    <t xml:space="preserve">8.41083908081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91084575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9287052154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370235443115</t>
   </si>
   <si>
     <t xml:space="preserve">9.37514019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50906944274902</t>
+    <t xml:space="preserve">9.50907039642334</t>
   </si>
   <si>
     <t xml:space="preserve">9.46442794799805</t>
@@ -1004,58 +1004,58 @@
     <t xml:space="preserve">9.28585338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58941459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5358419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46441173553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726833343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42869663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25012302398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30369663238525</t>
+    <t xml:space="preserve">8.58941268920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62512969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46441268920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726737976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42869758605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30369567871094</t>
   </si>
   <si>
     <t xml:space="preserve">8.28583812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33941078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37512683868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5001277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64298629760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41978359222412</t>
+    <t xml:space="preserve">8.33940982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37512493133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50012874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64298725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41978454589844</t>
   </si>
   <si>
     <t xml:space="preserve">9.55371379852295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77693367004395</t>
+    <t xml:space="preserve">9.77693176269531</t>
   </si>
   <si>
     <t xml:space="preserve">9.73228740692139</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0447940826416</t>
+    <t xml:space="preserve">10.044792175293</t>
   </si>
   <si>
     <t xml:space="preserve">10.2680110931396</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358724594116</t>
+    <t xml:space="preserve">10.5358715057373</t>
   </si>
   <si>
     <t xml:space="preserve">10.4019412994385</t>
@@ -1082,28 +1082,28 @@
     <t xml:space="preserve">10.5805158615112</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2233667373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698026657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065958023071</t>
+    <t xml:space="preserve">10.2233657836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065948486328</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8521928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330104827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3962163925171</t>
+    <t xml:space="preserve">10.8521919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330114364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3962182998657</t>
   </si>
   <si>
     <t xml:space="preserve">10.2138290405273</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">10.5786085128784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4874134063721</t>
+    <t xml:space="preserve">10.4874124526978</t>
   </si>
   <si>
     <t xml:space="preserve">10.4418153762817</t>
@@ -1121,46 +1121,46 @@
     <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
-    <t xml:space="preserve">10.122633934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2594270706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0770359039307</t>
+    <t xml:space="preserve">10.1226329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.259425163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0770349502563</t>
   </si>
   <si>
     <t xml:space="preserve">10.0314388275146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3050222396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.168231010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89464569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84904861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48426914215088</t>
+    <t xml:space="preserve">10.3050231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1682300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89464664459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84904956817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48426818847656</t>
   </si>
   <si>
     <t xml:space="preserve">9.43867301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52986717224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785446166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66665840148926</t>
+    <t xml:space="preserve">9.52986621856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106227874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785350799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66665935516357</t>
   </si>
   <si>
     <t xml:space="preserve">9.57546424865723</t>
@@ -1169,31 +1169,31 @@
     <t xml:space="preserve">9.25628185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16508674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21068477630615</t>
+    <t xml:space="preserve">9.1650857925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3018798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21068572998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.39307403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11948871612549</t>
+    <t xml:space="preserve">9.11949062347412</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80345058441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9402437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1257762908936</t>
+    <t xml:space="preserve">9.80345153808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94024276733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
     <t xml:space="preserve">11.6273488998413</t>
@@ -1205,37 +1205,37 @@
     <t xml:space="preserve">11.3993625640869</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3081665039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0801792144775</t>
+    <t xml:space="preserve">11.3081674575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0801801681519</t>
   </si>
   <si>
     <t xml:space="preserve">11.0345821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4449605941772</t>
+    <t xml:space="preserve">11.1713762283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4449586868286</t>
   </si>
   <si>
     <t xml:space="preserve">11.5817518234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7185440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9465322494507</t>
+    <t xml:space="preserve">11.718544960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.85533618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
     <t xml:space="preserve">12.083324432373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3113098144531</t>
+    <t xml:space="preserve">12.3113107681274</t>
   </si>
   <si>
     <t xml:space="preserve">12.1745195388794</t>
@@ -1247,22 +1247,22 @@
     <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4937000274658</t>
+    <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9952716827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9496746063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688579559326</t>
+    <t xml:space="preserve">13.1320657730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9952726364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9496755599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688570022583</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304931640625</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481039047241</t>
+    <t xml:space="preserve">12.4481029510498</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
@@ -1280,31 +1280,31 @@
     <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8584814071655</t>
+    <t xml:space="preserve">12.8584804534912</t>
   </si>
   <si>
     <t xml:space="preserve">13.0864677429199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9009342193604</t>
+    <t xml:space="preserve">11.9009351730347</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7154006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02829456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810733795166</t>
+    <t xml:space="preserve">10.7153997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02829551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810638427734</t>
   </si>
   <si>
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6421332359314</t>
+    <t xml:space="preserve">7.64213228225708</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
@@ -1316,19 +1316,19 @@
     <t xml:space="preserve">8.07986736297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57231903076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73647022247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118919372559</t>
+    <t xml:space="preserve">8.57231998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73647117614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34747695922852</t>
+    <t xml:space="preserve">9.3474760055542</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847988128662</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.551685333252</t>
+    <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
     <t xml:space="preserve">10.458309173584</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">11.018575668335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8318204879761</t>
+    <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
     <t xml:space="preserve">11.1586408615112</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">11.0652637481689</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5788421630859</t>
+    <t xml:space="preserve">11.5788412094116</t>
   </si>
   <si>
     <t xml:space="preserve">11.6255311965942</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857976913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2791738510132</t>
+    <t xml:space="preserve">12.1857986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924186706543</t>
+    <t xml:space="preserve">12.0924196243286</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3258638381958</t>
+    <t xml:space="preserve">12.3258628845215</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">13.2596416473389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.07288646698</t>
+    <t xml:space="preserve">13.0728855133057</t>
   </si>
   <si>
     <t xml:space="preserve">13.119574546814</t>
@@ -1496,25 +1496,25 @@
     <t xml:space="preserve">13.3530187606812</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5864639282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930858612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662645339966</t>
+    <t xml:space="preserve">13.5864629745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930849075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
     <t xml:space="preserve">13.9132843017578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6331520080566</t>
+    <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5593070983887</t>
+    <t xml:space="preserve">12.559308052063</t>
   </si>
   <si>
     <t xml:space="preserve">13.0261964797974</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">12.9328193664551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8394412994385</t>
+    <t xml:space="preserve">12.8394403457642</t>
   </si>
   <si>
     <t xml:space="preserve">13.53977394104</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801736831665</t>
+    <t xml:space="preserve">14.3801746368408</t>
   </si>
   <si>
     <t xml:space="preserve">14.566930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3334856033325</t>
+    <t xml:space="preserve">14.3334846496582</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069959640503</t>
@@ -1565,19 +1565,19 @@
     <t xml:space="preserve">15.2672634124756</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7536859512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8470630645752</t>
+    <t xml:space="preserve">14.7536849975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8470621109009</t>
   </si>
   <si>
     <t xml:space="preserve">14.660306930542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4735507965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1934185028076</t>
+    <t xml:space="preserve">14.4735517501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1934194564819</t>
   </si>
   <si>
     <t xml:space="preserve">14.5202407836914</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401084899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.591833114624</t>
+    <t xml:space="preserve">14.2401075363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5918321609497</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621961593628</t>
+    <t xml:space="preserve">15.1621971130371</t>
   </si>
   <si>
     <t xml:space="preserve">15.3998498916626</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">14.9720754623413</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0196056365967</t>
+    <t xml:space="preserve">15.019606590271</t>
   </si>
   <si>
     <t xml:space="preserve">15.447380065918</t>
@@ -1691,13 +1691,13 @@
     <t xml:space="preserve">16.8257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4455165863037</t>
+    <t xml:space="preserve">16.4455184936523</t>
   </si>
   <si>
     <t xml:space="preserve">17.5387191772461</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0615501403809</t>
+    <t xml:space="preserve">18.0615520477295</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">17.348596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7763690948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8714294433594</t>
+    <t xml:space="preserve">17.7763710021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.871431350708</t>
   </si>
   <si>
     <t xml:space="preserve">18.299201965332</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">19.3924007415771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9627685546875</t>
+    <t xml:space="preserve">19.9627666473389</t>
   </si>
   <si>
     <t xml:space="preserve">19.5825233459473</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">19.7726440429688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.152889251709</t>
+    <t xml:space="preserve">20.1528911590576</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
+    <t xml:space="preserve">21.2936172485352</t>
   </si>
   <si>
     <t xml:space="preserve">21.5788021087646</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034965515137</t>
+    <t xml:space="preserve">21.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">22.1491641998291</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">22.0541038513184</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3392887115479</t>
+    <t xml:space="preserve">22.3392868041992</t>
   </si>
   <si>
     <t xml:space="preserve">22.6244697570801</t>
@@ -1790,19 +1790,19 @@
     <t xml:space="preserve">22.8145923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9590454101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8639831542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5331325531006</t>
+    <t xml:space="preserve">21.9590435028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8639812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5331344604492</t>
   </si>
   <si>
     <t xml:space="preserve">18.5843849182129</t>
   </si>
   <si>
-    <t xml:space="preserve">19.297342300415</t>
+    <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
     <t xml:space="preserve">20.9133758544922</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">22.2442264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0997714996338</t>
+    <t xml:space="preserve">23.0997734069824</t>
   </si>
   <si>
     <t xml:space="preserve">22.9096527099609</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7195281982422</t>
+    <t xml:space="preserve">22.7195301055908</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479496002197</t>
@@ -1850,13 +1850,13 @@
     <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6775875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1072196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319179534912</t>
+    <t xml:space="preserve">19.6775856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1072216033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6319160461426</t>
   </si>
   <si>
     <t xml:space="preserve">17.2060050964355</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">18.2041435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5368537902832</t>
+    <t xml:space="preserve">18.5368556976318</t>
   </si>
   <si>
     <t xml:space="preserve">19.1547508239746</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988307952881</t>
+    <t xml:space="preserve">18.4988288879395</t>
   </si>
   <si>
     <t xml:space="preserve">18.7269763946533</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">18.3847599029541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2498092651367</t>
+    <t xml:space="preserve">19.2498111724854</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1913,40 +1913,40 @@
     <t xml:space="preserve">20.3905410766602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4856033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4380702972412</t>
+    <t xml:space="preserve">20.4856014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
     <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8143939971924</t>
+    <t xml:space="preserve">17.8143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249195098877</t>
+    <t xml:space="preserve">17.1333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249214172363</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2071990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.703275680542</t>
+    <t xml:space="preserve">19.2072010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7032775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816337585449</t>
+    <t xml:space="preserve">19.3816356658936</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1958,37 +1958,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2265815734863</t>
+    <t xml:space="preserve">19.226583480835</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.350715637207</t>
+    <t xml:space="preserve">20.3507175445557</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.447624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383480072021</t>
+    <t xml:space="preserve">21.2228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383499145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8661766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001861572266</t>
+    <t xml:space="preserve">21.8043403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.866174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001842498779</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239070892334</t>
+    <t xml:space="preserve">19.6239051818848</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723575592041</t>
+    <t xml:space="preserve">18.9746189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538089752197</t>
+    <t xml:space="preserve">20.2538070678711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919727325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.465160369873</t>
+    <t xml:space="preserve">22.1919708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4651584625244</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6105213165283</t>
+    <t xml:space="preserve">21.610523223877</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1569004058838</t>
+    <t xml:space="preserve">20.1568984985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.257963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734203338623</t>
+    <t xml:space="preserve">23.2579612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6765117645264</t>
+    <t xml:space="preserve">22.676513671875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.76926612854</t>
+    <t xml:space="preserve">18.3156452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7692680358887</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486869812012</t>
+    <t xml:space="preserve">22.9672393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486850738525</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600383758545</t>
+    <t xml:space="preserve">24.7600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754955291748</t>
+    <t xml:space="preserve">24.2754974365234</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.905403137207</t>
+    <t xml:space="preserve">24.9054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7291202545166</t>
+    <t xml:space="preserve">25.729118347168</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827430725098</t>
+    <t xml:space="preserve">27.2796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167545318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652069091797</t>
+    <t xml:space="preserve">25.1961250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167526245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652088165283</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310567855835</t>
+    <t xml:space="preserve">25.8260269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703754425049</t>
+    <t xml:space="preserve">27.5703773498535</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7683448791504</t>
+    <t xml:space="preserve">30.768346786499</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6054458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.120906829834</t>
+    <t xml:space="preserve">29.605447769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1209049224854</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7023544311523</t>
+    <t xml:space="preserve">29.702356338501</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776229858398</t>
+    <t xml:space="preserve">30.4776210784912</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198925018311</t>
+    <t xml:space="preserve">31.1559791564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363639831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600849151611</t>
+    <t xml:space="preserve">30.2353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -2907,6 +2907,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.6000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5</t>
   </si>
 </sst>
 </file>
@@ -60058,7 +60061,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6493402778</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>11466</v>
@@ -60079,6 +60082,32 @@
         <v>946</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6496643518</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>19699</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>25.3500003814697</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>25.3500003814697</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>965</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="965">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262649536133</t>
+    <t xml:space="preserve">8.42262554168701</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947410583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21206092834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31734371185303</t>
+    <t xml:space="preserve">8.43947315216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578174591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21206188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31734466552734</t>
   </si>
   <si>
     <t xml:space="preserve">8.19521617889404</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29207706451416</t>
+    <t xml:space="preserve">8.29207611083984</t>
   </si>
   <si>
     <t xml:space="preserve">8.15731430053711</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">8.20363903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18679332733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572101593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625812530518</t>
+    <t xml:space="preserve">8.18679428100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625717163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.11520099639893</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">8.03518581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03097343444824</t>
+    <t xml:space="preserve">8.03097534179688</t>
   </si>
   <si>
     <t xml:space="preserve">8.02676296234131</t>
@@ -95,19 +95,19 @@
     <t xml:space="preserve">8.00149631500244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9930739402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780443191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145029067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304357528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619834899902</t>
+    <t xml:space="preserve">7.99307346343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780347824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145124435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304262161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619644165039</t>
   </si>
   <si>
     <t xml:space="preserve">7.80356454849243</t>
@@ -128,49 +128,49 @@
     <t xml:space="preserve">7.88357877731323</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9172682762146</t>
+    <t xml:space="preserve">7.91726922988892</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203151702881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22048282623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30471038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417518615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941432952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07729816436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33839988708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4815845489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44789505004883</t>
+    <t xml:space="preserve">8.22048377990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994857788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30470943450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417613983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48158550262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
     <t xml:space="preserve">8.41420364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32155609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4256010055542</t>
+    <t xml:space="preserve">8.32155513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560195922852</t>
   </si>
   <si>
     <t xml:space="preserve">8.48578357696533</t>
@@ -179,13 +179,13 @@
     <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29663562774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32672786712646</t>
+    <t xml:space="preserve">8.27084541320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29663753509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32672882080078</t>
   </si>
   <si>
     <t xml:space="preserve">8.25364971160889</t>
@@ -197,52 +197,52 @@
     <t xml:space="preserve">8.33962440490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33102798461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532428741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32243061065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38261222839355</t>
+    <t xml:space="preserve">8.33102703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33532524108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32242965698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38261318206787</t>
   </si>
   <si>
     <t xml:space="preserve">8.21066188812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22785568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08169746398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03871154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572324752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273494720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505138397217</t>
+    <t xml:space="preserve">8.22785663604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767501831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08169937133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03871059417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572277069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273542404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505233764648</t>
   </si>
   <si>
     <t xml:space="preserve">8.05160617828369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86675834655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377195358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590534210205</t>
+    <t xml:space="preserve">7.86675882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377290725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590629577637</t>
   </si>
   <si>
     <t xml:space="preserve">7.92694330215454</t>
@@ -254,22 +254,22 @@
     <t xml:space="preserve">7.73779582977295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78078556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5975513458252</t>
+    <t xml:space="preserve">7.78078365325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755039215088</t>
   </si>
   <si>
     <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64913845062256</t>
+    <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
     <t xml:space="preserve">8.72651481628418</t>
@@ -278,58 +278,58 @@
     <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84688186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6319408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66633129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072269439697</t>
+    <t xml:space="preserve">8.84688091278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63194179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66633319854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895397186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072174072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.9414529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85547828674316</t>
+    <t xml:space="preserve">8.85547924041748</t>
   </si>
   <si>
     <t xml:space="preserve">8.76950263977051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02742958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639114379883</t>
+    <t xml:space="preserve">9.02742862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639209747314</t>
   </si>
   <si>
     <t xml:space="preserve">9.2337703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19937992095947</t>
+    <t xml:space="preserve">9.19938087463379</t>
   </si>
   <si>
     <t xml:space="preserve">9.2423677444458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41431999206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31974601745605</t>
+    <t xml:space="preserve">9.41431903839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834529876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31974506378174</t>
   </si>
   <si>
     <t xml:space="preserve">9.20797729492188</t>
@@ -341,82 +341,82 @@
     <t xml:space="preserve">9.44011116027832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45730686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962520599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54328155517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925815582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608680725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67224502563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62066173553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58626937866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68084335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523284912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206436157227</t>
+    <t xml:space="preserve">9.45730590820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956249237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962329864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328346252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608776092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6722469329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62065982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58626842498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6808443069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523189544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206150054932</t>
   </si>
   <si>
     <t xml:space="preserve">9.5518798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65505027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663547515869</t>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663642883301</t>
   </si>
   <si>
     <t xml:space="preserve">9.88718414306641</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2138910293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4030380249023</t>
+    <t xml:space="preserve">10.2138919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.403037071228</t>
   </si>
   <si>
     <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451120376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.102123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1279134750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333433151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0591344833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623048782349</t>
+    <t xml:space="preserve">10.1451110839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1279153823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333423614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0591354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623058319092</t>
   </si>
   <si>
     <t xml:space="preserve">10.308464050293</t>
@@ -425,34 +425,34 @@
     <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84419631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87858581542969</t>
+    <t xml:space="preserve">9.84419536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
     <t xml:space="preserve">9.85279273986816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.231086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075511932373</t>
+    <t xml:space="preserve">10.2310876846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075492858887</t>
   </si>
   <si>
     <t xml:space="preserve">10.274073600769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.44602394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351709365845</t>
+    <t xml:space="preserve">10.4460248947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351718902588</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867570877075</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6695623397827</t>
+    <t xml:space="preserve">10.6695604324341</t>
   </si>
   <si>
     <t xml:space="preserve">10.9618787765503</t>
@@ -470,25 +470,25 @@
     <t xml:space="preserve">11.2198047637939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4433431625366</t>
+    <t xml:space="preserve">11.4433422088623</t>
   </si>
   <si>
     <t xml:space="preserve">11.6066942214966</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8302316665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7528524398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496829986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8732194900513</t>
+    <t xml:space="preserve">11.8302307128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7528533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496839523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614507675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873218536377</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505958557129</t>
@@ -497,19 +497,19 @@
     <t xml:space="preserve">11.9849863052368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0107803344727</t>
+    <t xml:space="preserve">12.0107793807983</t>
   </si>
   <si>
     <t xml:space="preserve">11.8388290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7700481414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7786464691162</t>
+    <t xml:space="preserve">11.7700471878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786474227905</t>
   </si>
   <si>
     <t xml:space="preserve">11.7975368499756</t>
@@ -524,103 +524,103 @@
     <t xml:space="preserve">11.8499708175659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.972315788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597047805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859203338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2432222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966497421265</t>
+    <t xml:space="preserve">11.9723148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859212875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.243221282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966506958008</t>
   </si>
   <si>
     <t xml:space="preserve">12.5403451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2344827651978</t>
+    <t xml:space="preserve">12.2344837188721</t>
   </si>
   <si>
     <t xml:space="preserve">12.3218727111816</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849258422852</t>
+    <t xml:space="preserve">12.1733112335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286203384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849248886108</t>
   </si>
   <si>
     <t xml:space="preserve">12.0247488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0946607589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.138355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.217004776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257452011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082681655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897937774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684442520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509653091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985313415527</t>
+    <t xml:space="preserve">12.0946588516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1383562088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2170038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257442474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635772705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082662582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985303878784</t>
   </si>
   <si>
     <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0771827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033983230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8936653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062753677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800588607788</t>
+    <t xml:space="preserve">12.0771818161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1034002304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8936643600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.841233253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062772750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800598144531</t>
   </si>
   <si>
     <t xml:space="preserve">11.7451028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7014102935791</t>
+    <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
     <t xml:space="preserve">11.5353698730469</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">11.5266304016113</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4479808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3955459594727</t>
+    <t xml:space="preserve">11.447979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955478668213</t>
   </si>
   <si>
     <t xml:space="preserve">11.3605918884277</t>
@@ -641,97 +641,97 @@
     <t xml:space="preserve">11.3518533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2732019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207698822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431119918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906808853149</t>
+    <t xml:space="preserve">11.2732009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207689285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431129455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906799316406</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2295074462891</t>
+    <t xml:space="preserve">11.2295093536377</t>
   </si>
   <si>
     <t xml:space="preserve">11.1858129501343</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994184494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3693294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829359054565</t>
+    <t xml:space="preserve">11.2469844818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994194030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.369330406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829368591309</t>
   </si>
   <si>
     <t xml:space="preserve">11.6227588653564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7101469039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.579065322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4567193984985</t>
+    <t xml:space="preserve">11.710147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5790634155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4567184448242</t>
   </si>
   <si>
     <t xml:space="preserve">11.3256359100342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4305028915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3168964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032918930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878038406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868083953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091514587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1159009933472</t>
+    <t xml:space="preserve">11.4305009841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3168973922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878028869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868074417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091524124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.1246395111084</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1683340072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88371467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14964485168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35064125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51667976379395</t>
+    <t xml:space="preserve">11.1683349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557239532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.883713722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14964771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35064029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51668071746826</t>
   </si>
   <si>
     <t xml:space="preserve">9.63028717041016</t>
@@ -746,19 +746,19 @@
     <t xml:space="preserve">9.7438907623291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8312816619873</t>
+    <t xml:space="preserve">9.83128070831299</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53415775299072</t>
+    <t xml:space="preserve">9.53415679931641</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39433479309082</t>
+    <t xml:space="preserve">9.39433574676514</t>
   </si>
   <si>
     <t xml:space="preserve">9.43803024291992</t>
@@ -776,52 +776,52 @@
     <t xml:space="preserve">9.26325130462646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1583833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3419017791748</t>
+    <t xml:space="preserve">9.15838432312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34189987182617</t>
   </si>
   <si>
     <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84001922607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80506324768066</t>
+    <t xml:space="preserve">9.84002017974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
     <t xml:space="preserve">9.7875862121582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81380176544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90119171142578</t>
+    <t xml:space="preserve">9.81380271911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90119457244873</t>
   </si>
   <si>
     <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22829532623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07099437713623</t>
+    <t xml:space="preserve">9.22829627990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
     <t xml:space="preserve">9.28072929382324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25451278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497520446777</t>
+    <t xml:space="preserve">9.25451374053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497711181641</t>
   </si>
   <si>
     <t xml:space="preserve">10.0497531890869</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">9.63902568817139</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71767520904541</t>
+    <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
     <t xml:space="preserve">9.72641468048096</t>
@@ -848,97 +848,97 @@
     <t xml:space="preserve">9.56911373138428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68272018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3681173324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019721984863</t>
+    <t xml:space="preserve">9.68271827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694675445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36811828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019817352295</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650177001953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0060596466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955490112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586231231689</t>
+    <t xml:space="preserve">10.0060586929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586040496826</t>
   </si>
   <si>
     <t xml:space="preserve">9.13216781616211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95738983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82630443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00108337402344</t>
+    <t xml:space="preserve">8.95738887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82630729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00108528137207</t>
   </si>
   <si>
     <t xml:space="preserve">8.91369438171387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86999797821045</t>
+    <t xml:space="preserve">8.86999893188477</t>
   </si>
   <si>
     <t xml:space="preserve">8.73891544342041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72143745422363</t>
+    <t xml:space="preserve">8.72143650054932</t>
   </si>
   <si>
     <t xml:space="preserve">8.78261089324951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58161449432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19656562805176</t>
+    <t xml:space="preserve">8.58161544799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19656753540039</t>
   </si>
   <si>
     <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15192317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10727977752686</t>
+    <t xml:space="preserve">9.15192222595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10727882385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799297332764</t>
+    <t xml:space="preserve">9.01799201965332</t>
   </si>
   <si>
     <t xml:space="preserve">8.97334861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89299011230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727310180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83941841125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75013160705566</t>
+    <t xml:space="preserve">8.892991065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727214813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83941745758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75013065338135</t>
   </si>
   <si>
     <t xml:space="preserve">8.71441555023193</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73227310180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85727500915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82156085968018</t>
+    <t xml:space="preserve">8.73227405548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85727691650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82155990600586</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">8.57155704498291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39298152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44655609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91084766387939</t>
+    <t xml:space="preserve">8.39298343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44655513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91084671020508</t>
   </si>
   <si>
     <t xml:space="preserve">8.76798915863037</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">8.9287052154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80370426177979</t>
+    <t xml:space="preserve">8.80370330810547</t>
   </si>
   <si>
     <t xml:space="preserve">9.3751392364502</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">9.50907039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46442890167236</t>
+    <t xml:space="preserve">9.46442699432373</t>
   </si>
   <si>
     <t xml:space="preserve">9.3304967880249</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">9.28585338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58941459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5358419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512969970703</t>
+    <t xml:space="preserve">8.5894136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6251277923584</t>
   </si>
   <si>
     <t xml:space="preserve">8.46441268920898</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">8.35726737976074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42869853973389</t>
+    <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
     <t xml:space="preserve">8.25012302398682</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">8.30369663238525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583908081055</t>
+    <t xml:space="preserve">8.28583717346191</t>
   </si>
   <si>
     <t xml:space="preserve">8.33941078186035</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64298629760742</t>
+    <t xml:space="preserve">8.64298725128174</t>
   </si>
   <si>
     <t xml:space="preserve">9.41978359222412</t>
@@ -1049,22 +1049,22 @@
     <t xml:space="preserve">9.77693271636963</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73228740692139</t>
+    <t xml:space="preserve">9.7322883605957</t>
   </si>
   <si>
     <t xml:space="preserve">10.0447940826416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2680110931396</t>
+    <t xml:space="preserve">10.2680101394653</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126544952393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3572988510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.491229057312</t>
+    <t xml:space="preserve">10.3572969436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912281036377</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
@@ -1073,55 +1073,55 @@
     <t xml:space="preserve">10.5358724594116</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4019403457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698026657104</t>
+    <t xml:space="preserve">10.4019422531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698036193848</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065958023071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6242046356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8521928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330114364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3962173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5786085128784</t>
+    <t xml:space="preserve">10.6242055892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8521938323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330104827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3962163925171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.213828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5786075592041</t>
   </si>
   <si>
     <t xml:space="preserve">10.4874134063721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4418163299561</t>
+    <t xml:space="preserve">10.4418153762817</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1226329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2594261169434</t>
+    <t xml:space="preserve">10.1226348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2594270706177</t>
   </si>
   <si>
     <t xml:space="preserve">10.0770359039307</t>
@@ -1136,25 +1136,25 @@
     <t xml:space="preserve">10.168231010437</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89464664459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84904861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48426818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43867301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986717224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106037139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785446166992</t>
+    <t xml:space="preserve">9.89464569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84904956817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48426914215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43867206573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986621856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785350799561</t>
   </si>
   <si>
     <t xml:space="preserve">9.66665935516357</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">9.25628185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16508674621582</t>
+    <t xml:space="preserve">9.16508769989014</t>
   </si>
   <si>
     <t xml:space="preserve">9.30187892913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21068477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39307308197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11948871612549</t>
+    <t xml:space="preserve">9.21068382263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39307403564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225547790527</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">11.1257762908936</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6273498535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6729469299316</t>
+    <t xml:space="preserve">11.627347946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6729459762573</t>
   </si>
   <si>
     <t xml:space="preserve">11.3993625640869</t>
@@ -1205,55 +1205,55 @@
     <t xml:space="preserve">11.3081665039062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0801801681519</t>
+    <t xml:space="preserve">11.0801782608032</t>
   </si>
   <si>
     <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713752746582</t>
+    <t xml:space="preserve">11.1713743209839</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.581750869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7185440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.85533618927</t>
+    <t xml:space="preserve">11.5817518234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.718544960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8553371429443</t>
   </si>
   <si>
     <t xml:space="preserve">11.9465322494507</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833234786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113098144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1745195388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9921283721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7641410827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4937009811401</t>
+    <t xml:space="preserve">12.083324432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113107681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1745185852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9921274185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7641401290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4937000274658</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320657730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9952726364136</t>
+    <t xml:space="preserve">13.1320638656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9952716827393</t>
   </si>
   <si>
     <t xml:space="preserve">12.9496746063232</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">12.6304931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7216873168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4481039047241</t>
+    <t xml:space="preserve">12.7216882705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4481029510498</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
@@ -1277,25 +1277,25 @@
     <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8584814071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0864677429199</t>
+    <t xml:space="preserve">12.8584804534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0864686965942</t>
   </si>
   <si>
     <t xml:space="preserve">11.9009342193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9433889389038</t>
+    <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
     <t xml:space="preserve">10.7154006958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02829456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810733795166</t>
+    <t xml:space="preserve">9.02829360961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810638427734</t>
   </si>
   <si>
     <t xml:space="preserve">7.93395566940308</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">7.6421332359314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.006911277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66351413726807</t>
+    <t xml:space="preserve">8.00691223144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66351509094238</t>
   </si>
   <si>
     <t xml:space="preserve">8.07986736297607</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73646926879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118919372559</t>
+    <t xml:space="preserve">8.73647212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
     <t xml:space="preserve">8.99181652069092</t>
@@ -1331,10 +1331,10 @@
     <t xml:space="preserve">10.0847988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94472980499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0381088256836</t>
+    <t xml:space="preserve">9.94473075866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0381078720093</t>
   </si>
   <si>
     <t xml:space="preserve">9.80466461181641</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5516862869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.458309173584</t>
+    <t xml:space="preserve">10.551685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4583082199097</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785076141357</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">10.7851314544678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.925196647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6450634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2987079620361</t>
+    <t xml:space="preserve">10.9251976013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6450624465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2987089157104</t>
   </si>
   <si>
     <t xml:space="preserve">11.485463142395</t>
@@ -1397,10 +1397,10 @@
     <t xml:space="preserve">11.2053308486938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4387760162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1119518280029</t>
+    <t xml:space="preserve">11.438775062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1119527816772</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520198822021</t>
@@ -1418,13 +1418,13 @@
     <t xml:space="preserve">11.6255311965942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3920860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5321531295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189083099365</t>
+    <t xml:space="preserve">11.3920850753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.532154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189092636108</t>
   </si>
   <si>
     <t xml:space="preserve">11.7655973434448</t>
@@ -1433,22 +1433,22 @@
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391077041626</t>
+    <t xml:space="preserve">12.1391086578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2791748046875</t>
+    <t xml:space="preserve">12.1857967376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2791738510132</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9990425109863</t>
+    <t xml:space="preserve">11.999041557312</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924196243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8122863769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3258628845215</t>
+    <t xml:space="preserve">12.0924186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8122854232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3258638381958</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">13.2596416473389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0728855133057</t>
+    <t xml:space="preserve">13.07288646698</t>
   </si>
   <si>
     <t xml:space="preserve">13.119574546814</t>
@@ -1490,28 +1490,28 @@
     <t xml:space="preserve">13.3063297271729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3530187606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864629745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930849075317</t>
+    <t xml:space="preserve">13.3530197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864639282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930858612061</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9132843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.633152961731</t>
+    <t xml:space="preserve">13.9132852554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6331520080566</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.559308052063</t>
+    <t xml:space="preserve">12.5593070983887</t>
   </si>
   <si>
     <t xml:space="preserve">13.0261964797974</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">12.9328193664551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8394403457642</t>
+    <t xml:space="preserve">12.8394412994385</t>
   </si>
   <si>
     <t xml:space="preserve">13.53977394104</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801746368408</t>
+    <t xml:space="preserve">14.3801736831665</t>
   </si>
   <si>
     <t xml:space="preserve">14.566930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3334846496582</t>
+    <t xml:space="preserve">14.3334865570068</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069959640503</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">15.0338182449341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0805063247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2672634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7536849975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8470621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.660306930542</t>
+    <t xml:space="preserve">15.0805072784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2672624588013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7536859512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8470630645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603078842163</t>
   </si>
   <si>
     <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1934194564819</t>
+    <t xml:space="preserve">14.1934175491333</t>
   </si>
   <si>
     <t xml:space="preserve">14.5202407836914</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732191085815</t>
+    <t xml:space="preserve">13.7732181549072</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401075363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5918321609497</t>
+    <t xml:space="preserve">14.2401084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.591833114624</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621971130371</t>
+    <t xml:space="preserve">15.1621961593628</t>
   </si>
   <si>
     <t xml:space="preserve">15.3998498916626</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">14.9720754623413</t>
   </si>
   <si>
-    <t xml:space="preserve">15.019606590271</t>
+    <t xml:space="preserve">15.0196056365967</t>
   </si>
   <si>
     <t xml:space="preserve">15.447380065918</t>
@@ -1688,13 +1688,13 @@
     <t xml:space="preserve">16.8257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4455184936523</t>
+    <t xml:space="preserve">16.4455165863037</t>
   </si>
   <si>
     <t xml:space="preserve">17.5387191772461</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0615520477295</t>
+    <t xml:space="preserve">18.0615501403809</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1709,10 +1709,10 @@
     <t xml:space="preserve">17.348596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7763710021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.871431350708</t>
+    <t xml:space="preserve">17.7763690948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8714294433594</t>
   </si>
   <si>
     <t xml:space="preserve">18.299201965332</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">19.3924007415771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9627666473389</t>
+    <t xml:space="preserve">19.9627685546875</t>
   </si>
   <si>
     <t xml:space="preserve">19.5825233459473</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">19.7726440429688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1528911590576</t>
+    <t xml:space="preserve">20.152889251709</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936172485352</t>
+    <t xml:space="preserve">21.2936191558838</t>
   </si>
   <si>
     <t xml:space="preserve">21.5788021087646</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034984588623</t>
+    <t xml:space="preserve">21.1034965515137</t>
   </si>
   <si>
     <t xml:space="preserve">22.1491641998291</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">22.0541038513184</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3392868041992</t>
+    <t xml:space="preserve">22.3392887115479</t>
   </si>
   <si>
     <t xml:space="preserve">22.6244697570801</t>
@@ -1787,19 +1787,19 @@
     <t xml:space="preserve">22.8145923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9590435028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8639812469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5331344604492</t>
+    <t xml:space="preserve">21.9590454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8639831542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5331325531006</t>
   </si>
   <si>
     <t xml:space="preserve">18.5843849182129</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2973403930664</t>
+    <t xml:space="preserve">19.297342300415</t>
   </si>
   <si>
     <t xml:space="preserve">20.9133758544922</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">22.2442264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0997734069824</t>
+    <t xml:space="preserve">23.0997714996338</t>
   </si>
   <si>
     <t xml:space="preserve">22.9096527099609</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7195301055908</t>
+    <t xml:space="preserve">22.7195281982422</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479496002197</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6775856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1072216033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319160461426</t>
+    <t xml:space="preserve">19.6775875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1072196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6319179534912</t>
   </si>
   <si>
     <t xml:space="preserve">17.2060050964355</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">18.2041435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5368556976318</t>
+    <t xml:space="preserve">18.5368537902832</t>
   </si>
   <si>
     <t xml:space="preserve">19.1547508239746</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988288879395</t>
+    <t xml:space="preserve">18.4988307952881</t>
   </si>
   <si>
     <t xml:space="preserve">18.7269763946533</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">18.3847599029541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2498111724854</t>
+    <t xml:space="preserve">19.2498092651367</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1910,40 +1910,40 @@
     <t xml:space="preserve">20.3905410766602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4856014251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4380722045898</t>
+    <t xml:space="preserve">20.4856033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4380702972412</t>
   </si>
   <si>
     <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8143920898438</t>
+    <t xml:space="preserve">17.8143939971924</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249214172363</t>
+    <t xml:space="preserve">17.1333637237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249195098877</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2072010040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7032775878906</t>
+    <t xml:space="preserve">19.2071990966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.703275680542</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816356658936</t>
+    <t xml:space="preserve">19.3816337585449</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1955,37 +1955,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.226583480835</t>
+    <t xml:space="preserve">19.2265815734863</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3507175445557</t>
+    <t xml:space="preserve">20.350715637207</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4476261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383499145508</t>
+    <t xml:space="preserve">21.2228908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.447624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383480072021</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.866174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001842498779</t>
+    <t xml:space="preserve">21.8043384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8661766052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001861572266</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239051818848</t>
+    <t xml:space="preserve">19.6239070892334</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723594665527</t>
+    <t xml:space="preserve">18.9746208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723575592041</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538070678711</t>
+    <t xml:space="preserve">20.2538089752197</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919708251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4651584625244</t>
+    <t xml:space="preserve">22.1919727325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074298858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.465160369873</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.610523223877</t>
+    <t xml:space="preserve">21.6105213165283</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1568984985352</t>
+    <t xml:space="preserve">20.1569004058838</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2579612731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734222412109</t>
+    <t xml:space="preserve">23.257963180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.676513671875</t>
+    <t xml:space="preserve">22.6765117645264</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156452178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7692680358887</t>
+    <t xml:space="preserve">18.3156433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.76926612854</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486850738525</t>
+    <t xml:space="preserve">22.9672374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486869812012</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600364685059</t>
+    <t xml:space="preserve">24.7600383758545</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754974365234</t>
+    <t xml:space="preserve">24.2754955291748</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9054012298584</t>
+    <t xml:space="preserve">24.905403137207</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.729118347168</t>
+    <t xml:space="preserve">25.7291202545166</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827411651611</t>
+    <t xml:space="preserve">27.2796497344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827430725098</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167526245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652088165283</t>
+    <t xml:space="preserve">25.1961269378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322116851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167545318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652069091797</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260269165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3105697631836</t>
+    <t xml:space="preserve">25.8260288238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.310567855835</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703773498535</t>
+    <t xml:space="preserve">27.5703754425049</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.768346786499</t>
+    <t xml:space="preserve">30.7683448791504</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.605447769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1209049224854</t>
+    <t xml:space="preserve">29.6054458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085411071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.120906829834</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.702356338501</t>
+    <t xml:space="preserve">29.7023544311523</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2339,16 +2339,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776210784912</t>
+    <t xml:space="preserve">30.4776229858398</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559791564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198905944824</t>
+    <t xml:space="preserve">31.1559810638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198925018311</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2357,16 +2357,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332744598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600830078125</t>
+    <t xml:space="preserve">30.2353496551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363639831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600849151611</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -2907,9 +2907,6 @@
   </si>
   <si>
     <t xml:space="preserve">24.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2000007629395</t>
   </si>
 </sst>
 </file>
@@ -60113,13 +60110,13 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.602962963</v>
+        <v>45509.649537037</v>
       </c>
       <c r="B2188" t="n">
-        <v>25457</v>
+        <v>32143</v>
       </c>
       <c r="C2188" t="n">
-        <v>24.3500003814697</v>
+        <v>24.5499992370605</v>
       </c>
       <c r="D2188" t="n">
         <v>23.1499996185303</v>
@@ -60128,10 +60125,10 @@
         <v>23.75</v>
       </c>
       <c r="F2188" t="n">
-        <v>24.2000007629395</v>
+        <v>24</v>
       </c>
       <c r="G2188" t="s">
-        <v>965</v>
+        <v>935</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="967">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262840270996</t>
+    <t xml:space="preserve">8.42262649536133</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947219848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578079223633</t>
+    <t xml:space="preserve">8.43947315216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578174591064</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31734466552734</t>
+    <t xml:space="preserve">8.31734371185303</t>
   </si>
   <si>
     <t xml:space="preserve">8.19521522521973</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29207706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731525421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18679332733154</t>
+    <t xml:space="preserve">8.29207611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363807678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18679523468018</t>
   </si>
   <si>
     <t xml:space="preserve">8.08572196960449</t>
@@ -86,58 +86,58 @@
     <t xml:space="preserve">8.03518581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03097534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676200866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149536132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780443191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304357528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619787216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197364807129</t>
+    <t xml:space="preserve">8.03097629547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676391601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149726867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307346343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9678053855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145124435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304452896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619644165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356550216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197221755981</t>
   </si>
   <si>
     <t xml:space="preserve">7.66880130767822</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66459035873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357782363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9172682762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203247070312</t>
+    <t xml:space="preserve">7.66459178924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7488169670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357877731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726922988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203151702881</t>
   </si>
   <si>
     <t xml:space="preserve">8.22048377990723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16994857788086</t>
+    <t xml:space="preserve">8.16994762420654</t>
   </si>
   <si>
     <t xml:space="preserve">8.30471038818359</t>
@@ -146,61 +146,61 @@
     <t xml:space="preserve">8.25417613983154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11941432952881</t>
+    <t xml:space="preserve">8.11941337585449</t>
   </si>
   <si>
     <t xml:space="preserve">8.07730007171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48158550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44789409637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41420364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155418395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4256010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578357696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55456352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27084445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2966365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3267297744751</t>
+    <t xml:space="preserve">8.33839988708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4815845489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44789600372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41420459747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560195922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578453063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55456256866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27084636688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29663753509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32672882080078</t>
   </si>
   <si>
     <t xml:space="preserve">8.25364971160889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23645496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962440490723</t>
+    <t xml:space="preserve">8.23645305633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962345123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.33102703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33532619476318</t>
+    <t xml:space="preserve">8.33532524108887</t>
   </si>
   <si>
     <t xml:space="preserve">8.32242965698242</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">8.38261318206787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21066284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785568237305</t>
+    <t xml:space="preserve">8.21066188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785663604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.16767501831055</t>
@@ -221,22 +221,22 @@
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572372436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273542404175</t>
+    <t xml:space="preserve">8.03871154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572277069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273447036743</t>
   </si>
   <si>
     <t xml:space="preserve">8.24505233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05160713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675977706909</t>
+    <t xml:space="preserve">8.05160522460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675882339478</t>
   </si>
   <si>
     <t xml:space="preserve">7.82377290725708</t>
@@ -245,28 +245,28 @@
     <t xml:space="preserve">8.05590629577637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92694234848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9097466468811</t>
+    <t xml:space="preserve">7.92694425582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974760055542</t>
   </si>
   <si>
     <t xml:space="preserve">7.73779678344727</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78078413009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64053916931152</t>
+    <t xml:space="preserve">7.78078460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133232116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3138313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5975513458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.64913749694824</t>
@@ -275,40 +275,40 @@
     <t xml:space="preserve">8.72651481628418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91565990447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84687995910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63194274902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66633319854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895492553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352794647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94145393371582</t>
+    <t xml:space="preserve">8.9156608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63194179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66633224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895397186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145202636719</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547924041748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76950168609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02742862701416</t>
+    <t xml:space="preserve">8.76950263977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02742958068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.15639209747314</t>
@@ -317,43 +317,43 @@
     <t xml:space="preserve">9.2337703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19937992095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2423677444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4143180847168</t>
+    <t xml:space="preserve">9.19938087463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24236679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431999206543</t>
   </si>
   <si>
     <t xml:space="preserve">9.32834434509277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31974601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20797824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730781555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962425231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5432825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925815582275</t>
+    <t xml:space="preserve">9.31974506378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20797729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.225172996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.440110206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962520599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328346252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925720214844</t>
   </si>
   <si>
     <t xml:space="preserve">9.52608776092529</t>
@@ -368,13 +368,13 @@
     <t xml:space="preserve">9.58626937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68084335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206340789795</t>
+    <t xml:space="preserve">9.6808443069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523284912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206245422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.5518798828125</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">9.5604772567749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65505123138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663452148438</t>
+    <t xml:space="preserve">9.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663547515869</t>
   </si>
   <si>
     <t xml:space="preserve">9.88718414306641</t>
@@ -398,52 +398,52 @@
     <t xml:space="preserve">10.4030380249023</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2826709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451101303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.102123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1279163360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333433151245</t>
+    <t xml:space="preserve">10.2826719284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451110839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1279144287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333423614502</t>
   </si>
   <si>
     <t xml:space="preserve">10.0591354370117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1623058319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084650039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1880989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84419631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87858772277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8527946472168</t>
+    <t xml:space="preserve">10.1623048782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.308464050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1880979537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84419536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.878586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85279369354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.231086730957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.007550239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2740745544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4460258483887</t>
+    <t xml:space="preserve">10.0075492858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.274073600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4460248947144</t>
   </si>
   <si>
     <t xml:space="preserve">10.6351709365845</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">10.6695613861084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9618797302246</t>
+    <t xml:space="preserve">10.9618787765503</t>
   </si>
   <si>
     <t xml:space="preserve">11.0736455917358</t>
@@ -464,61 +464,61 @@
     <t xml:space="preserve">11.0220613479614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1768169403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198057174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.443341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302307128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7528533935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496829986572</t>
+    <t xml:space="preserve">11.1768188476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066942214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302316665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7528524398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496839523315</t>
   </si>
   <si>
     <t xml:space="preserve">11.7614498138428</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8732194900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505977630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107793807983</t>
+    <t xml:space="preserve">11.8732175827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505958557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107803344727</t>
   </si>
   <si>
     <t xml:space="preserve">11.8388290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7700481414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7786455154419</t>
+    <t xml:space="preserve">11.7700471878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786464691162</t>
   </si>
   <si>
     <t xml:space="preserve">11.7975368499756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9024038314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674478530884</t>
+    <t xml:space="preserve">11.9024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8674488067627</t>
   </si>
   <si>
     <t xml:space="preserve">11.8499708175659</t>
@@ -533,43 +533,43 @@
     <t xml:space="preserve">12.0859203338623</t>
   </si>
   <si>
-    <t xml:space="preserve">12.243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5403461456299</t>
+    <t xml:space="preserve">12.2432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966516494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5403442382812</t>
   </si>
   <si>
     <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3218727111816</t>
+    <t xml:space="preserve">12.3218717575073</t>
   </si>
   <si>
     <t xml:space="preserve">12.1733102798462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0160093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849277496338</t>
+    <t xml:space="preserve">12.0160102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286203384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849258422852</t>
   </si>
   <si>
     <t xml:space="preserve">12.0247497558594</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0946607589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1383562088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2170057296753</t>
+    <t xml:space="preserve">12.0946598052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.138355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2170038223267</t>
   </si>
   <si>
     <t xml:space="preserve">12.2257442474365</t>
@@ -587,28 +587,28 @@
     <t xml:space="preserve">11.9897937774658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0684442520142</t>
+    <t xml:space="preserve">12.0684432983398</t>
   </si>
   <si>
     <t xml:space="preserve">12.0509662628174</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9985322952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422267913818</t>
+    <t xml:space="preserve">11.9985313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422258377075</t>
   </si>
   <si>
     <t xml:space="preserve">12.0771818161011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034002304077</t>
+    <t xml:space="preserve">12.1033992767334</t>
   </si>
   <si>
     <t xml:space="preserve">11.8936643600464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8412313461304</t>
+    <t xml:space="preserve">11.8412322998047</t>
   </si>
   <si>
     <t xml:space="preserve">11.8062763214111</t>
@@ -617,49 +617,49 @@
     <t xml:space="preserve">11.7800588607788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7451019287109</t>
+    <t xml:space="preserve">11.7451028823853</t>
   </si>
   <si>
     <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5353689193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5266313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.447979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.395546913147</t>
+    <t xml:space="preserve">11.5353698730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5266304016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955478668213</t>
   </si>
   <si>
     <t xml:space="preserve">11.3605918884277</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3518533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732000350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431119918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906799316406</t>
+    <t xml:space="preserve">11.3518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207698822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431129455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906808853149</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2295083999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1858129501343</t>
+    <t xml:space="preserve">11.2295074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1858139038086</t>
   </si>
   <si>
     <t xml:space="preserve">11.2469844818115</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">11.2994184494019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3693294525146</t>
+    <t xml:space="preserve">11.369330406189</t>
   </si>
   <si>
     <t xml:space="preserve">11.4829359054565</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567193984985</t>
+    <t xml:space="preserve">11.4567184448242</t>
   </si>
   <si>
     <t xml:space="preserve">11.3256359100342</t>
@@ -692,13 +692,13 @@
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168973922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878047943115</t>
+    <t xml:space="preserve">11.3168964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878028869629</t>
   </si>
   <si>
     <t xml:space="preserve">11.3868074417114</t>
@@ -707,28 +707,28 @@
     <t xml:space="preserve">11.4042863845825</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5091533660889</t>
+    <t xml:space="preserve">11.5091524124146</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1246404647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683359146118</t>
+    <t xml:space="preserve">11.1246395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683349609375</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88371467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35064029693604</t>
+    <t xml:space="preserve">9.883713722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14964580535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35064125061035</t>
   </si>
   <si>
     <t xml:space="preserve">9.51667976379395</t>
@@ -743,46 +743,46 @@
     <t xml:space="preserve">9.73515319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74389171600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83127975463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70893478393555</t>
+    <t xml:space="preserve">9.7438907623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83128070831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
     <t xml:space="preserve">9.53415775299072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48172378540039</t>
+    <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
     <t xml:space="preserve">9.39433479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43803119659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55163669586182</t>
+    <t xml:space="preserve">9.43802928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.42055130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37685775756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2632532119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15838241577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34190273284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40307426452637</t>
+    <t xml:space="preserve">9.37685680389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26325130462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1583833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34190082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40307331085205</t>
   </si>
   <si>
     <t xml:space="preserve">9.84002017974854</t>
@@ -791,34 +791,34 @@
     <t xml:space="preserve">9.79632568359375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80506324768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7875862121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380367279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90119171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.857497215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22829723358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07099533081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28072834014893</t>
+    <t xml:space="preserve">9.80506420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78758716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380271911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9011926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85749816894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22829627990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07099437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28072929382324</t>
   </si>
   <si>
     <t xml:space="preserve">9.25451278686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97984218597412</t>
+    <t xml:space="preserve">9.97984313964844</t>
   </si>
   <si>
     <t xml:space="preserve">9.87497520446777</t>
@@ -827,43 +827,43 @@
     <t xml:space="preserve">10.0497541427612</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91866970062256</t>
+    <t xml:space="preserve">9.91867065429688</t>
   </si>
   <si>
     <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63902473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767425537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72641372680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61280822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56911277770996</t>
+    <t xml:space="preserve">9.63902568817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72641468048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61280918121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56911373138428</t>
   </si>
   <si>
     <t xml:space="preserve">9.68271827697754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30694389343262</t>
+    <t xml:space="preserve">9.30694580078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.36811828613281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70019912719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650272369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060596466064</t>
+    <t xml:space="preserve">9.70019817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060577392578</t>
   </si>
   <si>
     <t xml:space="preserve">9.08847332000732</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">9.04477787017822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21955680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586231231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216781616211</t>
+    <t xml:space="preserve">9.21955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216876983643</t>
   </si>
   <si>
     <t xml:space="preserve">8.95738983154297</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">8.91369438171387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86999988555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891544342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7826099395752</t>
+    <t xml:space="preserve">8.86999893188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891735076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78261089324951</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161544799805</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2412109375</t>
+    <t xml:space="preserve">9.24120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.15192317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727787017822</t>
+    <t xml:space="preserve">9.10727882385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263542175293</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">8.97334861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.892991065979</t>
+    <t xml:space="preserve">8.89299201965332</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">8.71441555023193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78584671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227310180664</t>
+    <t xml:space="preserve">8.78584575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227405548096</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">8.66084480285645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57155799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39298343658447</t>
+    <t xml:space="preserve">8.57155704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
     <t xml:space="preserve">8.44655513763428</t>
@@ -974,25 +974,25 @@
     <t xml:space="preserve">8.41084003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91084766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798915863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92870426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370426177979</t>
+    <t xml:space="preserve">8.91084671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92870616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370330810547</t>
   </si>
   <si>
     <t xml:space="preserve">9.37514019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50906848907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442890167236</t>
+    <t xml:space="preserve">9.50906944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442794799805</t>
   </si>
   <si>
     <t xml:space="preserve">9.33049774169922</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">9.28585338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5894136428833</t>
+    <t xml:space="preserve">8.58941459655762</t>
   </si>
   <si>
     <t xml:space="preserve">8.5358419418335</t>
@@ -1010,13 +1010,13 @@
     <t xml:space="preserve">8.62512874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441173553467</t>
+    <t xml:space="preserve">8.46441268920898</t>
   </si>
   <si>
     <t xml:space="preserve">8.35726833343506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42869853973389</t>
+    <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
     <t xml:space="preserve">8.25012302398682</t>
@@ -1025,10 +1025,10 @@
     <t xml:space="preserve">8.30369567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583717346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33941078186035</t>
+    <t xml:space="preserve">8.28583812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33940982818604</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512588500977</t>
@@ -1043,64 +1043,64 @@
     <t xml:space="preserve">9.41978359222412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77693176269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73228931427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680101394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126544952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4912300109863</t>
+    <t xml:space="preserve">9.55371475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77693271636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7322883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.268012046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126535415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572969436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912281036377</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358734130859</t>
+    <t xml:space="preserve">10.5358724594116</t>
   </si>
   <si>
     <t xml:space="preserve">10.4019422531128</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805139541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698017120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065938949585</t>
+    <t xml:space="preserve">10.5805158615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233657836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698026657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065958023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242055892944</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8521919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330095291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3962173461914</t>
+    <t xml:space="preserve">10.8521928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330104827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3962163925171</t>
   </si>
   <si>
     <t xml:space="preserve">10.2138290405273</t>
@@ -1112,97 +1112,97 @@
     <t xml:space="preserve">10.4874134063721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4418153762817</t>
+    <t xml:space="preserve">10.4418144226074</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
-    <t xml:space="preserve">10.122633934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.259425163269</t>
+    <t xml:space="preserve">10.1226348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2594270706177</t>
   </si>
   <si>
     <t xml:space="preserve">10.0770359039307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0314378738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3050231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1682300567627</t>
+    <t xml:space="preserve">10.0314388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3050222396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.168231010437</t>
   </si>
   <si>
     <t xml:space="preserve">9.89464569091797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84904956817627</t>
+    <t xml:space="preserve">9.84904861450195</t>
   </si>
   <si>
     <t xml:space="preserve">9.48426914215088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43867111206055</t>
+    <t xml:space="preserve">9.43867206573486</t>
   </si>
   <si>
     <t xml:space="preserve">9.52986621856689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62106227874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785350799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66666030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57546329498291</t>
+    <t xml:space="preserve">9.62106132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785446166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66665935516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
     <t xml:space="preserve">9.25628185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1650857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30187797546387</t>
+    <t xml:space="preserve">9.16508769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3018798828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.21068477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39307498931885</t>
+    <t xml:space="preserve">9.39307403564453</t>
   </si>
   <si>
     <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71225452423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80345153808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9402437210083</t>
+    <t xml:space="preserve">9.71225547790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80345058441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">11.1257762908936</t>
   </si>
   <si>
-    <t xml:space="preserve">11.627347946167</t>
+    <t xml:space="preserve">11.6273488998413</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3993616104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081674575806</t>
+    <t xml:space="preserve">11.3993625640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081665039062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0801792144775</t>
@@ -1220,22 +1220,22 @@
     <t xml:space="preserve">11.5817518234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7185459136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8553380966187</t>
+    <t xml:space="preserve">11.7185440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8553371429443</t>
   </si>
   <si>
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.083324432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1745185852051</t>
+    <t xml:space="preserve">12.0833253860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1745195388794</t>
   </si>
   <si>
     <t xml:space="preserve">11.9921283721924</t>
@@ -1250,19 +1250,19 @@
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320638656616</t>
+    <t xml:space="preserve">13.1320648193359</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952716827393</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496765136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688570022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6304941177368</t>
+    <t xml:space="preserve">12.9496746063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688579559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6304931640625</t>
   </si>
   <si>
     <t xml:space="preserve">12.7216873168945</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">12.4481029510498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5848960876465</t>
+    <t xml:space="preserve">12.5848970413208</t>
   </si>
   <si>
     <t xml:space="preserve">12.8128833770752</t>
@@ -1283,28 +1283,28 @@
     <t xml:space="preserve">13.0864686965942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.900933265686</t>
+    <t xml:space="preserve">11.9009342193604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7154006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02829456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93395662307739</t>
+    <t xml:space="preserve">10.7154016494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02829360961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
     <t xml:space="preserve">7.64213228225708</t>
   </si>
   <si>
-    <t xml:space="preserve">8.006911277771</t>
+    <t xml:space="preserve">8.00691223144531</t>
   </si>
   <si>
     <t xml:space="preserve">8.66351509094238</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">8.07986736297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57231998443604</t>
+    <t xml:space="preserve">8.57231903076172</t>
   </si>
   <si>
     <t xml:space="preserve">8.73647117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79118824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99181747436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34747695922852</t>
+    <t xml:space="preserve">8.79118919372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99181652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3474760055542</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94472980499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0381088256836</t>
+    <t xml:space="preserve">9.94473075866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0381078720093</t>
   </si>
   <si>
     <t xml:space="preserve">9.80466461181641</t>
@@ -1346,22 +1346,22 @@
     <t xml:space="preserve">9.99141979217529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2715530395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89804363250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5516862869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.458309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785085678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7384414672852</t>
+    <t xml:space="preserve">10.2715539932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89804267883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.551685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4583082199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785076141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7384405136108</t>
   </si>
   <si>
     <t xml:space="preserve">11.018575668335</t>
@@ -1370,22 +1370,22 @@
     <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1586418151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7851305007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.925196647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6450634002686</t>
+    <t xml:space="preserve">11.1586408615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7851314544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9251976013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6450624465942</t>
   </si>
   <si>
     <t xml:space="preserve">11.2987089157104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4854640960693</t>
+    <t xml:space="preserve">11.485463142395</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">11.438775062561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1119518280029</t>
+    <t xml:space="preserve">11.1119527816772</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520198822021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9718866348267</t>
+    <t xml:space="preserve">10.9718856811523</t>
   </si>
   <si>
     <t xml:space="preserve">11.0652637481689</t>
@@ -1415,16 +1415,16 @@
     <t xml:space="preserve">11.5788412094116</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6255302429199</t>
+    <t xml:space="preserve">11.6255311965942</t>
   </si>
   <si>
     <t xml:space="preserve">11.3920850753784</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5321531295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189083099365</t>
+    <t xml:space="preserve">11.532154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189092636108</t>
   </si>
   <si>
     <t xml:space="preserve">11.7655973434448</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857957839966</t>
+    <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
     <t xml:space="preserve">12.2791738510132</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">12.0924186706543</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8122863769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3258628845215</t>
+    <t xml:space="preserve">11.8122854232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3258638381958</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
@@ -1475,13 +1475,13 @@
     <t xml:space="preserve">13.2596416473389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0728855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1195735931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3997087478638</t>
+    <t xml:space="preserve">13.07288646698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.119574546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3997077941895</t>
   </si>
   <si>
     <t xml:space="preserve">13.4463968276978</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9132843017578</t>
+    <t xml:space="preserve">13.9132852554321</t>
   </si>
   <si>
     <t xml:space="preserve">13.6331520080566</t>
@@ -1514,31 +1514,31 @@
     <t xml:space="preserve">12.5593070983887</t>
   </si>
   <si>
-    <t xml:space="preserve">13.026195526123</t>
+    <t xml:space="preserve">13.0261964797974</t>
   </si>
   <si>
     <t xml:space="preserve">12.9328193664551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8394403457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5397748947144</t>
+    <t xml:space="preserve">12.8394412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.53977394104</t>
   </si>
   <si>
     <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0533533096313</t>
+    <t xml:space="preserve">14.053352355957</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801746368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5669298171997</t>
+    <t xml:space="preserve">14.3801736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.566930770874</t>
   </si>
   <si>
     <t xml:space="preserve">14.3334865570068</t>
@@ -1550,19 +1550,19 @@
     <t xml:space="preserve">14.9404411315918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8937520980835</t>
+    <t xml:space="preserve">14.8937511444092</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338182449341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0805063247681</t>
+    <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
     <t xml:space="preserve">15.2672624588013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7536849975586</t>
+    <t xml:space="preserve">14.7536859512329</t>
   </si>
   <si>
     <t xml:space="preserve">14.8470630645752</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1934185028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202417373657</t>
+    <t xml:space="preserve">14.1934175491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202407836914</t>
   </si>
   <si>
     <t xml:space="preserve">13.8665971755981</t>
@@ -1586,16 +1586,16 @@
     <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732191085815</t>
+    <t xml:space="preserve">13.7732181549072</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1738843917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2401075363159</t>
+    <t xml:space="preserve">15.173885345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2401084899902</t>
   </si>
   <si>
     <t xml:space="preserve">14.6393632888794</t>
@@ -1616,13 +1616,13 @@
     <t xml:space="preserve">15.2572574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3047876358032</t>
+    <t xml:space="preserve">15.3047885894775</t>
   </si>
   <si>
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621971130371</t>
+    <t xml:space="preserve">15.1621961593628</t>
   </si>
   <si>
     <t xml:space="preserve">15.3998498916626</t>
@@ -1637,16 +1637,16 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424404144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.972074508667</t>
+    <t xml:space="preserve">15.5424394607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9720754623413</t>
   </si>
   <si>
     <t xml:space="preserve">15.0196056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4473791122437</t>
+    <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
     <t xml:space="preserve">15.7325601577759</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">16.1603355407715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0177459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.350456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0652751922607</t>
+    <t xml:space="preserve">16.0177440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3504581451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
     <t xml:space="preserve">16.7782306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1109447479248</t>
+    <t xml:space="preserve">17.1109428405762</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">16.4455165863037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5387172698975</t>
+    <t xml:space="preserve">17.5387191772461</t>
   </si>
   <si>
     <t xml:space="preserve">18.0615501403809</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">16.8732929229736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3485946655273</t>
+    <t xml:space="preserve">17.348596572876</t>
   </si>
   <si>
     <t xml:space="preserve">17.7763690948486</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">18.8220367431641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0121574401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2022838592529</t>
+    <t xml:space="preserve">19.0121593475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2022819519043</t>
   </si>
   <si>
     <t xml:space="preserve">20.0578269958496</t>
@@ -1736,16 +1736,16 @@
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924026489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9627666473389</t>
+    <t xml:space="preserve">19.3924007415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9627685546875</t>
   </si>
   <si>
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726459503174</t>
+    <t xml:space="preserve">19.7726440429688</t>
   </si>
   <si>
     <t xml:space="preserve">20.152889251709</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">21.2936191558838</t>
   </si>
   <si>
-    <t xml:space="preserve">21.578800201416</t>
+    <t xml:space="preserve">21.5788021087646</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
@@ -1769,25 +1769,25 @@
     <t xml:space="preserve">21.1034965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1491661071777</t>
+    <t xml:space="preserve">22.1491641998291</t>
   </si>
   <si>
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.054105758667</t>
+    <t xml:space="preserve">22.0541038513184</t>
   </si>
   <si>
     <t xml:space="preserve">22.3392887115479</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6244678497314</t>
+    <t xml:space="preserve">22.6244697570801</t>
   </si>
   <si>
     <t xml:space="preserve">22.8145923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9590435028076</t>
+    <t xml:space="preserve">21.9590454101562</t>
   </si>
   <si>
     <t xml:space="preserve">21.8639831542969</t>
@@ -1799,22 +1799,22 @@
     <t xml:space="preserve">18.5843849182129</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2973403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9133739471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2442245483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0997734069824</t>
+    <t xml:space="preserve">19.297342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9133758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2442264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0997714996338</t>
   </si>
   <si>
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837417602539</t>
+    <t xml:space="preserve">21.4837398529053</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1823,19 +1823,19 @@
     <t xml:space="preserve">21.6738605499268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8183155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3430099487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0047130584717</t>
+    <t xml:space="preserve">20.8183135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3430118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0047149658203</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7195301055908</t>
+    <t xml:space="preserve">22.7195281982422</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479496002197</t>
@@ -1844,37 +1844,37 @@
     <t xml:space="preserve">20.7232532501221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1985549926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6775856018066</t>
+    <t xml:space="preserve">21.1985569000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6775875091553</t>
   </si>
   <si>
     <t xml:space="preserve">19.1072196960449</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6319160461426</t>
+    <t xml:space="preserve">18.6319179534912</t>
   </si>
   <si>
     <t xml:space="preserve">17.2060050964355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9189624786377</t>
+    <t xml:space="preserve">17.9189605712891</t>
   </si>
   <si>
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337776184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1566143035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2041416168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5368556976318</t>
+    <t xml:space="preserve">17.6337757110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1566123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2041435241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5368537902832</t>
   </si>
   <si>
     <t xml:space="preserve">19.1547508239746</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">18.4988307952881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.726978302002</t>
+    <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
     <t xml:space="preserve">18.2136497497559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3847579956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2498111724854</t>
+    <t xml:space="preserve">18.3847599029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2498092651367</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">20.3905410766602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4856014251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4380722045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7649993896484</t>
+    <t xml:space="preserve">20.4856033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4380702972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
     <t xml:space="preserve">17.8143939971924</t>
@@ -2910,6 +2910,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.8999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9500007629395</t>
   </si>
 </sst>
 </file>
@@ -60191,7 +60194,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6495023148</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>16614</v>
@@ -60212,6 +60215,32 @@
         <v>942</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6494212963</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>9168</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>24.3999996185303</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>23.7999992370605</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>23.7999992370605</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>23.9500007629395</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>966</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262649536133</t>
+    <t xml:space="preserve">8.42262744903564</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947315216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578174591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21206188201904</t>
+    <t xml:space="preserve">8.43947219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21206092834473</t>
   </si>
   <si>
     <t xml:space="preserve">8.31734371185303</t>
@@ -62,19 +62,19 @@
     <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29207611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731430053711</t>
+    <t xml:space="preserve">8.29207706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731334686279</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363807678223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18679523468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572196960449</t>
+    <t xml:space="preserve">8.18679428100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572292327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.13625717163086</t>
@@ -83,85 +83,85 @@
     <t xml:space="preserve">8.11520195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03518581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097629547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676391601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149726867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307346343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9678053855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145124435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304452896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619644165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356550216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197221755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880130767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459178924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7488169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357877731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726922988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203151702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048377990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994762420654</t>
+    <t xml:space="preserve">8.03518676757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097438812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676296234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149536132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780586242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304309844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619787216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356502532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7319712638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880178451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66458988189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881505966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357973098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203056335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048282623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994857788086</t>
   </si>
   <si>
     <t xml:space="preserve">8.30471038818359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25417613983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941337585449</t>
+    <t xml:space="preserve">8.25417518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941242218018</t>
   </si>
   <si>
     <t xml:space="preserve">8.07730007171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33839988708496</t>
+    <t xml:space="preserve">8.33840084075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.4815845489502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44789600372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41420459747314</t>
+    <t xml:space="preserve">8.44789409637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41420364379883</t>
   </si>
   <si>
     <t xml:space="preserve">8.32155513763428</t>
@@ -170,22 +170,22 @@
     <t xml:space="preserve">8.27944183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42560195922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578453063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55456256866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27084636688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29663753509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32672882080078</t>
+    <t xml:space="preserve">8.42560005187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578262329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55456352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27084350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2966365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3267297744751</t>
   </si>
   <si>
     <t xml:space="preserve">8.25364971160889</t>
@@ -194,25 +194,25 @@
     <t xml:space="preserve">8.23645305633545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33962345123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532524108887</t>
+    <t xml:space="preserve">8.33962535858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102798461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.32242965698242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38261318206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21066188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785663604736</t>
+    <t xml:space="preserve">8.38261222839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21066379547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785568237305</t>
   </si>
   <si>
     <t xml:space="preserve">8.16767501831055</t>
@@ -224,49 +224,49 @@
     <t xml:space="preserve">8.03871154785156</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99572277069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273447036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505233764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160522460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675882339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377290725708</t>
+    <t xml:space="preserve">7.99572324752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273542404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2450532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86676073074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377243041992</t>
   </si>
   <si>
     <t xml:space="preserve">8.05590629577637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92694425582886</t>
+    <t xml:space="preserve">7.92694282531738</t>
   </si>
   <si>
     <t xml:space="preserve">7.90974760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73779678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133232116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3138313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5975513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64054012298584</t>
+    <t xml:space="preserve">7.73779630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078365325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133375167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383228302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755039215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64053916931152</t>
   </si>
   <si>
     <t xml:space="preserve">8.64913749694824</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">8.72651481628418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9156608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84688186645508</t>
+    <t xml:space="preserve">8.91566181182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84687995910645</t>
   </si>
   <si>
     <t xml:space="preserve">8.63194179534912</t>
@@ -287,52 +287,52 @@
     <t xml:space="preserve">8.66633224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59325408935547</t>
+    <t xml:space="preserve">8.59325122833252</t>
   </si>
   <si>
     <t xml:space="preserve">8.58895397186279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68352603912354</t>
+    <t xml:space="preserve">8.68352699279785</t>
   </si>
   <si>
     <t xml:space="preserve">8.70072269439697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94145202636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76950263977051</t>
+    <t xml:space="preserve">8.94145393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547828674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76950168609619</t>
   </si>
   <si>
     <t xml:space="preserve">9.02742958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15639209747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2337703704834</t>
+    <t xml:space="preserve">9.15639305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23376941680908</t>
   </si>
   <si>
     <t xml:space="preserve">9.19938087463379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24236679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41431999206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31974506378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20797729492188</t>
+    <t xml:space="preserve">9.24236869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431903839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31974697113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20797634124756</t>
   </si>
   <si>
     <t xml:space="preserve">9.225172996521</t>
@@ -341,16 +341,16 @@
     <t xml:space="preserve">9.440110206604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45730686187744</t>
+    <t xml:space="preserve">9.45730590820312</t>
   </si>
   <si>
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74962520599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54328346252441</t>
+    <t xml:space="preserve">9.74962329864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5432825088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.62925720214844</t>
@@ -359,25 +359,25 @@
     <t xml:space="preserve">9.52608776092529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67224597930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62065982818604</t>
+    <t xml:space="preserve">9.67224502563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62065887451172</t>
   </si>
   <si>
     <t xml:space="preserve">9.58626937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6808443069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523284912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206245422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5518798828125</t>
+    <t xml:space="preserve">9.68084335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55188083648682</t>
   </si>
   <si>
     <t xml:space="preserve">9.5604772567749</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">9.88718414306641</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2138910293579</t>
+    <t xml:space="preserve">10.2138900756836</t>
   </si>
   <si>
     <t xml:space="preserve">10.4030380249023</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2826719284058</t>
+    <t xml:space="preserve">10.2826709747314</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451110839844</t>
@@ -407,16 +407,16 @@
     <t xml:space="preserve">10.1021242141724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279144287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333423614502</t>
+    <t xml:space="preserve">10.1279153823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333433151245</t>
   </si>
   <si>
     <t xml:space="preserve">10.0591354370117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1623048782349</t>
+    <t xml:space="preserve">10.1623067855835</t>
   </si>
   <si>
     <t xml:space="preserve">10.308464050293</t>
@@ -425,28 +425,28 @@
     <t xml:space="preserve">10.1880979537964</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84419536590576</t>
+    <t xml:space="preserve">9.84419631958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85279369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.231086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075492858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.274073600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4460248947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351709365845</t>
+    <t xml:space="preserve">9.8527946472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2310857772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.007550239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2740745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4460258483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351699829102</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867570877075</t>
@@ -455,22 +455,22 @@
     <t xml:space="preserve">10.6695613861084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9618787765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0736455917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0220613479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768188476562</t>
+    <t xml:space="preserve">10.961877822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0736465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0220623016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768178939819</t>
   </si>
   <si>
     <t xml:space="preserve">11.2198047637939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4433422088623</t>
+    <t xml:space="preserve">11.443341255188</t>
   </si>
   <si>
     <t xml:space="preserve">11.6066942214966</t>
@@ -479,22 +479,22 @@
     <t xml:space="preserve">11.8302316665649</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7528524398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614498138428</t>
+    <t xml:space="preserve">11.7528533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614517211914</t>
   </si>
   <si>
     <t xml:space="preserve">11.8732175827026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9505958557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849863052368</t>
+    <t xml:space="preserve">11.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849853515625</t>
   </si>
   <si>
     <t xml:space="preserve">12.0107803344727</t>
@@ -503,34 +503,34 @@
     <t xml:space="preserve">11.8388290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7700471878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926708221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7786464691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024047851562</t>
+    <t xml:space="preserve">11.7700481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926698684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975378036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024038314819</t>
   </si>
   <si>
     <t xml:space="preserve">11.8674488067627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8499708175659</t>
+    <t xml:space="preserve">11.8499717712402</t>
   </si>
   <si>
     <t xml:space="preserve">11.9723148345947</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0597038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859203338623</t>
+    <t xml:space="preserve">12.0597057342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859222412109</t>
   </si>
   <si>
     <t xml:space="preserve">12.2432222366333</t>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">12.4966516494751</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5403442382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2344827651978</t>
+    <t xml:space="preserve">12.5403451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2344837188721</t>
   </si>
   <si>
     <t xml:space="preserve">12.3218717575073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1733102798462</t>
+    <t xml:space="preserve">12.1733112335205</t>
   </si>
   <si>
     <t xml:space="preserve">12.0160102844238</t>
@@ -560,25 +560,25 @@
     <t xml:space="preserve">11.8849258422852</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0247497558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.138355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2170038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257442474365</t>
+    <t xml:space="preserve">12.0247488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1383562088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.217004776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257432937622</t>
   </si>
   <si>
     <t xml:space="preserve">11.9635763168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2082662582397</t>
+    <t xml:space="preserve">12.2082672119141</t>
   </si>
   <si>
     <t xml:space="preserve">12.1208772659302</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">12.0684432983398</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0509662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422258377075</t>
+    <t xml:space="preserve">12.0509653091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985303878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
     <t xml:space="preserve">12.0771818161011</t>
@@ -611,25 +611,25 @@
     <t xml:space="preserve">11.8412322998047</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8062763214111</t>
+    <t xml:space="preserve">11.8062772750854</t>
   </si>
   <si>
     <t xml:space="preserve">11.7800588607788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7451028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014093399048</t>
+    <t xml:space="preserve">11.7451038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014083862305</t>
   </si>
   <si>
     <t xml:space="preserve">11.5353698730469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5266304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4479789733887</t>
+    <t xml:space="preserve">11.526629447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479808807373</t>
   </si>
   <si>
     <t xml:space="preserve">11.3955478668213</t>
@@ -641,34 +641,34 @@
     <t xml:space="preserve">11.3518524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2732009887695</t>
+    <t xml:space="preserve">11.2732019424438</t>
   </si>
   <si>
     <t xml:space="preserve">11.2207698822021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431129455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984230041504</t>
+    <t xml:space="preserve">11.3431119918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0984239578247</t>
   </si>
   <si>
     <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1858139038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469844818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994184494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.369330406189</t>
+    <t xml:space="preserve">11.1858129501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469854354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994194030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3693294525146</t>
   </si>
   <si>
     <t xml:space="preserve">11.4829359054565</t>
@@ -680,40 +680,40 @@
     <t xml:space="preserve">11.7101469039917</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5790643692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4567184448242</t>
+    <t xml:space="preserve">11.5790634155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4567193984985</t>
   </si>
   <si>
     <t xml:space="preserve">11.3256359100342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4305028915405</t>
+    <t xml:space="preserve">11.4305038452148</t>
   </si>
   <si>
     <t xml:space="preserve">11.3168964385986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2032899856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878028869629</t>
+    <t xml:space="preserve">11.2032909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878038406372</t>
   </si>
   <si>
     <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4042863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091524124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1159019470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1246395111084</t>
+    <t xml:space="preserve">11.4042873382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091533660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1159029006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1246404647827</t>
   </si>
   <si>
     <t xml:space="preserve">11.1683349609375</t>
@@ -722,16 +722,16 @@
     <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">9.883713722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14964580535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35064125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51667976379395</t>
+    <t xml:space="preserve">9.88371467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1496467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35064029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51668071746826</t>
   </si>
   <si>
     <t xml:space="preserve">9.63028621673584</t>
@@ -743,31 +743,31 @@
     <t xml:space="preserve">9.73515319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7438907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83128070831299</t>
+    <t xml:space="preserve">9.74389171600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8312816619873</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53415775299072</t>
+    <t xml:space="preserve">9.53415870666504</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39433479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43802928924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5516357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055130004883</t>
+    <t xml:space="preserve">9.3943338394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43803024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55163478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055225372314</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685680389404</t>
@@ -776,25 +776,25 @@
     <t xml:space="preserve">9.26325130462646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1583833694458</t>
+    <t xml:space="preserve">9.15838432312012</t>
   </si>
   <si>
     <t xml:space="preserve">9.34190082550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40307331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84002017974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80506420135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78758716583252</t>
+    <t xml:space="preserve">9.40307426452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84001922607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8050651550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7875862121582</t>
   </si>
   <si>
     <t xml:space="preserve">9.81380271911621</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">9.9011926651001</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85749816894531</t>
+    <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
     <t xml:space="preserve">9.22829627990723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07099437713623</t>
+    <t xml:space="preserve">9.07099628448486</t>
   </si>
   <si>
     <t xml:space="preserve">9.28072929382324</t>
@@ -818,19 +818,19 @@
     <t xml:space="preserve">9.25451278686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97984313964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497520446777</t>
+    <t xml:space="preserve">9.97984218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497615814209</t>
   </si>
   <si>
     <t xml:space="preserve">10.0497541427612</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91867065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398071289062</t>
+    <t xml:space="preserve">9.91866970062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397975921631</t>
   </si>
   <si>
     <t xml:space="preserve">9.63902568817139</t>
@@ -839,106 +839,106 @@
     <t xml:space="preserve">9.71767520904541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72641468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61280918121338</t>
+    <t xml:space="preserve">9.72641372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61280822753906</t>
   </si>
   <si>
     <t xml:space="preserve">9.56911373138428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68271827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694580078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36811828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019817352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955585479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586135864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216876983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95738983154297</t>
+    <t xml:space="preserve">9.68271923065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694484710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3681173324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019626617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650272369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060596466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.219557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586231231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216781616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95738887786865</t>
   </si>
   <si>
     <t xml:space="preserve">8.82630634307861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00108432769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91369438171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86999893188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891735076904</t>
+    <t xml:space="preserve">9.00108337402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91369533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891544342041</t>
   </si>
   <si>
     <t xml:space="preserve">8.72143745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78261089324951</t>
+    <t xml:space="preserve">8.78261184692383</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161544799805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19656658172607</t>
+    <t xml:space="preserve">9.19656562805176</t>
   </si>
   <si>
     <t xml:space="preserve">9.24120998382568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15192317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10727882385254</t>
+    <t xml:space="preserve">9.15192222595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334861755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727214813232</t>
+    <t xml:space="preserve">9.01799297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89298915863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727310180664</t>
   </si>
   <si>
     <t xml:space="preserve">8.83941745758057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75013065338135</t>
+    <t xml:space="preserve">8.75013160705566</t>
   </si>
   <si>
     <t xml:space="preserve">8.71441555023193</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">8.73227405548096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85727596282959</t>
+    <t xml:space="preserve">8.85727500915527</t>
   </si>
   <si>
     <t xml:space="preserve">8.82156085968018</t>
@@ -959,16 +959,16 @@
     <t xml:space="preserve">8.87513256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66084480285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155704498291</t>
+    <t xml:space="preserve">8.66084384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155609130859</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655513763428</t>
+    <t xml:space="preserve">8.44655418395996</t>
   </si>
   <si>
     <t xml:space="preserve">8.41084003448486</t>
@@ -980,34 +980,34 @@
     <t xml:space="preserve">8.76798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92870616912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370330810547</t>
+    <t xml:space="preserve">8.92870426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370426177979</t>
   </si>
   <si>
     <t xml:space="preserve">9.37514019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50906944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33049774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28585338592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58941459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5358419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512874603271</t>
+    <t xml:space="preserve">9.50907039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442699432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3304967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28585433959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58941268920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62512969970703</t>
   </si>
   <si>
     <t xml:space="preserve">8.46441268920898</t>
@@ -1016,19 +1016,19 @@
     <t xml:space="preserve">8.35726833343506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42869758605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25012302398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30369567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28583812713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33940982818604</t>
+    <t xml:space="preserve">8.42869853973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2501220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30369663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28583908081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33941078186035</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512588500977</t>
@@ -1037,10 +1037,10 @@
     <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64298629760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41978359222412</t>
+    <t xml:space="preserve">8.64298725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41978454589844</t>
   </si>
   <si>
     <t xml:space="preserve">9.55371475219727</t>
@@ -1049,37 +1049,37 @@
     <t xml:space="preserve">9.77693271636963</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7322883605957</t>
+    <t xml:space="preserve">9.73228740692139</t>
   </si>
   <si>
     <t xml:space="preserve">10.0447940826416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.268012046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126535415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572969436646</t>
+    <t xml:space="preserve">10.2680110931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126554489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572978973389</t>
   </si>
   <si>
     <t xml:space="preserve">10.4912281036377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4465847015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5358724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019422531128</t>
+    <t xml:space="preserve">10.4465856552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5358715057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019412994385</t>
   </si>
   <si>
     <t xml:space="preserve">10.5805158615112</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2233657836914</t>
+    <t xml:space="preserve">10.22336769104</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">10.8521928787231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7609968185425</t>
+    <t xml:space="preserve">10.7609977722168</t>
   </si>
   <si>
     <t xml:space="preserve">10.5330104827881</t>
@@ -1112,16 +1112,16 @@
     <t xml:space="preserve">10.4874134063721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4418144226074</t>
+    <t xml:space="preserve">10.4418153762817</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1226348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2594270706177</t>
+    <t xml:space="preserve">10.122633934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2594261169434</t>
   </si>
   <si>
     <t xml:space="preserve">10.0770359039307</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">10.0314388275146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3050222396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.168231010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89464569091797</t>
+    <t xml:space="preserve">10.3050241470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1682300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89464664459229</t>
   </si>
   <si>
     <t xml:space="preserve">9.84904861450195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48426914215088</t>
+    <t xml:space="preserve">9.48426818847656</t>
   </si>
   <si>
     <t xml:space="preserve">9.43867206573486</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">9.52986621856689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62106132507324</t>
+    <t xml:space="preserve">9.62106227874756</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66665935516357</t>
+    <t xml:space="preserve">9.66666030883789</t>
   </si>
   <si>
     <t xml:space="preserve">9.57546424865723</t>
@@ -1166,13 +1166,13 @@
     <t xml:space="preserve">9.25628185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16508769989014</t>
+    <t xml:space="preserve">9.16508674621582</t>
   </si>
   <si>
     <t xml:space="preserve">9.3018798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21068477630615</t>
+    <t xml:space="preserve">9.21068572998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.39307403564453</t>
@@ -1193,19 +1193,19 @@
     <t xml:space="preserve">11.1257762908936</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6273488998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6729469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3993625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081665039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0801792144775</t>
+    <t xml:space="preserve">11.6273498535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.672947883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3993616104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0801801681519</t>
   </si>
   <si>
     <t xml:space="preserve">11.0345830917358</t>
@@ -1217,22 +1217,22 @@
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5817518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7185440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8553371429443</t>
+    <t xml:space="preserve">11.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.718544960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8553352355957</t>
   </si>
   <si>
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833253860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113098144531</t>
+    <t xml:space="preserve">12.0833225250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113107681274</t>
   </si>
   <si>
     <t xml:space="preserve">12.1745195388794</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">11.9921283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7641401290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4937000274658</t>
+    <t xml:space="preserve">11.7641410827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">13.1320648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9952716827393</t>
+    <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
     <t xml:space="preserve">12.9496746063232</t>
@@ -1265,19 +1265,19 @@
     <t xml:space="preserve">12.6304931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7216873168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4481029510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5848970413208</t>
+    <t xml:space="preserve">12.7216882705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4481019973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5848960876465</t>
   </si>
   <si>
     <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8584804534912</t>
+    <t xml:space="preserve">12.8584794998169</t>
   </si>
   <si>
     <t xml:space="preserve">13.0864686965942</t>
@@ -1289,31 +1289,31 @@
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7154016494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02829360961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810638427734</t>
+    <t xml:space="preserve">10.7154006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02829456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810543060303</t>
   </si>
   <si>
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64213228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00691223144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66351509094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07986736297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57231903076172</t>
+    <t xml:space="preserve">7.64213180541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.006911277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6635160446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07986831665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
     <t xml:space="preserve">8.73647117614746</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3474760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0847988128662</t>
+    <t xml:space="preserve">9.34747695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0847978591919</t>
   </si>
   <si>
     <t xml:space="preserve">9.94473075866699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0381078720093</t>
+    <t xml:space="preserve">10.0381088256836</t>
   </si>
   <si>
     <t xml:space="preserve">9.80466461181641</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99141979217529</t>
+    <t xml:space="preserve">9.99142074584961</t>
   </si>
   <si>
     <t xml:space="preserve">10.2715539932251</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.551685333252</t>
+    <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
     <t xml:space="preserve">10.4583082199097</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">10.7384405136108</t>
   </si>
   <si>
-    <t xml:space="preserve">11.018575668335</t>
+    <t xml:space="preserve">11.0185747146606</t>
   </si>
   <si>
     <t xml:space="preserve">10.8318195343018</t>
@@ -1373,19 +1373,19 @@
     <t xml:space="preserve">11.1586408615112</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7851314544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9251976013184</t>
+    <t xml:space="preserve">10.7851305007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.925196647644</t>
   </si>
   <si>
     <t xml:space="preserve">10.6450624465942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2987089157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.485463142395</t>
+    <t xml:space="preserve">11.2987079620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4854640960693</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
@@ -1394,31 +1394,31 @@
     <t xml:space="preserve">11.3453969955444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053308486938</t>
+    <t xml:space="preserve">11.2053298950195</t>
   </si>
   <si>
     <t xml:space="preserve">11.438775062561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1119527816772</t>
+    <t xml:space="preserve">11.1119518280029</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520198822021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9718856811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652637481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5788412094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6255311965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3920850753784</t>
+    <t xml:space="preserve">10.9718866348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652647018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5788421630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6255302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
     <t xml:space="preserve">11.532154083252</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391086578369</t>
+    <t xml:space="preserve">12.1391077041626</t>
   </si>
   <si>
     <t xml:space="preserve">11.9523525238037</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2791738510132</t>
+    <t xml:space="preserve">12.2791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.999041557312</t>
+    <t xml:space="preserve">11.9990425109863</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
@@ -1457,46 +1457,46 @@
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8122854232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3258638381958</t>
+    <t xml:space="preserve">12.0924196243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8122863769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3258628845215</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9795074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2596416473389</t>
+    <t xml:space="preserve">12.9795083999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2596406936646</t>
   </si>
   <si>
     <t xml:space="preserve">13.07288646698</t>
   </si>
   <si>
-    <t xml:space="preserve">13.119574546814</t>
+    <t xml:space="preserve">13.1195755004883</t>
   </si>
   <si>
     <t xml:space="preserve">13.3997077941895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4463968276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3063297271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3530197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864639282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930858612061</t>
+    <t xml:space="preserve">13.4463958740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3063287734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3530187606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864629745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930849075317</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">13.9132852554321</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6331520080566</t>
+    <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5593070983887</t>
+    <t xml:space="preserve">12.5593090057373</t>
   </si>
   <si>
     <t xml:space="preserve">13.0261964797974</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">12.8394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">13.53977394104</t>
+    <t xml:space="preserve">13.5397748947144</t>
   </si>
   <si>
     <t xml:space="preserve">13.8199081420898</t>
@@ -1535,19 +1535,19 @@
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801736831665</t>
+    <t xml:space="preserve">14.3801746368408</t>
   </si>
   <si>
     <t xml:space="preserve">14.566930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3334865570068</t>
+    <t xml:space="preserve">14.3334856033325</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069959640503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9404411315918</t>
+    <t xml:space="preserve">14.9404401779175</t>
   </si>
   <si>
     <t xml:space="preserve">14.8937511444092</t>
@@ -1559,28 +1559,28 @@
     <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2672624588013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7536859512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8470630645752</t>
+    <t xml:space="preserve">15.2672643661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7536849975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8470621109009</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603078842163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4735517501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1934175491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202407836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665971755981</t>
+    <t xml:space="preserve">14.4735527038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1934185028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202417373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665962219238</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066633224487</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401084899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.591833114624</t>
+    <t xml:space="preserve">14.2401075363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5918321609497</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621961593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3998498916626</t>
+    <t xml:space="preserve">15.1621971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3998508453369</t>
   </si>
   <si>
     <t xml:space="preserve">15.3523187637329</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424394607544</t>
+    <t xml:space="preserve">15.542441368103</t>
   </si>
   <si>
     <t xml:space="preserve">14.9720754623413</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7325601577759</t>
+    <t xml:space="preserve">15.7325620651245</t>
   </si>
   <si>
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226837158203</t>
+    <t xml:space="preserve">15.9226818084717</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">16.0177440643311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3504581451416</t>
+    <t xml:space="preserve">16.350456237793</t>
   </si>
   <si>
     <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7782306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1109428405762</t>
+    <t xml:space="preserve">16.7782325744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1109447479248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">17.5387191772461</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0615501403809</t>
+    <t xml:space="preserve">18.0615520477295</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8732929229736</t>
+    <t xml:space="preserve">16.873291015625</t>
   </si>
   <si>
     <t xml:space="preserve">17.348596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7763690948486</t>
+    <t xml:space="preserve">17.7763710021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.8714294433594</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">19.0121593475342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2022819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0578269958496</t>
+    <t xml:space="preserve">19.2022838592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0578289031982</t>
   </si>
   <si>
     <t xml:space="preserve">19.8677062988281</t>
@@ -1736,16 +1736,16 @@
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924007415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9627685546875</t>
+    <t xml:space="preserve">19.3924026489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9627666473389</t>
   </si>
   <si>
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726440429688</t>
+    <t xml:space="preserve">19.7726459503174</t>
   </si>
   <si>
     <t xml:space="preserve">20.152889251709</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5788021087646</t>
+    <t xml:space="preserve">21.2936172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.578800201416</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034965515137</t>
+    <t xml:space="preserve">21.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">22.1491641998291</t>
@@ -1775,22 +1775,22 @@
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0541038513184</t>
+    <t xml:space="preserve">22.054105758667</t>
   </si>
   <si>
     <t xml:space="preserve">22.3392887115479</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6244697570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8145923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9590454101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8639831542969</t>
+    <t xml:space="preserve">22.6244678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8145904541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9590435028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8639812469482</t>
   </si>
   <si>
     <t xml:space="preserve">20.5331325531006</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">18.5843849182129</t>
   </si>
   <si>
-    <t xml:space="preserve">19.297342300415</t>
+    <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
     <t xml:space="preserve">20.9133758544922</t>
@@ -1808,13 +1808,13 @@
     <t xml:space="preserve">22.2442264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0997714996338</t>
+    <t xml:space="preserve">23.0997734069824</t>
   </si>
   <si>
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837398529053</t>
+    <t xml:space="preserve">21.4837417602539</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">20.3430118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0047149658203</t>
+    <t xml:space="preserve">23.0047130584717</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
@@ -1841,22 +1841,22 @@
     <t xml:space="preserve">20.2479496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7232532501221</t>
+    <t xml:space="preserve">20.7232513427734</t>
   </si>
   <si>
     <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6775875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1072196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2060050964355</t>
+    <t xml:space="preserve">19.6775856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1072216033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6319160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2060070037842</t>
   </si>
   <si>
     <t xml:space="preserve">17.9189605712891</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337757110596</t>
+    <t xml:space="preserve">17.6337776184082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">18.2041435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5368537902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1547508239746</t>
+    <t xml:space="preserve">18.5368556976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.154748916626</t>
   </si>
   <si>
     <t xml:space="preserve">18.9170989990234</t>
@@ -1889,19 +1889,19 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988307952881</t>
+    <t xml:space="preserve">18.4988288879395</t>
   </si>
   <si>
     <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3847599029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2498092651367</t>
+    <t xml:space="preserve">18.2136478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3847579956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2498111724854</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1910,10 +1910,10 @@
     <t xml:space="preserve">20.3905410766602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4856033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4380702972412</t>
+    <t xml:space="preserve">20.4856014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
     <t xml:space="preserve">18.7650012969971</t>
@@ -1925,25 +1925,25 @@
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249195098877</t>
+    <t xml:space="preserve">17.1333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249214172363</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2071990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.703275680542</t>
+    <t xml:space="preserve">19.2072010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7032775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816337585449</t>
+    <t xml:space="preserve">19.3816356658936</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1955,37 +1955,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2265815734863</t>
+    <t xml:space="preserve">19.226583480835</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.350715637207</t>
+    <t xml:space="preserve">20.3507175445557</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.447624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383480072021</t>
+    <t xml:space="preserve">21.2228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383499145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8661766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001861572266</t>
+    <t xml:space="preserve">21.8043403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.866174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001842498779</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239070892334</t>
+    <t xml:space="preserve">19.6239051818848</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723575592041</t>
+    <t xml:space="preserve">18.9746189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538089752197</t>
+    <t xml:space="preserve">20.2538070678711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919727325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.465160369873</t>
+    <t xml:space="preserve">22.1919708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4651584625244</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6105213165283</t>
+    <t xml:space="preserve">21.610523223877</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1569004058838</t>
+    <t xml:space="preserve">20.1568984985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.257963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734203338623</t>
+    <t xml:space="preserve">23.2579612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6765117645264</t>
+    <t xml:space="preserve">22.676513671875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.76926612854</t>
+    <t xml:space="preserve">18.3156452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7692680358887</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486869812012</t>
+    <t xml:space="preserve">22.9672393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486850738525</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600383758545</t>
+    <t xml:space="preserve">24.7600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754955291748</t>
+    <t xml:space="preserve">24.2754974365234</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.905403137207</t>
+    <t xml:space="preserve">24.9054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7291202545166</t>
+    <t xml:space="preserve">25.729118347168</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827430725098</t>
+    <t xml:space="preserve">27.2796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167545318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652069091797</t>
+    <t xml:space="preserve">25.1961250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167526245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652088165283</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310567855835</t>
+    <t xml:space="preserve">25.8260269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703754425049</t>
+    <t xml:space="preserve">27.5703773498535</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7683448791504</t>
+    <t xml:space="preserve">30.768346786499</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6054458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.120906829834</t>
+    <t xml:space="preserve">29.605447769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1209049224854</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7023544311523</t>
+    <t xml:space="preserve">29.702356338501</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2339,16 +2339,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776229858398</t>
+    <t xml:space="preserve">30.4776210784912</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198925018311</t>
+    <t xml:space="preserve">31.1559791564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2357,16 +2357,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363639831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600849151611</t>
+    <t xml:space="preserve">30.2353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -60220,7 +60220,7 @@
     </row>
     <row r="2192">
       <c r="A2192" s="1" t="n">
-        <v>45513.6494212963</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B2192" t="n">
         <v>9168</v>
@@ -60241,6 +60241,32 @@
         <v>966</v>
       </c>
       <c r="H2192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="1" t="n">
+        <v>45516.6494328704</v>
+      </c>
+      <c r="B2193" t="n">
+        <v>6548</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>24.2000007629395</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>23.8500003814697</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>24.1499996185303</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>24.1000003814697</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>942</v>
+      </c>
+      <c r="H2193" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="968">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,67 +38,67 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262649536133</t>
+    <t xml:space="preserve">8.42262744903564</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947410583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578079223633</t>
+    <t xml:space="preserve">8.43947219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578174591064</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206092834473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31734371185303</t>
+    <t xml:space="preserve">8.31734466552734</t>
   </si>
   <si>
     <t xml:space="preserve">8.19521617889404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27101802825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731430053711</t>
+    <t xml:space="preserve">8.27101993560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731525421143</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18679523468018</t>
+    <t xml:space="preserve">8.18679428100586</t>
   </si>
   <si>
     <t xml:space="preserve">8.08572196960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13625717163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520004272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03518772125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097343444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676391601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307203292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780586242676</t>
+    <t xml:space="preserve">8.13625812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03518486022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097438812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676200866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149536132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307155609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780443191528</t>
   </si>
   <si>
     <t xml:space="preserve">7.76145029067993</t>
@@ -107,55 +107,55 @@
     <t xml:space="preserve">7.83304405212402</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81619930267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356359481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197174072266</t>
+    <t xml:space="preserve">7.81619691848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356407165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197269439697</t>
   </si>
   <si>
     <t xml:space="preserve">7.66880226135254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66459083557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7488169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726875305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203151702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048568725586</t>
+    <t xml:space="preserve">7.66459226608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357877731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91727018356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203342437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048377990723</t>
   </si>
   <si>
     <t xml:space="preserve">8.16994857788086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30471038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941432952881</t>
+    <t xml:space="preserve">8.30470943450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417613983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941337585449</t>
   </si>
   <si>
     <t xml:space="preserve">8.07729911804199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48158359527588</t>
+    <t xml:space="preserve">8.33839988708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4815845489502</t>
   </si>
   <si>
     <t xml:space="preserve">8.44789600372314</t>
@@ -164,43 +164,43 @@
     <t xml:space="preserve">8.41420364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32155609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42560291290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578453063965</t>
+    <t xml:space="preserve">8.32155513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4256010055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578357696533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55456447601318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084541320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2966365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3267297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2536506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962535858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102798461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532524108887</t>
+    <t xml:space="preserve">8.27084445953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29663562774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32672882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25364971160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962345123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.32243061065674</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">8.21066284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22785663604736</t>
+    <t xml:space="preserve">8.22785568237305</t>
   </si>
   <si>
     <t xml:space="preserve">8.16767501831055</t>
@@ -221,100 +221,100 @@
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572420120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273494720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505138397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675834655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590629577637</t>
+    <t xml:space="preserve">8.03871059417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572277069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273542404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505233764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160808563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377290725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590724945068</t>
   </si>
   <si>
     <t xml:space="preserve">7.92694330215454</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90974760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779582977295</t>
+    <t xml:space="preserve">7.9097466468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779773712158</t>
   </si>
   <si>
     <t xml:space="preserve">7.78078508377075</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96133375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5975513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64054012298584</t>
+    <t xml:space="preserve">7.96133327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755229949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64053916931152</t>
   </si>
   <si>
     <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9156608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84688091278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63194274902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66633224487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325218200684</t>
+    <t xml:space="preserve">8.72651386260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91565990447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84687995910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63194179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66633319854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325408935547</t>
   </si>
   <si>
     <t xml:space="preserve">8.58895397186279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68352794647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072364807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9414529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547637939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76950263977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02742958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2337703704834</t>
+    <t xml:space="preserve">8.68352699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76950168609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02742862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23376941680908</t>
   </si>
   <si>
     <t xml:space="preserve">9.19937992095947</t>
@@ -323,16 +323,16 @@
     <t xml:space="preserve">9.2423677444458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41432094573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834339141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31974601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20797634124756</t>
+    <t xml:space="preserve">9.4143180847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834529876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31974697113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20797729492188</t>
   </si>
   <si>
     <t xml:space="preserve">9.22517204284668</t>
@@ -341,46 +341,46 @@
     <t xml:space="preserve">9.44011116027832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45730590820312</t>
+    <t xml:space="preserve">9.45730686187744</t>
   </si>
   <si>
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74962329864502</t>
+    <t xml:space="preserve">9.74962425231934</t>
   </si>
   <si>
     <t xml:space="preserve">9.54328346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62925815582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608680725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6722469329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58626937866211</t>
+    <t xml:space="preserve">9.62925720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608776092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67224502563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62066078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58627128601074</t>
   </si>
   <si>
     <t xml:space="preserve">9.68084335327148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71523189544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206245422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55188083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56047630310059</t>
+    <t xml:space="preserve">9.71523475646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5518798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047821044922</t>
   </si>
   <si>
     <t xml:space="preserve">9.65505027770996</t>
@@ -389,25 +389,25 @@
     <t xml:space="preserve">9.70663547515869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88718509674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138919830322</t>
+    <t xml:space="preserve">9.88718414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138910293579</t>
   </si>
   <si>
     <t xml:space="preserve">10.4030380249023</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2826719284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451110839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021223068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1279144287109</t>
+    <t xml:space="preserve">10.2826709747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451101303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1279153823853</t>
   </si>
   <si>
     <t xml:space="preserve">10.0333433151245</t>
@@ -416,10 +416,10 @@
     <t xml:space="preserve">10.0591354370117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1623058319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084659576416</t>
+    <t xml:space="preserve">10.1623067855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.308464050293</t>
   </si>
   <si>
     <t xml:space="preserve">10.1880989074707</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85279369354248</t>
+    <t xml:space="preserve">9.8527946472168</t>
   </si>
   <si>
     <t xml:space="preserve">10.231086730957</t>
@@ -443,13 +443,13 @@
     <t xml:space="preserve">10.2740745544434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4460258483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867580413818</t>
+    <t xml:space="preserve">10.4460248947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867561340332</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695613861084</t>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">10.9618787765503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0736474990845</t>
+    <t xml:space="preserve">11.0736446380615</t>
   </si>
   <si>
     <t xml:space="preserve">11.0220613479614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1768178939819</t>
+    <t xml:space="preserve">11.1768169403076</t>
   </si>
   <si>
     <t xml:space="preserve">11.2198057174683</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">11.443341255188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6066951751709</t>
+    <t xml:space="preserve">11.6066942214966</t>
   </si>
   <si>
     <t xml:space="preserve">11.8302307128906</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">11.7528524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6496829986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614507675171</t>
+    <t xml:space="preserve">11.6496820449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614498138428</t>
   </si>
   <si>
     <t xml:space="preserve">11.873218536377</t>
@@ -494,25 +494,25 @@
     <t xml:space="preserve">11.9505968093872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9849863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107793807983</t>
+    <t xml:space="preserve">11.9849872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107803344727</t>
   </si>
   <si>
     <t xml:space="preserve">11.838828086853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7700471878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7786455154419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975368499756</t>
+    <t xml:space="preserve">11.7700490951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975378036499</t>
   </si>
   <si>
     <t xml:space="preserve">11.9024047851562</t>
@@ -521,25 +521,25 @@
     <t xml:space="preserve">11.8674488067627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8499717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972315788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597057342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966526031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5403451919556</t>
+    <t xml:space="preserve">11.8499708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9723148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966497421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5403461456299</t>
   </si>
   <si>
     <t xml:space="preserve">12.2344827651978</t>
@@ -551,40 +551,40 @@
     <t xml:space="preserve">12.1733112335205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0160093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286203384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849248886108</t>
+    <t xml:space="preserve">12.0160102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849267959595</t>
   </si>
   <si>
     <t xml:space="preserve">12.0247488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0946598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.138355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2170038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257442474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635753631592</t>
+    <t xml:space="preserve">12.0946607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1383562088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.217004776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257452011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635772705078</t>
   </si>
   <si>
     <t xml:space="preserve">12.2082662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1208772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897928237915</t>
+    <t xml:space="preserve">12.1208763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897937774658</t>
   </si>
   <si>
     <t xml:space="preserve">12.0684442520142</t>
@@ -599,16 +599,16 @@
     <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0771827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033992767334</t>
+    <t xml:space="preserve">12.0771818161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1034002304077</t>
   </si>
   <si>
     <t xml:space="preserve">11.8936653137207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8412322998047</t>
+    <t xml:space="preserve">11.8412313461304</t>
   </si>
   <si>
     <t xml:space="preserve">11.8062753677368</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">11.7800588607788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7451038360596</t>
+    <t xml:space="preserve">11.7451019287109</t>
   </si>
   <si>
     <t xml:space="preserve">11.7014093399048</t>
@@ -626,34 +626,34 @@
     <t xml:space="preserve">11.5353689193726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.526629447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.447979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3955459594727</t>
+    <t xml:space="preserve">11.5266313552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955478668213</t>
   </si>
   <si>
     <t xml:space="preserve">11.3605918884277</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3518533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732028961182</t>
+    <t xml:space="preserve">11.3518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732009887695</t>
   </si>
   <si>
     <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431119918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984239578247</t>
+    <t xml:space="preserve">11.3431129455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906789779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
     <t xml:space="preserve">11.2295083999634</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">11.18581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994184494019</t>
+    <t xml:space="preserve">11.2469863891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994194030762</t>
   </si>
   <si>
     <t xml:space="preserve">11.3693294525146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4829368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6227588653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.710147857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.579065322876</t>
+    <t xml:space="preserve">11.4829349517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6227598190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7101469039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
     <t xml:space="preserve">11.4567193984985</t>
@@ -689,40 +689,40 @@
     <t xml:space="preserve">11.3256368637085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4305028915405</t>
+    <t xml:space="preserve">11.4305019378662</t>
   </si>
   <si>
     <t xml:space="preserve">11.3168964385986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2032909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878028869629</t>
+    <t xml:space="preserve">11.2032899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878047943115</t>
   </si>
   <si>
     <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4042854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091514587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1159009933472</t>
+    <t xml:space="preserve">11.4042844772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091533660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.1246404647827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1683340072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88371467590332</t>
+    <t xml:space="preserve">11.1683359146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557239532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.883713722229</t>
   </si>
   <si>
     <t xml:space="preserve">9.1496467590332</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">9.35064029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51667976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63028621673584</t>
+    <t xml:space="preserve">9.51668071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63028526306152</t>
   </si>
   <si>
     <t xml:space="preserve">9.64776420593262</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39433574676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43802928924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55163478851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37685775756836</t>
+    <t xml:space="preserve">9.39433479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43803024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55163669586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37685871124268</t>
   </si>
   <si>
     <t xml:space="preserve">9.26325225830078</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84002017974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632568359375</t>
+    <t xml:space="preserve">9.84001922607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632472991943</t>
   </si>
   <si>
     <t xml:space="preserve">9.80506420135498</t>
@@ -803,40 +803,40 @@
     <t xml:space="preserve">9.90119171142578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85749912261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22829532623291</t>
+    <t xml:space="preserve">9.85749816894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22829723358154</t>
   </si>
   <si>
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072834014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451183319092</t>
+    <t xml:space="preserve">9.28072929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451278686523</t>
   </si>
   <si>
     <t xml:space="preserve">9.97984218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87497425079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0497531890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91867160797119</t>
+    <t xml:space="preserve">9.87497615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0497541427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91866970062256</t>
   </si>
   <si>
     <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63902568817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767330169678</t>
+    <t xml:space="preserve">9.63902473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767616271973</t>
   </si>
   <si>
     <t xml:space="preserve">9.72641372680664</t>
@@ -845,34 +845,34 @@
     <t xml:space="preserve">9.61280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56911468505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68271827697754</t>
+    <t xml:space="preserve">9.56911277770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271923065186</t>
   </si>
   <si>
     <t xml:space="preserve">9.30694484710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36811923980713</t>
+    <t xml:space="preserve">9.36811828613281</t>
   </si>
   <si>
     <t xml:space="preserve">9.70019817352295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65650081634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060586929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955585479736</t>
+    <t xml:space="preserve">9.65650177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060596466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
     <t xml:space="preserve">9.17586326599121</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">9.13216781616211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95738792419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82630729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00108432769775</t>
+    <t xml:space="preserve">8.95738887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00108528137207</t>
   </si>
   <si>
     <t xml:space="preserve">8.91369438171387</t>
@@ -896,25 +896,25 @@
     <t xml:space="preserve">8.86999893188477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73891544342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78261089324951</t>
+    <t xml:space="preserve">8.73891735076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7826099395752</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161544799805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19656562805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15192222595215</t>
+    <t xml:space="preserve">9.19656658172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24120998382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15192317962646</t>
   </si>
   <si>
     <t xml:space="preserve">9.10727882385254</t>
@@ -923,49 +923,49 @@
     <t xml:space="preserve">9.06263446807861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89299011230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727310180664</t>
+    <t xml:space="preserve">9.01799201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334861755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.892991065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
     <t xml:space="preserve">8.83941745758057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75013160705566</t>
+    <t xml:space="preserve">8.75013065338135</t>
   </si>
   <si>
     <t xml:space="preserve">8.71441650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78584480285645</t>
+    <t xml:space="preserve">8.78584671020508</t>
   </si>
   <si>
     <t xml:space="preserve">8.73227310180664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85727500915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82156085968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8751335144043</t>
+    <t xml:space="preserve">8.85727596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82156181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87513256072998</t>
   </si>
   <si>
     <t xml:space="preserve">8.66084384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57155704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39298152923584</t>
+    <t xml:space="preserve">8.57155799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
     <t xml:space="preserve">8.44655513763428</t>
@@ -977,10 +977,10 @@
     <t xml:space="preserve">8.91084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76798820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92870426177979</t>
+    <t xml:space="preserve">8.76798915863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92870616912842</t>
   </si>
   <si>
     <t xml:space="preserve">8.80370330810547</t>
@@ -989,64 +989,64 @@
     <t xml:space="preserve">9.37514114379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50907039642334</t>
+    <t xml:space="preserve">9.50906944274902</t>
   </si>
   <si>
     <t xml:space="preserve">9.46442794799805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33049774169922</t>
+    <t xml:space="preserve">9.3304967880249</t>
   </si>
   <si>
     <t xml:space="preserve">9.28585243225098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58941459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53584098815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46441078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726642608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42869663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25012302398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30369663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28583812713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33940982818604</t>
+    <t xml:space="preserve">8.5894136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62512969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46441173553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726833343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42869758605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2501220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30369567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28583717346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33941078186035</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512683868408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5001277923584</t>
+    <t xml:space="preserve">8.50012683868408</t>
   </si>
   <si>
     <t xml:space="preserve">8.64298629760742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4197826385498</t>
+    <t xml:space="preserve">9.41978359222412</t>
   </si>
   <si>
     <t xml:space="preserve">9.55371379852295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77693271636963</t>
+    <t xml:space="preserve">9.77693176269531</t>
   </si>
   <si>
     <t xml:space="preserve">9.7322883605957</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">10.3126535415649</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3572988510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4912281036377</t>
+    <t xml:space="preserve">10.3572978973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912300109863</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">10.5358724594116</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4019403457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233667373657</t>
+    <t xml:space="preserve">10.4019422531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805149078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22336769104</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065958023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242046356201</t>
+    <t xml:space="preserve">10.8065948486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242055892944</t>
   </si>
   <si>
     <t xml:space="preserve">10.8521919250488</t>
@@ -1097,22 +1097,22 @@
     <t xml:space="preserve">10.7609977722168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5330104827881</t>
+    <t xml:space="preserve">10.5330095291138</t>
   </si>
   <si>
     <t xml:space="preserve">10.3962173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">10.213828086853</t>
+    <t xml:space="preserve">10.2138290405273</t>
   </si>
   <si>
     <t xml:space="preserve">10.5786085128784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4874143600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418144226074</t>
+    <t xml:space="preserve">10.4874134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418163299561</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506212234497</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">10.0770359039307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0314388275146</t>
+    <t xml:space="preserve">10.0314378738403</t>
   </si>
   <si>
     <t xml:space="preserve">10.3050231933594</t>
@@ -1139,82 +1139,82 @@
     <t xml:space="preserve">9.89464664459229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84904861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48426818847656</t>
+    <t xml:space="preserve">9.84904956817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48426914215088</t>
   </si>
   <si>
     <t xml:space="preserve">9.43867206573486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52986717224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106037139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785350799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66665935516357</t>
+    <t xml:space="preserve">9.52986621856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106227874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785446166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66666030883789</t>
   </si>
   <si>
     <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25628089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16508769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3018798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21068572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39307403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11948871612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71225643157959</t>
+    <t xml:space="preserve">9.25628185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1650857925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30187892913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21068477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39307498931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1194896697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
     <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94024276733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1257772445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6273488998413</t>
+    <t xml:space="preserve">9.9402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1257762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.627347946167</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3993625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0801801681519</t>
+    <t xml:space="preserve">11.3993616104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081665039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0801792144775</t>
   </si>
   <si>
     <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4449586868286</t>
+    <t xml:space="preserve">11.1713743209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
     <t xml:space="preserve">11.5817518234253</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.083324432373</t>
+    <t xml:space="preserve">12.0833234786987</t>
   </si>
   <si>
     <t xml:space="preserve">12.3113107681274</t>
@@ -1238,28 +1238,28 @@
     <t xml:space="preserve">12.1745185852051</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921293258667</t>
+    <t xml:space="preserve">11.9921283721924</t>
   </si>
   <si>
     <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4937009811401</t>
+    <t xml:space="preserve">12.4937000274658</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320657730103</t>
+    <t xml:space="preserve">13.1320648193359</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496746063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688589096069</t>
+    <t xml:space="preserve">12.9496755599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688579559326</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304931640625</t>
@@ -1274,16 +1274,16 @@
     <t xml:space="preserve">12.5848960876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8128833770752</t>
+    <t xml:space="preserve">12.8128824234009</t>
   </si>
   <si>
     <t xml:space="preserve">12.8584794998169</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0864677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9009342193604</t>
+    <t xml:space="preserve">13.0864686965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.900933265686</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
@@ -1292,31 +1292,31 @@
     <t xml:space="preserve">10.7154006958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02829360961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93395614624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64213275909424</t>
+    <t xml:space="preserve">9.02829456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93395566940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64213228225708</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66351413726807</t>
+    <t xml:space="preserve">8.66351509094238</t>
   </si>
   <si>
     <t xml:space="preserve">8.07986736297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57231903076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73647022247314</t>
+    <t xml:space="preserve">8.57231998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73647117614746</t>
   </si>
   <si>
     <t xml:space="preserve">8.79118824005127</t>
@@ -1325,34 +1325,34 @@
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3474760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0847978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94473075866699</t>
+    <t xml:space="preserve">9.34747791290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0847988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94472980499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.0381088256836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80466365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85135269165039</t>
+    <t xml:space="preserve">9.80466461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
     <t xml:space="preserve">9.99141979217529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2715520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89804172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5516872406006</t>
+    <t xml:space="preserve">10.2715530395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89804363250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
     <t xml:space="preserve">10.458309173584</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">10.6450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2987079620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4854650497437</t>
+    <t xml:space="preserve">11.2987089157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4854640960693</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">11.2053308486938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4387741088867</t>
+    <t xml:space="preserve">11.438775062561</t>
   </si>
   <si>
     <t xml:space="preserve">11.1119518280029</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">11.6255302429199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3920860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5321521759033</t>
+    <t xml:space="preserve">11.3920850753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5321531295776</t>
   </si>
   <si>
     <t xml:space="preserve">11.7189083099365</t>
@@ -1433,22 +1433,22 @@
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391077041626</t>
+    <t xml:space="preserve">12.1391086578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857967376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2791748046875</t>
+    <t xml:space="preserve">12.1857957839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2791738510132</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9990425109863</t>
+    <t xml:space="preserve">11.999041557312</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
@@ -1457,19 +1457,19 @@
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924196243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8122854232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3258638381958</t>
+    <t xml:space="preserve">12.0924186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8122863769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3258628845215</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9795064926147</t>
+    <t xml:space="preserve">12.9795074462891</t>
   </si>
   <si>
     <t xml:space="preserve">13.2596416473389</t>
@@ -1478,13 +1478,13 @@
     <t xml:space="preserve">13.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">13.119574546814</t>
+    <t xml:space="preserve">13.1195735931396</t>
   </si>
   <si>
     <t xml:space="preserve">13.3997087478638</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4463958740234</t>
+    <t xml:space="preserve">13.4463968276978</t>
   </si>
   <si>
     <t xml:space="preserve">13.3063297271729</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">13.5864639282227</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4930849075317</t>
+    <t xml:space="preserve">13.4930858612061</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
@@ -1505,22 +1505,22 @@
     <t xml:space="preserve">13.9132843017578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.633152961731</t>
+    <t xml:space="preserve">13.6331520080566</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.559308052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0261974334717</t>
+    <t xml:space="preserve">12.5593070983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.026195526123</t>
   </si>
   <si>
     <t xml:space="preserve">12.9328193664551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8394412994385</t>
+    <t xml:space="preserve">12.8394403457642</t>
   </si>
   <si>
     <t xml:space="preserve">13.5397748947144</t>
@@ -1538,16 +1538,16 @@
     <t xml:space="preserve">14.3801746368408</t>
   </si>
   <si>
-    <t xml:space="preserve">14.566930770874</t>
+    <t xml:space="preserve">14.5669298171997</t>
   </si>
   <si>
     <t xml:space="preserve">14.3334865570068</t>
   </si>
   <si>
-    <t xml:space="preserve">14.706995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9404401779175</t>
+    <t xml:space="preserve">14.7069959640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9404411315918</t>
   </si>
   <si>
     <t xml:space="preserve">14.8937520980835</t>
@@ -1556,10 +1556,10 @@
     <t xml:space="preserve">15.0338182449341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0805072784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2672634124756</t>
+    <t xml:space="preserve">15.0805063247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2672624588013</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">14.1934185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5202407836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066623687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7732181549072</t>
+    <t xml:space="preserve">14.5202417373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665971755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066633224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7732191085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">15.1738843917847</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401065826416</t>
+    <t xml:space="preserve">14.2401075363159</t>
   </si>
   <si>
     <t xml:space="preserve">14.6393632888794</t>
@@ -2913,6 +2913,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.9500007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6499996185303</t>
   </si>
 </sst>
 </file>
@@ -60324,7 +60327,7 @@
     </row>
     <row r="2196">
       <c r="A2196" s="1" t="n">
-        <v>45520.6521412037</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B2196" t="n">
         <v>3312</v>
@@ -60345,6 +60348,32 @@
         <v>964</v>
       </c>
       <c r="H2196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="1" t="n">
+        <v>45523.6496180556</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>24.6499996185303</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>24.3999996185303</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>24.6000003814697</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>24.6499996185303</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>967</v>
+      </c>
+      <c r="H2197" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="969">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947219848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578174591064</t>
+    <t xml:space="preserve">8.43947315216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578079223633</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206092834473</t>
@@ -56,19 +56,19 @@
     <t xml:space="preserve">8.31734466552734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19521617889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27101993560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731525421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363903045654</t>
+    <t xml:space="preserve">8.19521522521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27101898193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207801818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363807678223</t>
   </si>
   <si>
     <t xml:space="preserve">8.18679428100586</t>
@@ -77,73 +77,73 @@
     <t xml:space="preserve">8.08572196960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13625812530518</t>
+    <t xml:space="preserve">8.13625717163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.11520195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03518486022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097438812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676200866699</t>
+    <t xml:space="preserve">8.03518867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097534179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676391601562</t>
   </si>
   <si>
     <t xml:space="preserve">8.00149536132812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99307155609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780443191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145029067993</t>
+    <t xml:space="preserve">7.99307250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145124435425</t>
   </si>
   <si>
     <t xml:space="preserve">7.83304405212402</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81619691848755</t>
+    <t xml:space="preserve">7.81619787216187</t>
   </si>
   <si>
     <t xml:space="preserve">7.80356407165527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73197269439697</t>
+    <t xml:space="preserve">7.73197221755981</t>
   </si>
   <si>
     <t xml:space="preserve">7.66880226135254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66459226608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357877731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91727018356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203342437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048377990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994857788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30470943450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417613983154</t>
+    <t xml:space="preserve">7.66459083557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881839752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357782363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203247070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048568725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994762420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30471134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417709350586</t>
   </si>
   <si>
     <t xml:space="preserve">8.11941337585449</t>
@@ -152,37 +152,37 @@
     <t xml:space="preserve">8.07729911804199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33839988708496</t>
+    <t xml:space="preserve">8.33840084075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.4815845489502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44789600372314</t>
+    <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
     <t xml:space="preserve">8.41420364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32155513763428</t>
+    <t xml:space="preserve">8.32155609130859</t>
   </si>
   <si>
     <t xml:space="preserve">8.27944183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4256010055542</t>
+    <t xml:space="preserve">8.42560291290283</t>
   </si>
   <si>
     <t xml:space="preserve">8.48578357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55456447601318</t>
+    <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
     <t xml:space="preserve">8.27084445953369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29663562774658</t>
+    <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
     <t xml:space="preserve">8.32672882080078</t>
@@ -194,10 +194,10 @@
     <t xml:space="preserve">8.23645401000977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33962345123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102607727051</t>
+    <t xml:space="preserve">8.33962440490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102893829346</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532619476318</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">8.32243061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38261222839355</t>
+    <t xml:space="preserve">8.38261318206787</t>
   </si>
   <si>
     <t xml:space="preserve">8.21066284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22785568237305</t>
+    <t xml:space="preserve">8.22785758972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.16767501831055</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572277069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273542404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505233764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160808563232</t>
+    <t xml:space="preserve">8.03871154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572420120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273447036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505043029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160713195801</t>
   </si>
   <si>
     <t xml:space="preserve">7.86675882339478</t>
@@ -242,28 +242,28 @@
     <t xml:space="preserve">7.82377290725708</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05590724945068</t>
+    <t xml:space="preserve">8.05590534210205</t>
   </si>
   <si>
     <t xml:space="preserve">7.92694330215454</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9097466468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779773712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078508377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755229949951</t>
+    <t xml:space="preserve">7.90974855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779678344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383228302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5975513458252</t>
   </si>
   <si>
     <t xml:space="preserve">8.64053916931152</t>
@@ -275,46 +275,46 @@
     <t xml:space="preserve">8.72651386260986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91565990447998</t>
+    <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
     <t xml:space="preserve">8.84687995910645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63194179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66633319854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895397186279</t>
+    <t xml:space="preserve">8.63194274902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66633224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895301818848</t>
   </si>
   <si>
     <t xml:space="preserve">8.68352699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70072269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94145393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547924041748</t>
+    <t xml:space="preserve">8.70072364807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145202636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547733306885</t>
   </si>
   <si>
     <t xml:space="preserve">8.76950168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02742862701416</t>
+    <t xml:space="preserve">9.02742958068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.15639114379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23376941680908</t>
+    <t xml:space="preserve">9.2337703704834</t>
   </si>
   <si>
     <t xml:space="preserve">9.19937992095947</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">9.2423677444458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4143180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834529876709</t>
+    <t xml:space="preserve">9.41431903839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834434509277</t>
   </si>
   <si>
     <t xml:space="preserve">9.31974697113037</t>
@@ -335,43 +335,43 @@
     <t xml:space="preserve">9.20797729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22517204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730686187744</t>
+    <t xml:space="preserve">9.22517395019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.440110206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730495452881</t>
   </si>
   <si>
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74962425231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54328346252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925720214844</t>
+    <t xml:space="preserve">9.74962329864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328155517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925815582275</t>
   </si>
   <si>
     <t xml:space="preserve">9.52608776092529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67224502563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62066078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58627128601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68084335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523475646973</t>
+    <t xml:space="preserve">9.6722469329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62065982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58627033233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68084239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523380279541</t>
   </si>
   <si>
     <t xml:space="preserve">9.61206340789795</t>
@@ -380,28 +380,28 @@
     <t xml:space="preserve">9.5518798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56047821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65505027770996</t>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504932403564</t>
   </si>
   <si>
     <t xml:space="preserve">9.70663547515869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88718414306641</t>
+    <t xml:space="preserve">9.88718509674072</t>
   </si>
   <si>
     <t xml:space="preserve">10.2138910293579</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4030380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451101303101</t>
+    <t xml:space="preserve">10.4030389785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826719284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451110839844</t>
   </si>
   <si>
     <t xml:space="preserve">10.1021242141724</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">10.0591354370117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1623067855835</t>
+    <t xml:space="preserve">10.1623058319092</t>
   </si>
   <si>
     <t xml:space="preserve">10.308464050293</t>
@@ -425,31 +425,31 @@
     <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84419536590576</t>
+    <t xml:space="preserve">9.84419631958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8527946472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.231086730957</t>
+    <t xml:space="preserve">9.85279369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2310857772827</t>
   </si>
   <si>
     <t xml:space="preserve">10.007550239563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2740745544434</t>
+    <t xml:space="preserve">10.274073600769</t>
   </si>
   <si>
     <t xml:space="preserve">10.4460248947144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6351709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867561340332</t>
+    <t xml:space="preserve">10.6351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867580413818</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695613861084</t>
@@ -458,55 +458,55 @@
     <t xml:space="preserve">10.9618787765503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0736446380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0220613479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768169403076</t>
+    <t xml:space="preserve">11.0736455917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0220603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768178939819</t>
   </si>
   <si>
     <t xml:space="preserve">11.2198057174683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.443341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066942214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302307128906</t>
+    <t xml:space="preserve">11.4433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302316665649</t>
   </si>
   <si>
     <t xml:space="preserve">11.7528524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6496820449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614498138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873218536377</t>
+    <t xml:space="preserve">11.6496810913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614507675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8732194900513</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505968093872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9849872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107803344727</t>
+    <t xml:space="preserve">11.9849853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107793807983</t>
   </si>
   <si>
     <t xml:space="preserve">11.838828086853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7700490951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926708221436</t>
+    <t xml:space="preserve">11.7700471878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926689147949</t>
   </si>
   <si>
     <t xml:space="preserve">11.7786464691162</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">11.7975378036499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9024047851562</t>
+    <t xml:space="preserve">11.9024038314819</t>
   </si>
   <si>
     <t xml:space="preserve">11.8674488067627</t>
@@ -524,10 +524,10 @@
     <t xml:space="preserve">11.8499708175659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9723148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597038269043</t>
+    <t xml:space="preserve">11.972315788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597047805786</t>
   </si>
   <si>
     <t xml:space="preserve">12.0859203338623</t>
@@ -536,46 +536,46 @@
     <t xml:space="preserve">12.2432222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4966497421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5403461456299</t>
+    <t xml:space="preserve">12.4966516494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5403451919556</t>
   </si>
   <si>
     <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3218717575073</t>
+    <t xml:space="preserve">12.321873664856</t>
   </si>
   <si>
     <t xml:space="preserve">12.1733112335205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0160102844238</t>
+    <t xml:space="preserve">12.0160093307495</t>
   </si>
   <si>
     <t xml:space="preserve">11.9286212921143</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8849267959595</t>
+    <t xml:space="preserve">11.8849258422852</t>
   </si>
   <si>
     <t xml:space="preserve">12.0247488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0946607589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1383562088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.217004776001</t>
+    <t xml:space="preserve">12.0946598052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.138355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2170057296753</t>
   </si>
   <si>
     <t xml:space="preserve">12.2257452011108</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9635772705078</t>
+    <t xml:space="preserve">11.9635753631592</t>
   </si>
   <si>
     <t xml:space="preserve">12.2082662582397</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">12.1208763122559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9897937774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684442520142</t>
+    <t xml:space="preserve">11.9897928237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684452056885</t>
   </si>
   <si>
     <t xml:space="preserve">12.0509653091431</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0771818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1034002304077</t>
+    <t xml:space="preserve">12.0771827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1033992767334</t>
   </si>
   <si>
     <t xml:space="preserve">11.8936653137207</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">11.8412313461304</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8062753677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800588607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7451019287109</t>
+    <t xml:space="preserve">11.8062763214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800598144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7451028823853</t>
   </si>
   <si>
     <t xml:space="preserve">11.7014093399048</t>
@@ -626,22 +626,22 @@
     <t xml:space="preserve">11.5353689193726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5266313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4479789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3955478668213</t>
+    <t xml:space="preserve">11.526629447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479808807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.395546913147</t>
   </si>
   <si>
     <t xml:space="preserve">11.3605918884277</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732009887695</t>
+    <t xml:space="preserve">11.3518533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732019424438</t>
   </si>
   <si>
     <t xml:space="preserve">11.2207689285278</t>
@@ -650,31 +650,31 @@
     <t xml:space="preserve">11.3431129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2906789779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984230041504</t>
+    <t xml:space="preserve">11.2906808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.098424911499</t>
   </si>
   <si>
     <t xml:space="preserve">11.2295083999634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.18581199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469863891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3693294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829349517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6227598190308</t>
+    <t xml:space="preserve">11.1858129501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469854354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.369330406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6227588653564</t>
   </si>
   <si>
     <t xml:space="preserve">11.7101469039917</t>
@@ -686,28 +686,28 @@
     <t xml:space="preserve">11.4567193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3256368637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4305019378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3168964385986</t>
+    <t xml:space="preserve">11.3256359100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4305038452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3168954849243</t>
   </si>
   <si>
     <t xml:space="preserve">11.2032899856567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5878047943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868074417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042844772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091533660889</t>
+    <t xml:space="preserve">11.5878019332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868083953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091524124146</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159019470215</t>
@@ -716,28 +716,28 @@
     <t xml:space="preserve">11.1246404647827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1683359146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557239532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.883713722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35064029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51668071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63028526306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64776420593262</t>
+    <t xml:space="preserve">11.1683340072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557249069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88371467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14964580535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35063934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51667976379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63028621673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6477632522583</t>
   </si>
   <si>
     <t xml:space="preserve">9.73515319824219</t>
@@ -746,31 +746,31 @@
     <t xml:space="preserve">9.7438907623291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8312816619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70893478393555</t>
+    <t xml:space="preserve">9.83128070831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70893573760986</t>
   </si>
   <si>
     <t xml:space="preserve">9.53415775299072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48172473907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39433479309082</t>
+    <t xml:space="preserve">9.48172378540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39433574676514</t>
   </si>
   <si>
     <t xml:space="preserve">9.43803024291992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55163669586182</t>
+    <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.42055130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37685871124268</t>
+    <t xml:space="preserve">9.37685680389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.26325225830078</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">9.1583833694458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34190273284912</t>
+    <t xml:space="preserve">9.34190082550049</t>
   </si>
   <si>
     <t xml:space="preserve">9.40307426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84001922607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632472991943</t>
+    <t xml:space="preserve">9.84002113342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632568359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7875862121582</t>
+    <t xml:space="preserve">9.78758716583252</t>
   </si>
   <si>
     <t xml:space="preserve">9.81380271911621</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">9.85749816894531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22829723358154</t>
+    <t xml:space="preserve">9.22829532623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.07099533081055</t>
@@ -818,91 +818,91 @@
     <t xml:space="preserve">9.25451278686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97984218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497615814209</t>
+    <t xml:space="preserve">9.97984313964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497520446777</t>
   </si>
   <si>
     <t xml:space="preserve">10.0497541427612</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91866970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398071289062</t>
+    <t xml:space="preserve">9.91867160797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397880554199</t>
   </si>
   <si>
     <t xml:space="preserve">9.63902473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71767616271973</t>
+    <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
     <t xml:space="preserve">9.72641372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61280822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56911277770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68271923065186</t>
+    <t xml:space="preserve">9.61280727386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56911373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271827697754</t>
   </si>
   <si>
     <t xml:space="preserve">9.30694484710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36811828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019817352295</t>
+    <t xml:space="preserve">9.3681173324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019721984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650177001953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0060596466064</t>
+    <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
     <t xml:space="preserve">9.08847236633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04477882385254</t>
+    <t xml:space="preserve">9.04477977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17586326599121</t>
+    <t xml:space="preserve">9.17586231231689</t>
   </si>
   <si>
     <t xml:space="preserve">9.13216781616211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95738887786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8263053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00108528137207</t>
+    <t xml:space="preserve">8.95738792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82630634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00108432769775</t>
   </si>
   <si>
     <t xml:space="preserve">8.91369438171387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86999893188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891735076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7826099395752</t>
+    <t xml:space="preserve">8.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891639709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78261089324951</t>
   </si>
   <si>
     <t xml:space="preserve">8.58161544799805</t>
@@ -911,49 +911,49 @@
     <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24120998382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15192317962646</t>
+    <t xml:space="preserve">9.2412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15192127227783</t>
   </si>
   <si>
     <t xml:space="preserve">9.10727882385254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06263446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01799201965332</t>
+    <t xml:space="preserve">9.06263542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01799297332764</t>
   </si>
   <si>
     <t xml:space="preserve">8.97334861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.892991065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727214813232</t>
+    <t xml:space="preserve">8.89299011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727310180664</t>
   </si>
   <si>
     <t xml:space="preserve">8.83941745758057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75013065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71441650390625</t>
+    <t xml:space="preserve">8.75013160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71441555023193</t>
   </si>
   <si>
     <t xml:space="preserve">8.78584671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73227310180664</t>
+    <t xml:space="preserve">8.73227405548096</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82156181335449</t>
+    <t xml:space="preserve">8.82156085968018</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">8.66084384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57155799865723</t>
+    <t xml:space="preserve">8.57155704498291</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
@@ -974,25 +974,25 @@
     <t xml:space="preserve">8.41084098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91084671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798915863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92870616912842</t>
+    <t xml:space="preserve">8.91084766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9287052154541</t>
   </si>
   <si>
     <t xml:space="preserve">8.80370330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37514114379883</t>
+    <t xml:space="preserve">9.37514019012451</t>
   </si>
   <si>
     <t xml:space="preserve">9.50906944274902</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46442794799805</t>
+    <t xml:space="preserve">9.46442890167236</t>
   </si>
   <si>
     <t xml:space="preserve">9.3304967880249</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">9.28585243225098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5894136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53584289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512969970703</t>
+    <t xml:space="preserve">8.58941459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5358419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6251277923584</t>
   </si>
   <si>
     <t xml:space="preserve">8.46441173553467</t>
@@ -1019,16 +1019,16 @@
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2501220703125</t>
+    <t xml:space="preserve">8.25012397766113</t>
   </si>
   <si>
     <t xml:space="preserve">8.30369567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583717346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33941078186035</t>
+    <t xml:space="preserve">8.28583812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33940982818604</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512683868408</t>
@@ -1046,25 +1046,25 @@
     <t xml:space="preserve">9.55371379852295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77693176269531</t>
+    <t xml:space="preserve">9.77693271636963</t>
   </si>
   <si>
     <t xml:space="preserve">9.7322883605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0447940826416</t>
+    <t xml:space="preserve">10.0447931289673</t>
   </si>
   <si>
     <t xml:space="preserve">10.2680110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126535415649</t>
+    <t xml:space="preserve">10.3126544952393</t>
   </si>
   <si>
     <t xml:space="preserve">10.3572978973389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912300109863</t>
+    <t xml:space="preserve">10.491229057312</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
@@ -1076,28 +1076,28 @@
     <t xml:space="preserve">10.4019422531128</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805149078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
+    <t xml:space="preserve">10.5805158615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242055892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8521919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330095291138</t>
+    <t xml:space="preserve">10.8065958023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242046356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8521928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330104827881</t>
   </si>
   <si>
     <t xml:space="preserve">10.3962173461914</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">10.5786085128784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4874134063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418163299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506212234497</t>
+    <t xml:space="preserve">10.4874143600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418144226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.350622177124</t>
   </si>
   <si>
     <t xml:space="preserve">10.1226348876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2594261169434</t>
+    <t xml:space="preserve">10.2594270706177</t>
   </si>
   <si>
     <t xml:space="preserve">10.0770359039307</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">10.0314378738403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3050231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1682300567627</t>
+    <t xml:space="preserve">10.3050222396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1682291030884</t>
   </si>
   <si>
     <t xml:space="preserve">9.89464664459229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84904956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48426914215088</t>
+    <t xml:space="preserve">9.84904861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48426818847656</t>
   </si>
   <si>
     <t xml:space="preserve">9.43867206573486</t>
@@ -1151,34 +1151,34 @@
     <t xml:space="preserve">9.52986621856689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62106227874756</t>
+    <t xml:space="preserve">9.62106132507324</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66666030883789</t>
+    <t xml:space="preserve">9.66665935516357</t>
   </si>
   <si>
     <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25628185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1650857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21068477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39307498931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1194896697998</t>
+    <t xml:space="preserve">9.25628089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16508769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3018798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21068572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39307403564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11948871612549</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225547790527</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9402437210083</t>
+    <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">11.1257762908936</t>
   </si>
   <si>
-    <t xml:space="preserve">11.627347946167</t>
+    <t xml:space="preserve">11.6273488998413</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3993616104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081665039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0801792144775</t>
+    <t xml:space="preserve">11.3993625640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081674575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0801801681519</t>
   </si>
   <si>
     <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713743209839</t>
+    <t xml:space="preserve">11.1713752746582</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449596405029</t>
@@ -1223,13 +1223,13 @@
     <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8553371429443</t>
+    <t xml:space="preserve">11.8553380966187</t>
   </si>
   <si>
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833234786987</t>
+    <t xml:space="preserve">12.083324432373</t>
   </si>
   <si>
     <t xml:space="preserve">12.3113107681274</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">12.1745185852051</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921283721924</t>
+    <t xml:space="preserve">11.9921293258667</t>
   </si>
   <si>
     <t xml:space="preserve">11.7641410827637</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">13.1320648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9952726364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9496755599976</t>
+    <t xml:space="preserve">12.9952716827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9496746063232</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688579559326</t>
@@ -1268,19 +1268,19 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481029510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5848960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8128824234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8584794998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0864686965942</t>
+    <t xml:space="preserve">12.4481039047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5848970413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8128833770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8584804534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0864677429199</t>
   </si>
   <si>
     <t xml:space="preserve">11.900933265686</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">9.02829456329346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09810733795166</t>
+    <t xml:space="preserve">8.09810638427734</t>
   </si>
   <si>
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64213228225708</t>
+    <t xml:space="preserve">7.64213275909424</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
@@ -1310,28 +1310,28 @@
     <t xml:space="preserve">8.66351509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07986736297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57231998443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73647117614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118824005127</t>
+    <t xml:space="preserve">8.07986831665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57231903076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73647022247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118919372559</t>
   </si>
   <si>
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34747791290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0847988128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94472980499268</t>
+    <t xml:space="preserve">9.3474760055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0847978591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94473075866699</t>
   </si>
   <si>
     <t xml:space="preserve">10.0381088256836</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">9.80466461181641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85135364532471</t>
+    <t xml:space="preserve">9.85135269165039</t>
   </si>
   <si>
     <t xml:space="preserve">9.99141979217529</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">10.2715530395508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89804363250732</t>
+    <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
     <t xml:space="preserve">10.5516862869263</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">10.7384414672852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.018575668335</t>
+    <t xml:space="preserve">11.0185747146606</t>
   </si>
   <si>
     <t xml:space="preserve">10.8318195343018</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">10.6450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2987089157104</t>
+    <t xml:space="preserve">11.2987079620361</t>
   </si>
   <si>
     <t xml:space="preserve">11.4854640960693</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6722192764282</t>
+    <t xml:space="preserve">11.6722202301025</t>
   </si>
   <si>
     <t xml:space="preserve">11.3453969955444</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">10.9718866348267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652637481689</t>
+    <t xml:space="preserve">11.0652647018433</t>
   </si>
   <si>
     <t xml:space="preserve">11.5788412094116</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">11.6255302429199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3920850753784</t>
+    <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
     <t xml:space="preserve">11.5321531295776</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857957839966</t>
+    <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
     <t xml:space="preserve">12.2791738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9056634902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.999041557312</t>
+    <t xml:space="preserve">11.9056644439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9990425109863</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">12.0924186706543</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8122863769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3258628845215</t>
+    <t xml:space="preserve">11.8122854232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3258638381958</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">13.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1195735931396</t>
+    <t xml:space="preserve">13.119574546814</t>
   </si>
   <si>
     <t xml:space="preserve">13.3997087478638</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">13.5864639282227</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4930858612061</t>
+    <t xml:space="preserve">13.4930849075317</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
@@ -1514,19 +1514,19 @@
     <t xml:space="preserve">12.5593070983887</t>
   </si>
   <si>
-    <t xml:space="preserve">13.026195526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9328193664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8394403457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5397748947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8199081420898</t>
+    <t xml:space="preserve">13.0261964797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9328203201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8394412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.53977394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8199071884155</t>
   </si>
   <si>
     <t xml:space="preserve">14.0533533096313</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">14.7069959640503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9404411315918</t>
+    <t xml:space="preserve">14.9404401779175</t>
   </si>
   <si>
     <t xml:space="preserve">14.8937520980835</t>
@@ -1580,13 +1580,13 @@
     <t xml:space="preserve">14.5202417373657</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665971755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066633224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7732191085815</t>
+    <t xml:space="preserve">13.8665981292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066623687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7732181549072</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
@@ -2916,6 +2916,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.6499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5499992370605</t>
   </si>
 </sst>
 </file>
@@ -60353,7 +60356,7 @@
     </row>
     <row r="2197">
       <c r="A2197" s="1" t="n">
-        <v>45523.6496180556</v>
+        <v>45523.2916666667</v>
       </c>
       <c r="B2197" t="n">
         <v>1618</v>
@@ -60374,6 +60377,32 @@
         <v>967</v>
       </c>
       <c r="H2197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="1" t="n">
+        <v>45524.6496180556</v>
+      </c>
+      <c r="B2198" t="n">
+        <v>3120</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>25.0499992370605</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>24.6499996185303</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>24.9500007629395</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>24.5499992370605</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>968</v>
+      </c>
+      <c r="H2198" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="971">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947315216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578079223633</t>
+    <t xml:space="preserve">8.43947219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578174591064</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206188201904</t>
@@ -56,19 +56,19 @@
     <t xml:space="preserve">8.31734466552734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19521617889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27101802825928</t>
+    <t xml:space="preserve">8.19521427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.29207611083984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15731620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363807678223</t>
+    <t xml:space="preserve">8.15731430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363903045654</t>
   </si>
   <si>
     <t xml:space="preserve">8.18679332733154</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve">8.08572196960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13625812530518</t>
+    <t xml:space="preserve">8.13625717163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.11520195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03518676757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097438812256</t>
+    <t xml:space="preserve">8.03518486022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097343444824</t>
   </si>
   <si>
     <t xml:space="preserve">8.02676296234131</t>
@@ -95,13 +95,13 @@
     <t xml:space="preserve">8.00149536132812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99307203292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780490875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145124435425</t>
+    <t xml:space="preserve">7.99307250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9678053855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145029067993</t>
   </si>
   <si>
     <t xml:space="preserve">7.83304357528687</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">7.81619691848755</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80356359481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197221755981</t>
+    <t xml:space="preserve">7.80356311798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197174072266</t>
   </si>
   <si>
     <t xml:space="preserve">7.66880083084106</t>
@@ -122,37 +122,37 @@
     <t xml:space="preserve">7.66459035873413</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7488169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91727018356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048377990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994857788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30471038818359</t>
+    <t xml:space="preserve">7.74881649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357877731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726922988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203151702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048473358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994762420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30470943450928</t>
   </si>
   <si>
     <t xml:space="preserve">8.25417518615723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11941242218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07730007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33839988708496</t>
+    <t xml:space="preserve">8.11941432952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730102539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33840084075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.4815845489502</t>
@@ -161,16 +161,16 @@
     <t xml:space="preserve">8.44789505004883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420555114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155513763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4256010055542</t>
+    <t xml:space="preserve">8.41420364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155323028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560195922852</t>
   </si>
   <si>
     <t xml:space="preserve">8.48578357696533</t>
@@ -179,37 +179,37 @@
     <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084541320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29663753509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32673072814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25364971160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962535858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532524108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32243061065674</t>
+    <t xml:space="preserve">8.27084445953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29663562774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3267297744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2536506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962440490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102798461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3353271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32242965698242</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261318206787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21066188812256</t>
+    <t xml:space="preserve">8.21066284179688</t>
   </si>
   <si>
     <t xml:space="preserve">8.22785663604736</t>
@@ -218,34 +218,34 @@
     <t xml:space="preserve">8.16767406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08169937133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03871154785156</t>
+    <t xml:space="preserve">8.08169841766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03871059417725</t>
   </si>
   <si>
     <t xml:space="preserve">7.99572372436523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95273399353027</t>
+    <t xml:space="preserve">7.95273447036743</t>
   </si>
   <si>
     <t xml:space="preserve">8.24505233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05160713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675786972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377195358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590534210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9269437789917</t>
+    <t xml:space="preserve">8.05160617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377099990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590629577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694234848022</t>
   </si>
   <si>
     <t xml:space="preserve">7.90974760055542</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">7.73779678344727</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78078460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383514404297</t>
+    <t xml:space="preserve">7.78078317642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133136749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383228302002</t>
   </si>
   <si>
     <t xml:space="preserve">8.59755229949951</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64913654327393</t>
+    <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
     <t xml:space="preserve">8.72651481628418</t>
@@ -278,34 +278,34 @@
     <t xml:space="preserve">8.91566181182861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84687995910645</t>
+    <t xml:space="preserve">8.84688091278076</t>
   </si>
   <si>
     <t xml:space="preserve">8.63194179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66633129119873</t>
+    <t xml:space="preserve">8.66633224487305</t>
   </si>
   <si>
     <t xml:space="preserve">8.59325313568115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58895492553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352699279785</t>
+    <t xml:space="preserve">8.58895397186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352794647217</t>
   </si>
   <si>
     <t xml:space="preserve">8.70072269439697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94145107269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547733306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76950168609619</t>
+    <t xml:space="preserve">8.94145488739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547828674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76950263977051</t>
   </si>
   <si>
     <t xml:space="preserve">9.02742958068848</t>
@@ -314,58 +314,58 @@
     <t xml:space="preserve">9.15639209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2337703704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19938087463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24236679077148</t>
+    <t xml:space="preserve">9.23377132415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19937896728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2423677444458</t>
   </si>
   <si>
     <t xml:space="preserve">9.41431999206543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32834434509277</t>
+    <t xml:space="preserve">9.32834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">9.31974697113037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20797920227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.225172996521</t>
+    <t xml:space="preserve">9.20797824859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22517108917236</t>
   </si>
   <si>
     <t xml:space="preserve">9.44011211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45730590820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956249237061</t>
+    <t xml:space="preserve">9.45730781555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956439971924</t>
   </si>
   <si>
     <t xml:space="preserve">9.74962329864502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54328155517578</t>
+    <t xml:space="preserve">9.5432825088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.62925720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52608680725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67224597930908</t>
+    <t xml:space="preserve">9.52608776092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67224407196045</t>
   </si>
   <si>
     <t xml:space="preserve">9.62065982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58627033233643</t>
+    <t xml:space="preserve">9.58626937866211</t>
   </si>
   <si>
     <t xml:space="preserve">9.68084239959717</t>
@@ -374,28 +374,28 @@
     <t xml:space="preserve">9.71523284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61206340789795</t>
+    <t xml:space="preserve">9.61206245422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.5518798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65504837036133</t>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504932403564</t>
   </si>
   <si>
     <t xml:space="preserve">9.70663547515869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88718414306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138910293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4030389785767</t>
+    <t xml:space="preserve">9.88718318939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4030380249023</t>
   </si>
   <si>
     <t xml:space="preserve">10.2826709747314</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">10.102123260498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1279163360596</t>
+    <t xml:space="preserve">10.1279153823853</t>
   </si>
   <si>
     <t xml:space="preserve">10.0333423614502</t>
@@ -416,25 +416,25 @@
     <t xml:space="preserve">10.0591344833374</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1623058319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084630966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.188099861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84419631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.878586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8527946472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.231086730957</t>
+    <t xml:space="preserve">10.1623039245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.308464050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1880979537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84419536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87858581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85279369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2310857772827</t>
   </si>
   <si>
     <t xml:space="preserve">10.007550239563</t>
@@ -446,52 +446,52 @@
     <t xml:space="preserve">10.4460248947144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6351718902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695594787598</t>
+    <t xml:space="preserve">10.6351709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695604324341</t>
   </si>
   <si>
     <t xml:space="preserve">10.9618787765503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0736474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0220603942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768169403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198038101196</t>
+    <t xml:space="preserve">11.0736465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0220623016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768178939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198057174683</t>
   </si>
   <si>
     <t xml:space="preserve">11.4433422088623</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6066932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302316665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.752854347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614517211914</t>
+    <t xml:space="preserve">11.6066951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302307128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7528533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614507675171</t>
   </si>
   <si>
     <t xml:space="preserve">11.873218536377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9505968093872</t>
+    <t xml:space="preserve">11.9505958557129</t>
   </si>
   <si>
     <t xml:space="preserve">11.9849872589111</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">12.0107793807983</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8388290405273</t>
+    <t xml:space="preserve">11.838828086853</t>
   </si>
   <si>
     <t xml:space="preserve">11.7700481414795</t>
@@ -509,118 +509,118 @@
     <t xml:space="preserve">11.6926708221436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786464691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024028778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674488067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8499717712402</t>
+    <t xml:space="preserve">11.7786436080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975358963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8674478530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8499698638916</t>
   </si>
   <si>
     <t xml:space="preserve">11.9723148345947</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0597047805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2432222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966506958008</t>
+    <t xml:space="preserve">12.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.243221282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966516494751</t>
   </si>
   <si>
     <t xml:space="preserve">12.5403451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2344818115234</t>
+    <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
     <t xml:space="preserve">12.3218717575073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1733112335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286203384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849258422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247497558594</t>
+    <t xml:space="preserve">12.1733093261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286222457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849267959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247488021851</t>
   </si>
   <si>
     <t xml:space="preserve">12.0946598052979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1383543014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2170038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257432937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635772705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082653045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897928237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684442520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985303878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422258377075</t>
+    <t xml:space="preserve">12.1383562088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.217004776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257452011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082662582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897937774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509672164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
     <t xml:space="preserve">12.0771827697754</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1033983230591</t>
+    <t xml:space="preserve">12.1034002304077</t>
   </si>
   <si>
     <t xml:space="preserve">11.8936643600464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8412322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062753677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800579071045</t>
+    <t xml:space="preserve">11.8412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062772750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800598144531</t>
   </si>
   <si>
     <t xml:space="preserve">11.7451028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7014083862305</t>
+    <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926698684692</t>
@@ -629,88 +629,88 @@
     <t xml:space="preserve">11.5353698730469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5266304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4479818344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.395546913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605909347534</t>
+    <t xml:space="preserve">11.5266313552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.447979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955450057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605918884277</t>
   </si>
   <si>
     <t xml:space="preserve">11.3518524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2732000350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207689285278</t>
+    <t xml:space="preserve">11.2732009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207679748535</t>
   </si>
   <si>
     <t xml:space="preserve">11.3431129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2906799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984220504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2295074462891</t>
+    <t xml:space="preserve">11.2906808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0984230041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2295083999634</t>
   </si>
   <si>
     <t xml:space="preserve">11.18581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.369330406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829349517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6227588653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7101469039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.579062461853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4567203521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256368637085</t>
+    <t xml:space="preserve">11.2469835281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2994184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3693294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829359054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6227579116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.710147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5790643692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4567193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256359100342</t>
   </si>
   <si>
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168954849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032899856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878028869629</t>
+    <t xml:space="preserve">11.3168973922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878038406372</t>
   </si>
   <si>
     <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4042844772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091524124146</t>
+    <t xml:space="preserve">11.4042863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091533660889</t>
   </si>
   <si>
     <t xml:space="preserve">11.1159029006958</t>
@@ -749,10 +749,10 @@
     <t xml:space="preserve">9.74389171600342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83128070831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70893573760986</t>
+    <t xml:space="preserve">9.83127975463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70893478393555</t>
   </si>
   <si>
     <t xml:space="preserve">9.53415775299072</t>
@@ -761,49 +761,49 @@
     <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3943338394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43803024291992</t>
+    <t xml:space="preserve">9.39433479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43803119659424</t>
   </si>
   <si>
     <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42055130004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37685680389404</t>
+    <t xml:space="preserve">9.42055225372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37685585021973</t>
   </si>
   <si>
     <t xml:space="preserve">9.2632532119751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15838432312012</t>
+    <t xml:space="preserve">9.15838241577148</t>
   </si>
   <si>
     <t xml:space="preserve">9.3419017791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40307426452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84002017974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632472991943</t>
+    <t xml:space="preserve">9.40307331085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84002113342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632568359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78758525848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380176544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9011926651001</t>
+    <t xml:space="preserve">9.78758716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380271911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90119171142578</t>
   </si>
   <si>
     <t xml:space="preserve">9.857497215271</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072929382324</t>
+    <t xml:space="preserve">9.28072834014893</t>
   </si>
   <si>
     <t xml:space="preserve">9.25451278686523</t>
@@ -827,10 +827,10 @@
     <t xml:space="preserve">9.87497520446777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0497531890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91867065429688</t>
+    <t xml:space="preserve">10.0497541427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91866970062256</t>
   </si>
   <si>
     <t xml:space="preserve">9.67398071289062</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">9.71767520904541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72641277313232</t>
+    <t xml:space="preserve">9.72641372680664</t>
   </si>
   <si>
     <t xml:space="preserve">9.61280822753906</t>
@@ -851,31 +851,31 @@
     <t xml:space="preserve">9.56911373138428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68271923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36811923980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019626617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650177001953</t>
+    <t xml:space="preserve">9.68271827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694389343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36811828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650272369385</t>
   </si>
   <si>
     <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08847045898438</t>
+    <t xml:space="preserve">9.08847522735596</t>
   </si>
   <si>
     <t xml:space="preserve">9.04477882385254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21955585479736</t>
+    <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
     <t xml:space="preserve">9.17586231231689</t>
@@ -884,22 +884,22 @@
     <t xml:space="preserve">9.13216686248779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95738983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8263053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00108242034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91369342803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86999988555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891639709473</t>
+    <t xml:space="preserve">8.95738792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82630634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00108432769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91369438171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8700008392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891544342041</t>
   </si>
   <si>
     <t xml:space="preserve">8.72143745422363</t>
@@ -908,25 +908,25 @@
     <t xml:space="preserve">8.7826099395752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58161449432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19656562805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24120998382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15192413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10727882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06263542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01799297332764</t>
+    <t xml:space="preserve">8.58161544799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19656658172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24121189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15192222595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10727787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06263637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01799201965332</t>
   </si>
   <si>
     <t xml:space="preserve">8.97334861755371</t>
@@ -938,166 +938,166 @@
     <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83941841125488</t>
+    <t xml:space="preserve">8.83941745758057</t>
   </si>
   <si>
     <t xml:space="preserve">8.75013160705566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71441650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78584575653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227405548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85727500915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82156181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87513160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66084384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155704498291</t>
+    <t xml:space="preserve">8.71441555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78584671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227310180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85727691650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82156085968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87513256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66084480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155799865723</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655513763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084098815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91084671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9287052154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370330810547</t>
+    <t xml:space="preserve">8.44655609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91084766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92870426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370426177979</t>
   </si>
   <si>
     <t xml:space="preserve">9.37514019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50907039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442985534668</t>
+    <t xml:space="preserve">9.50906848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442890167236</t>
   </si>
   <si>
     <t xml:space="preserve">9.3304967880249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28585147857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58941459655762</t>
+    <t xml:space="preserve">9.28585433959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5894136428833</t>
   </si>
   <si>
     <t xml:space="preserve">8.5358419418335</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62512969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46441268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726642608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42869663238525</t>
+    <t xml:space="preserve">8.62512874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46441078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726833343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42869853973389</t>
   </si>
   <si>
     <t xml:space="preserve">8.25012302398682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30369663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28583812713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33941078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37512493133545</t>
+    <t xml:space="preserve">8.30369567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28583717346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33940982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37512588500977</t>
   </si>
   <si>
     <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64298725128174</t>
+    <t xml:space="preserve">8.64298629760742</t>
   </si>
   <si>
     <t xml:space="preserve">9.41978359222412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55371475219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77693271636963</t>
+    <t xml:space="preserve">9.55371379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77693176269531</t>
   </si>
   <si>
     <t xml:space="preserve">9.7322883605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0447940826416</t>
+    <t xml:space="preserve">10.0447931289673</t>
   </si>
   <si>
     <t xml:space="preserve">10.2680101394653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126544952393</t>
+    <t xml:space="preserve">10.3126554489136</t>
   </si>
   <si>
     <t xml:space="preserve">10.3572978973389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912281036377</t>
+    <t xml:space="preserve">10.4912300109863</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019403457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698026657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065958023071</t>
+    <t xml:space="preserve">10.5358734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805139541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065938949585</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8521928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609977722168</t>
+    <t xml:space="preserve">10.8521919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609987258911</t>
   </si>
   <si>
     <t xml:space="preserve">10.5330104827881</t>
@@ -1106,25 +1106,25 @@
     <t xml:space="preserve">10.3962173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">10.213828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5786075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874124526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418153762817</t>
+    <t xml:space="preserve">10.2138290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5786085128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4874134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418144226074</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1226329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2594261169434</t>
+    <t xml:space="preserve">10.122633934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.259425163269</t>
   </si>
   <si>
     <t xml:space="preserve">10.0770359039307</t>
@@ -1136,70 +1136,70 @@
     <t xml:space="preserve">10.3050231933594</t>
   </si>
   <si>
-    <t xml:space="preserve">10.168231010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89464664459229</t>
+    <t xml:space="preserve">10.1682300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89464569091797</t>
   </si>
   <si>
     <t xml:space="preserve">9.84904956817627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48426723480225</t>
+    <t xml:space="preserve">9.4842700958252</t>
   </si>
   <si>
     <t xml:space="preserve">9.43867206573486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52986621856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785446166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66666126251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57546424865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25628185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16508674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30187892913818</t>
+    <t xml:space="preserve">9.52986526489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106227874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785350799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66666030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57546329498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25628280639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1650857925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30187797546387</t>
   </si>
   <si>
     <t xml:space="preserve">9.21068477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39307308197021</t>
+    <t xml:space="preserve">9.39307498931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71225547790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80345058441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9402437210083</t>
+    <t xml:space="preserve">9.71225452423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80345153808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6273498535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6729459762573</t>
+    <t xml:space="preserve">11.627347946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
     <t xml:space="preserve">11.3993616104126</t>
@@ -1211,34 +1211,34 @@
     <t xml:space="preserve">11.0801792144775</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0345830917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1713743209839</t>
+    <t xml:space="preserve">11.0345821380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1713762283325</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.581750869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.718544960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.85533618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.946533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0833225250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1745195388794</t>
+    <t xml:space="preserve">11.5817518234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7185459136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8553371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9465312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.083324432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1745185852051</t>
   </si>
   <si>
     <t xml:space="preserve">11.9921283721924</t>
@@ -1247,52 +1247,52 @@
     <t xml:space="preserve">11.7641401290894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4937009811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7672843933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1320648193359</t>
+    <t xml:space="preserve">12.4937000274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7672853469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1320638656616</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496746063232</t>
+    <t xml:space="preserve">12.9496755599976</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688570022583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6304931640625</t>
+    <t xml:space="preserve">12.6304941177368</t>
   </si>
   <si>
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481029510498</t>
+    <t xml:space="preserve">12.4481039047241</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8128833770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8584794998169</t>
+    <t xml:space="preserve">12.8128843307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8584804534912</t>
   </si>
   <si>
     <t xml:space="preserve">13.0864686965942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.900933265686</t>
+    <t xml:space="preserve">11.9009342193604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7153997421265</t>
+    <t xml:space="preserve">10.7154006958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.02829456329346</t>
@@ -1301,22 +1301,22 @@
     <t xml:space="preserve">8.09810638427734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93395566940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64213275909424</t>
+    <t xml:space="preserve">7.93395662307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64213228225708</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6635160446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07986831665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57232093811035</t>
+    <t xml:space="preserve">8.66351509094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07986736297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
     <t xml:space="preserve">8.73647117614746</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99181652069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34747791290283</t>
+    <t xml:space="preserve">8.99181747436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3474760055542</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94473075866699</t>
+    <t xml:space="preserve">9.94472980499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.0381088256836</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">9.80466461181641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85135269165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99142074584961</t>
+    <t xml:space="preserve">9.85135364532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99141979217529</t>
   </si>
   <si>
     <t xml:space="preserve">10.2715539932251</t>
@@ -1358,37 +1358,37 @@
     <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4583082199097</t>
+    <t xml:space="preserve">10.458309173584</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785076141357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7384405136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0185747146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8318185806274</t>
+    <t xml:space="preserve">10.7384414672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.018575668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
     <t xml:space="preserve">11.1586418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7851305007935</t>
+    <t xml:space="preserve">10.7851314544678</t>
   </si>
   <si>
     <t xml:space="preserve">10.925196647644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6450624465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2987089157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4854640960693</t>
+    <t xml:space="preserve">10.6450634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2987079620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.485463142395</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">11.2053308486938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.438775062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1119527816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2520198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9718856811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652647018433</t>
+    <t xml:space="preserve">11.4387760162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1119518280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2520189285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9718866348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652637481689</t>
   </si>
   <si>
     <t xml:space="preserve">11.5788412094116</t>
@@ -1424,28 +1424,28 @@
     <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.532154083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189092636108</t>
+    <t xml:space="preserve">11.5321531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189083099365</t>
   </si>
   <si>
     <t xml:space="preserve">11.7655973434448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8589735031128</t>
+    <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
     <t xml:space="preserve">12.1391077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9523515701294</t>
+    <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
     <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2791748046875</t>
+    <t xml:space="preserve">12.2791738510132</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">11.999041557312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2324867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0457286834717</t>
+    <t xml:space="preserve">12.2324857711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
     <t xml:space="preserve">12.0924186706543</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">12.9795074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2596406936646</t>
+    <t xml:space="preserve">13.2596416473389</t>
   </si>
   <si>
     <t xml:space="preserve">13.0728855133057</t>
@@ -1484,28 +1484,28 @@
     <t xml:space="preserve">13.119574546814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3997077941895</t>
+    <t xml:space="preserve">13.3997087478638</t>
   </si>
   <si>
     <t xml:space="preserve">13.4463968276978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3063287734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3530187606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864629745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930849075317</t>
+    <t xml:space="preserve">13.3063306808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3530197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864639282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930858612061</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9132852554321</t>
+    <t xml:space="preserve">13.9132843017578</t>
   </si>
   <si>
     <t xml:space="preserve">13.633152961731</t>
@@ -1514,73 +1514,73 @@
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.559308052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0261964797974</t>
+    <t xml:space="preserve">12.5593070983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.026195526123</t>
   </si>
   <si>
     <t xml:space="preserve">12.9328193664551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8394412994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5397748947144</t>
+    <t xml:space="preserve">12.8394403457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.53977394104</t>
   </si>
   <si>
     <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.053352355957</t>
+    <t xml:space="preserve">14.0533533096313</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801746368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5669317245483</t>
+    <t xml:space="preserve">14.3801736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5669298171997</t>
   </si>
   <si>
     <t xml:space="preserve">14.3334856033325</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7069959640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9404401779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8937511444092</t>
+    <t xml:space="preserve">14.7069969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9404411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8937520980835</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338182449341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0805072784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2672624588013</t>
+    <t xml:space="preserve">15.0805063247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2672634124756</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8470621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603078842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4735527038574</t>
+    <t xml:space="preserve">14.8470630645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.660306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
     <t xml:space="preserve">14.1934185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5202407836914</t>
+    <t xml:space="preserve">14.5202417373657</t>
   </si>
   <si>
     <t xml:space="preserve">13.8665971755981</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732181549072</t>
+    <t xml:space="preserve">13.7732191085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401075363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5918321609497</t>
+    <t xml:space="preserve">14.2401084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.591833114624</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">15.2572574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3047885894775</t>
+    <t xml:space="preserve">15.3047876358032</t>
   </si>
   <si>
     <t xml:space="preserve">15.1146669387817</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424394607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9720754623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.019606590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.447380065918</t>
+    <t xml:space="preserve">15.5424404144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.972074508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0196056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4473791122437</t>
   </si>
   <si>
     <t xml:space="preserve">15.7325601577759</t>
@@ -1670,19 +1670,19 @@
     <t xml:space="preserve">16.1603355407715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0177440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3504581451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0652732849121</t>
+    <t xml:space="preserve">16.0177459716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.350456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0652751922607</t>
   </si>
   <si>
     <t xml:space="preserve">16.7782306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1109428405762</t>
+    <t xml:space="preserve">17.1109447479248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1691,13 +1691,13 @@
     <t xml:space="preserve">16.8257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4455184936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5387191772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0615520477295</t>
+    <t xml:space="preserve">16.4455165863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5387172698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0615501403809</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">16.8732929229736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.348596572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7763710021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.871431350708</t>
+    <t xml:space="preserve">17.3485946655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7763690948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8714294433594</t>
   </si>
   <si>
     <t xml:space="preserve">18.299201965332</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">18.8220367431641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0121593475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2022819519043</t>
+    <t xml:space="preserve">19.0121574401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2022838592529</t>
   </si>
   <si>
     <t xml:space="preserve">20.0578269958496</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924007415771</t>
+    <t xml:space="preserve">19.3924026489258</t>
   </si>
   <si>
     <t xml:space="preserve">19.9627666473389</t>
@@ -1748,19 +1748,19 @@
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1528911590576</t>
+    <t xml:space="preserve">19.7726459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.152889251709</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936172485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5788021087646</t>
+    <t xml:space="preserve">21.2936191558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.578800201416</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
@@ -1769,22 +1769,22 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034984588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1491641998291</t>
+    <t xml:space="preserve">21.1034965515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1491661071777</t>
   </si>
   <si>
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0541038513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3392868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6244697570801</t>
+    <t xml:space="preserve">22.054105758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3392887115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6244678497314</t>
   </si>
   <si>
     <t xml:space="preserve">22.8145923614502</t>
@@ -1793,10 +1793,10 @@
     <t xml:space="preserve">21.9590435028076</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8639812469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5331344604492</t>
+    <t xml:space="preserve">21.8639831542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5331325531006</t>
   </si>
   <si>
     <t xml:space="preserve">18.5843849182129</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9133758544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2442264556885</t>
+    <t xml:space="preserve">20.9133739471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2442245483398</t>
   </si>
   <si>
     <t xml:space="preserve">23.0997734069824</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837398529053</t>
+    <t xml:space="preserve">21.4837417602539</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">21.6738605499268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8183135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3430118560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0047149658203</t>
+    <t xml:space="preserve">20.8183155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3430099487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0047130584717</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">20.7232532501221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1985569000244</t>
+    <t xml:space="preserve">21.1985549926758</t>
   </si>
   <si>
     <t xml:space="preserve">19.6775856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1072216033936</t>
+    <t xml:space="preserve">19.1072196960449</t>
   </si>
   <si>
     <t xml:space="preserve">18.6319160461426</t>
@@ -1862,19 +1862,19 @@
     <t xml:space="preserve">17.2060050964355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9189605712891</t>
+    <t xml:space="preserve">17.9189624786377</t>
   </si>
   <si>
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337757110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1566123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2041435241699</t>
+    <t xml:space="preserve">17.6337776184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1566143035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2041416168213</t>
   </si>
   <si>
     <t xml:space="preserve">18.5368556976318</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988288879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7269763946533</t>
+    <t xml:space="preserve">18.4988307952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.726978302002</t>
   </si>
   <si>
     <t xml:space="preserve">18.2136497497559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3847599029541</t>
+    <t xml:space="preserve">18.3847579956055</t>
   </si>
   <si>
     <t xml:space="preserve">19.2498111724854</t>
@@ -1919,34 +1919,34 @@
     <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7650012969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8143920898438</t>
+    <t xml:space="preserve">18.7649993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8143939971924</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249214172363</t>
+    <t xml:space="preserve">17.1333637237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249195098877</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2072010040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7032775878906</t>
+    <t xml:space="preserve">19.2071990966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.703275680542</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816356658936</t>
+    <t xml:space="preserve">19.3816337585449</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1958,37 +1958,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.226583480835</t>
+    <t xml:space="preserve">19.2265815734863</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3507175445557</t>
+    <t xml:space="preserve">20.350715637207</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4476261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383499145508</t>
+    <t xml:space="preserve">21.2228908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.447624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383480072021</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.866174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001842498779</t>
+    <t xml:space="preserve">21.8043384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8661766052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001861572266</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239051818848</t>
+    <t xml:space="preserve">19.6239070892334</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723594665527</t>
+    <t xml:space="preserve">18.9746208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723575592041</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538070678711</t>
+    <t xml:space="preserve">20.2538089752197</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919708251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4651584625244</t>
+    <t xml:space="preserve">22.1919727325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074298858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.465160369873</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.610523223877</t>
+    <t xml:space="preserve">21.6105213165283</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1568984985352</t>
+    <t xml:space="preserve">20.1569004058838</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2579612731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734222412109</t>
+    <t xml:space="preserve">23.257963180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.676513671875</t>
+    <t xml:space="preserve">22.6765117645264</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156452178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7692680358887</t>
+    <t xml:space="preserve">18.3156433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.76926612854</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486850738525</t>
+    <t xml:space="preserve">22.9672374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486869812012</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600364685059</t>
+    <t xml:space="preserve">24.7600383758545</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754974365234</t>
+    <t xml:space="preserve">24.2754955291748</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9054012298584</t>
+    <t xml:space="preserve">24.905403137207</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.729118347168</t>
+    <t xml:space="preserve">25.7291202545166</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827411651611</t>
+    <t xml:space="preserve">27.2796497344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827430725098</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167526245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652088165283</t>
+    <t xml:space="preserve">25.1961269378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322116851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167545318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652069091797</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260269165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3105697631836</t>
+    <t xml:space="preserve">25.8260288238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.310567855835</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703773498535</t>
+    <t xml:space="preserve">27.5703754425049</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.768346786499</t>
+    <t xml:space="preserve">30.7683448791504</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.605447769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1209049224854</t>
+    <t xml:space="preserve">29.6054458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085411071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.120906829834</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.702356338501</t>
+    <t xml:space="preserve">29.7023544311523</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776210784912</t>
+    <t xml:space="preserve">30.4776229858398</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559791564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198905944824</t>
+    <t xml:space="preserve">31.1559810638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198925018311</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332744598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600830078125</t>
+    <t xml:space="preserve">30.2353496551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363639831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600849151611</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -2922,6 +2922,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.5499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8999996185303</t>
   </si>
 </sst>
 </file>
@@ -60411,7 +60414,7 @@
     </row>
     <row r="2199">
       <c r="A2199" s="1" t="n">
-        <v>45525.6493171296</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B2199" t="n">
         <v>7461</v>
@@ -60432,6 +60435,32 @@
         <v>960</v>
       </c>
       <c r="H2199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="1" t="n">
+        <v>45526.6496064815</v>
+      </c>
+      <c r="B2200" t="n">
+        <v>16713</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>26.2999992370605</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>25.8999996185303</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>970</v>
+      </c>
+      <c r="H2200" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="972">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947219848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578174591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21206188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31734466552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19521427154541</t>
+    <t xml:space="preserve">8.43947315216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21206092834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31734561920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19521617889404</t>
   </si>
   <si>
     <t xml:space="preserve">8.27101898193359</t>
@@ -65,112 +65,112 @@
     <t xml:space="preserve">8.29207611083984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15731430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20363903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18679332733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625717163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520195007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03518486022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097343444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02676296234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149536132812</t>
+    <t xml:space="preserve">8.15731525421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20363712310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18679428100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572101593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520004272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03518676757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097438812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02676391601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149440765381</t>
   </si>
   <si>
     <t xml:space="preserve">7.99307250976562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9678053855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145029067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304357528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619691848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880083084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459035873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357877731323</t>
+    <t xml:space="preserve">7.96780395507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304262161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619882583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356407165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197078704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880226135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459083557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357925415039</t>
   </si>
   <si>
     <t xml:space="preserve">7.91726922988892</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05203151702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048473358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30470943450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417518615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941432952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07730102539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33840084075928</t>
+    <t xml:space="preserve">8.05203247070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048282623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994953155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30471134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417423248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941242218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33839893341064</t>
   </si>
   <si>
     <t xml:space="preserve">8.4815845489502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44789505004883</t>
+    <t xml:space="preserve">8.4478931427002</t>
   </si>
   <si>
     <t xml:space="preserve">8.41420364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32155323028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42560195922852</t>
+    <t xml:space="preserve">8.32155513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4256010055542</t>
   </si>
   <si>
     <t xml:space="preserve">8.48578357696533</t>
@@ -179,43 +179,43 @@
     <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29663562774658</t>
+    <t xml:space="preserve">8.27084636688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2966365814209</t>
   </si>
   <si>
     <t xml:space="preserve">8.3267297744751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2536506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962440490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102798461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3353271484375</t>
+    <t xml:space="preserve">8.25364971160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645305633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962535858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.32242965698242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38261318206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21066284179688</t>
+    <t xml:space="preserve">8.38261222839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21066188812256</t>
   </si>
   <si>
     <t xml:space="preserve">8.22785663604736</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16767406463623</t>
+    <t xml:space="preserve">8.16767311096191</t>
   </si>
   <si>
     <t xml:space="preserve">8.08169841766357</t>
@@ -227,43 +227,43 @@
     <t xml:space="preserve">7.99572372436523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95273447036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24505233764648</t>
+    <t xml:space="preserve">7.95273494720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505138397217</t>
   </si>
   <si>
     <t xml:space="preserve">8.05160617828369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86675882339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377099990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590629577637</t>
+    <t xml:space="preserve">7.86676025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377195358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590724945068</t>
   </si>
   <si>
     <t xml:space="preserve">7.92694234848022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90974760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078317642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755229949951</t>
+    <t xml:space="preserve">7.90974807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779535293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078413009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133279800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755039215088</t>
   </si>
   <si>
     <t xml:space="preserve">8.64054012298584</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72651481628418</t>
+    <t xml:space="preserve">8.72651386260986</t>
   </si>
   <si>
     <t xml:space="preserve">8.91566181182861</t>
@@ -281,43 +281,43 @@
     <t xml:space="preserve">8.84688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63194179534912</t>
+    <t xml:space="preserve">8.6319408416748</t>
   </si>
   <si>
     <t xml:space="preserve">8.66633224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59325313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895397186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352794647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94145488739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547828674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76950263977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02742958068848</t>
+    <t xml:space="preserve">8.59325218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072174072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76950168609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02742862701416</t>
   </si>
   <si>
     <t xml:space="preserve">9.15639209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23377132415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19937896728516</t>
+    <t xml:space="preserve">9.23376941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19937992095947</t>
   </si>
   <si>
     <t xml:space="preserve">9.2423677444458</t>
@@ -329,49 +329,49 @@
     <t xml:space="preserve">9.32834339141846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31974697113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20797824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011211395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730781555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25956439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962329864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5432825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67224407196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58626937866211</t>
+    <t xml:space="preserve">9.31974601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20797729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.225172996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.440110206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25956344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54328155517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608871459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67224502563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62066078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58626842498779</t>
   </si>
   <si>
     <t xml:space="preserve">9.68084239959717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71523284912109</t>
+    <t xml:space="preserve">9.71523380279541</t>
   </si>
   <si>
     <t xml:space="preserve">9.61206245422363</t>
@@ -380,25 +380,25 @@
     <t xml:space="preserve">9.5518798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56047630310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65504932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138919830322</t>
+    <t xml:space="preserve">9.5604772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504837036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663642883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138910293579</t>
   </si>
   <si>
     <t xml:space="preserve">10.4030380249023</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2826709747314</t>
+    <t xml:space="preserve">10.2826719284058</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451110839844</t>
@@ -410,28 +410,28 @@
     <t xml:space="preserve">10.1279153823853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0333423614502</t>
+    <t xml:space="preserve">10.0333433151245</t>
   </si>
   <si>
     <t xml:space="preserve">10.0591344833374</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1623039245605</t>
+    <t xml:space="preserve">10.1623048782349</t>
   </si>
   <si>
     <t xml:space="preserve">10.308464050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1880979537964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84419536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87858581542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85279369354248</t>
+    <t xml:space="preserve">10.1880989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84419631958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87858772277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85279560089111</t>
   </si>
   <si>
     <t xml:space="preserve">10.2310857772827</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">10.007550239563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.274073600769</t>
+    <t xml:space="preserve">10.2740745544434</t>
   </si>
   <si>
     <t xml:space="preserve">10.4460248947144</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">10.6351709365845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6867570877075</t>
+    <t xml:space="preserve">10.6867561340332</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695604324341</t>
@@ -461,13 +461,13 @@
     <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0220623016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768178939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198057174683</t>
+    <t xml:space="preserve">11.0220603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768169403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198047637939</t>
   </si>
   <si>
     <t xml:space="preserve">11.4433422088623</t>
@@ -476,31 +476,31 @@
     <t xml:space="preserve">11.6066951751709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8302307128906</t>
+    <t xml:space="preserve">11.8302316665649</t>
   </si>
   <si>
     <t xml:space="preserve">11.7528533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6496829986572</t>
+    <t xml:space="preserve">11.6496820449829</t>
   </si>
   <si>
     <t xml:space="preserve">11.7614507675171</t>
   </si>
   <si>
-    <t xml:space="preserve">11.873218536377</t>
+    <t xml:space="preserve">11.8732194900513</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505958557129</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9849872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.838828086853</t>
+    <t xml:space="preserve">11.9849882125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.010781288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388290405273</t>
   </si>
   <si>
     <t xml:space="preserve">11.7700481414795</t>
@@ -509,88 +509,88 @@
     <t xml:space="preserve">11.6926708221436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786436080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975358963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024047851562</t>
+    <t xml:space="preserve">11.7786464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975368499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024038314819</t>
   </si>
   <si>
     <t xml:space="preserve">11.8674478530884</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8499698638916</t>
+    <t xml:space="preserve">11.8499717712402</t>
   </si>
   <si>
     <t xml:space="preserve">11.9723148345947</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0597038269043</t>
+    <t xml:space="preserve">12.0597047805786</t>
   </si>
   <si>
     <t xml:space="preserve">12.0859203338623</t>
   </si>
   <si>
-    <t xml:space="preserve">12.243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966516494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5403451919556</t>
+    <t xml:space="preserve">12.2432231903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966497421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5403461456299</t>
   </si>
   <si>
     <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3218717575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1733093261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286222457886</t>
+    <t xml:space="preserve">12.321873664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1733112335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160093307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286193847656</t>
   </si>
   <si>
     <t xml:space="preserve">11.8849267959595</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0247488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946598052979</t>
+    <t xml:space="preserve">12.0247497558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946607589722</t>
   </si>
   <si>
     <t xml:space="preserve">12.1383562088013</t>
   </si>
   <si>
-    <t xml:space="preserve">12.217004776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257452011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082662582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208763122559</t>
+    <t xml:space="preserve">12.2170038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257442474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635763168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208753585815</t>
   </si>
   <si>
     <t xml:space="preserve">11.9897937774658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0684432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509672164917</t>
+    <t xml:space="preserve">12.0684442520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509653091431</t>
   </si>
   <si>
     <t xml:space="preserve">11.9985313415527</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0771827697754</t>
+    <t xml:space="preserve">12.0771808624268</t>
   </si>
   <si>
     <t xml:space="preserve">12.1034002304077</t>
@@ -608,13 +608,13 @@
     <t xml:space="preserve">11.8936643600464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062772750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800598144531</t>
+    <t xml:space="preserve">11.8412322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062782287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800579071045</t>
   </si>
   <si>
     <t xml:space="preserve">11.7451028823853</t>
@@ -626,34 +626,34 @@
     <t xml:space="preserve">11.6926698684692</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5353698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5266313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.447979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3955450057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732009887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431129455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906808853149</t>
+    <t xml:space="preserve">11.5353689193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.526629447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479818344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955478668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605909347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732019424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207689285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431119918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906799316406</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984230041504</t>
@@ -662,19 +662,19 @@
     <t xml:space="preserve">11.2295083999634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.18581199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469835281372</t>
+    <t xml:space="preserve">11.1858129501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469863891602</t>
   </si>
   <si>
     <t xml:space="preserve">11.2994184494019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3693294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829359054565</t>
+    <t xml:space="preserve">11.3693313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829368591309</t>
   </si>
   <si>
     <t xml:space="preserve">11.6227579116821</t>
@@ -686,40 +686,40 @@
     <t xml:space="preserve">11.5790643692017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567193984985</t>
+    <t xml:space="preserve">11.4567184448242</t>
   </si>
   <si>
     <t xml:space="preserve">11.3256359100342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4305028915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3168973922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878038406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868074417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042863845825</t>
+    <t xml:space="preserve">11.4305019378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3168964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878047943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868083953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042844772339</t>
   </si>
   <si>
     <t xml:space="preserve">11.5091533660889</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1159029006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1246404647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683340072632</t>
+    <t xml:space="preserve">11.1159019470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1246395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683349609375</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557249069214</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">9.51667976379395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63028621673584</t>
+    <t xml:space="preserve">9.63028526306152</t>
   </si>
   <si>
     <t xml:space="preserve">9.6477632522583</t>
@@ -746,82 +746,82 @@
     <t xml:space="preserve">9.73515319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74389171600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83127975463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70893478393555</t>
+    <t xml:space="preserve">9.74388980865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8312816619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70893669128418</t>
   </si>
   <si>
     <t xml:space="preserve">9.53415775299072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48172473907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39433479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43803119659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5516357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055225372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37685585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2632532119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15838241577148</t>
+    <t xml:space="preserve">9.48172378540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39433574676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43802928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55163383483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37685680389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15838432312012</t>
   </si>
   <si>
     <t xml:space="preserve">9.3419017791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40307331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84002113342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79632568359375</t>
+    <t xml:space="preserve">9.40307426452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84002017974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79632663726807</t>
   </si>
   <si>
     <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78758716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380271911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90119171142578</t>
+    <t xml:space="preserve">9.7875862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9011926651001</t>
   </si>
   <si>
     <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22829627990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07099533081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28072834014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984218597412</t>
+    <t xml:space="preserve">9.22829723358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07099437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28073024749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451183319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984313964844</t>
   </si>
   <si>
     <t xml:space="preserve">9.87497520446777</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">10.0497541427612</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91866970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398071289062</t>
+    <t xml:space="preserve">9.91867065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397975921631</t>
   </si>
   <si>
     <t xml:space="preserve">9.63902473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71767520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72641372680664</t>
+    <t xml:space="preserve">9.71767616271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72641468048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.61280822753906</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">9.56911373138428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68271827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694389343262</t>
+    <t xml:space="preserve">9.68271923065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694580078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.36811828613281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70019817352295</t>
+    <t xml:space="preserve">9.70019721984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650272369385</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08847522735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586231231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216686248779</t>
+    <t xml:space="preserve">9.08847236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216781616211</t>
   </si>
   <si>
     <t xml:space="preserve">8.95738792419434</t>
@@ -896,43 +896,43 @@
     <t xml:space="preserve">8.91369438171387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891544342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7826099395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161544799805</t>
+    <t xml:space="preserve">8.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891448974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78261184692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161640167236</t>
   </si>
   <si>
     <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24121189117432</t>
+    <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.15192222595215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06263637542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01799201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334861755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89299011230469</t>
+    <t xml:space="preserve">9.10727882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06263542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01799297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.892991065979</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727214813232</t>
@@ -944,37 +944,37 @@
     <t xml:space="preserve">8.75013160705566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71441555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78584671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227310180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85727691650391</t>
+    <t xml:space="preserve">8.71441650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78584480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227405548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85727596282959</t>
   </si>
   <si>
     <t xml:space="preserve">8.82156085968018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87513256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66084480285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39298343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44655609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084003448486</t>
+    <t xml:space="preserve">8.8751335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66084384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39298248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44655513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084098815918</t>
   </si>
   <si>
     <t xml:space="preserve">8.91084766387939</t>
@@ -986,58 +986,58 @@
     <t xml:space="preserve">8.92870426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80370426177979</t>
+    <t xml:space="preserve">8.80370235443115</t>
   </si>
   <si>
     <t xml:space="preserve">9.37514019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50906848907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442890167236</t>
+    <t xml:space="preserve">9.50907039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442794799805</t>
   </si>
   <si>
     <t xml:space="preserve">9.3304967880249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28585433959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5894136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5358419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46441078186035</t>
+    <t xml:space="preserve">9.28585338592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58941459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62512969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46441268920898</t>
   </si>
   <si>
     <t xml:space="preserve">8.35726833343506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42869853973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25012302398682</t>
+    <t xml:space="preserve">8.42869758605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25012397766113</t>
   </si>
   <si>
     <t xml:space="preserve">8.30369567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583717346191</t>
+    <t xml:space="preserve">8.28583908081055</t>
   </si>
   <si>
     <t xml:space="preserve">8.33940982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37512588500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5001277923584</t>
+    <t xml:space="preserve">8.37512493133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50012683868408</t>
   </si>
   <si>
     <t xml:space="preserve">8.64298629760742</t>
@@ -1046,28 +1046,28 @@
     <t xml:space="preserve">9.41978359222412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77693176269531</t>
+    <t xml:space="preserve">9.55371475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77693271636963</t>
   </si>
   <si>
     <t xml:space="preserve">9.7322883605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0447931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680101394653</t>
+    <t xml:space="preserve">10.0447940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680110931396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126554489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3572978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4912300109863</t>
+    <t xml:space="preserve">10.3572988510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912281036377</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
@@ -1079,16 +1079,16 @@
     <t xml:space="preserve">10.4019412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805139541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233667373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698017120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065938949585</t>
+    <t xml:space="preserve">10.5805168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22336769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698026657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065948486328</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242046356201</t>
@@ -1103,19 +1103,19 @@
     <t xml:space="preserve">10.5330104827881</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3962173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138290405273</t>
+    <t xml:space="preserve">10.3962182998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.213828086853</t>
   </si>
   <si>
     <t xml:space="preserve">10.5786085128784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4874134063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418144226074</t>
+    <t xml:space="preserve">10.4874124526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418153762817</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506212234497</t>
@@ -1133,58 +1133,58 @@
     <t xml:space="preserve">10.0314388275146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3050231933594</t>
+    <t xml:space="preserve">10.3050241470337</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682300567627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89464569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84904956817627</t>
+    <t xml:space="preserve">9.89464664459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84905052185059</t>
   </si>
   <si>
     <t xml:space="preserve">9.4842700958252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43867206573486</t>
+    <t xml:space="preserve">9.43867301940918</t>
   </si>
   <si>
     <t xml:space="preserve">9.52986526489258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62106227874756</t>
+    <t xml:space="preserve">9.62106132507324</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785350799561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66666030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57546329498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25628280639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1650857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30187797546387</t>
+    <t xml:space="preserve">9.66665935516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57546424865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25628185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16508674621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3018798828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.21068477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39307498931885</t>
+    <t xml:space="preserve">9.39307403564453</t>
   </si>
   <si>
     <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71225452423096</t>
+    <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
     <t xml:space="preserve">9.80345153808594</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
-    <t xml:space="preserve">11.627347946167</t>
+    <t xml:space="preserve">11.6273488998413</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3993616104126</t>
+    <t xml:space="preserve">11.3993625640869</t>
   </si>
   <si>
     <t xml:space="preserve">11.3081674575806</t>
@@ -1220,19 +1220,19 @@
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5817518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7185459136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8553371429443</t>
+    <t xml:space="preserve">11.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.718544960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.85533618927</t>
   </si>
   <si>
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.083324432373</t>
+    <t xml:space="preserve">12.0833234786987</t>
   </si>
   <si>
     <t xml:space="preserve">12.3113098144531</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">11.9921283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7641401290894</t>
+    <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
     <t xml:space="preserve">12.4937000274658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7672853469849</t>
+    <t xml:space="preserve">12.7672863006592</t>
   </si>
   <si>
     <t xml:space="preserve">13.1320638656616</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496755599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688570022583</t>
+    <t xml:space="preserve">12.9496746063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688579559326</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304941177368</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481039047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5848960876465</t>
+    <t xml:space="preserve">12.4481029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5848951339722</t>
   </si>
   <si>
     <t xml:space="preserve">12.8128843307495</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">13.0864686965942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9009342193604</t>
+    <t xml:space="preserve">11.9009351730347</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7154006958008</t>
+    <t xml:space="preserve">10.7153997421265</t>
   </si>
   <si>
     <t xml:space="preserve">9.02829456329346</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">8.09810638427734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93395662307739</t>
+    <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
     <t xml:space="preserve">7.64213228225708</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66351509094238</t>
+    <t xml:space="preserve">8.66351413726807</t>
   </si>
   <si>
     <t xml:space="preserve">8.07986736297607</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99181747436523</t>
+    <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
     <t xml:space="preserve">9.3474760055542</t>
@@ -1340,25 +1340,25 @@
     <t xml:space="preserve">10.0381088256836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80466461181641</t>
+    <t xml:space="preserve">9.80466365814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99141979217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89804363250732</t>
+    <t xml:space="preserve">9.99141883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715530395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
     <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.458309173584</t>
+    <t xml:space="preserve">10.4583082199097</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785076141357</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">11.1586418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7851314544678</t>
+    <t xml:space="preserve">10.7851305007935</t>
   </si>
   <si>
     <t xml:space="preserve">10.925196647644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6450634002686</t>
+    <t xml:space="preserve">10.6450643539429</t>
   </si>
   <si>
     <t xml:space="preserve">11.2987079620361</t>
@@ -1391,22 +1391,22 @@
     <t xml:space="preserve">11.485463142395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6722192764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3453969955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2053308486938</t>
+    <t xml:space="preserve">11.6722202301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3453960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2053318023682</t>
   </si>
   <si>
     <t xml:space="preserve">11.4387760162354</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1119518280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2520189285278</t>
+    <t xml:space="preserve">11.1119527816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2520179748535</t>
   </si>
   <si>
     <t xml:space="preserve">10.9718866348267</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857967376709</t>
+    <t xml:space="preserve">12.1857976913452</t>
   </si>
   <si>
     <t xml:space="preserve">12.2791738510132</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.999041557312</t>
+    <t xml:space="preserve">11.9990425109863</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8122863769531</t>
+    <t xml:space="preserve">12.0924196243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8122854232788</t>
   </si>
   <si>
     <t xml:space="preserve">12.3258638381958</t>
@@ -1475,25 +1475,25 @@
     <t xml:space="preserve">12.9795074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2596416473389</t>
+    <t xml:space="preserve">13.2596406936646</t>
   </si>
   <si>
     <t xml:space="preserve">13.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">13.119574546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3997087478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4463968276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3063306808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3530197143555</t>
+    <t xml:space="preserve">13.1195755004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3997077941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4463958740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3063297271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3530187606812</t>
   </si>
   <si>
     <t xml:space="preserve">13.5864639282227</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993751525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5593070983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.026195526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9328193664551</t>
+    <t xml:space="preserve">12.6993761062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.559308052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0261964797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9328203201294</t>
   </si>
   <si>
     <t xml:space="preserve">12.8394403457642</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">14.5669298171997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3334856033325</t>
+    <t xml:space="preserve">14.3334846496582</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069969177246</t>
@@ -1553,13 +1553,13 @@
     <t xml:space="preserve">14.9404411315918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8937520980835</t>
+    <t xml:space="preserve">14.8937511444092</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338182449341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0805063247681</t>
+    <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
     <t xml:space="preserve">15.2672634124756</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">14.5202417373657</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665971755981</t>
+    <t xml:space="preserve">13.8665962219238</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732191085815</t>
+    <t xml:space="preserve">13.7732181549072</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
   </si>
   <si>
-    <t xml:space="preserve">15.173885345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2401084899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393632888794</t>
+    <t xml:space="preserve">15.1738862991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2401075363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393623352051</t>
   </si>
   <si>
     <t xml:space="preserve">14.591833114624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6868925094604</t>
+    <t xml:space="preserve">14.6868934631348</t>
   </si>
   <si>
     <t xml:space="preserve">14.9245452880859</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621971130371</t>
+    <t xml:space="preserve">15.1621961593628</t>
   </si>
   <si>
     <t xml:space="preserve">15.3998498916626</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424404144287</t>
+    <t xml:space="preserve">15.542441368103</t>
   </si>
   <si>
     <t xml:space="preserve">14.972074508667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0196056365967</t>
+    <t xml:space="preserve">15.019606590271</t>
   </si>
   <si>
     <t xml:space="preserve">15.4473791122437</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226837158203</t>
+    <t xml:space="preserve">15.9226846694946</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">16.350456237793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0652751922607</t>
+    <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
     <t xml:space="preserve">16.7782306671143</t>
@@ -1706,28 +1706,28 @@
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8732929229736</t>
+    <t xml:space="preserve">16.873291015625</t>
   </si>
   <si>
     <t xml:space="preserve">17.3485946655273</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7763690948486</t>
+    <t xml:space="preserve">17.7763710021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.8714294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8220367431641</t>
+    <t xml:space="preserve">18.2992038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8220386505127</t>
   </si>
   <si>
     <t xml:space="preserve">19.0121574401855</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2022838592529</t>
+    <t xml:space="preserve">19.2022819519043</t>
   </si>
   <si>
     <t xml:space="preserve">20.0578269958496</t>
@@ -1736,10 +1736,10 @@
     <t xml:space="preserve">19.8677062988281</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4874629974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3924026489258</t>
+    <t xml:space="preserve">19.4874649047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3924007415771</t>
   </si>
   <si>
     <t xml:space="preserve">19.9627666473389</t>
@@ -1751,25 +1751,25 @@
     <t xml:space="preserve">19.7726459503174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.152889251709</t>
+    <t xml:space="preserve">20.1528911590576</t>
   </si>
   <si>
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
+    <t xml:space="preserve">21.2936172485352</t>
   </si>
   <si>
     <t xml:space="preserve">21.578800201416</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3886795043945</t>
+    <t xml:space="preserve">21.3886775970459</t>
   </si>
   <si>
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034965515137</t>
+    <t xml:space="preserve">21.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">22.1491661071777</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">22.054105758667</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3392887115479</t>
+    <t xml:space="preserve">22.3392868041992</t>
   </si>
   <si>
     <t xml:space="preserve">22.6244678497314</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">20.5331325531006</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5843849182129</t>
+    <t xml:space="preserve">18.5843868255615</t>
   </si>
   <si>
     <t xml:space="preserve">19.2973403930664</t>
@@ -1841,19 +1841,19 @@
     <t xml:space="preserve">22.7195301055908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2479496002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7232532501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1985549926758</t>
+    <t xml:space="preserve">20.2479476928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7232513427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
     <t xml:space="preserve">19.6775856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1072196960449</t>
+    <t xml:space="preserve">19.1072216033936</t>
   </si>
   <si>
     <t xml:space="preserve">18.6319160461426</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337776184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1566143035889</t>
+    <t xml:space="preserve">17.6337795257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1566123962402</t>
   </si>
   <si>
     <t xml:space="preserve">18.2041416168213</t>
@@ -1889,13 +1889,13 @@
     <t xml:space="preserve">18.5938911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798202514648</t>
+    <t xml:space="preserve">18.4798183441162</t>
   </si>
   <si>
     <t xml:space="preserve">18.4988307952881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.726978302002</t>
+    <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
     <t xml:space="preserve">18.2136497497559</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">18.3847579956055</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2498111724854</t>
+    <t xml:space="preserve">19.249813079834</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7649993896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8143939971924</t>
+    <t xml:space="preserve">18.7650012969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
@@ -2925,6 +2925,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.8999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5</t>
   </si>
 </sst>
 </file>
@@ -60440,7 +60443,7 @@
     </row>
     <row r="2200">
       <c r="A2200" s="1" t="n">
-        <v>45526.6496064815</v>
+        <v>45526.2916666667</v>
       </c>
       <c r="B2200" t="n">
         <v>16713</v>
@@ -60461,6 +60464,32 @@
         <v>970</v>
       </c>
       <c r="H2200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="1" t="n">
+        <v>45527.6494212963</v>
+      </c>
+      <c r="B2201" t="n">
+        <v>5568</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>26.7000007629395</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>25.9500007629395</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>25.9500007629395</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G2201" t="s">
+        <v>971</v>
+      </c>
+      <c r="H2201" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262554168701</t>
+    <t xml:space="preserve">8.42262744903564</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947315216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577983856201</t>
+    <t xml:space="preserve">8.43947124481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578174591064</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31734466552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19521617889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27102088928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731525421143</t>
+    <t xml:space="preserve">8.31734371185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19521522521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27101993560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731620788574</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18679428100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08572196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03518676757812</t>
+    <t xml:space="preserve">8.18679332733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625717163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03518581390381</t>
   </si>
   <si>
     <t xml:space="preserve">8.03097438812256</t>
@@ -92,43 +92,43 @@
     <t xml:space="preserve">8.02676296234131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00149536132812</t>
+    <t xml:space="preserve">8.00149440765381</t>
   </si>
   <si>
     <t xml:space="preserve">7.99307298660278</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96780443191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145172119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304405212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619644165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356407165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880083084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459178924561</t>
+    <t xml:space="preserve">7.96780490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304309844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619930267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356454849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7319712638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880130767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459083557129</t>
   </si>
   <si>
     <t xml:space="preserve">7.7488169670105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88357877731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91727018356323</t>
+    <t xml:space="preserve">7.88358020782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726922988892</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203056335449</t>
@@ -137,34 +137,34 @@
     <t xml:space="preserve">8.22048282623291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16994667053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30471134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417327880859</t>
+    <t xml:space="preserve">8.16994762420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30470848083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417423248291</t>
   </si>
   <si>
     <t xml:space="preserve">8.11941337585449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07729816436768</t>
+    <t xml:space="preserve">8.07730007171631</t>
   </si>
   <si>
     <t xml:space="preserve">8.33839988708496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48158359527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44789600372314</t>
+    <t xml:space="preserve">8.48158550262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
     <t xml:space="preserve">8.41420459747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32155609130859</t>
+    <t xml:space="preserve">8.32155323028564</t>
   </si>
   <si>
     <t xml:space="preserve">8.27944278717041</t>
@@ -173,16 +173,16 @@
     <t xml:space="preserve">8.42560005187988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48578262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55456447601318</t>
+    <t xml:space="preserve">8.48578453063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
     <t xml:space="preserve">8.27084445953369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2966365814209</t>
+    <t xml:space="preserve">8.29663753509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.32673072814941</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">8.2536506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23645496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962535858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102607727051</t>
+    <t xml:space="preserve">8.23645305633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962440490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102703094482</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532619476318</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">8.32243061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38261318206787</t>
+    <t xml:space="preserve">8.38261413574219</t>
   </si>
   <si>
     <t xml:space="preserve">8.21066188812256</t>
@@ -215,55 +215,55 @@
     <t xml:space="preserve">8.22785663604736</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1676721572876</t>
+    <t xml:space="preserve">8.16767311096191</t>
   </si>
   <si>
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572372436523</t>
+    <t xml:space="preserve">8.03870964050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572324752808</t>
   </si>
   <si>
     <t xml:space="preserve">7.95273494720459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24505233764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675786972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8237738609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590629577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694282531738</t>
+    <t xml:space="preserve">8.2450532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675977706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377243041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590534210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694234848022</t>
   </si>
   <si>
     <t xml:space="preserve">7.90974760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73779678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078365325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5975513458252</t>
+    <t xml:space="preserve">7.73779773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133232116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383228302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755229949951</t>
   </si>
   <si>
     <t xml:space="preserve">8.64054012298584</t>
@@ -272,28 +272,28 @@
     <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72651386260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91566181182861</t>
+    <t xml:space="preserve">8.72651481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
     <t xml:space="preserve">8.84688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6319408416748</t>
+    <t xml:space="preserve">8.63194179534912</t>
   </si>
   <si>
     <t xml:space="preserve">8.66633224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59325218200684</t>
+    <t xml:space="preserve">8.59325313568115</t>
   </si>
   <si>
     <t xml:space="preserve">8.58895397186279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68352794647217</t>
+    <t xml:space="preserve">8.68352699279785</t>
   </si>
   <si>
     <t xml:space="preserve">8.70072174072266</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">8.76950263977051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02742862701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2337703704834</t>
+    <t xml:space="preserve">9.02742958068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639209747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23376941680908</t>
   </si>
   <si>
     <t xml:space="preserve">9.19937992095947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2423677444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41431999206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834434509277</t>
+    <t xml:space="preserve">9.24236965179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4143180847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">9.31974601745605</t>
@@ -338,79 +338,79 @@
     <t xml:space="preserve">9.22517395019531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44011116027832</t>
+    <t xml:space="preserve">9.44011211395264</t>
   </si>
   <si>
     <t xml:space="preserve">9.45730590820312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25956249237061</t>
+    <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
     <t xml:space="preserve">9.74962329864502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5432825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608776092529</t>
+    <t xml:space="preserve">9.54328155517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925815582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608585357666</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224502563477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58626937866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68084239959717</t>
+    <t xml:space="preserve">9.62066078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58627033233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68084335327148</t>
   </si>
   <si>
     <t xml:space="preserve">9.71523380279541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61206245422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5518798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65505027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718509674072</t>
+    <t xml:space="preserve">9.61206340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55188083648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663642883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718605041504</t>
   </si>
   <si>
     <t xml:space="preserve">10.2138919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4030380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451110839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021242141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1279172897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333433151245</t>
+    <t xml:space="preserve">10.403037071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826719284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.145112991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.102123260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1279163360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333423614502</t>
   </si>
   <si>
     <t xml:space="preserve">10.0591344833374</t>
@@ -419,22 +419,22 @@
     <t xml:space="preserve">10.1623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.308464050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.188099861145</t>
+    <t xml:space="preserve">10.3084650039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
     <t xml:space="preserve">9.84419631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.878586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85279369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2310848236084</t>
+    <t xml:space="preserve">9.87858581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85279273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2310857772827</t>
   </si>
   <si>
     <t xml:space="preserve">10.0075511932373</t>
@@ -443,13 +443,13 @@
     <t xml:space="preserve">10.2740745544434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4460258483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351718902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867570877075</t>
+    <t xml:space="preserve">10.4460248947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867580413818</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695604324341</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">10.961877822876</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0736474990845</t>
+    <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
     <t xml:space="preserve">11.0220613479614</t>
@@ -470,202 +470,202 @@
     <t xml:space="preserve">11.2198047637939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4433403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066942214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302326202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.752854347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496820449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614498138428</t>
+    <t xml:space="preserve">11.4433431625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302316665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7528533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614526748657</t>
   </si>
   <si>
     <t xml:space="preserve">11.873218536377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9505968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107803344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.838828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700471878052</t>
+    <t xml:space="preserve">11.9505958557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.010778427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926689147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7786455154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7975378036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024028778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8674488067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8499717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.972315788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597047805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859212875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.243221282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5403451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2344837188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3218717575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1733102798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0160083770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286203384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849248886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247497558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.138355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2170057296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257432937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082662582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208772659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509653091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0422267913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0771818161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.103401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8936653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062763214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800588607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7451038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
     <t xml:space="preserve">11.6926708221436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786474227905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7975378036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024028778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674478530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8499717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972315788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859222412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2432222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5403451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2344827651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3218717575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0160093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286193847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849258422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247507095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946607589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1383543014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2170057296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257432937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082662582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897937774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0684442520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509643554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985322952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0422267913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0771808624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033992767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.893666267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062753677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800588607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7451028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926698684692</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.5353689193726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5266313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.447979927063</t>
+    <t xml:space="preserve">11.526629447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479808807373</t>
   </si>
   <si>
     <t xml:space="preserve">11.395546913147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3605909347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732000350952</t>
+    <t xml:space="preserve">11.3605899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732019424438</t>
   </si>
   <si>
     <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.343113899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0984230041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2295083999634</t>
+    <t xml:space="preserve">11.3431119918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0984220504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
     <t xml:space="preserve">11.1858129501343</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2469854354858</t>
+    <t xml:space="preserve">11.2469844818115</t>
   </si>
   <si>
     <t xml:space="preserve">11.2994184494019</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">11.6227588653564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7101469039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5790634155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4567203521729</t>
+    <t xml:space="preserve">11.710147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.579065322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4567184448242</t>
   </si>
   <si>
     <t xml:space="preserve">11.3256349563599</t>
@@ -695,19 +695,19 @@
     <t xml:space="preserve">11.4305028915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168964385986</t>
+    <t xml:space="preserve">11.3168973922729</t>
   </si>
   <si>
     <t xml:space="preserve">11.2032909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5878047943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868064880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042854309082</t>
+    <t xml:space="preserve">11.5878019332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868074417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042863845825</t>
   </si>
   <si>
     <t xml:space="preserve">11.5091524124146</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">11.1159009933472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1246404647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683349609375</t>
+    <t xml:space="preserve">11.1246395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683359146118</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557249069214</t>
@@ -728,19 +728,19 @@
     <t xml:space="preserve">9.88371467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14964580535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35063934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51668071746826</t>
+    <t xml:space="preserve">9.1496467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35064125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51667881011963</t>
   </si>
   <si>
     <t xml:space="preserve">9.63028621673584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64776420593262</t>
+    <t xml:space="preserve">9.6477632522583</t>
   </si>
   <si>
     <t xml:space="preserve">9.73515319824219</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">9.7438907623291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83127975463867</t>
+    <t xml:space="preserve">9.83128070831299</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893573760986</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">9.48172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39433479309082</t>
+    <t xml:space="preserve">9.39433574676514</t>
   </si>
   <si>
     <t xml:space="preserve">9.43802928924561</t>
@@ -770,37 +770,37 @@
     <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42055034637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37685775756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26325130462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15838432312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34190082550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40307426452637</t>
+    <t xml:space="preserve">9.42055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37685680389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2632532119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15838241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34190273284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40307331085205</t>
   </si>
   <si>
     <t xml:space="preserve">9.84002017974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79632568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8050651550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78758525848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380367279053</t>
+    <t xml:space="preserve">9.79632472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80506420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78758716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380176544189</t>
   </si>
   <si>
     <t xml:space="preserve">9.9011926651001</t>
@@ -815,16 +815,16 @@
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072929382324</t>
+    <t xml:space="preserve">9.28072834014893</t>
   </si>
   <si>
     <t xml:space="preserve">9.25451183319092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97984313964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497615814209</t>
+    <t xml:space="preserve">9.97984218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497711181641</t>
   </si>
   <si>
     <t xml:space="preserve">10.0497541427612</t>
@@ -839,43 +839,43 @@
     <t xml:space="preserve">9.63902473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71767520904541</t>
+    <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
     <t xml:space="preserve">9.72641372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61280727386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56911373138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68272018432617</t>
+    <t xml:space="preserve">9.61280822753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56911182403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271827697754</t>
   </si>
   <si>
     <t xml:space="preserve">9.30694580078125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36811923980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060586929321</t>
+    <t xml:space="preserve">9.36811828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019626617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060596466064</t>
   </si>
   <si>
     <t xml:space="preserve">9.08847236633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04477787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955490112305</t>
+    <t xml:space="preserve">9.04477691650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955680847168</t>
   </si>
   <si>
     <t xml:space="preserve">9.17586135864258</t>
@@ -887,55 +887,55 @@
     <t xml:space="preserve">8.95738887786865</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82630634307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00108337402344</t>
+    <t xml:space="preserve">8.8263053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00108432769775</t>
   </si>
   <si>
     <t xml:space="preserve">8.91369438171387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86999893188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891544342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143745422363</t>
+    <t xml:space="preserve">8.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891639709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143840789795</t>
   </si>
   <si>
     <t xml:space="preserve">8.7826099395752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58161640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19656562805176</t>
+    <t xml:space="preserve">8.58161449432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
     <t xml:space="preserve">9.24120903015137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15192317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10727977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06263446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01799297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334861755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89299011230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727214813232</t>
+    <t xml:space="preserve">9.15192127227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10727882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06263637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01799201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.892991065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727310180664</t>
   </si>
   <si>
     <t xml:space="preserve">8.83941745758057</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">8.71441555023193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78584575653076</t>
+    <t xml:space="preserve">8.78584480285645</t>
   </si>
   <si>
     <t xml:space="preserve">8.73227310180664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85727596282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82156181335449</t>
+    <t xml:space="preserve">8.85727691650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82155990600586</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513256072998</t>
@@ -971,40 +971,40 @@
     <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655513763428</t>
+    <t xml:space="preserve">8.44655609130859</t>
   </si>
   <si>
     <t xml:space="preserve">8.41084003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91084671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798915863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92870426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3751392364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907135009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33049774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28585338592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5894136428833</t>
+    <t xml:space="preserve">8.91084766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9287052154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37514019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50907039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442890167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3304967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28585243225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58941459655762</t>
   </si>
   <si>
     <t xml:space="preserve">8.53584098815918</t>
@@ -1013,28 +1013,28 @@
     <t xml:space="preserve">8.62512969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726737976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42869853973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25012397766113</t>
+    <t xml:space="preserve">8.46441173553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726833343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42869758605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25012111663818</t>
   </si>
   <si>
     <t xml:space="preserve">8.30369663238525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583717346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33941078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37512588500977</t>
+    <t xml:space="preserve">8.28584003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33941173553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37512493133545</t>
   </si>
   <si>
     <t xml:space="preserve">8.5001277923584</t>
@@ -1043,22 +1043,22 @@
     <t xml:space="preserve">8.64298725128174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4197826385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77693271636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73228740692139</t>
+    <t xml:space="preserve">9.41978454589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55371475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.776930809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7322883605957</t>
   </si>
   <si>
     <t xml:space="preserve">10.0447931289673</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2680110931396</t>
+    <t xml:space="preserve">10.268012046814</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126535415649</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019412994385</t>
+    <t xml:space="preserve">10.5358734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019422531128</t>
   </si>
   <si>
     <t xml:space="preserve">10.5805158615112</t>
@@ -1085,46 +1085,46 @@
     <t xml:space="preserve">10.22336769104</t>
   </si>
   <si>
+    <t xml:space="preserve">10.6698026657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065948486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242055892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8521919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330114364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3962173461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5786085128784</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.6698036193848</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065958023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242055892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8521909713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330095291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3962173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.213828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5786085128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698026657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874134063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418153762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506212234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.122633934021</t>
+    <t xml:space="preserve">10.4874124526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418163299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506202697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1226329803467</t>
   </si>
   <si>
     <t xml:space="preserve">10.259425163269</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">10.0770359039307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0314378738403</t>
+    <t xml:space="preserve">10.0314388275146</t>
   </si>
   <si>
     <t xml:space="preserve">10.3050241470337</t>
@@ -1148,31 +1148,31 @@
     <t xml:space="preserve">9.84904861450195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48426914215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43867111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52986717224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106037139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75785350799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66665935516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57546329498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25628089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16508674621582</t>
+    <t xml:space="preserve">9.48426818847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43867206573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52986621856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75785446166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66666030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57546424865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25628185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16508769989014</t>
   </si>
   <si>
     <t xml:space="preserve">9.3018798828125</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">9.21068572998047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39307403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11948871612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71225643157959</t>
+    <t xml:space="preserve">9.39307308197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1194896697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
     <t xml:space="preserve">9.80345153808594</t>
@@ -1196,19 +1196,19 @@
     <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1257781982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6273488998413</t>
+    <t xml:space="preserve">11.1257762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3993625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3081665039062</t>
+    <t xml:space="preserve">11.3993616104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3081684112549</t>
   </si>
   <si>
     <t xml:space="preserve">11.0801801681519</t>
@@ -1217,22 +1217,22 @@
     <t xml:space="preserve">11.0345821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713743209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4449586868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5817518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7185459136963</t>
+    <t xml:space="preserve">11.1713752746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4449596405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
     <t xml:space="preserve">11.85533618927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9465312957764</t>
+    <t xml:space="preserve">11.9465322494507</t>
   </si>
   <si>
     <t xml:space="preserve">12.0833234786987</t>
@@ -1244,91 +1244,91 @@
     <t xml:space="preserve">12.1745195388794</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921283721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7641401290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4937019348145</t>
+    <t xml:space="preserve">11.9921274185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.764142036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4937009811401</t>
   </si>
   <si>
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320648193359</t>
+    <t xml:space="preserve">13.1320657730103</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496755599976</t>
+    <t xml:space="preserve">12.9496746063232</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688579559326</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6304941177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7216882705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4481019973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5848951339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8128824234009</t>
+    <t xml:space="preserve">12.6304931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7216873168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4481029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5848960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
     <t xml:space="preserve">12.8584794998169</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0864686965942</t>
+    <t xml:space="preserve">13.0864677429199</t>
   </si>
   <si>
     <t xml:space="preserve">11.9009342193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9433879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7154006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02829360961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93395614624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6421332359314</t>
+    <t xml:space="preserve">10.9433870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7153997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02829456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93395566940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64213228225708</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66351413726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07986831665039</t>
+    <t xml:space="preserve">8.66351509094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07986736297607</t>
   </si>
   <si>
     <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73647117614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99181747436523</t>
+    <t xml:space="preserve">8.73647022247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118919372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
     <t xml:space="preserve">9.34747695922852</t>
@@ -1343,22 +1343,22 @@
     <t xml:space="preserve">10.0381088256836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80466365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85135269165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99141979217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89804172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5516872406006</t>
+    <t xml:space="preserve">9.80466461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85135364532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99142074584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715530395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89804363250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
     <t xml:space="preserve">10.458309173584</t>
@@ -1379,31 +1379,31 @@
     <t xml:space="preserve">11.1586418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7851305007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.925196647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6450634002686</t>
+    <t xml:space="preserve">10.7851314544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9251976013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6450624465942</t>
   </si>
   <si>
     <t xml:space="preserve">11.2987079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4854650497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6722192764282</t>
+    <t xml:space="preserve">11.4854640960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6722183227539</t>
   </si>
   <si>
     <t xml:space="preserve">11.3453969955444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2053308486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4387741088867</t>
+    <t xml:space="preserve">11.2053298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.438775062561</t>
   </si>
   <si>
     <t xml:space="preserve">11.1119518280029</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">10.9718866348267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652637481689</t>
+    <t xml:space="preserve">11.0652647018433</t>
   </si>
   <si>
     <t xml:space="preserve">11.5788412094116</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6255302429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3920860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5321521759033</t>
+    <t xml:space="preserve">11.6255292892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3920850753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5321531295776</t>
   </si>
   <si>
     <t xml:space="preserve">11.7189083099365</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">12.1391077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9523525238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1857967376709</t>
+    <t xml:space="preserve">11.952353477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1857976913452</t>
   </si>
   <si>
     <t xml:space="preserve">12.2791748046875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9056634902954</t>
+    <t xml:space="preserve">11.9056644439697</t>
   </si>
   <si>
     <t xml:space="preserve">11.9990425109863</t>
@@ -1460,46 +1460,46 @@
     <t xml:space="preserve">12.2324857711792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.045729637146</t>
+    <t xml:space="preserve">12.0457305908203</t>
   </si>
   <si>
     <t xml:space="preserve">12.0924196243286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8122854232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3258638381958</t>
+    <t xml:space="preserve">11.8122863769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3258628845215</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9795064926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2596416473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0728855133057</t>
+    <t xml:space="preserve">12.9795083999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2596406936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.07288646698</t>
   </si>
   <si>
     <t xml:space="preserve">13.119574546814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3997087478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4463958740234</t>
+    <t xml:space="preserve">13.3997077941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4463968276978</t>
   </si>
   <si>
     <t xml:space="preserve">13.3063297271729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3530197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864639282227</t>
+    <t xml:space="preserve">13.3530187606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864629745483</t>
   </si>
   <si>
     <t xml:space="preserve">13.4930849075317</t>
@@ -1508,19 +1508,19 @@
     <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9132843017578</t>
+    <t xml:space="preserve">13.9132852554321</t>
   </si>
   <si>
     <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993751525879</t>
+    <t xml:space="preserve">12.6993741989136</t>
   </si>
   <si>
     <t xml:space="preserve">12.559308052063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0261974334717</t>
+    <t xml:space="preserve">13.0261964797974</t>
   </si>
   <si>
     <t xml:space="preserve">12.9328193664551</t>
@@ -1535,22 +1535,22 @@
     <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0533533096313</t>
+    <t xml:space="preserve">14.053352355957</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801746368408</t>
+    <t xml:space="preserve">14.3801736831665</t>
   </si>
   <si>
     <t xml:space="preserve">14.566930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3334865570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.706995010376</t>
+    <t xml:space="preserve">14.3334856033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069959640503</t>
   </si>
   <si>
     <t xml:space="preserve">14.9404401779175</t>
@@ -1559,25 +1559,25 @@
     <t xml:space="preserve">14.8937520980835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0338182449341</t>
+    <t xml:space="preserve">15.0338191986084</t>
   </si>
   <si>
     <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2672634124756</t>
+    <t xml:space="preserve">15.2672643661499</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8470630645752</t>
+    <t xml:space="preserve">14.8470621109009</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603078842163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4735517501831</t>
+    <t xml:space="preserve">14.4735527038574</t>
   </si>
   <si>
     <t xml:space="preserve">14.1934185028076</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">14.5202407836914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066623687744</t>
+    <t xml:space="preserve">13.8665971755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.006664276123</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732181549072</t>
@@ -1598,16 +1598,16 @@
     <t xml:space="preserve">13.9599742889404</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1738843917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2401065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.591833114624</t>
+    <t xml:space="preserve">15.173885345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2401075363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5918321609497</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">15.2572574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3047876358032</t>
+    <t xml:space="preserve">15.3047885894775</t>
   </si>
   <si>
     <t xml:space="preserve">15.1146669387817</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">15.1621971130371</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3998498916626</t>
+    <t xml:space="preserve">15.3998508453369</t>
   </si>
   <si>
     <t xml:space="preserve">15.3523187637329</t>
@@ -1643,25 +1643,25 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424404144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.972074508667</t>
+    <t xml:space="preserve">15.542441368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9720754623413</t>
   </si>
   <si>
     <t xml:space="preserve">15.0196056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4473791122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7325601577759</t>
+    <t xml:space="preserve">15.447380065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7325620651245</t>
   </si>
   <si>
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226837158203</t>
+    <t xml:space="preserve">15.9226818084717</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">16.1603355407715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0177459716797</t>
+    <t xml:space="preserve">16.0177440643311</t>
   </si>
   <si>
     <t xml:space="preserve">16.350456237793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0652751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7782306671143</t>
+    <t xml:space="preserve">16.0652732849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7782325744629</t>
   </si>
   <si>
     <t xml:space="preserve">17.1109447479248</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">16.4455165863037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5387172698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0615501403809</t>
+    <t xml:space="preserve">17.5387191772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0615520477295</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8732929229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3485946655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7763690948486</t>
+    <t xml:space="preserve">16.873291015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.348596572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7763710021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.8714294433594</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">18.8220367431641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0121574401855</t>
+    <t xml:space="preserve">19.0121593475342</t>
   </si>
   <si>
     <t xml:space="preserve">19.2022838592529</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0578269958496</t>
+    <t xml:space="preserve">20.0578289031982</t>
   </si>
   <si>
     <t xml:space="preserve">19.8677062988281</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
+    <t xml:space="preserve">21.2936172485352</t>
   </si>
   <si>
     <t xml:space="preserve">21.578800201416</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1491661071777</t>
+    <t xml:space="preserve">21.1034984588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1491641998291</t>
   </si>
   <si>
     <t xml:space="preserve">22.4343490600586</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">22.6244678497314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8145923614502</t>
+    <t xml:space="preserve">22.8145904541016</t>
   </si>
   <si>
     <t xml:space="preserve">21.9590435028076</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8639831542969</t>
+    <t xml:space="preserve">21.8639812469482</t>
   </si>
   <si>
     <t xml:space="preserve">20.5331325531006</t>
@@ -1808,10 +1808,10 @@
     <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9133739471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2442245483398</t>
+    <t xml:space="preserve">20.9133758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2442264556885</t>
   </si>
   <si>
     <t xml:space="preserve">23.0997734069824</t>
@@ -1829,10 +1829,10 @@
     <t xml:space="preserve">21.6738605499268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8183155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3430099487305</t>
+    <t xml:space="preserve">20.8183135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3430118560791</t>
   </si>
   <si>
     <t xml:space="preserve">23.0047130584717</t>
@@ -1841,31 +1841,31 @@
     <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7195301055908</t>
+    <t xml:space="preserve">22.7195281982422</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7232532501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1985549926758</t>
+    <t xml:space="preserve">20.7232513427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
     <t xml:space="preserve">19.6775856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1072196960449</t>
+    <t xml:space="preserve">19.1072216033936</t>
   </si>
   <si>
     <t xml:space="preserve">18.6319160461426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2060050964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9189624786377</t>
+    <t xml:space="preserve">17.2060070037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9189605712891</t>
   </si>
   <si>
     <t xml:space="preserve">18.0140209197998</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">17.6337776184082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1566143035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2041416168213</t>
+    <t xml:space="preserve">18.1566123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2041435241699</t>
   </si>
   <si>
     <t xml:space="preserve">18.5368556976318</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1547508239746</t>
+    <t xml:space="preserve">19.154748916626</t>
   </si>
   <si>
     <t xml:space="preserve">18.9170989990234</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.726978302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2136497497559</t>
+    <t xml:space="preserve">18.4988288879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7269763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2136478424072</t>
   </si>
   <si>
     <t xml:space="preserve">18.3847579956055</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7649993896484</t>
+    <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
     <t xml:space="preserve">17.8143939971924</t>
@@ -1931,25 +1931,25 @@
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249195098877</t>
+    <t xml:space="preserve">17.1333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249214172363</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2071990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.703275680542</t>
+    <t xml:space="preserve">19.2072010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7032775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816337585449</t>
+    <t xml:space="preserve">19.3816356658936</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1961,37 +1961,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2265815734863</t>
+    <t xml:space="preserve">19.226583480835</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.350715637207</t>
+    <t xml:space="preserve">20.3507175445557</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.447624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383480072021</t>
+    <t xml:space="preserve">21.2228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383499145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8661766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001861572266</t>
+    <t xml:space="preserve">21.8043403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.866174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001842498779</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -2000,16 +2000,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239070892334</t>
+    <t xml:space="preserve">19.6239051818848</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723575592041</t>
+    <t xml:space="preserve">18.9746189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538089752197</t>
+    <t xml:space="preserve">20.2538070678711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2033,13 +2033,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919727325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.465160369873</t>
+    <t xml:space="preserve">22.1919708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4651584625244</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6105213165283</t>
+    <t xml:space="preserve">21.610523223877</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1569004058838</t>
+    <t xml:space="preserve">20.1568984985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.257963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734203338623</t>
+    <t xml:space="preserve">23.2579612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6765117645264</t>
+    <t xml:space="preserve">22.676513671875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.76926612854</t>
+    <t xml:space="preserve">18.3156452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7692680358887</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2135,10 +2135,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486869812012</t>
+    <t xml:space="preserve">22.9672393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486850738525</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600383758545</t>
+    <t xml:space="preserve">24.7600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2189,19 +2189,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754955291748</t>
+    <t xml:space="preserve">24.2754974365234</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.905403137207</t>
+    <t xml:space="preserve">24.9054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7291202545166</t>
+    <t xml:space="preserve">25.729118347168</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2210,10 +2210,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827430725098</t>
+    <t xml:space="preserve">27.2796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2222,16 +2222,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167545318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652069091797</t>
+    <t xml:space="preserve">25.1961250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167526245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652088165283</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310567855835</t>
+    <t xml:space="preserve">25.8260269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703754425049</t>
+    <t xml:space="preserve">27.5703773498535</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7683448791504</t>
+    <t xml:space="preserve">30.768346786499</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2306,13 +2306,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6054458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.120906829834</t>
+    <t xml:space="preserve">29.605447769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1209049224854</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7023544311523</t>
+    <t xml:space="preserve">29.702356338501</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2345,16 +2345,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776229858398</t>
+    <t xml:space="preserve">30.4776210784912</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198925018311</t>
+    <t xml:space="preserve">31.1559791564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2363,16 +2363,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363639831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600849151611</t>
+    <t xml:space="preserve">30.2353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -60605,7 +60605,7 @@
     </row>
     <row r="2206">
       <c r="A2206" s="1" t="n">
-        <v>45534.6495833333</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B2206" t="n">
         <v>7942</v>
@@ -60626,6 +60626,32 @@
         <v>973</v>
       </c>
       <c r="H2206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>45537.6493171296</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>2388</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>26.3500003814697</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>25.7000007629395</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>26.3500003814697</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>25.7999992370605</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>962</v>
+      </c>
+      <c r="H2207" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="975">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262744903564</t>
+    <t xml:space="preserve">8.42262554168701</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947124481201</t>
+    <t xml:space="preserve">8.43947315216064</t>
   </si>
   <si>
     <t xml:space="preserve">8.40578174591064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21206283569336</t>
+    <t xml:space="preserve">8.21206188201904</t>
   </si>
   <si>
     <t xml:space="preserve">8.31734371185303</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">8.19521522521973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27101993560791</t>
+    <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.29207515716553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15731620788574</t>
+    <t xml:space="preserve">8.15731525421143</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363903045654</t>
@@ -74,73 +74,73 @@
     <t xml:space="preserve">8.18679332733154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08572292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625717163086</t>
+    <t xml:space="preserve">8.08572101593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625812530518</t>
   </si>
   <si>
     <t xml:space="preserve">8.11520195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03518581390381</t>
+    <t xml:space="preserve">8.03518676757812</t>
   </si>
   <si>
     <t xml:space="preserve">8.03097438812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02676296234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00149440765381</t>
+    <t xml:space="preserve">8.02676200866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00149536132812</t>
   </si>
   <si>
     <t xml:space="preserve">7.99307298660278</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96780490875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145076751709</t>
+    <t xml:space="preserve">7.96780443191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145029067993</t>
   </si>
   <si>
     <t xml:space="preserve">7.83304309844971</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81619930267334</t>
+    <t xml:space="preserve">7.81619834899902</t>
   </si>
   <si>
     <t xml:space="preserve">7.80356454849243</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7319712638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66880130767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459083557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7488169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88358020782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726922988892</t>
+    <t xml:space="preserve">7.73197221755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880083084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459035873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881601333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357877731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91727018356323</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22048282623291</t>
+    <t xml:space="preserve">8.22048377990723</t>
   </si>
   <si>
     <t xml:space="preserve">8.16994762420654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30470848083496</t>
+    <t xml:space="preserve">8.30470943450928</t>
   </si>
   <si>
     <t xml:space="preserve">8.25417423248291</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">8.07730007171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33839988708496</t>
+    <t xml:space="preserve">8.33840084075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.48158550262451</t>
@@ -161,22 +161,22 @@
     <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420459747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155323028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42560005187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578453063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55456352233887</t>
+    <t xml:space="preserve">8.41420364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944087982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4256010055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578357696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5545654296875</t>
   </si>
   <si>
     <t xml:space="preserve">8.27084445953369</t>
@@ -191,40 +191,40 @@
     <t xml:space="preserve">8.2536506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23645305633545</t>
+    <t xml:space="preserve">8.23645401000977</t>
   </si>
   <si>
     <t xml:space="preserve">8.33962440490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33102703094482</t>
+    <t xml:space="preserve">8.33102798461914</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32243061065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38261413574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21066188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785663604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767311096191</t>
+    <t xml:space="preserve">8.32243156433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38261318206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21066284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767406463623</t>
   </si>
   <si>
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03870964050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99572324752808</t>
+    <t xml:space="preserve">8.03871059417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99572229385376</t>
   </si>
   <si>
     <t xml:space="preserve">7.95273494720459</t>
@@ -233,19 +233,19 @@
     <t xml:space="preserve">8.2450532913208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05160713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675977706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590534210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694234848022</t>
+    <t xml:space="preserve">8.05160617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377195358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694330215454</t>
   </si>
   <si>
     <t xml:space="preserve">7.90974760055542</t>
@@ -254,22 +254,22 @@
     <t xml:space="preserve">7.73779773712158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78078460693359</t>
+    <t xml:space="preserve">7.78078413009644</t>
   </si>
   <si>
     <t xml:space="preserve">7.96133232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755229949951</t>
+    <t xml:space="preserve">8.31383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5975513458252</t>
   </si>
   <si>
     <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64913749694824</t>
+    <t xml:space="preserve">8.64913845062256</t>
   </si>
   <si>
     <t xml:space="preserve">8.72651481628418</t>
@@ -284,46 +284,46 @@
     <t xml:space="preserve">8.63194179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66633224487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59325313568115</t>
+    <t xml:space="preserve">8.66633129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59325218200684</t>
   </si>
   <si>
     <t xml:space="preserve">8.58895397186279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68352699279785</t>
+    <t xml:space="preserve">8.68352794647217</t>
   </si>
   <si>
     <t xml:space="preserve">8.70072174072266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9414529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547828674316</t>
+    <t xml:space="preserve">8.94145393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547733306885</t>
   </si>
   <si>
     <t xml:space="preserve">8.76950263977051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02742958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639209747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23376941680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19937992095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24236965179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4143180847168</t>
+    <t xml:space="preserve">9.02742862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23377132415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19938087463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24236869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431999206543</t>
   </si>
   <si>
     <t xml:space="preserve">9.32834339141846</t>
@@ -332,34 +332,34 @@
     <t xml:space="preserve">9.31974601745605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20797824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517395019531</t>
+    <t xml:space="preserve">9.20797634124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.225172996521</t>
   </si>
   <si>
     <t xml:space="preserve">9.44011211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45730590820312</t>
+    <t xml:space="preserve">9.45730686187744</t>
   </si>
   <si>
     <t xml:space="preserve">9.25956344604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74962329864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54328155517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925815582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67224502563477</t>
+    <t xml:space="preserve">9.74962615966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5432825088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608680725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67224597930908</t>
   </si>
   <si>
     <t xml:space="preserve">9.62066078186035</t>
@@ -371,55 +371,55 @@
     <t xml:space="preserve">9.68084335327148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71523380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55188083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56047630310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65504932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70663642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88718605041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138919830322</t>
+    <t xml:space="preserve">9.71523284912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206245422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5518798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5604772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65505027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70663547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88718318939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138910293579</t>
   </si>
   <si>
     <t xml:space="preserve">10.403037071228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2826719284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.145112991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.102123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1279163360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0333423614502</t>
+    <t xml:space="preserve">10.2826709747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451110839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1279144287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0333433151245</t>
   </si>
   <si>
     <t xml:space="preserve">10.0591344833374</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1623067855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084650039673</t>
+    <t xml:space="preserve">10.1623058319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084630966187</t>
   </si>
   <si>
     <t xml:space="preserve">10.1880989074707</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">9.84419631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87858581542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85279273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2310857772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2740745544434</t>
+    <t xml:space="preserve">9.878586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8527946472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2310848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075521469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.274073600769</t>
   </si>
   <si>
     <t xml:space="preserve">10.4460248947144</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">10.6867580413818</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6695604324341</t>
+    <t xml:space="preserve">10.6695613861084</t>
   </si>
   <si>
     <t xml:space="preserve">10.961877822876</t>
@@ -461,52 +461,52 @@
     <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0220613479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1768169403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198047637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4433431625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302316665649</t>
+    <t xml:space="preserve">11.0220603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1768178939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198038101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066942214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302307128906</t>
   </si>
   <si>
     <t xml:space="preserve">11.7528533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6496829986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7614526748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873218536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505958557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9849863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.010778427124</t>
+    <t xml:space="preserve">11.6496820449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7614517211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8732194900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9849872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107793807983</t>
   </si>
   <si>
     <t xml:space="preserve">11.8388299942017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7700481414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926689147949</t>
+    <t xml:space="preserve">11.7700471878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
   </si>
   <si>
     <t xml:space="preserve">11.7786455154419</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">11.7975378036499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9024028778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674488067627</t>
+    <t xml:space="preserve">11.9024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8674478530884</t>
   </si>
   <si>
     <t xml:space="preserve">11.8499717712402</t>
@@ -530,19 +530,19 @@
     <t xml:space="preserve">12.0597047805786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0859212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.243221282959</t>
+    <t xml:space="preserve">12.0859222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2432222366333</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5403451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2344837188721</t>
+    <t xml:space="preserve">12.5403461456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2344827651978</t>
   </si>
   <si>
     <t xml:space="preserve">12.3218717575073</t>
@@ -551,16 +551,16 @@
     <t xml:space="preserve">12.1733102798462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0160083770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286203384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849248886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247497558594</t>
+    <t xml:space="preserve">12.0160102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286193847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849258422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247478485107</t>
   </si>
   <si>
     <t xml:space="preserve">12.0946607589722</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">12.2170057296753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2257432937622</t>
+    <t xml:space="preserve">12.2257442474365</t>
   </si>
   <si>
     <t xml:space="preserve">11.9635753631592</t>
@@ -581,10 +581,10 @@
     <t xml:space="preserve">12.2082662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1208772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897947311401</t>
+    <t xml:space="preserve">12.1208753585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9897937774658</t>
   </si>
   <si>
     <t xml:space="preserve">12.0684432983398</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">12.0422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0771818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.103401184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8936653137207</t>
+    <t xml:space="preserve">12.0771827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1034002304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8936643600464</t>
   </si>
   <si>
     <t xml:space="preserve">11.8412313461304</t>
@@ -623,25 +623,25 @@
     <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6926708221436</t>
+    <t xml:space="preserve">11.6926698684692</t>
   </si>
   <si>
     <t xml:space="preserve">11.5353689193726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.526629447937</t>
+    <t xml:space="preserve">11.5266304016113</t>
   </si>
   <si>
     <t xml:space="preserve">11.4479808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.395546913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518533706665</t>
+    <t xml:space="preserve">11.3955478668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605909347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518524169922</t>
   </si>
   <si>
     <t xml:space="preserve">11.2732019424438</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431119918823</t>
+    <t xml:space="preserve">11.3431129455566</t>
   </si>
   <si>
     <t xml:space="preserve">11.2906799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0984220504761</t>
+    <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
     <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1858129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469844818115</t>
+    <t xml:space="preserve">11.1858139038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469835281372</t>
   </si>
   <si>
     <t xml:space="preserve">11.2994184494019</t>
@@ -680,46 +680,46 @@
     <t xml:space="preserve">11.6227588653564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.710147857666</t>
+    <t xml:space="preserve">11.7101488113403</t>
   </si>
   <si>
     <t xml:space="preserve">11.579065322876</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256349563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4305028915405</t>
+    <t xml:space="preserve">11.4567203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256359100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4305019378662</t>
   </si>
   <si>
     <t xml:space="preserve">11.3168973922729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2032909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878019332886</t>
+    <t xml:space="preserve">11.2032899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878038406372</t>
   </si>
   <si>
     <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4042863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091524124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1159009933472</t>
+    <t xml:space="preserve">11.4042854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091533660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.1246395111084</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1683359146118</t>
+    <t xml:space="preserve">11.1683349609375</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557249069214</t>
@@ -734,22 +734,22 @@
     <t xml:space="preserve">9.35064125061035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51667881011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63028621673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6477632522583</t>
+    <t xml:space="preserve">9.51668071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63028717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64776420593262</t>
   </si>
   <si>
     <t xml:space="preserve">9.73515319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7438907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83128070831299</t>
+    <t xml:space="preserve">9.74389171600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8312816619873</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893573760986</t>
@@ -758,34 +758,34 @@
     <t xml:space="preserve">9.53415775299072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48172473907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39433574676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43802928924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5516357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055130004883</t>
+    <t xml:space="preserve">9.48172378540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39433479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43803024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55163669586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055225372314</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685680389404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2632532119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15838241577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34190273284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40307331085205</t>
+    <t xml:space="preserve">9.26325130462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1583833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34190082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40307521820068</t>
   </si>
   <si>
     <t xml:space="preserve">9.84002017974854</t>
@@ -797,142 +797,142 @@
     <t xml:space="preserve">9.80506420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78758716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380176544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9011926651001</t>
+    <t xml:space="preserve">9.7875862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380367279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90119171142578</t>
   </si>
   <si>
     <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22829627990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07099533081055</t>
+    <t xml:space="preserve">9.22829532623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07099437713623</t>
   </si>
   <si>
     <t xml:space="preserve">9.28072834014893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25451183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497711181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91867065429688</t>
+    <t xml:space="preserve">9.25451278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984313964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0497531890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91866970062256</t>
   </si>
   <si>
     <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63902473449707</t>
+    <t xml:space="preserve">9.63902378082275</t>
   </si>
   <si>
     <t xml:space="preserve">9.71767425537109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72641372680664</t>
+    <t xml:space="preserve">9.72641468048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.61280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56911182403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68271827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694580078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36811828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019626617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650367736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060596466064</t>
+    <t xml:space="preserve">9.56911277770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271923065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694675445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3681173324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019721984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650272369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060577392578</t>
   </si>
   <si>
     <t xml:space="preserve">9.08847236633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04477691650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586135864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216781616211</t>
+    <t xml:space="preserve">9.04477882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.219557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586231231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216686248779</t>
   </si>
   <si>
     <t xml:space="preserve">8.95738887786865</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8263053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00108432769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91369438171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86999988555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891639709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72143840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7826099395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161449432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19656658172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24120903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15192127227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10727882385254</t>
+    <t xml:space="preserve">8.82630634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00108337402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91369533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86999893188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891544342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72143745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78261089324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161640167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19656562805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24120998382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15192317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263637542725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01799201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.892991065979</t>
+    <t xml:space="preserve">9.01799297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334861755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
   </si>
   <si>
     <t xml:space="preserve">8.60727310180664</t>
@@ -941,43 +941,43 @@
     <t xml:space="preserve">8.83941745758057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75013065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71441555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78584480285645</t>
+    <t xml:space="preserve">8.75013160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71441650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
     <t xml:space="preserve">8.73227310180664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85727691650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87513256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66084384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155799865723</t>
+    <t xml:space="preserve">8.85727596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82156085968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87513160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66084289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155704498291</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41084003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91084766387939</t>
+    <t xml:space="preserve">8.44655704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41084098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91084671020508</t>
   </si>
   <si>
     <t xml:space="preserve">8.76798820495605</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">8.9287052154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80370235443115</t>
+    <t xml:space="preserve">8.80370330810547</t>
   </si>
   <si>
     <t xml:space="preserve">9.37514019012451</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">9.46442890167236</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3304967880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28585243225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58941459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53584098815918</t>
+    <t xml:space="preserve">9.33049583435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28585338592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5894136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
   </si>
   <si>
     <t xml:space="preserve">8.62512969970703</t>
@@ -1016,19 +1016,19 @@
     <t xml:space="preserve">8.46441173553467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35726833343506</t>
+    <t xml:space="preserve">8.35726642608643</t>
   </si>
   <si>
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25012111663818</t>
+    <t xml:space="preserve">8.2501220703125</t>
   </si>
   <si>
     <t xml:space="preserve">8.30369663238525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28584003448486</t>
+    <t xml:space="preserve">8.28583812713623</t>
   </si>
   <si>
     <t xml:space="preserve">8.33941173553467</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">8.37512493133545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5001277923584</t>
+    <t xml:space="preserve">8.50012683868408</t>
   </si>
   <si>
     <t xml:space="preserve">8.64298725128174</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">9.55371475219727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.776930809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7322883605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.268012046814</t>
+    <t xml:space="preserve">9.77693271636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73228740692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680110931396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126535415649</t>
@@ -1070,55 +1070,55 @@
     <t xml:space="preserve">10.491229057312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4465847015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5358734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019422531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
+    <t xml:space="preserve">10.4465856552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5358715057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065958023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242046356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8521919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330104827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3962173461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.213828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5786085128784</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242055892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8521919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330114364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3962173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5786085128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698036193848</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.4874124526978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4418163299561</t>
+    <t xml:space="preserve">10.4418153762817</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506202697754</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">10.1226329803467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.259425163269</t>
+    <t xml:space="preserve">10.2594261169434</t>
   </si>
   <si>
     <t xml:space="preserve">10.0770359039307</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">10.3050241470337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1682300567627</t>
+    <t xml:space="preserve">10.168231010437</t>
   </si>
   <si>
     <t xml:space="preserve">9.89464664459229</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">9.52986621856689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62106132507324</t>
+    <t xml:space="preserve">9.62106227874756</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785446166992</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">9.25628185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16508769989014</t>
+    <t xml:space="preserve">9.16508674621582</t>
   </si>
   <si>
     <t xml:space="preserve">9.3018798828125</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80345153808594</t>
+    <t xml:space="preserve">9.80345058441162</t>
   </si>
   <si>
     <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1257762908936</t>
+    <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
     <t xml:space="preserve">11.6273498535156</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">11.3081684112549</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0801801681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0345821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1713752746582</t>
+    <t xml:space="preserve">11.0801792144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0345830917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1713743209839</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.581750869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.718544960022</t>
+    <t xml:space="preserve">11.5817518234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7185459136963</t>
   </si>
   <si>
     <t xml:space="preserve">11.85533618927</t>
@@ -1235,19 +1235,19 @@
     <t xml:space="preserve">11.9465322494507</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833234786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113117218018</t>
+    <t xml:space="preserve">12.0833225250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113107681274</t>
   </si>
   <si>
     <t xml:space="preserve">12.1745195388794</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921274185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.764142036438</t>
+    <t xml:space="preserve">11.9921283721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
     <t xml:space="preserve">12.4937009811401</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">12.7672853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1320657730103</t>
+    <t xml:space="preserve">13.1320638656616</t>
   </si>
   <si>
     <t xml:space="preserve">12.9952726364136</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">12.9496746063232</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688579559326</t>
+    <t xml:space="preserve">13.2688570022583</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304931640625</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481029510498</t>
+    <t xml:space="preserve">12.4481019973755</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
@@ -1286,16 +1286,16 @@
     <t xml:space="preserve">12.8584794998169</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0864677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9009342193604</t>
+    <t xml:space="preserve">13.0864686965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.900933265686</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433870315552</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7153997421265</t>
+    <t xml:space="preserve">10.7154006958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.02829456329346</t>
@@ -1307,16 +1307,16 @@
     <t xml:space="preserve">7.93395566940308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64213228225708</t>
+    <t xml:space="preserve">7.64213180541992</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66351509094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07986736297607</t>
+    <t xml:space="preserve">8.6635160446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07986831665039</t>
   </si>
   <si>
     <t xml:space="preserve">8.57231998443604</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34747695922852</t>
+    <t xml:space="preserve">9.34747791290283</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847978591919</t>
@@ -1352,37 +1352,37 @@
     <t xml:space="preserve">9.99142074584961</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2715530395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89804363250732</t>
+    <t xml:space="preserve">10.2715539932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
     <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.458309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785085678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7384414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.018575668335</t>
+    <t xml:space="preserve">10.4583082199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785076141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7384405136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0185747146606</t>
   </si>
   <si>
     <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1586418151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7851314544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9251976013184</t>
+    <t xml:space="preserve">11.1586408615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7851305007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.925196647644</t>
   </si>
   <si>
     <t xml:space="preserve">10.6450624465942</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">11.4854640960693</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6722183227539</t>
+    <t xml:space="preserve">11.6722192764282</t>
   </si>
   <si>
     <t xml:space="preserve">11.3453969955444</t>
@@ -1418,19 +1418,19 @@
     <t xml:space="preserve">11.0652647018433</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5788412094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6255292892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3920850753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5321531295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189083099365</t>
+    <t xml:space="preserve">11.5788421630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6255302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3920860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.532154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189092636108</t>
   </si>
   <si>
     <t xml:space="preserve">11.7655973434448</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">12.1391077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">11.952353477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1857976913452</t>
+    <t xml:space="preserve">11.9523525238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
     <t xml:space="preserve">12.2791748046875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9056644439697</t>
+    <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
     <t xml:space="preserve">11.9990425109863</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">12.2324857711792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0457305908203</t>
+    <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
     <t xml:space="preserve">12.0924196243286</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">13.07288646698</t>
   </si>
   <si>
-    <t xml:space="preserve">13.119574546814</t>
+    <t xml:space="preserve">13.1195755004883</t>
   </si>
   <si>
     <t xml:space="preserve">13.3997077941895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4463968276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3063297271729</t>
+    <t xml:space="preserve">13.4463958740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3063287734985</t>
   </si>
   <si>
     <t xml:space="preserve">13.3530187606812</t>
@@ -1514,10 +1514,10 @@
     <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993741989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.559308052063</t>
+    <t xml:space="preserve">12.6993751525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5593090057373</t>
   </si>
   <si>
     <t xml:space="preserve">13.0261964797974</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801736831665</t>
+    <t xml:space="preserve">14.3801746368408</t>
   </si>
   <si>
     <t xml:space="preserve">14.566930770874</t>
@@ -1556,10 +1556,10 @@
     <t xml:space="preserve">14.9404401779175</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8937520980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0338191986084</t>
+    <t xml:space="preserve">14.8937511444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0338182449341</t>
   </si>
   <si>
     <t xml:space="preserve">15.0805072784424</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">14.1934185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5202407836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665971755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.006664276123</t>
+    <t xml:space="preserve">14.5202417373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665962219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732181549072</t>
@@ -2934,6 +2934,9 @@
   </si>
   <si>
     <t xml:space="preserve">26.3999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1499996185303</t>
   </si>
 </sst>
 </file>
@@ -60631,7 +60634,7 @@
     </row>
     <row r="2207">
       <c r="A2207" s="1" t="n">
-        <v>45537.6493171296</v>
+        <v>45537.2916666667</v>
       </c>
       <c r="B2207" t="n">
         <v>2388</v>
@@ -60652,6 +60655,32 @@
         <v>962</v>
       </c>
       <c r="H2207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="1" t="n">
+        <v>45538.6493981481</v>
+      </c>
+      <c r="B2208" t="n">
+        <v>9808</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>25.9500007629395</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>24.9500007629395</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>25.8999996185303</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>25.1499996185303</v>
+      </c>
+      <c r="G2208" t="s">
+        <v>974</v>
+      </c>
+      <c r="H2208" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="976">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,142 +44,142 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947410583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578269958496</t>
+    <t xml:space="preserve">8.43947124481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578174591064</t>
   </si>
   <si>
     <t xml:space="preserve">8.21206188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31734275817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19521617889404</t>
+    <t xml:space="preserve">8.31734466552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19521427154541</t>
   </si>
   <si>
     <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29207515716553</t>
+    <t xml:space="preserve">8.29207611083984</t>
   </si>
   <si>
     <t xml:space="preserve">8.15731430053711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20363998413086</t>
+    <t xml:space="preserve">8.20363807678223</t>
   </si>
   <si>
     <t xml:space="preserve">8.18679332733154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08572196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13625717163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03518676757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03097438812256</t>
+    <t xml:space="preserve">8.08572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13625812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520004272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03518581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03097534179688</t>
   </si>
   <si>
     <t xml:space="preserve">8.02676296234131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00149631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99307298660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780586242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145124435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304357528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619787216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356502532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73197174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6688027381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66459035873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7488169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88357830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726875305176</t>
+    <t xml:space="preserve">8.00149440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307203292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9678053855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76145029067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304309844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619834899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356359481812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73197221755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66880083084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66459131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881601333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357877731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91727066040039</t>
   </si>
   <si>
     <t xml:space="preserve">8.05203247070312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22048473358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994857788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30471134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417613983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941242218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07730007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48158550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44789600372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41420364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155513763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42560195922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578262329102</t>
+    <t xml:space="preserve">8.22048377990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994762420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30471038818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417423248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07729911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33839988708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4815845489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44789409637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41420459747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4256010055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578357696533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55456447601318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27084636688232</t>
+    <t xml:space="preserve">8.27084445953369</t>
   </si>
   <si>
     <t xml:space="preserve">8.29663562774658</t>
@@ -194,16 +194,16 @@
     <t xml:space="preserve">8.23645496368408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33962535858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33102703094482</t>
+    <t xml:space="preserve">8.33962345123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33102798461914</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532524108887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32243156433105</t>
+    <t xml:space="preserve">8.32242965698242</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261318206787</t>
@@ -212,19 +212,19 @@
     <t xml:space="preserve">8.21066188812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22785568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767597198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08169937133789</t>
+    <t xml:space="preserve">8.22785663604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
     <t xml:space="preserve">8.03871154785156</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99572324752808</t>
+    <t xml:space="preserve">7.99572277069092</t>
   </si>
   <si>
     <t xml:space="preserve">7.95273590087891</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">8.24505233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05160617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86676025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377147674561</t>
+    <t xml:space="preserve">8.05160713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377338409424</t>
   </si>
   <si>
     <t xml:space="preserve">8.05590534210205</t>
@@ -248,31 +248,31 @@
     <t xml:space="preserve">7.92694330215454</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90974760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5975513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64053916931152</t>
+    <t xml:space="preserve">7.90974617004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779535293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078413009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3138313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59755229949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.64913749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7265157699585</t>
+    <t xml:space="preserve">8.72651386260986</t>
   </si>
   <si>
     <t xml:space="preserve">8.9156608581543</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">8.84687995910645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63194179534912</t>
+    <t xml:space="preserve">8.63194274902344</t>
   </si>
   <si>
     <t xml:space="preserve">8.66633224487305</t>
@@ -293,31 +293,31 @@
     <t xml:space="preserve">8.58895397186279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68352890014648</t>
+    <t xml:space="preserve">8.68352699279785</t>
   </si>
   <si>
     <t xml:space="preserve">8.70072174072266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94145393371582</t>
+    <t xml:space="preserve">8.9414529800415</t>
   </si>
   <si>
     <t xml:space="preserve">8.85547828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76950359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02742862701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2337703704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19937992095947</t>
+    <t xml:space="preserve">8.76950263977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02742767333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23376941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19938087463379</t>
   </si>
   <si>
     <t xml:space="preserve">9.2423677444458</t>
@@ -326,58 +326,58 @@
     <t xml:space="preserve">9.41431903839111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32834243774414</t>
+    <t xml:space="preserve">9.32834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">9.31974506378174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20797634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011116027832</t>
+    <t xml:space="preserve">9.20797920227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.225172996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.440110206604</t>
   </si>
   <si>
     <t xml:space="preserve">9.45730686187744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25956249237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74962425231934</t>
+    <t xml:space="preserve">9.25956439971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74962329864502</t>
   </si>
   <si>
     <t xml:space="preserve">9.5432825088501</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62925624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608585357666</t>
+    <t xml:space="preserve">9.62925720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608776092529</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224502563477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62065887451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58627033233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68084335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523284912109</t>
+    <t xml:space="preserve">9.62065982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58626937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68084239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523475646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.61206340789795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5518798828125</t>
+    <t xml:space="preserve">9.55187892913818</t>
   </si>
   <si>
     <t xml:space="preserve">9.5604772567749</t>
@@ -389,28 +389,28 @@
     <t xml:space="preserve">9.70663547515869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88718509674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138910293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.403037071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826719284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451110839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021223068237</t>
+    <t xml:space="preserve">9.88718414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4030380249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826700210571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451101303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021242141724</t>
   </si>
   <si>
     <t xml:space="preserve">10.1279163360596</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0333414077759</t>
+    <t xml:space="preserve">10.0333442687988</t>
   </si>
   <si>
     <t xml:space="preserve">10.0591354370117</t>
@@ -425,94 +425,94 @@
     <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84419727325439</t>
+    <t xml:space="preserve">9.84419631958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.87858581542969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8527946472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.231086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.007550239563</t>
+    <t xml:space="preserve">9.85279369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2310857772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075511932373</t>
   </si>
   <si>
     <t xml:space="preserve">10.2740745544434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4460248947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6867561340332</t>
+    <t xml:space="preserve">10.4460258483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351728439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6867580413818</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695613861084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9618768692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0736455917358</t>
+    <t xml:space="preserve">10.9618787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
     <t xml:space="preserve">11.0220603942871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1768159866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198047637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4433403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302316665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7528524398804</t>
+    <t xml:space="preserve">11.1768188476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198057174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066961288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302307128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.752854347229</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8732204437256</t>
+    <t xml:space="preserve">11.7614507675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873218536377</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505968093872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9849872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.010781288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.838828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7700490951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926708221436</t>
+    <t xml:space="preserve">11.9849863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0107774734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7700471878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926698684692</t>
   </si>
   <si>
     <t xml:space="preserve">11.7786464691162</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7975368499756</t>
+    <t xml:space="preserve">11.7975378036499</t>
   </si>
   <si>
     <t xml:space="preserve">11.9024038314819</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">11.8674488067627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8499698638916</t>
+    <t xml:space="preserve">11.8499717712402</t>
   </si>
   <si>
     <t xml:space="preserve">11.972315788269</t>
@@ -551,10 +551,10 @@
     <t xml:space="preserve">12.1733102798462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0160102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286193847656</t>
+    <t xml:space="preserve">12.0160093307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286203384399</t>
   </si>
   <si>
     <t xml:space="preserve">11.8849267959595</t>
@@ -563,37 +563,37 @@
     <t xml:space="preserve">12.0247488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0946598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.138355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.217004776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257423400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082662582397</t>
+    <t xml:space="preserve">12.0946607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1383543014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2170038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257442474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082672119141</t>
   </si>
   <si>
     <t xml:space="preserve">12.1208763122559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9897928237915</t>
+    <t xml:space="preserve">11.9897937774658</t>
   </si>
   <si>
     <t xml:space="preserve">12.0684442520142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0509672164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985322952271</t>
+    <t xml:space="preserve">12.0509653091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985313415527</t>
   </si>
   <si>
     <t xml:space="preserve">12.0422267913818</t>
@@ -605,16 +605,16 @@
     <t xml:space="preserve">12.1033992767334</t>
   </si>
   <si>
-    <t xml:space="preserve">11.893666267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062772750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800588607788</t>
+    <t xml:space="preserve">11.8936653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062753677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800579071045</t>
   </si>
   <si>
     <t xml:space="preserve">11.7451028823853</t>
@@ -623,22 +623,22 @@
     <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5353698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.526629447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.447979927063</t>
+    <t xml:space="preserve">11.5353689193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5266304016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479808807373</t>
   </si>
   <si>
     <t xml:space="preserve">11.395546913147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3605918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518524169922</t>
+    <t xml:space="preserve">11.3605909347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518514633179</t>
   </si>
   <si>
     <t xml:space="preserve">11.2732019424438</t>
@@ -647,16 +647,16 @@
     <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431119918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906799316406</t>
+    <t xml:space="preserve">11.3431129455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906789779663</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2295074462891</t>
+    <t xml:space="preserve">11.2295083999634</t>
   </si>
   <si>
     <t xml:space="preserve">11.1858129501343</t>
@@ -665,118 +665,118 @@
     <t xml:space="preserve">11.2469854354858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2994203567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.369330406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829359054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6227588653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7101459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5790634155273</t>
+    <t xml:space="preserve">11.2994184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3693294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6227579116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7101469039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5790662765503</t>
   </si>
   <si>
     <t xml:space="preserve">11.4567193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3256349563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4305028915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3168973922729</t>
+    <t xml:space="preserve">11.3256359100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4305038452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3168964385986</t>
   </si>
   <si>
     <t xml:space="preserve">11.2032909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5878028869629</t>
+    <t xml:space="preserve">11.5878038406372</t>
   </si>
   <si>
     <t xml:space="preserve">11.3868074417114</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4042863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5091533660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1159009933472</t>
+    <t xml:space="preserve">11.4042873382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5091524124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.1246404647827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1683349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557239532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.883713722229</t>
+    <t xml:space="preserve">11.1683330535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88371467590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.14964580535889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35063934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51668167114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63028717041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6477632522583</t>
+    <t xml:space="preserve">9.35064029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51668071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63028430938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64776515960693</t>
   </si>
   <si>
     <t xml:space="preserve">9.73515319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7438907623291</t>
+    <t xml:space="preserve">9.74389171600342</t>
   </si>
   <si>
     <t xml:space="preserve">9.83128070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70893478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53415775299072</t>
+    <t xml:space="preserve">9.70893669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53415679931641</t>
   </si>
   <si>
     <t xml:space="preserve">9.48172378540039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39433574676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43803024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55163669586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42055225372314</t>
+    <t xml:space="preserve">9.39433479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43803119659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55163478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42055130004883</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685680389404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15838432312012</t>
+    <t xml:space="preserve">9.26325035095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1583833694458</t>
   </si>
   <si>
     <t xml:space="preserve">9.34190082550049</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">9.84002017974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79632472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80506420135498</t>
+    <t xml:space="preserve">9.79632663726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80506324768066</t>
   </si>
   <si>
     <t xml:space="preserve">9.7875862121582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81380367279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9011926651001</t>
+    <t xml:space="preserve">9.81380271911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90119171142578</t>
   </si>
   <si>
     <t xml:space="preserve">9.857497215271</t>
@@ -812,19 +812,19 @@
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072834014893</t>
+    <t xml:space="preserve">9.28072929382324</t>
   </si>
   <si>
     <t xml:space="preserve">9.25451278686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97984218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87497520446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0497550964355</t>
+    <t xml:space="preserve">9.97984313964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497425079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0497531890869</t>
   </si>
   <si>
     <t xml:space="preserve">9.91867160797119</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63902378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767425537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72641277313232</t>
+    <t xml:space="preserve">9.63902568817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72641468048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.61280822753906</t>
@@ -848,28 +848,28 @@
     <t xml:space="preserve">9.56911373138428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68272018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694675445557</t>
+    <t xml:space="preserve">9.68271732330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694580078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.36811923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70019721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650272369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060596466064</t>
+    <t xml:space="preserve">9.70019817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060586929321</t>
   </si>
   <si>
     <t xml:space="preserve">9.08847236633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04477882385254</t>
+    <t xml:space="preserve">9.04477977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.21955680847168</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">9.13216686248779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95738887786865</t>
+    <t xml:space="preserve">8.95738792419434</t>
   </si>
   <si>
     <t xml:space="preserve">8.8263053894043</t>
@@ -896,28 +896,28 @@
     <t xml:space="preserve">8.86999988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73891544342041</t>
+    <t xml:space="preserve">8.73891735076904</t>
   </si>
   <si>
     <t xml:space="preserve">8.72143840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78261184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161449432373</t>
+    <t xml:space="preserve">8.7826099395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161544799805</t>
   </si>
   <si>
     <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24120903015137</t>
+    <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.15192222595215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10727882385254</t>
+    <t xml:space="preserve">9.10727977752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.06263542175293</t>
@@ -926,28 +926,28 @@
     <t xml:space="preserve">9.01799297332764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89298915863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727119445801</t>
+    <t xml:space="preserve">8.97334766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.892991065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
     <t xml:space="preserve">8.83941841125488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75012969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71441555023193</t>
+    <t xml:space="preserve">8.75013065338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71441745758057</t>
   </si>
   <si>
     <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73227405548096</t>
+    <t xml:space="preserve">8.73227310180664</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727596282959</t>
@@ -959,16 +959,16 @@
     <t xml:space="preserve">8.87513256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66084289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155799865723</t>
+    <t xml:space="preserve">8.66084384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155704498291</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44655609130859</t>
+    <t xml:space="preserve">8.44655513763428</t>
   </si>
   <si>
     <t xml:space="preserve">8.41084003448486</t>
@@ -977,22 +977,22 @@
     <t xml:space="preserve">8.91084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76798820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9287052154541</t>
+    <t xml:space="preserve">8.76798915863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92870616912842</t>
   </si>
   <si>
     <t xml:space="preserve">8.80370330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37514019012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907135009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442890167236</t>
+    <t xml:space="preserve">9.37514114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50907039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442794799805</t>
   </si>
   <si>
     <t xml:space="preserve">9.3304967880249</t>
@@ -1001,31 +1001,31 @@
     <t xml:space="preserve">9.28585338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5894136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53584098815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512969970703</t>
+    <t xml:space="preserve">8.58941459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62512874603271</t>
   </si>
   <si>
     <t xml:space="preserve">8.46441173553467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35726642608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42869663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2501220703125</t>
+    <t xml:space="preserve">8.35726737976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42869853973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25012397766113</t>
   </si>
   <si>
     <t xml:space="preserve">8.30369567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28583812713623</t>
+    <t xml:space="preserve">8.28583717346191</t>
   </si>
   <si>
     <t xml:space="preserve">8.33941078186035</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">8.5001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64298629760742</t>
+    <t xml:space="preserve">8.64298534393311</t>
   </si>
   <si>
     <t xml:space="preserve">9.41978454589844</t>
@@ -1046,46 +1046,46 @@
     <t xml:space="preserve">9.55371475219727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77693176269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73228740692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680110931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126535415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572988510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.491229057312</t>
+    <t xml:space="preserve">9.77693271636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7322883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680101394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126554489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572978973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912281036377</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358734130859</t>
+    <t xml:space="preserve">10.5358724594116</t>
   </si>
   <si>
     <t xml:space="preserve">10.4019412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805168151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233667373657</t>
+    <t xml:space="preserve">10.5805158615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22336769104</t>
   </si>
   <si>
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065958023071</t>
+    <t xml:space="preserve">10.8065948486328</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242046356201</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">10.7609987258911</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5330104827881</t>
+    <t xml:space="preserve">10.5330114364624</t>
   </si>
   <si>
     <t xml:space="preserve">10.3962173461914</t>
@@ -1106,46 +1106,46 @@
     <t xml:space="preserve">10.2138290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5786085128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874134063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418144226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506212234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1226348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.259425163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.077036857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0314378738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3050241470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.168231010437</t>
+    <t xml:space="preserve">10.5786075592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4874114990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418153762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.350622177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.122633934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2594261169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0770349502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.031439781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3050231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1682300567627</t>
   </si>
   <si>
     <t xml:space="preserve">9.89464569091797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84904861450195</t>
+    <t xml:space="preserve">9.84905052185059</t>
   </si>
   <si>
     <t xml:space="preserve">9.48426914215088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43867111206055</t>
+    <t xml:space="preserve">9.43867301940918</t>
   </si>
   <si>
     <t xml:space="preserve">9.52986621856689</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">9.62106227874756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75785446166992</t>
+    <t xml:space="preserve">9.75785350799561</t>
   </si>
   <si>
     <t xml:space="preserve">9.66665935516357</t>
@@ -1163,31 +1163,31 @@
     <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25628185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16508769989014</t>
+    <t xml:space="preserve">9.25628089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1650857925415</t>
   </si>
   <si>
     <t xml:space="preserve">9.3018798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21068477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39307403564453</t>
+    <t xml:space="preserve">9.21068572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39307498931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.11949062347412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71225643157959</t>
+    <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
     <t xml:space="preserve">9.80345153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94024276733398</t>
+    <t xml:space="preserve">9.9402437210083</t>
   </si>
   <si>
     <t xml:space="preserve">11.1257772445679</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">11.3993616104126</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3081674575806</t>
+    <t xml:space="preserve">11.3081665039062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0801801681519</t>
@@ -1211,37 +1211,37 @@
     <t xml:space="preserve">11.0345821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713752746582</t>
+    <t xml:space="preserve">11.1713762283325</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.581750869751</t>
+    <t xml:space="preserve">11.5817518234253</t>
   </si>
   <si>
     <t xml:space="preserve">11.718544960022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8553352355957</t>
+    <t xml:space="preserve">11.85533618927</t>
   </si>
   <si>
     <t xml:space="preserve">11.9465312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0833234786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3113117218018</t>
+    <t xml:space="preserve">12.0833253860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3113107681274</t>
   </si>
   <si>
     <t xml:space="preserve">12.1745195388794</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921283721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.764142036438</t>
+    <t xml:space="preserve">11.9921293258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7641410827637</t>
   </si>
   <si>
     <t xml:space="preserve">12.4937009811401</t>
@@ -1256,22 +1256,22 @@
     <t xml:space="preserve">12.9952726364136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9496746063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688579559326</t>
+    <t xml:space="preserve">12.9496755599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688570022583</t>
   </si>
   <si>
     <t xml:space="preserve">12.6304931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7216882705688</t>
+    <t xml:space="preserve">12.7216873168945</t>
   </si>
   <si>
     <t xml:space="preserve">12.4481019973755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5848951339722</t>
+    <t xml:space="preserve">12.5848960876465</t>
   </si>
   <si>
     <t xml:space="preserve">12.8128833770752</t>
@@ -1283,25 +1283,25 @@
     <t xml:space="preserve">13.0864677429199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9009342193604</t>
+    <t xml:space="preserve">11.9009351730347</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7154016494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02829456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09810543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93395614624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64213180541992</t>
+    <t xml:space="preserve">10.7153997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02829551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09810638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93395566940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64213275909424</t>
   </si>
   <si>
     <t xml:space="preserve">8.006911277771</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">8.66351509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07986831665039</t>
+    <t xml:space="preserve">8.07986736297607</t>
   </si>
   <si>
     <t xml:space="preserve">8.57231998443604</t>
@@ -1319,19 +1319,19 @@
     <t xml:space="preserve">8.73647117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79118728637695</t>
+    <t xml:space="preserve">8.79118824005127</t>
   </si>
   <si>
     <t xml:space="preserve">8.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3474760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0847978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94473075866699</t>
+    <t xml:space="preserve">9.34747505187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0847988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94472980499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.0381088256836</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99142074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715520858765</t>
+    <t xml:space="preserve">9.99141979217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715539932251</t>
   </si>
   <si>
     <t xml:space="preserve">9.89804267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5516872406006</t>
+    <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
     <t xml:space="preserve">10.458309173584</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">10.8785076141357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7384414672852</t>
+    <t xml:space="preserve">10.7384405136108</t>
   </si>
   <si>
     <t xml:space="preserve">11.018575668335</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1586418151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7851305007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9251976013184</t>
+    <t xml:space="preserve">11.1586408615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7851314544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.925196647644</t>
   </si>
   <si>
     <t xml:space="preserve">10.6450634002686</t>
@@ -1385,19 +1385,19 @@
     <t xml:space="preserve">11.2987079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4854650497437</t>
+    <t xml:space="preserve">11.485463142395</t>
   </si>
   <si>
     <t xml:space="preserve">11.6722192764282</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3453960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2053298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4387741088867</t>
+    <t xml:space="preserve">11.3453969955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2053308486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4387760162354</t>
   </si>
   <si>
     <t xml:space="preserve">11.1119518280029</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">11.2520198822021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9718866348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652647018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5788421630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6255302429199</t>
+    <t xml:space="preserve">10.9718856811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652637481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5788412094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6255311965942</t>
   </si>
   <si>
     <t xml:space="preserve">11.3920860290527</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">11.7189083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7655963897705</t>
+    <t xml:space="preserve">11.7655973434448</t>
   </si>
   <si>
     <t xml:space="preserve">11.8589744567871</t>
@@ -1439,31 +1439,31 @@
     <t xml:space="preserve">11.9523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1857967376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2791738510132</t>
+    <t xml:space="preserve">12.1857986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.999041557312</t>
+    <t xml:space="preserve">11.9990425109863</t>
   </si>
   <si>
     <t xml:space="preserve">12.2324857711792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0924205780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8122854232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3258638381958</t>
+    <t xml:space="preserve">12.045729637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0924196243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8122863769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3258628845215</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861303329468</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">13.119574546814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3997087478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4463958740234</t>
+    <t xml:space="preserve">13.3997077941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4463968276978</t>
   </si>
   <si>
     <t xml:space="preserve">13.3063297271729</t>
@@ -1493,16 +1493,16 @@
     <t xml:space="preserve">13.3530187606812</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5864639282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930858612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662645339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9132852554321</t>
+    <t xml:space="preserve">13.5864629745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930849075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9132843017578</t>
   </si>
   <si>
     <t xml:space="preserve">13.633152961731</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">12.9328193664551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8394412994385</t>
+    <t xml:space="preserve">12.8394403457642</t>
   </si>
   <si>
     <t xml:space="preserve">13.53977394104</t>
@@ -1535,49 +1535,49 @@
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801736831665</t>
+    <t xml:space="preserve">14.3801746368408</t>
   </si>
   <si>
     <t xml:space="preserve">14.566930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3334865570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.706995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9404401779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8937520980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0338191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0805072784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2672643661499</t>
+    <t xml:space="preserve">14.3334846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069959640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9404411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8937511444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0338182449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0805063247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2672634124756</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8470630645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603078842163</t>
+    <t xml:space="preserve">14.8470621109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.660306930542</t>
   </si>
   <si>
     <t xml:space="preserve">14.4735517501831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1934175491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202417373657</t>
+    <t xml:space="preserve">14.1934194564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202407836914</t>
   </si>
   <si>
     <t xml:space="preserve">13.8665971755981</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">14.0066633224487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732181549072</t>
+    <t xml:space="preserve">13.7732191085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.9599742889404</t>
@@ -1595,22 +1595,22 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401065826416</t>
+    <t xml:space="preserve">14.2401075363159</t>
   </si>
   <si>
     <t xml:space="preserve">14.6393623352051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.591833114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6868934631348</t>
+    <t xml:space="preserve">14.5918321609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6868925094604</t>
   </si>
   <si>
     <t xml:space="preserve">14.9245452880859</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0671358108521</t>
+    <t xml:space="preserve">15.0671367645264</t>
   </si>
   <si>
     <t xml:space="preserve">15.2572574615479</t>
@@ -1637,25 +1637,25 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.542441368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.972074508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0196056365967</t>
+    <t xml:space="preserve">15.5424394607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9720754623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.019606590271</t>
   </si>
   <si>
     <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7325620651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3029251098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.922682762146</t>
+    <t xml:space="preserve">15.7325601577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3029270172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9226837158203</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">16.0177440643311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.350456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0652751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7782325744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1109447479248</t>
+    <t xml:space="preserve">16.3504581451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0652732849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7782306671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1109428405762</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1688,37 +1688,37 @@
     <t xml:space="preserve">16.8257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4455165863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5387172698975</t>
+    <t xml:space="preserve">16.4455184936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5387191772461</t>
   </si>
   <si>
     <t xml:space="preserve">18.0615520477295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7288398742676</t>
+    <t xml:space="preserve">17.7288379669189</t>
   </si>
   <si>
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3485946655273</t>
+    <t xml:space="preserve">16.8732929229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.348596572876</t>
   </si>
   <si>
     <t xml:space="preserve">17.7763710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8714294433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2992038726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8220386505127</t>
+    <t xml:space="preserve">17.871431350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.299201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8220367431641</t>
   </si>
   <si>
     <t xml:space="preserve">19.0121593475342</t>
@@ -1727,19 +1727,19 @@
     <t xml:space="preserve">19.2022819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0578289031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8677043914795</t>
+    <t xml:space="preserve">20.0578269958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8677062988281</t>
   </si>
   <si>
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924026489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9627685546875</t>
+    <t xml:space="preserve">19.3924007415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9627666473389</t>
   </si>
   <si>
     <t xml:space="preserve">19.5825233459473</t>
@@ -1754,16 +1754,16 @@
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.578800201416</t>
+    <t xml:space="preserve">21.2936172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5788021087646</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7689208984375</t>
+    <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
     <t xml:space="preserve">21.1034984588623</t>
@@ -1775,46 +1775,46 @@
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.054105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3392887115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6244678497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8145904541016</t>
+    <t xml:space="preserve">22.0541038513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3392868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6244697570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8145923614502</t>
   </si>
   <si>
     <t xml:space="preserve">21.9590435028076</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8639831542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5331325531006</t>
+    <t xml:space="preserve">21.8639812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5331344604492</t>
   </si>
   <si>
     <t xml:space="preserve">18.5843849182129</t>
   </si>
   <si>
-    <t xml:space="preserve">19.297342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9133739471436</t>
+    <t xml:space="preserve">19.2973403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9133758544922</t>
   </si>
   <si>
     <t xml:space="preserve">22.2442264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0997714996338</t>
+    <t xml:space="preserve">23.0997734069824</t>
   </si>
   <si>
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837417602539</t>
+    <t xml:space="preserve">21.4837398529053</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1829,10 +1829,10 @@
     <t xml:space="preserve">20.3430118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0047130584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.529411315918</t>
+    <t xml:space="preserve">23.0047149658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5294094085693</t>
   </si>
   <si>
     <t xml:space="preserve">22.7195301055908</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">20.2479496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7232513427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.198558807373</t>
+    <t xml:space="preserve">20.7232532501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
     <t xml:space="preserve">19.6775856018066</t>
@@ -1865,16 +1865,16 @@
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337776184082</t>
+    <t xml:space="preserve">17.6337757110596</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2041416168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5368537902832</t>
+    <t xml:space="preserve">18.2041435241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5368556976318</t>
   </si>
   <si>
     <t xml:space="preserve">19.1547508239746</t>
@@ -1886,19 +1886,19 @@
     <t xml:space="preserve">18.5938911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798183441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4988307952881</t>
+    <t xml:space="preserve">18.4798202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4988288879395</t>
   </si>
   <si>
     <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136478424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3847579956055</t>
+    <t xml:space="preserve">18.2136497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3847599029541</t>
   </si>
   <si>
     <t xml:space="preserve">19.2498111724854</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">18.7650012969971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8143939971924</t>
+    <t xml:space="preserve">17.8143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">17.4531631469727</t>
@@ -2937,6 +2937,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.2999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7000007629395</t>
   </si>
 </sst>
 </file>
@@ -60790,7 +60793,7 @@
     </row>
     <row r="2213">
       <c r="A2213" s="1" t="n">
-        <v>45545.6493518519</v>
+        <v>45545.2916666667</v>
       </c>
       <c r="B2213" t="n">
         <v>4567</v>
@@ -60811,6 +60814,32 @@
         <v>945</v>
       </c>
       <c r="H2213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="1" t="n">
+        <v>45546.6494328704</v>
+      </c>
+      <c r="B2214" t="n">
+        <v>8094</v>
+      </c>
+      <c r="C2214" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>25.3999996185303</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>25.7999992370605</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>25.7000007629395</v>
+      </c>
+      <c r="G2214" t="s">
+        <v>975</v>
+      </c>
+      <c r="H2214" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42262744903564</t>
+    <t xml:space="preserve">8.42262649536133</t>
   </si>
   <si>
     <t xml:space="preserve">LUVE.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">8.43947315216064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40577983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21206188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31734466552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19521427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27101993560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29207706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15731430053711</t>
+    <t xml:space="preserve">8.40578174591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21206092834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31734371185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19521713256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27101802825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29207611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15731334686279</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18679332733154</t>
+    <t xml:space="preserve">8.18679428100586</t>
   </si>
   <si>
     <t xml:space="preserve">8.08572196960449</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">8.13625812530518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11520195007324</t>
+    <t xml:space="preserve">8.11520099639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.03518676757812</t>
@@ -95,22 +95,22 @@
     <t xml:space="preserve">8.00149536132812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99307203292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96780395507812</t>
+    <t xml:space="preserve">7.9930739402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9678053855896</t>
   </si>
   <si>
     <t xml:space="preserve">7.76145124435425</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83304309844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619644165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356407165527</t>
+    <t xml:space="preserve">7.83304500579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619691848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356359481812</t>
   </si>
   <si>
     <t xml:space="preserve">7.73197174072266</t>
@@ -125,25 +125,25 @@
     <t xml:space="preserve">7.74881601333618</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88357734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726779937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048377990723</t>
+    <t xml:space="preserve">7.8835768699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203151702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048473358154</t>
   </si>
   <si>
     <t xml:space="preserve">8.16994762420654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30471038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417518615723</t>
+    <t xml:space="preserve">8.30470943450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417423248291</t>
   </si>
   <si>
     <t xml:space="preserve">8.11941242218018</t>
@@ -152,76 +152,76 @@
     <t xml:space="preserve">8.07730007171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33839988708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4815845489502</t>
+    <t xml:space="preserve">8.33840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48158550262451</t>
   </si>
   <si>
     <t xml:space="preserve">8.44789409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41420459747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155418395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4256010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48578262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55456447601318</t>
+    <t xml:space="preserve">8.41420269012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560005187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48578357696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55456352233887</t>
   </si>
   <si>
     <t xml:space="preserve">8.27084541320801</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2966365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3267297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25364875793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23645401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33962345123291</t>
+    <t xml:space="preserve">8.29663753509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32672882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2536506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23645496368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33962535858154</t>
   </si>
   <si>
     <t xml:space="preserve">8.33102703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33532524108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32243061065674</t>
+    <t xml:space="preserve">8.33532619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32243156433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261318206787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21066188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785663604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767501831055</t>
+    <t xml:space="preserve">8.21066093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767311096191</t>
   </si>
   <si>
     <t xml:space="preserve">8.08169841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03871059417725</t>
+    <t xml:space="preserve">8.03871154785156</t>
   </si>
   <si>
     <t xml:space="preserve">7.99572372436523</t>
@@ -230,52 +230,52 @@
     <t xml:space="preserve">7.95273494720459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24505138397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377338409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590629577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694234848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90974712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078413009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59755325317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64053821563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64913749694824</t>
+    <t xml:space="preserve">8.2450532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160903930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675786972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377243041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694187164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9097466468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31383419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5975513458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64053916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64913654327393</t>
   </si>
   <si>
     <t xml:space="preserve">8.7265157699585</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91565990447998</t>
+    <t xml:space="preserve">8.9156608581543</t>
   </si>
   <si>
     <t xml:space="preserve">8.84688091278076</t>
@@ -287,31 +287,31 @@
     <t xml:space="preserve">8.66633224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59325218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895397186279</t>
+    <t xml:space="preserve">8.59325313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895206451416</t>
   </si>
   <si>
     <t xml:space="preserve">8.68352699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70072269439697</t>
+    <t xml:space="preserve">8.70072174072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.9414529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85547924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76950263977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02742862701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639114379883</t>
+    <t xml:space="preserve">8.85547828674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76950168609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02742958068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639305114746</t>
   </si>
   <si>
     <t xml:space="preserve">9.2337703704834</t>
@@ -320,28 +320,28 @@
     <t xml:space="preserve">9.19938087463379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24236869812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41431903839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32834339141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31974506378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20797729492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.225172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45730590820312</t>
+    <t xml:space="preserve">9.24236679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41431999206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32834243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31974697113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20797824859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44011211395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45730686187744</t>
   </si>
   <si>
     <t xml:space="preserve">9.25956344604492</t>
@@ -350,40 +350,40 @@
     <t xml:space="preserve">9.74962329864502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54328346252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62925910949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52608680725098</t>
+    <t xml:space="preserve">9.5432825088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62925815582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52608776092529</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224502563477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62065887451172</t>
+    <t xml:space="preserve">9.62065982818604</t>
   </si>
   <si>
     <t xml:space="preserve">9.58626937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68084335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71523380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5518798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5604772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65505027770996</t>
+    <t xml:space="preserve">9.6808443069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71523284912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206245422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55187892913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65504932403564</t>
   </si>
   <si>
     <t xml:space="preserve">9.70663547515869</t>
@@ -395,16 +395,16 @@
     <t xml:space="preserve">10.2138910293579</t>
   </si>
   <si>
-    <t xml:space="preserve">10.403037071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451101303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.102123260498</t>
+    <t xml:space="preserve">10.4030380249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826719284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451120376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021242141724</t>
   </si>
   <si>
     <t xml:space="preserve">10.1279153823853</t>
@@ -413,25 +413,25 @@
     <t xml:space="preserve">10.0333423614502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.059136390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623048782349</t>
+    <t xml:space="preserve">10.0591354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623058319092</t>
   </si>
   <si>
     <t xml:space="preserve">10.3084650039673</t>
   </si>
   <si>
-    <t xml:space="preserve">10.188099861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84419536590576</t>
+    <t xml:space="preserve">10.1880989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84419727325439</t>
   </si>
   <si>
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8527946472168</t>
+    <t xml:space="preserve">9.85279273986816</t>
   </si>
   <si>
     <t xml:space="preserve">10.231086730957</t>
@@ -440,13 +440,13 @@
     <t xml:space="preserve">10.007550239563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.274073600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4460258483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351718902588</t>
+    <t xml:space="preserve">10.2740726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.44602394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351709365845</t>
   </si>
   <si>
     <t xml:space="preserve">10.6867561340332</t>
@@ -455,28 +455,28 @@
     <t xml:space="preserve">10.6695604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">10.961877822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0736455917358</t>
+    <t xml:space="preserve">10.9618787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
     <t xml:space="preserve">11.0220613479614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1768178939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2198047637939</t>
+    <t xml:space="preserve">11.1768169403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2198057174683</t>
   </si>
   <si>
     <t xml:space="preserve">11.4433422088623</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6066951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8302297592163</t>
+    <t xml:space="preserve">11.6066942214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8302316665649</t>
   </si>
   <si>
     <t xml:space="preserve">11.7528533935547</t>
@@ -485,13 +485,13 @@
     <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614498138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8732194900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505968093872</t>
+    <t xml:space="preserve">11.7614507675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8732204437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505958557129</t>
   </si>
   <si>
     <t xml:space="preserve">11.9849872589111</t>
@@ -503,10 +503,10 @@
     <t xml:space="preserve">11.8388290405273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7700471878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6926717758179</t>
+    <t xml:space="preserve">11.7700481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926708221436</t>
   </si>
   <si>
     <t xml:space="preserve">11.7786455154419</t>
@@ -521,25 +521,25 @@
     <t xml:space="preserve">11.8674488067627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8499717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972315788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0859212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.243221282959</t>
+    <t xml:space="preserve">11.8499708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9723148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597047805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0859222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2432222366333</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5403461456299</t>
+    <t xml:space="preserve">12.5403451919556</t>
   </si>
   <si>
     <t xml:space="preserve">12.2344827651978</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">11.9286212921143</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8849258422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946607589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1383543014526</t>
+    <t xml:space="preserve">11.8849267959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247507095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946598052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.138355255127</t>
   </si>
   <si>
     <t xml:space="preserve">12.2170028686523</t>
@@ -575,10 +575,10 @@
     <t xml:space="preserve">12.2257432937622</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9635763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082662582397</t>
+    <t xml:space="preserve">11.9635753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082653045654</t>
   </si>
   <si>
     <t xml:space="preserve">12.1208772659302</t>
@@ -587,13 +587,13 @@
     <t xml:space="preserve">11.9897928237915</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0684432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0509653091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9985313415527</t>
+    <t xml:space="preserve">12.0684442520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0509662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9985322952271</t>
   </si>
   <si>
     <t xml:space="preserve">12.0422258377075</t>
@@ -602,16 +602,16 @@
     <t xml:space="preserve">12.0771818161011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034002304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8936643600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8412322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8062763214111</t>
+    <t xml:space="preserve">12.1033983230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8936653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8062772750854</t>
   </si>
   <si>
     <t xml:space="preserve">11.7800588607788</t>
@@ -623,28 +623,28 @@
     <t xml:space="preserve">11.7014093399048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5353708267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5266304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4479808807373</t>
+    <t xml:space="preserve">11.5353679656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.526629447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479818344116</t>
   </si>
   <si>
     <t xml:space="preserve">11.395546913147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3605918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2207698822021</t>
+    <t xml:space="preserve">11.3605909347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518514633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
     <t xml:space="preserve">11.3431129455566</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">11.0984230041504</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2295093536377</t>
+    <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
     <t xml:space="preserve">11.18581199646</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">11.2469854354858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2994194030762</t>
+    <t xml:space="preserve">11.2994184494019</t>
   </si>
   <si>
     <t xml:space="preserve">11.369330406189</t>
@@ -677,25 +677,25 @@
     <t xml:space="preserve">11.6227579116821</t>
   </si>
   <si>
-    <t xml:space="preserve">11.710147857666</t>
+    <t xml:space="preserve">11.7101469039917</t>
   </si>
   <si>
     <t xml:space="preserve">11.5790634155273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4567203521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3256349563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4305019378662</t>
+    <t xml:space="preserve">11.4567193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3256368637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4305038452148</t>
   </si>
   <si>
     <t xml:space="preserve">11.3168973922729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2032909393311</t>
+    <t xml:space="preserve">11.2032918930054</t>
   </si>
   <si>
     <t xml:space="preserve">11.5878028869629</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">11.3868083953857</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4042863845825</t>
+    <t xml:space="preserve">11.4042854309082</t>
   </si>
   <si>
     <t xml:space="preserve">11.5091524124146</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1246404647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.883713722229</t>
+    <t xml:space="preserve">11.124641418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683340072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557239532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88371467590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.14964580535889</t>
@@ -731,25 +731,25 @@
     <t xml:space="preserve">9.35064029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51668167114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63028526306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6477632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73515224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74389171600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8312816619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70893573760986</t>
+    <t xml:space="preserve">9.51668071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63028717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64776229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73515319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7438907623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83128070831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70893669128418</t>
   </si>
   <si>
     <t xml:space="preserve">9.53415775299072</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42055034637451</t>
+    <t xml:space="preserve">9.42055225372314</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685680389404</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">9.34190082550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40307331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84002017974854</t>
+    <t xml:space="preserve">9.40307426452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84002113342285</t>
   </si>
   <si>
     <t xml:space="preserve">9.79632472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80506420135498</t>
+    <t xml:space="preserve">9.80506324768066</t>
   </si>
   <si>
     <t xml:space="preserve">9.78758525848389</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81380271911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90119361877441</t>
+    <t xml:space="preserve">9.81380176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9011926651001</t>
   </si>
   <si>
     <t xml:space="preserve">9.857497215271</t>
@@ -812,19 +812,19 @@
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97984313964844</t>
+    <t xml:space="preserve">9.28072834014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451374053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97984218597412</t>
   </si>
   <si>
     <t xml:space="preserve">9.87497520446777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0497531890869</t>
+    <t xml:space="preserve">10.0497541427612</t>
   </si>
   <si>
     <t xml:space="preserve">9.91866970062256</t>
@@ -836,76 +836,76 @@
     <t xml:space="preserve">9.63902378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71767520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72641372680664</t>
+    <t xml:space="preserve">9.71767616271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72641468048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.61280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56911373138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68271923065186</t>
+    <t xml:space="preserve">9.56911277770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68272018432617</t>
   </si>
   <si>
     <t xml:space="preserve">9.30694484710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36811828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019817352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65650177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060596466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08847332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04477882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21955680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586326599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95738983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82630443572998</t>
+    <t xml:space="preserve">9.36811923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019626617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65650272369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060586929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08847236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04477977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21955490112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586231231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216781616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95738887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263053894043</t>
   </si>
   <si>
     <t xml:space="preserve">9.00108337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91369438171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73891639709473</t>
+    <t xml:space="preserve">8.91369342803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73891544342041</t>
   </si>
   <si>
     <t xml:space="preserve">8.72143840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78261184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161640167236</t>
+    <t xml:space="preserve">8.78261089324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161544799805</t>
   </si>
   <si>
     <t xml:space="preserve">9.19656562805176</t>
@@ -914,46 +914,46 @@
     <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15192413330078</t>
+    <t xml:space="preserve">9.15192317962646</t>
   </si>
   <si>
     <t xml:space="preserve">9.10727882385254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06263637542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.017991065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.892991065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727214813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83941841125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75013065338135</t>
+    <t xml:space="preserve">9.06263542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01799297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334861755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89299011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727119445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83941745758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75013160705566</t>
   </si>
   <si>
     <t xml:space="preserve">8.71441650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78584575653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73227214813232</t>
+    <t xml:space="preserve">8.78584480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73227405548096</t>
   </si>
   <si>
     <t xml:space="preserve">8.85727500915527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82156181335449</t>
+    <t xml:space="preserve">8.82156085968018</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513160705566</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">8.66084384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57155704498291</t>
+    <t xml:space="preserve">8.57155799865723</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
@@ -974,37 +974,37 @@
     <t xml:space="preserve">8.41084003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91084766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798915863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92870426177979</t>
+    <t xml:space="preserve">8.91084671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9287052154541</t>
   </si>
   <si>
     <t xml:space="preserve">8.80370426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37514114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3304967880249</t>
+    <t xml:space="preserve">9.37514019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50907135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442699432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33049774169922</t>
   </si>
   <si>
     <t xml:space="preserve">9.28585338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5894136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53584289550781</t>
+    <t xml:space="preserve">8.58941459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53584098815918</t>
   </si>
   <si>
     <t xml:space="preserve">8.62512969970703</t>
@@ -1013,127 +1013,127 @@
     <t xml:space="preserve">8.46441268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35726833343506</t>
+    <t xml:space="preserve">8.35726642608643</t>
   </si>
   <si>
     <t xml:space="preserve">8.42869758605957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25012302398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30369567871094</t>
+    <t xml:space="preserve">8.25012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30369758605957</t>
   </si>
   <si>
     <t xml:space="preserve">8.28583717346191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33941173553467</t>
+    <t xml:space="preserve">8.33940982818604</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512493133545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5001277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64298629760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41978454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77693271636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73228931427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680101394653</t>
+    <t xml:space="preserve">8.50012874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64298820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4197826385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55371475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77693176269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7322883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447931289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2680110931396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126554489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3572988510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.491229057312</t>
+    <t xml:space="preserve">10.3572978973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912300109863</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019422531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805168151855</t>
+    <t xml:space="preserve">10.5358734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019403457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805149078369</t>
   </si>
   <si>
     <t xml:space="preserve">10.22336769104</t>
   </si>
   <si>
+    <t xml:space="preserve">10.6698017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065948486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6242046356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8521919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7609987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330114364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3962173461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.213828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5786075592041</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.6698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8065958023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6242046356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8521928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7609977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330114364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3962173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5786066055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698036193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874124526978</t>
+    <t xml:space="preserve">10.4874134063721</t>
   </si>
   <si>
     <t xml:space="preserve">10.4418153762817</t>
   </si>
   <si>
-    <t xml:space="preserve">10.350622177124</t>
+    <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
     <t xml:space="preserve">10.122633934021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2594261169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0770359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.031439781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3050222396851</t>
+    <t xml:space="preserve">10.259425163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.077036857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0314388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3050231933594</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682300567627</t>
@@ -1142,28 +1142,28 @@
     <t xml:space="preserve">9.89464664459229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84904956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48426818847656</t>
+    <t xml:space="preserve">9.84904861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48426914215088</t>
   </si>
   <si>
     <t xml:space="preserve">9.43867301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52986621856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62106132507324</t>
+    <t xml:space="preserve">9.52986717224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62106037139893</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66665935516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57546520233154</t>
+    <t xml:space="preserve">9.66665840148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57546424865723</t>
   </si>
   <si>
     <t xml:space="preserve">9.25628185272217</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">9.39307403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11949062347412</t>
+    <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.71225643157959</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">11.1257772445679</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6273498535156</t>
+    <t xml:space="preserve">11.6273488998413</t>
   </si>
   <si>
     <t xml:space="preserve">11.6729469299316</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">11.3993616104126</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3081665039062</t>
+    <t xml:space="preserve">11.3081674575806</t>
   </si>
   <si>
     <t xml:space="preserve">11.0801792144775</t>
@@ -1214,22 +1214,22 @@
     <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4449605941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5817518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7185440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9465322494507</t>
+    <t xml:space="preserve">11.1713743209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4449596405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.718544960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.85533618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.946533203125</t>
   </si>
   <si>
     <t xml:space="preserve">12.0833234786987</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">12.3113107681274</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1745185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9921283721924</t>
+    <t xml:space="preserve">12.1745176315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9921293258667</t>
   </si>
   <si>
     <t xml:space="preserve">11.7641410827637</t>
@@ -1265,43 +1265,43 @@
     <t xml:space="preserve">13.2688570022583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6304931640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7216873168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4481029510498</t>
+    <t xml:space="preserve">12.6304922103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7216882705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4481039047241</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8128833770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8584804534912</t>
+    <t xml:space="preserve">12.8128824234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8584794998169</t>
   </si>
   <si>
     <t xml:space="preserve">13.0864686965942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.900933265686</t>
+    <t xml:space="preserve">11.9009342193604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7154006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02829456329346</t>
+    <t xml:space="preserve">10.7154016494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02829360961914</t>
   </si>
   <si>
     <t xml:space="preserve">8.09810733795166</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93395566940308</t>
+    <t xml:space="preserve">7.93395614624023</t>
   </si>
   <si>
     <t xml:space="preserve">7.64213228225708</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">8.006911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66351509094238</t>
+    <t xml:space="preserve">8.66351413726807</t>
   </si>
   <si>
     <t xml:space="preserve">8.07986736297607</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">8.99181747436523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3474760055542</t>
+    <t xml:space="preserve">9.34747695922852</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847978591919</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">10.0381078720093</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80466556549072</t>
+    <t xml:space="preserve">9.80466461181641</t>
   </si>
   <si>
     <t xml:space="preserve">9.85135269165039</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">9.99142074584961</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2715539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89804267883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.551685333252</t>
+    <t xml:space="preserve">10.2715530395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89804172515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5516862869263</t>
   </si>
   <si>
     <t xml:space="preserve">10.458309173584</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">10.7384414672852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0185747146606</t>
+    <t xml:space="preserve">11.018575668335</t>
   </si>
   <si>
     <t xml:space="preserve">10.8318185806274</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">11.2987089157104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.485463142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6722192764282</t>
+    <t xml:space="preserve">11.4854640960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6722183227539</t>
   </si>
   <si>
     <t xml:space="preserve">11.3453960418701</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">11.2053308486938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.438775062561</t>
+    <t xml:space="preserve">11.4387741088867</t>
   </si>
   <si>
     <t xml:space="preserve">11.1119527816772</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">10.9718866348267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652647018433</t>
+    <t xml:space="preserve">11.0652637481689</t>
   </si>
   <si>
     <t xml:space="preserve">11.5788412094116</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">11.3920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.532154083252</t>
+    <t xml:space="preserve">11.5321531295776</t>
   </si>
   <si>
     <t xml:space="preserve">11.7189092636108</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">11.8589744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1391086578369</t>
+    <t xml:space="preserve">12.1391077041626</t>
   </si>
   <si>
     <t xml:space="preserve">11.9523525238037</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">12.1857967376709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2791738510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9056644439697</t>
+    <t xml:space="preserve">12.2791748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
     <t xml:space="preserve">11.999041557312</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">12.045729637146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0924186706543</t>
+    <t xml:space="preserve">12.0924196243286</t>
   </si>
   <si>
     <t xml:space="preserve">11.8122854232788</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9795074462891</t>
+    <t xml:space="preserve">12.9795064926147</t>
   </si>
   <si>
     <t xml:space="preserve">13.2596416473389</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">13.3997087478638</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4463968276978</t>
+    <t xml:space="preserve">13.4463958740234</t>
   </si>
   <si>
     <t xml:space="preserve">13.3063297271729</t>
@@ -1508,16 +1508,16 @@
     <t xml:space="preserve">13.9132843017578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6331520080566</t>
+    <t xml:space="preserve">13.633152961731</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5593070983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0261964797974</t>
+    <t xml:space="preserve">12.559308052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0261974334717</t>
   </si>
   <si>
     <t xml:space="preserve">12.9328193664551</t>
@@ -1526,10 +1526,10 @@
     <t xml:space="preserve">12.8394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">13.53977394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8199071884155</t>
+    <t xml:space="preserve">13.5397748947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
     <t xml:space="preserve">14.0533533096313</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">14.3801746368408</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5669298171997</t>
+    <t xml:space="preserve">14.566930770874</t>
   </si>
   <si>
     <t xml:space="preserve">14.3334865570068</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7069969177246</t>
+    <t xml:space="preserve">14.7069959640503</t>
   </si>
   <si>
     <t xml:space="preserve">14.9404401779175</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">15.0338191986084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0805063247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.267261505127</t>
+    <t xml:space="preserve">15.0805072784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2672624588013</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">14.1934185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5202417373657</t>
+    <t xml:space="preserve">14.5202407836914</t>
   </si>
   <si>
     <t xml:space="preserve">13.8665981292725</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401075363159</t>
+    <t xml:space="preserve">14.2401065826416</t>
   </si>
   <si>
     <t xml:space="preserve">14.6393632888794</t>
@@ -60848,7 +60848,7 @@
     </row>
     <row r="2215">
       <c r="A2215" s="1" t="n">
-        <v>45547.6495486111</v>
+        <v>45547.2916666667</v>
       </c>
       <c r="B2215" t="n">
         <v>5079</v>
@@ -60869,6 +60869,32 @@
         <v>953</v>
       </c>
       <c r="H2215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="1" t="n">
+        <v>45548.6493055556</v>
+      </c>
+      <c r="B2216" t="n">
+        <v>4674</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>26.2999992370605</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>26.1499996185303</v>
+      </c>
+      <c r="G2216" t="s">
+        <v>957</v>
+      </c>
+      <c r="H2216" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LUVE.MI.xlsx
+++ b/data/LUVE.MI.xlsx
@@ -44,28 +44,28 @@
     <t xml:space="preserve">LUVE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43947315216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40578174591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21206092834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31734371185303</t>
+    <t xml:space="preserve">8.43947219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40578079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21206188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31734466552734</t>
   </si>
   <si>
     <t xml:space="preserve">8.19521713256836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27101802825928</t>
+    <t xml:space="preserve">8.27101898193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.29207611083984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15731334686279</t>
+    <t xml:space="preserve">8.15731430053711</t>
   </si>
   <si>
     <t xml:space="preserve">8.20363903045654</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">8.08572196960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11520099639893</t>
+    <t xml:space="preserve">8.13625717163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11520195007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.03518676757812</t>
@@ -92,25 +92,25 @@
     <t xml:space="preserve">8.02676296234131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00149536132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9930739402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9678053855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76145124435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83304500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81619691848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80356359481812</t>
+    <t xml:space="preserve">8.00149440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99307203292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96780586242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76144933700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83304357528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81619787216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80356407165527</t>
   </si>
   <si>
     <t xml:space="preserve">7.73197174072266</t>
@@ -119,37 +119,37 @@
     <t xml:space="preserve">7.66880178451538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66459131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74881601333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8835768699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91726875305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203151702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22048473358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16994762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30470943450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25417423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11941242218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07730007171631</t>
+    <t xml:space="preserve">7.66459035873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74881792068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88357925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91726779937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203056335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22048377990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16994857788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30471134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25417518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11941432952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07729911804199</t>
   </si>
   <si>
     <t xml:space="preserve">8.33840084075928</t>
@@ -158,19 +158,19 @@
     <t xml:space="preserve">8.48158550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44789409637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41420269012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32155609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27944183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42560005187988</t>
+    <t xml:space="preserve">8.44789505004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41420364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32155513763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27944087982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42560195922852</t>
   </si>
   <si>
     <t xml:space="preserve">8.48578357696533</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">8.27084541320801</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29663753509521</t>
+    <t xml:space="preserve">8.29663562774658</t>
   </si>
   <si>
     <t xml:space="preserve">8.32672882080078</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">8.2536506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23645496368408</t>
+    <t xml:space="preserve">8.23645401000977</t>
   </si>
   <si>
     <t xml:space="preserve">8.33962535858154</t>
@@ -203,115 +203,115 @@
     <t xml:space="preserve">8.33532619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32243156433105</t>
+    <t xml:space="preserve">8.32243061065674</t>
   </si>
   <si>
     <t xml:space="preserve">8.38261318206787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21066093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22785568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16767311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08169841766357</t>
+    <t xml:space="preserve">8.21066188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22785663604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16767406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08169937133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.03871154785156</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99572372436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95273494720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2450532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05160903930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86675786972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82377243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05590724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92694187164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9097466468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73779630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78078460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96133184432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31383419036865</t>
+    <t xml:space="preserve">7.99572420120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95273590087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24505138397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05160617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86675930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82377147674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05590438842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92694234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90974760055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73779582977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78078365325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96133279800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3138313293457</t>
   </si>
   <si>
     <t xml:space="preserve">8.5975513458252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64053916931152</t>
+    <t xml:space="preserve">8.64054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.64913654327393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7265157699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9156608581543</t>
+    <t xml:space="preserve">8.72651481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91566181182861</t>
   </si>
   <si>
     <t xml:space="preserve">8.84688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63194179534912</t>
+    <t xml:space="preserve">8.6319408416748</t>
   </si>
   <si>
     <t xml:space="preserve">8.66633224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59325313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895206451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68352699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70072174072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9414529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85547828674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76950168609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02742958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15639305114746</t>
+    <t xml:space="preserve">8.59325408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68352794647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70072269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94145393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85547733306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76950263977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02742862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15639209747314</t>
   </si>
   <si>
     <t xml:space="preserve">9.2337703704834</t>
@@ -320,31 +320,31 @@
     <t xml:space="preserve">9.19938087463379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24236679077148</t>
+    <t xml:space="preserve">9.24236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">9.41431999206543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32834243774414</t>
+    <t xml:space="preserve">9.32834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">9.31974697113037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20797824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22517204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44011211395264</t>
+    <t xml:space="preserve">9.20797634124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22517108917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44011116027832</t>
   </si>
   <si>
     <t xml:space="preserve">9.45730686187744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25956344604492</t>
+    <t xml:space="preserve">9.25956439971924</t>
   </si>
   <si>
     <t xml:space="preserve">9.74962329864502</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">9.62925815582275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52608776092529</t>
+    <t xml:space="preserve">9.52608585357666</t>
   </si>
   <si>
     <t xml:space="preserve">9.67224502563477</t>
@@ -365,22 +365,22 @@
     <t xml:space="preserve">9.62065982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58626937866211</t>
+    <t xml:space="preserve">9.58627033233643</t>
   </si>
   <si>
     <t xml:space="preserve">9.6808443069458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71523284912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61206245422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56047821044922</t>
+    <t xml:space="preserve">9.71523189544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61206150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55188083648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56047630310059</t>
   </si>
   <si>
     <t xml:space="preserve">9.65504932403564</t>
@@ -389,22 +389,22 @@
     <t xml:space="preserve">9.70663547515869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88718509674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2138910293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4030380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2826719284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451120376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021242141724</t>
+    <t xml:space="preserve">9.88718414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2138919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4030389785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2826709747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451101303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021223068237</t>
   </si>
   <si>
     <t xml:space="preserve">10.1279153823853</t>
@@ -413,46 +413,46 @@
     <t xml:space="preserve">10.0333423614502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0591354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1623058319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084650039673</t>
+    <t xml:space="preserve">10.0591344833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1623067855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.308464050293</t>
   </si>
   <si>
     <t xml:space="preserve">10.1880989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84419727325439</t>
+    <t xml:space="preserve">9.84419631958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85279273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.231086730957</t>
+    <t xml:space="preserve">9.85279369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2310857772827</t>
   </si>
   <si>
     <t xml:space="preserve">10.007550239563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2740726470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.44602394104</t>
+    <t xml:space="preserve">10.2740745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4460248947144</t>
   </si>
   <si>
     <t xml:space="preserve">10.6351709365845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6867561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695604324341</t>
+    <t xml:space="preserve">10.6867570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695613861084</t>
   </si>
   <si>
     <t xml:space="preserve">10.9618787765503</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">11.0736465454102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0220613479614</t>
+    <t xml:space="preserve">11.0220603942871</t>
   </si>
   <si>
     <t xml:space="preserve">11.1768169403076</t>
@@ -470,37 +470,37 @@
     <t xml:space="preserve">11.2198057174683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4433422088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6066942214966</t>
+    <t xml:space="preserve">11.443341255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6066932678223</t>
   </si>
   <si>
     <t xml:space="preserve">11.8302316665649</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7528533935547</t>
+    <t xml:space="preserve">11.7528524398804</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496829986572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614507675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8732204437256</t>
+    <t xml:space="preserve">11.7614498138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8732194900513</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505958557129</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9849872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0107793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388290405273</t>
+    <t xml:space="preserve">11.9849863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.010781288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.838828086853</t>
   </si>
   <si>
     <t xml:space="preserve">11.7700481414795</t>
@@ -512,25 +512,25 @@
     <t xml:space="preserve">11.7786455154419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7975368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9024038314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8674488067627</t>
+    <t xml:space="preserve">11.7975358963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9024028778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.867449760437</t>
   </si>
   <si>
     <t xml:space="preserve">11.8499708175659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9723148345947</t>
+    <t xml:space="preserve">11.972315788269</t>
   </si>
   <si>
     <t xml:space="preserve">12.0597047805786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0859222412109</t>
+    <t xml:space="preserve">12.0859212875366</t>
   </si>
   <si>
     <t xml:space="preserve">12.2432222366333</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">12.4966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5403451919556</t>
+    <t xml:space="preserve">12.5403442382812</t>
   </si>
   <si>
     <t xml:space="preserve">12.2344827651978</t>
@@ -551,37 +551,37 @@
     <t xml:space="preserve">12.1733112335205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0160102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9286212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8849267959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0247507095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0946598052979</t>
+    <t xml:space="preserve">12.0160093307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9286193847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8849258422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0247497558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0946588516235</t>
   </si>
   <si>
     <t xml:space="preserve">12.138355255127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2170028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257432937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2082653045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208772659302</t>
+    <t xml:space="preserve">12.2170038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257442474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635772705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2082672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208763122559</t>
   </si>
   <si>
     <t xml:space="preserve">11.9897928237915</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">12.0684442520142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0509662628174</t>
+    <t xml:space="preserve">12.0509653091431</t>
   </si>
   <si>
     <t xml:space="preserve">11.9985322952271</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">12.0422258377075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0771818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033983230591</t>
+    <t xml:space="preserve">12.0771837234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1034002304077</t>
   </si>
   <si>
     <t xml:space="preserve">11.8936653137207</t>
@@ -614,43 +614,46 @@
     <t xml:space="preserve">11.8062772750854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800588607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7451028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7014093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5353679656982</t>
+    <t xml:space="preserve">11.7800598144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7451019287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7014102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6926698684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5353698730469</t>
   </si>
   <si>
     <t xml:space="preserve">11.526629447937</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4479818344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.395546913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3605909347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3518514633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2732009887695</t>
+    <t xml:space="preserve">11.447979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3955459594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3605918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2732028961182</t>
   </si>
   <si>
     <t xml:space="preserve">11.2207689285278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431129455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2906799316406</t>
+    <t xml:space="preserve">11.3431119918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2906789779663</t>
   </si>
   <si>
     <t xml:space="preserve">11.0984230041504</t>
@@ -659,31 +662,31 @@
     <t xml:space="preserve">11.2295074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.18581199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2469854354858</t>
+    <t xml:space="preserve">11.1858139038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2469844818115</t>
   </si>
   <si>
     <t xml:space="preserve">11.2994184494019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.369330406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4829359054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6227579116821</t>
+    <t xml:space="preserve">11.3693294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4829368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6227598190308</t>
   </si>
   <si>
     <t xml:space="preserve">11.7101469039917</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5790634155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4567193984985</t>
+    <t xml:space="preserve">11.5790643692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4567184448242</t>
   </si>
   <si>
     <t xml:space="preserve">11.3256368637085</t>
@@ -692,19 +695,19 @@
     <t xml:space="preserve">11.4305038452148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3168973922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2032918930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5878028869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3868083953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4042854309082</t>
+    <t xml:space="preserve">11.3168964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2032899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5878038406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3868074417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4042863845825</t>
   </si>
   <si>
     <t xml:space="preserve">11.5091524124146</t>
@@ -713,13 +716,13 @@
     <t xml:space="preserve">11.1159019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.124641418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1683340072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557239532471</t>
+    <t xml:space="preserve">11.1246404647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1683349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557249069214</t>
   </si>
   <si>
     <t xml:space="preserve">9.88371467590332</t>
@@ -734,52 +737,52 @@
     <t xml:space="preserve">9.51668071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63028717041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64776229858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73515319824219</t>
+    <t xml:space="preserve">9.63028621673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6477632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7351541519165</t>
   </si>
   <si>
     <t xml:space="preserve">9.7438907623291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83128070831299</t>
+    <t xml:space="preserve">9.83127975463867</t>
   </si>
   <si>
     <t xml:space="preserve">9.70893669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53415775299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48172473907471</t>
+    <t xml:space="preserve">9.53415679931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48172378540039</t>
   </si>
   <si>
     <t xml:space="preserve">9.39433479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43802928924561</t>
+    <t xml:space="preserve">9.43802833557129</t>
   </si>
   <si>
     <t xml:space="preserve">9.5516357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42055225372314</t>
+    <t xml:space="preserve">9.42055320739746</t>
   </si>
   <si>
     <t xml:space="preserve">9.37685680389404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26325130462646</t>
+    <t xml:space="preserve">9.26325225830078</t>
   </si>
   <si>
     <t xml:space="preserve">9.1583833694458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34190082550049</t>
+    <t xml:space="preserve">9.3419017791748</t>
   </si>
   <si>
     <t xml:space="preserve">9.40307426452637</t>
@@ -788,16 +791,16 @@
     <t xml:space="preserve">9.84002113342285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79632472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80506324768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78758525848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380176544189</t>
+    <t xml:space="preserve">9.79632568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80506420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78758716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380271911621</t>
   </si>
   <si>
     <t xml:space="preserve">9.9011926651001</t>
@@ -806,16 +809,16 @@
     <t xml:space="preserve">9.857497215271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22829627990723</t>
+    <t xml:space="preserve">9.22829532623291</t>
   </si>
   <si>
     <t xml:space="preserve">9.07099533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28072834014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25451374053955</t>
+    <t xml:space="preserve">9.28072929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25451278686523</t>
   </si>
   <si>
     <t xml:space="preserve">9.97984218597412</t>
@@ -824,40 +827,40 @@
     <t xml:space="preserve">9.87497520446777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91866970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63902378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71767616271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72641468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61280822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56911277770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68272018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30694484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36811923980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70019626617432</t>
+    <t xml:space="preserve">10.0497531890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91867160797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397880554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63902473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71767330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72641277313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61280727386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56911373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68271923065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30694580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36811828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70019721984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.65650272369385</t>
@@ -872,97 +875,97 @@
     <t xml:space="preserve">9.04477977752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21955490112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586231231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13216781616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95738887786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8263053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00108337402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91369342803955</t>
+    <t xml:space="preserve">9.21955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13216590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95738983154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82630634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00108432769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91369533538818</t>
   </si>
   <si>
     <t xml:space="preserve">8.86999988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73891544342041</t>
+    <t xml:space="preserve">8.73891639709473</t>
   </si>
   <si>
     <t xml:space="preserve">8.72143840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78261089324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58161544799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19656562805176</t>
+    <t xml:space="preserve">8.78261184692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58161449432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19656658172607</t>
   </si>
   <si>
     <t xml:space="preserve">9.2412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15192317962646</t>
+    <t xml:space="preserve">9.15192222595215</t>
   </si>
   <si>
     <t xml:space="preserve">9.10727882385254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06263542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01799297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97334861755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89299011230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60727119445801</t>
+    <t xml:space="preserve">9.06263446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01799392700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97334957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.892991065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60727214813232</t>
   </si>
   <si>
     <t xml:space="preserve">8.83941745758057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75013160705566</t>
+    <t xml:space="preserve">8.75013065338135</t>
   </si>
   <si>
     <t xml:space="preserve">8.71441650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78584480285645</t>
+    <t xml:space="preserve">8.78584575653076</t>
   </si>
   <si>
     <t xml:space="preserve">8.73227405548096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85727500915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82156085968018</t>
+    <t xml:space="preserve">8.85727596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82155990600586</t>
   </si>
   <si>
     <t xml:space="preserve">8.87513160705566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66084384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57155799865723</t>
+    <t xml:space="preserve">8.66084480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57155609130859</t>
   </si>
   <si>
     <t xml:space="preserve">8.39298248291016</t>
@@ -974,25 +977,25 @@
     <t xml:space="preserve">8.41084003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91084671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76798725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9287052154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80370426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37514019012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50907135009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46442699432373</t>
+    <t xml:space="preserve">8.91084766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76798820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92870426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80370330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3751392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50907039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46442890167236</t>
   </si>
   <si>
     <t xml:space="preserve">9.33049774169922</t>
@@ -1007,40 +1010,40 @@
     <t xml:space="preserve">8.53584098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62512969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46441268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35726642608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42869758605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30369758605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28583717346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33940982818604</t>
+    <t xml:space="preserve">8.62512874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46441173553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35726737976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42869663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2501220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30369663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28583812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33941078186035</t>
   </si>
   <si>
     <t xml:space="preserve">8.37512493133545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50012874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64298820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4197826385498</t>
+    <t xml:space="preserve">8.5001277923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64298629760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41978359222412</t>
   </si>
   <si>
     <t xml:space="preserve">9.55371475219727</t>
@@ -1049,43 +1052,43 @@
     <t xml:space="preserve">9.77693176269531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7322883605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0447931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2680110931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126554489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4912300109863</t>
+    <t xml:space="preserve">9.73228740692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0447940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.268012046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126535415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572988510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.491229057312</t>
   </si>
   <si>
     <t xml:space="preserve">10.4465847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5358734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4019403457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805149078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22336769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698017120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065948486328</t>
+    <t xml:space="preserve">10.5358724594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4019412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233667373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698026657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065958023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6242046356201</t>
@@ -1094,10 +1097,10 @@
     <t xml:space="preserve">10.8521919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7609987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330114364624</t>
+    <t xml:space="preserve">10.7609977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330104827881</t>
   </si>
   <si>
     <t xml:space="preserve">10.3962173461914</t>
@@ -1106,25 +1109,22 @@
     <t xml:space="preserve">10.213828086853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5786075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698026657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4874134063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4418153762817</t>
+    <t xml:space="preserve">10.5786085128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4874143600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4418144226074</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506212234497</t>
   </si>
   <si>
-    <t xml:space="preserve">10.122633934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.259425163269</t>
+    <t xml:space="preserve">10.1226348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2594261169434</t>
   </si>
   <si>
     <t xml:space="preserve">10.077036857605</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">10.1682300567627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89464664459229</t>
+    <t xml:space="preserve">9.8946475982666</t>
   </si>
   <si>
     <t xml:space="preserve">9.84904861450195</t>
@@ -1154,28 +1154,28 @@
     <t xml:space="preserve">9.52986717224121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62106037139893</t>
+    <t xml:space="preserve">9.62106132507324</t>
   </si>
   <si>
     <t xml:space="preserve">9.75785446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66665840148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57546424865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25628185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16508674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30187892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21068477630615</t>
+    <t xml:space="preserve">9.66665935516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57546329498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25628089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16508769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3018798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21068572998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.39307403564453</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">9.1194896697998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71225643157959</t>
+    <t xml:space="preserve">9.71225547790527</t>
   </si>
   <si>
     <t xml:space="preserve">9.80345058441162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9402437210083</t>
+    <t xml:space="preserve">9.94024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">11.1257772445679</t>
@@ -1199,22 +1199,22 @@
     <t xml:space="preserve">11.6273488998413</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6729469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3993616104126</t>
+    <t xml:space="preserve">11.672947883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3993625640869</t>
   </si>
   <si>
     <t xml:space="preserve">11.3081674575806</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0801792144775</t>
+    <t xml:space="preserve">11.0801811218262</t>
   </si>
   <si>
     <t xml:space="preserve">11.0345830917358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1713743209839</t>
+    <t xml:space="preserve">11.1713752746582</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449596405029</t>
@@ -1229,22 +1229,22 @@
     <t xml:space="preserve">11.85533618927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.946533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0833234786987</t>
+    <t xml:space="preserve">11.9465312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.083324432373</t>
   </si>
   <si>
     <t xml:space="preserve">12.3113107681274</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1745176315308</t>
+    <t xml:space="preserve">12.1745185852051</t>
   </si>
   <si>
     <t xml:space="preserve">11.9921293258667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7641410827637</t>
+    <t xml:space="preserve">11.764142036438</t>
   </si>
   <si>
     <t xml:space="preserve">12.4937009811401</t>
@@ -1262,22 +1262,22 @@
     <t xml:space="preserve">12.9496755599976</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688570022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6304922103882</t>
+    <t xml:space="preserve">13.2688589096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6304931640625</t>
   </si>
   <si>
     <t xml:space="preserve">12.7216882705688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4481039047241</t>
+    <t xml:space="preserve">12.4481029510498</t>
   </si>
   <si>
     <t xml:space="preserve">12.5848960876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8128824234009</t>
+    <t xml:space="preserve">12.8128833770752</t>
   </si>
   <si>
     <t xml:space="preserve">12.8584794998169</t>
@@ -1298,16 +1298,16 @@
     <t xml:space="preserve">9.02829360961914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09810733795166</t>
+    <t xml:space="preserve">8.09810638427734</t>
   </si>
   <si>
     <t xml:space="preserve">7.93395614624023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64213228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.006911277771</t>
+    <t xml:space="preserve">7.64213275909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00691223144531</t>
   </si>
   <si>
     <t xml:space="preserve">8.66351413726807</t>
@@ -1319,16 +1319,16 @@
     <t xml:space="preserve">8.57231998443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73647212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79118728637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99181747436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34747695922852</t>
+    <t xml:space="preserve">8.73647117614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79118824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99181652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3474760055542</t>
   </si>
   <si>
     <t xml:space="preserve">10.0847978591919</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">9.94473075866699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0381078720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80466461181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85135269165039</t>
+    <t xml:space="preserve">10.0381088256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80466365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85135364532471</t>
   </si>
   <si>
     <t xml:space="preserve">9.99142074584961</t>
@@ -1355,28 +1355,28 @@
     <t xml:space="preserve">9.89804172515869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5516862869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.458309173584</t>
+    <t xml:space="preserve">10.5516872406006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4583082199097</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785076141357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7384414672852</t>
+    <t xml:space="preserve">10.7384405136108</t>
   </si>
   <si>
     <t xml:space="preserve">11.018575668335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8318185806274</t>
+    <t xml:space="preserve">10.8318195343018</t>
   </si>
   <si>
     <t xml:space="preserve">11.1586408615112</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7851314544678</t>
+    <t xml:space="preserve">10.7851305007935</t>
   </si>
   <si>
     <t xml:space="preserve">10.9251976013184</t>
@@ -1385,25 +1385,25 @@
     <t xml:space="preserve">10.6450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2987089157104</t>
+    <t xml:space="preserve">11.2987079620361</t>
   </si>
   <si>
     <t xml:space="preserve">11.4854640960693</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6722183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3453960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2053308486938</t>
+    <t xml:space="preserve">11.6722192764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3453969955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2053298950195</t>
   </si>
   <si>
     <t xml:space="preserve">11.4387741088867</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1119527816772</t>
+    <t xml:space="preserve">11.1119518280029</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520198822021</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">11.0652637481689</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5788412094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6255311965942</t>
+    <t xml:space="preserve">11.5788421630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6255302429199</t>
   </si>
   <si>
     <t xml:space="preserve">11.3920860290527</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">11.5321531295776</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7189092636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7655973434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8589744567871</t>
+    <t xml:space="preserve">11.7189083099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7655963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8589754104614</t>
   </si>
   <si>
     <t xml:space="preserve">12.1391077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9523525238037</t>
+    <t xml:space="preserve">11.952353477478</t>
   </si>
   <si>
     <t xml:space="preserve">12.1857967376709</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">11.9056634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.999041557312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2324867248535</t>
+    <t xml:space="preserve">11.9990425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2324857711792</t>
   </si>
   <si>
     <t xml:space="preserve">12.045729637146</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">12.8861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9795064926147</t>
+    <t xml:space="preserve">12.9795074462891</t>
   </si>
   <si>
     <t xml:space="preserve">13.2596416473389</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">13.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">13.119574546814</t>
+    <t xml:space="preserve">13.1195755004883</t>
   </si>
   <si>
     <t xml:space="preserve">13.3997087478638</t>
@@ -1490,22 +1490,22 @@
     <t xml:space="preserve">13.4463958740234</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3063297271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3530197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5864629745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4930849075317</t>
+    <t xml:space="preserve">13.3063287734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3530187606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5864639282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4930858612061</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662635803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9132843017578</t>
+    <t xml:space="preserve">13.9132852554321</t>
   </si>
   <si>
     <t xml:space="preserve">13.633152961731</t>
@@ -1514,10 +1514,10 @@
     <t xml:space="preserve">12.6993751525879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.559308052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0261974334717</t>
+    <t xml:space="preserve">12.5593090057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0261964797974</t>
   </si>
   <si>
     <t xml:space="preserve">12.9328193664551</t>
@@ -1532,19 +1532,19 @@
     <t xml:space="preserve">13.8199081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0533533096313</t>
+    <t xml:space="preserve">14.053352355957</t>
   </si>
   <si>
     <t xml:space="preserve">14.1467294692993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3801746368408</t>
+    <t xml:space="preserve">14.3801736831665</t>
   </si>
   <si>
     <t xml:space="preserve">14.566930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3334865570068</t>
+    <t xml:space="preserve">14.3334856033325</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069959640503</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">14.9404401779175</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8937511444092</t>
+    <t xml:space="preserve">14.8937520980835</t>
   </si>
   <si>
     <t xml:space="preserve">15.0338191986084</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">15.0805072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2672624588013</t>
+    <t xml:space="preserve">15.2672643661499</t>
   </si>
   <si>
     <t xml:space="preserve">14.7536849975586</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">14.1934185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5202407836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665981292725</t>
+    <t xml:space="preserve">14.5202417373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665971755981</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066623687744</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">15.173885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2401065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6393632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.591833114624</t>
+    <t xml:space="preserve">14.2401075363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6393623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5918321609497</t>
   </si>
   <si>
     <t xml:space="preserve">14.6868925094604</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">15.1146669387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1621961593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3998498916626</t>
+    <t xml:space="preserve">15.1621971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3998508453369</t>
   </si>
   <si>
     <t xml:space="preserve">15.3523187637329</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">14.8770141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5424394607544</t>
+    <t xml:space="preserve">15.542441368103</t>
   </si>
   <si>
     <t xml:space="preserve">14.9720754623413</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">15.447380065918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7325601577759</t>
+    <t xml:space="preserve">15.7325620651245</t>
   </si>
   <si>
     <t xml:space="preserve">16.3029270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9226837158203</t>
+    <t xml:space="preserve">15.9226818084717</t>
   </si>
   <si>
     <t xml:space="preserve">15.9702138900757</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">16.0177440643311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3504581451416</t>
+    <t xml:space="preserve">16.350456237793</t>
   </si>
   <si>
     <t xml:space="preserve">16.0652732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7782306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1109428405762</t>
+    <t xml:space="preserve">16.7782325744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1109447479248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3961238861084</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">17.5387191772461</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0615501403809</t>
+    <t xml:space="preserve">18.0615520477295</t>
   </si>
   <si>
     <t xml:space="preserve">17.7288379669189</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">17.0634136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8732929229736</t>
+    <t xml:space="preserve">16.873291015625</t>
   </si>
   <si>
     <t xml:space="preserve">17.348596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7763690948486</t>
+    <t xml:space="preserve">17.7763710021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.8714294433594</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">19.0121593475342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2022819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0578269958496</t>
+    <t xml:space="preserve">19.2022838592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0578289031982</t>
   </si>
   <si>
     <t xml:space="preserve">19.8677062988281</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">19.4874629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3924007415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9627685546875</t>
+    <t xml:space="preserve">19.3924026489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9627666473389</t>
   </si>
   <si>
     <t xml:space="preserve">19.5825233459473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7726440429688</t>
+    <t xml:space="preserve">19.7726459503174</t>
   </si>
   <si>
     <t xml:space="preserve">20.152889251709</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">20.6281929016113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2936191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5788021087646</t>
+    <t xml:space="preserve">21.2936172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.578800201416</t>
   </si>
   <si>
     <t xml:space="preserve">21.3886795043945</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">21.7689228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034965515137</t>
+    <t xml:space="preserve">21.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">22.1491641998291</t>
@@ -1778,22 +1778,22 @@
     <t xml:space="preserve">22.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0541038513184</t>
+    <t xml:space="preserve">22.054105758667</t>
   </si>
   <si>
     <t xml:space="preserve">22.3392887115479</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6244697570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8145923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9590454101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8639831542969</t>
+    <t xml:space="preserve">22.6244678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8145904541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9590435028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8639812469482</t>
   </si>
   <si>
     <t xml:space="preserve">20.5331325531006</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">18.5843849182129</t>
   </si>
   <si>
-    <t xml:space="preserve">19.297342300415</t>
+    <t xml:space="preserve">19.2973403930664</t>
   </si>
   <si>
     <t xml:space="preserve">20.9133758544922</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">22.2442264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0997714996338</t>
+    <t xml:space="preserve">23.0997734069824</t>
   </si>
   <si>
     <t xml:space="preserve">22.9096527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4837398529053</t>
+    <t xml:space="preserve">21.4837417602539</t>
   </si>
   <si>
     <t xml:space="preserve">21.0084362030029</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">20.3430118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0047149658203</t>
+    <t xml:space="preserve">23.0047130584717</t>
   </si>
   <si>
     <t xml:space="preserve">22.5294094085693</t>
@@ -1844,22 +1844,22 @@
     <t xml:space="preserve">20.2479496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7232532501221</t>
+    <t xml:space="preserve">20.7232513427734</t>
   </si>
   <si>
     <t xml:space="preserve">21.1985569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6775875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1072196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2060050964355</t>
+    <t xml:space="preserve">19.6775856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1072216033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6319160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2060070037842</t>
   </si>
   <si>
     <t xml:space="preserve">17.9189605712891</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">18.0140209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6337757110596</t>
+    <t xml:space="preserve">17.6337776184082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1566123962402</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">18.2041435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5368537902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1547508239746</t>
+    <t xml:space="preserve">18.5368556976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.154748916626</t>
   </si>
   <si>
     <t xml:space="preserve">18.9170989990234</t>
@@ -1892,19 +1892,19 @@
     <t xml:space="preserve">18.4798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4988307952881</t>
+    <t xml:space="preserve">18.4988288879395</t>
   </si>
   <si>
     <t xml:space="preserve">18.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3847599029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2498092651367</t>
+    <t xml:space="preserve">18.2136478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3847579956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2498111724854</t>
   </si>
   <si>
     <t xml:space="preserve">20.5806617736816</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">20.3905410766602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4856033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4380702972412</t>
+    <t xml:space="preserve">20.4856014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4380722045898</t>
   </si>
   <si>
     <t xml:space="preserve">18.7650012969971</t>
@@ -1928,25 +1928,25 @@
     <t xml:space="preserve">17.4531631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1333637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249195098877</t>
+    <t xml:space="preserve">17.1333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249214172363</t>
   </si>
   <si>
     <t xml:space="preserve">18.2962627410889</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2071990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.703275680542</t>
+    <t xml:space="preserve">19.2072010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7032775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8777122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3816337585449</t>
+    <t xml:space="preserve">19.3816356658936</t>
   </si>
   <si>
     <t xml:space="preserve">19.265344619751</t>
@@ -1958,37 +1958,37 @@
     <t xml:space="preserve">19.1878185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2265815734863</t>
+    <t xml:space="preserve">19.226583480835</t>
   </si>
   <si>
     <t xml:space="preserve">20.3022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.350715637207</t>
+    <t xml:space="preserve">20.3507175445557</t>
   </si>
   <si>
     <t xml:space="preserve">20.8352584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2228908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.447624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7383480072021</t>
+    <t xml:space="preserve">21.2228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7383499145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8043384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8661766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8001861572266</t>
+    <t xml:space="preserve">21.8043403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.866174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8001842498779</t>
   </si>
   <si>
     <t xml:space="preserve">18.9940013885498</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">19.5754528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6239070892334</t>
+    <t xml:space="preserve">19.6239051818848</t>
   </si>
   <si>
     <t xml:space="preserve">19.0909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9746208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6723575592041</t>
+    <t xml:space="preserve">18.9746189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.1296730041504</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">19.0521469116211</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2538089752197</t>
+    <t xml:space="preserve">20.2538070678711</t>
   </si>
   <si>
     <t xml:space="preserve">20.7868041992188</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">21.4167060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1919727325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.465160369873</t>
+    <t xml:space="preserve">22.1919708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7074317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4651584625244</t>
   </si>
   <si>
     <t xml:space="preserve">22.0950622558594</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">22.2404270172119</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6105213165283</t>
+    <t xml:space="preserve">21.610523223877</t>
   </si>
   <si>
     <t xml:space="preserve">22.04660987854</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">19.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1569004058838</t>
+    <t xml:space="preserve">20.1568984985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.562068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.257963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7734203338623</t>
+    <t xml:space="preserve">23.2579612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">22.4826965332031</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">22.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6765117645264</t>
+    <t xml:space="preserve">22.676513671875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3682518005371</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">21.1744365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3156433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.76926612854</t>
+    <t xml:space="preserve">18.3156452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1102905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7692680358887</t>
   </si>
   <si>
     <t xml:space="preserve">20.0115375518799</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">21.7558860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9672374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5486869812012</t>
+    <t xml:space="preserve">22.9672393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5486850738525</t>
   </si>
   <si>
     <t xml:space="preserve">23.0641441345215</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">24.4693145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7600383758545</t>
+    <t xml:space="preserve">24.7600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">25.6806659698486</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">24.1301345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2754955291748</t>
+    <t xml:space="preserve">24.2754974365234</t>
   </si>
   <si>
     <t xml:space="preserve">25.4383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.905403137207</t>
+    <t xml:space="preserve">24.9054012298584</t>
   </si>
   <si>
     <t xml:space="preserve">25.2930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7291202545166</t>
+    <t xml:space="preserve">25.729118347168</t>
   </si>
   <si>
     <t xml:space="preserve">25.7775745391846</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">26.2136611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2796497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1827430725098</t>
+    <t xml:space="preserve">27.2796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">25.4868488311768</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">24.9538536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1961269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6322116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1167545318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1652069091797</t>
+    <t xml:space="preserve">25.1961250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6322135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1167526245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1652088165283</t>
   </si>
   <si>
     <t xml:space="preserve">26.4559307098389</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">26.6497478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8260288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310567855835</t>
+    <t xml:space="preserve">25.8260269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">25.9713897705078</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">27.4734687805176</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5703754425049</t>
+    <t xml:space="preserve">27.5703773498535</t>
   </si>
   <si>
     <t xml:space="preserve">29.072452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7683448791504</t>
+    <t xml:space="preserve">30.768346786499</t>
   </si>
   <si>
     <t xml:space="preserve">30.3322582244873</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">29.5569915771484</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6054458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5085411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.120906829834</t>
+    <t xml:space="preserve">29.605447769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1209049224854</t>
   </si>
   <si>
     <t xml:space="preserve">29.4116306304932</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">28.2971878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7023544311523</t>
+    <t xml:space="preserve">29.702356338501</t>
   </si>
   <si>
     <t xml:space="preserve">28.2487316131592</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">29.8477172851562</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4776229858398</t>
+    <t xml:space="preserve">30.4776210784912</t>
   </si>
   <si>
     <t xml:space="preserve">30.1868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1559810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7198925018311</t>
+    <t xml:space="preserve">31.1559791564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">30.1384429931641</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">29.9930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2353496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6363639831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7332725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4600849151611</t>
+    <t xml:space="preserve">30.2353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7332744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">27.344783782959</t>
@@ -13468,7 +13468,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G392" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13494,7 +13494,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G393" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13520,7 +13520,7 @@
         <v>13.1899995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13546,7 +13546,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13572,7 +13572,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G396" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13598,7 +13598,7 @@
         <v>13</v>
       </c>
       <c r="G397" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13624,7 +13624,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G398" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13650,7 +13650,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G399" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13676,7 +13676,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G400" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13702,7 +13702,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G401" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13728,7 +13728,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G402" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13754,7 +13754,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G403" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13780,7 +13780,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G404" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13806,7 +13806,7 @@
         <v>13</v>
       </c>
       <c r="G405" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13832,7 +13832,7 @@
         <v>13</v>
       </c>
       <c r="G406" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13858,7 +13858,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G407" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13884,7 +13884,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13910,7 +13910,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G409" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13936,7 +13936,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G410" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13962,7 +13962,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G411" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13988,7 +13988,7 @@
         <v>13.0100002288818</v>
       </c>
       <c r="G412" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14014,7 +14014,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G413" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14040,7 +14040,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G414" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14066,7 +14066,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G415" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14092,7 +14092,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G416" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14118,7 +14118,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G417" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14144,7 +14144,7 @@
         <v>13.25</v>
       </c>
       <c r="G418" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14170,7 +14170,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G419" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14196,7 +14196,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G420" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14222,7 +14222,7 @@
         <v>13</v>
       </c>
       <c r="G421" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14248,7 +14248,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G422" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14274,7 +14274,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G423" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14300,7 +14300,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G424" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14326,7 +14326,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G425" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14352,7 +14352,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G426" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14378,7 +14378,7 @@
         <v>13.0100002288818</v>
       </c>
       <c r="G427" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14404,7 +14404,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G428" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14430,7 +14430,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G429" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14456,7 +14456,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G430" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14482,7 +14482,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G431" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14508,7 +14508,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G432" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14534,7 +14534,7 @@
         <v>13.1700000762939</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14560,7 +14560,7 @@
         <v>13</v>
       </c>
       <c r="G434" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14586,7 +14586,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G435" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14612,7 +14612,7 @@
         <v>12.7299995422363</v>
       </c>
       <c r="G436" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14638,7 +14638,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G437" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14664,7 +14664,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G438" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14690,7 +14690,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G439" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14716,7 +14716,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G440" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14742,7 +14742,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G441" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14768,7 +14768,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G442" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14794,7 +14794,7 @@
         <v>10.4700002670288</v>
       </c>
       <c r="G443" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14820,7 +14820,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G444" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14846,7 +14846,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G445" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14872,7 +14872,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G446" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14898,7 +14898,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G447" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14924,7 +14924,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G448" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14950,7 +14950,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G449" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14976,7 +14976,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G450" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15002,7 +15002,7 @@
         <v>11.25</v>
       </c>
       <c r="G451" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15028,7 +15028,7 @@
         <v>11.1099996566772</v>
       </c>
       <c r="G452" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15054,7 +15054,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G453" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15080,7 +15080,7 @@
         <v>11.25</v>
       </c>
       <c r="G454" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15106,7 +15106,7 @@
         <v>10.9099998474121</v>
       </c>
       <c r="G455" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15132,7 +15132,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G456" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15158,7 +15158,7 @@
         <v>10.75</v>
       </c>
       <c r="G457" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15184,7 +15184,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15210,7 +15210,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G459" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15236,7 +15236,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G460" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15262,7 +15262,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G461" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15288,7 +15288,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G462" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15314,7 +15314,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G463" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15340,7 +15340,7 @@
         <v>10.4799995422363</v>
       </c>
       <c r="G464" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15366,7 +15366,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G465" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15392,7 +15392,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G466" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15418,7 +15418,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G467" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15444,7 +15444,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G468" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15470,7 +15470,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G469" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15496,7 +15496,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15522,7 +15522,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G471" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15548,7 +15548,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G472" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15574,7 +15574,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G473" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15600,7 +15600,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G474" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15626,7 +15626,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G475" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15652,7 +15652,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G476" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15678,7 +15678,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G477" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15704,7 +15704,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G478" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15730,7 +15730,7 @@
         <v>10.75</v>
       </c>
       <c r="G479" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15756,7 +15756,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G480" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15782,7 +15782,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G481" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15808,7 +15808,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G482" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15834,7 +15834,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G483" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15860,7 +15860,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G484" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15886,7 +15886,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G485" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15912,7 +15912,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G486" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15938,7 +15938,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G487" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15964,7 +15964,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G488" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15990,7 +15990,7 @@
         <v>11.5</v>
       </c>
       <c r="G489" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16016,7 +16016,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G490" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16042,7 +16042,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16068,7 +16068,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G492" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16094,7 +16094,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G493" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16120,7 +16120,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G494" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16146,7 +16146,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G495" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16172,7 +16172,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G496" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16198,7 +16198,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G497" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16224,7 +16224,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G498" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16250,7 +16250,7 @@
         <v>11.25</v>
       </c>
       <c r="G499" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16276,7 +16276,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G500" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16302,7 +16302,7 @@
         <v>11</v>
       </c>
       <c r="G501" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16328,7 +16328,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G502" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16354,7 +16354,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G503" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16380,7 +16380,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G504" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16406,7 +16406,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16432,7 +16432,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16458,7 +16458,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G507" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16484,7 +16484,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G508" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16510,7 +16510,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G509" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16536,7 +16536,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G510" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16562,7 +16562,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G511" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16588,7 +16588,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16614,7 +16614,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G513" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16640,7 +16640,7 @@
         <v>10.75</v>
       </c>
       <c r="G514" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16666,7 +16666,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16692,7 +16692,7 @@
         <v>10.75</v>
       </c>
       <c r="G516" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16718,7 +16718,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G517" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16744,7 +16744,7 @@
         <v>11</v>
       </c>
       <c r="G518" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16770,7 +16770,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G519" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16796,7 +16796,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G520" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16822,7 +16822,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G521" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16848,7 +16848,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G522" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16874,7 +16874,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G523" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16900,7 +16900,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G524" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16926,7 +16926,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G525" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16952,7 +16952,7 @@
         <v>11.25</v>
       </c>
       <c r="G526" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16978,7 +16978,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17004,7 +17004,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G528" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17030,7 +17030,7 @@
         <v>11.25</v>
       </c>
       <c r="G529" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17056,7 +17056,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G530" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17082,7 +17082,7 @@
         <v>11.5</v>
       </c>
       <c r="G531" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17108,7 +17108,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G532" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17134,7 +17134,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G533" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17160,7 +17160,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G534" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17186,7 +17186,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17212,7 +17212,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G536" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17238,7 +17238,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17264,7 +17264,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G538" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17290,7 +17290,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G539" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17316,7 +17316,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G540" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17342,7 +17342,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G541" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17368,7 +17368,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G542" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17394,7 +17394,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17420,7 +17420,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G544" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17446,7 +17446,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17472,7 +17472,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G546" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17498,7 +17498,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17524,7 +17524,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G548" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17550,7 +17550,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G549" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17576,7 +17576,7 @@
         <v>10.5</v>
       </c>
       <c r="G550" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17602,7 +17602,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G551" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17628,7 +17628,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17654,7 +17654,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G553" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17680,7 +17680,7 @@
         <v>10.25</v>
       </c>
       <c r="G554" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17706,7 +17706,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17732,7 +17732,7 @@
         <v>10.25</v>
       </c>
       <c r="G556" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17758,7 +17758,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17784,7 +17784,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17810,7 +17810,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G559" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17836,7 +17836,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G560" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17862,7 +17862,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17888,7 +17888,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17914,7 +17914,7 @@
         <v>10.5</v>
       </c>
       <c r="G563" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17940,7 +17940,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G564" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17966,7 +17966,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G565" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17992,7 +17992,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G566" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18018,7 +18018,7 @@
         <v>10.25</v>
       </c>
       <c r="G567" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18044,7 +18044,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G568" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18070,7 +18070,7 @@
         <v>10.25</v>
       </c>
       <c r="G569" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18096,7 +18096,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G570" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18122,7 +18122,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G571" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18148,7 +18148,7 @@
         <v>10</v>
       </c>
       <c r="G572" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18174,7 +18174,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G573" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18200,7 +18200,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G574" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18226,7 +18226,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18252,7 +18252,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18278,7 +18278,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G577" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18304,7 +18304,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G578" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18330,7 +18330,7 @@
         <v>10</v>
       </c>
       <c r="G579" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18356,7 +18356,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G580" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18382,7 +18382,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18408,7 +18408,7 @@
         <v>10.25</v>
       </c>
       <c r="G582" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18434,7 +18434,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G583" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18460,7 +18460,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18486,7 +18486,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18512,7 +18512,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18538,7 +18538,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18564,7 +18564,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G588" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18590,7 +18590,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G589" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18616,7 +18616,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G590" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18642,7 +18642,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G591" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18668,7 +18668,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G592" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18694,7 +18694,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18720,7 +18720,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G594" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18746,7 +18746,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G595" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18772,7 +18772,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18798,7 +18798,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18824,7 +18824,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18850,7 +18850,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18876,7 +18876,7 @@
         <v>10.25</v>
       </c>
       <c r="G600" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18902,7 +18902,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18928,7 +18928,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18954,7 +18954,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G603" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18980,7 +18980,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19006,7 +19006,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19032,7 +19032,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19058,7 +19058,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19084,7 +19084,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19110,7 +19110,7 @@
         <v>10.25</v>
       </c>
       <c r="G609" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19136,7 +19136,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19162,7 +19162,7 @@
         <v>10.25</v>
       </c>
       <c r="G611" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19188,7 +19188,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G612" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19214,7 +19214,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G613" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19240,7 +19240,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G614" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19266,7 +19266,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G615" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19292,7 +19292,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G616" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19318,7 +19318,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G617" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19344,7 +19344,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G618" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19370,7 +19370,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G619" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19396,7 +19396,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G620" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19422,7 +19422,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G621" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19448,7 +19448,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G622" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19474,7 +19474,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19500,7 +19500,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G624" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19526,7 +19526,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19552,7 +19552,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19578,7 +19578,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G627" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19604,7 +19604,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19630,7 +19630,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G629" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19656,7 +19656,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G630" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19682,7 +19682,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G631" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19708,7 +19708,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G632" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19734,7 +19734,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G633" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19760,7 +19760,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19786,7 +19786,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G635" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19812,7 +19812,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G636" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19838,7 +19838,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G637" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19864,7 +19864,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G638" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19890,7 +19890,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G639" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19916,7 +19916,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G640" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19942,7 +19942,7 @@
         <v>10</v>
       </c>
       <c r="G641" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19968,7 +19968,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G642" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19994,7 +19994,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20020,7 +20020,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G644" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20046,7 +20046,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G645" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20072,7 +20072,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20098,7 +20098,7 @@
         <v>10</v>
       </c>
       <c r="G647" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20124,7 +20124,7 @@
         <v>10</v>
       </c>
       <c r="G648" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20150,7 +20150,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G649" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20176,7 +20176,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G650" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20202,7 +20202,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G651" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20228,7 +20228,7 @@
         <v>10</v>
       </c>
       <c r="G652" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20254,7 +20254,7 @@
         <v>10</v>
       </c>
       <c r="G653" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20280,7 +20280,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G654" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20306,7 +20306,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G655" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20332,7 +20332,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G656" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20358,7 +20358,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G657" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20384,7 +20384,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G658" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20410,7 +20410,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G659" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20436,7 +20436,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G660" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20462,7 +20462,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G661" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20488,7 +20488,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G662" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20514,7 +20514,7 @@
         <v>10</v>
       </c>
       <c r="G663" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20540,7 +20540,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G664" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20566,7 +20566,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20592,7 +20592,7 @@
         <v>10.25</v>
       </c>
       <c r="G666" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20618,7 +20618,7 @@
         <v>10</v>
       </c>
       <c r="G667" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20644,7 +20644,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20670,7 +20670,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G669" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20696,7 +20696,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G670" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20722,7 +20722,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G671" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20748,7 +20748,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G672" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20774,7 +20774,7 @@
         <v>10</v>
       </c>
       <c r="G673" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20800,7 +20800,7 @@
         <v>10</v>
       </c>
       <c r="G674" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20826,7 +20826,7 @@
         <v>10</v>
       </c>
       <c r="G675" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20852,7 +20852,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G676" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20878,7 +20878,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G677" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20904,7 +20904,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20930,7 +20930,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G679" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20956,7 +20956,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20982,7 +20982,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G681" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21008,7 +21008,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G682" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21034,7 +21034,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G683" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21060,7 +21060,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21086,7 +21086,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G685" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21112,7 +21112,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G686" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21138,7 +21138,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G687" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21164,7 +21164,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21190,7 +21190,7 @@
         <v>10</v>
       </c>
       <c r="G689" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21216,7 +21216,7 @@
         <v>10</v>
       </c>
       <c r="G690" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21242,7 +21242,7 @@
         <v>10</v>
       </c>
       <c r="G691" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21268,7 +21268,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21294,7 +21294,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G693" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21320,7 +21320,7 @@
         <v>10</v>
       </c>
       <c r="G694" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21346,7 +21346,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G695" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21372,7 +21372,7 @@
         <v>10</v>
       </c>
       <c r="G696" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21398,7 +21398,7 @@
         <v>10</v>
       </c>
       <c r="G697" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21424,7 +21424,7 @@
         <v>10.5</v>
       </c>
       <c r="G698" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21450,7 +21450,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21476,7 +21476,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21502,7 +21502,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21528,7 +21528,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G702" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21554,7 +21554,7 @@
         <v>10.25</v>
       </c>
       <c r="G703" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21580,7 +21580,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G704" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21606,7 +21606,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21632,7 +21632,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21658,7 +21658,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21684,7 +21684,7 @@
         <v>10</v>
       </c>
       <c r="G708" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21710,7 +21710,7 @@
         <v>10</v>
       </c>
       <c r="G709" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21736,7 +21736,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G710" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21762,7 +21762,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G711" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21788,7 +21788,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G712" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21814,7 +21814,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G713" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21840,7 +21840,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G714" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21866,7 +21866,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G715" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21892,7 +21892,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G716" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21918,7 +21918,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21944,7 +21944,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G718" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21970,7 +21970,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21996,7 +21996,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G720" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22022,7 +22022,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G721" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22048,7 +22048,7 @@
         <v>10</v>
       </c>
       <c r="G722" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22074,7 +22074,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G723" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22100,7 +22100,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G724" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22126,7 +22126,7 @@
         <v>10</v>
       </c>
       <c r="G725" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22152,7 +22152,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G726" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22178,7 +22178,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G727" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22204,7 +22204,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G728" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22230,7 +22230,7 @@
         <v>10</v>
       </c>
       <c r="G729" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22256,7 +22256,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G730" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22282,7 +22282,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G731" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22308,7 +22308,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G732" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22334,7 +22334,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G733" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22360,7 +22360,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G734" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22386,7 +22386,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G735" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22412,7 +22412,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G736" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22438,7 +22438,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G737" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22464,7 +22464,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G738" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22490,7 +22490,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G739" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22516,7 +22516,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G740" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22542,7 +22542,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G741" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22568,7 +22568,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G742" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22594,7 +22594,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22620,7 +22620,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G744" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22646,7 +22646,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G745" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22672,7 +22672,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G746" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22698,7 +22698,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G747" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22724,7 +22724,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G748" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22750,7 +22750,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G749" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22776,7 +22776,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G750" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22802,7 +22802,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G751" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22828,7 +22828,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G752" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22854,7 +22854,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G753" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22880,7 +22880,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G754" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22906,7 +22906,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G755" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22932,7 +22932,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G756" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22958,7 +22958,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G757" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22984,7 +22984,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G758" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23010,7 +23010,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G759" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23036,7 +23036,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G760" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23062,7 +23062,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G761" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23088,7 +23088,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G762" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23114,7 +23114,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G763" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23140,7 +23140,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G764" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23166,7 +23166,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G765" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23192,7 +23192,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G766" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23218,7 +23218,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G767" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23244,7 +23244,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G768" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23270,7 +23270,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G769" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23296,7 +23296,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G770" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23322,7 +23322,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23348,7 +23348,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G772" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23374,7 +23374,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G773" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23400,7 +23400,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G774" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23426,7 +23426,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G775" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23452,7 +23452,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r